--- a/manish/courseLaw/LMR/Workbook1.xlsx
+++ b/manish/courseLaw/LMR/Workbook1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Contracts" sheetId="1" r:id="rId1"/>
@@ -46,8 +46,64 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+Under the law of torts DEFAMATION is a false statement of material fact of or about the plaintiff published to another party causing damage to the plaintiff's reputation. If the statement involves innuendo, interpretation, or knowledge of extrinsic facts it is DEFAMATION PER QUOD. Oral defamation is SLANDER and written or recorded defamation is LIBEL.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+A false statement may be PRIVILEGED if the defendant speaks to defend a private interest, group interest or the public interest and does so without malice and in a reasonable manner calculated to defend that interest without unnecessarily harming the plaintiff.
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="124">
   <si>
     <t>FORMATION OF CONTRACT</t>
   </si>
@@ -517,12 +573,96 @@
   <si>
     <t>that reasonable person would find embarrassing.</t>
   </si>
+  <si>
+    <t>D. DEFAMATION</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>False Statement</t>
+  </si>
+  <si>
+    <t>Published</t>
+  </si>
+  <si>
+    <t>Causing Damage to Reputation</t>
+  </si>
+  <si>
+    <t>Types</t>
+  </si>
+  <si>
+    <t>Slander /</t>
+  </si>
+  <si>
+    <t>Libel</t>
+  </si>
+  <si>
+    <t>Slander is spoken or oral</t>
+  </si>
+  <si>
+    <t>Libel is written</t>
+  </si>
+  <si>
+    <t>Privileged</t>
+  </si>
+  <si>
+    <t>Example of Essay</t>
+  </si>
+  <si>
+    <t>1. IRAC Defamation</t>
+  </si>
+  <si>
+    <t>2. Were there false statement of facts?</t>
+  </si>
+  <si>
+    <t>3. Were the statements about the plaintiff?</t>
+  </si>
+  <si>
+    <t>4. Did it was Published?</t>
+  </si>
+  <si>
+    <t>to defend</t>
+  </si>
+  <si>
+    <t>private interest, group interest, public interest.</t>
+  </si>
+  <si>
+    <t>without malice</t>
+  </si>
+  <si>
+    <t>reasonable manner</t>
+  </si>
+  <si>
+    <t>to keep interest and no harm to plaintiff</t>
+  </si>
+  <si>
+    <t>Defamation Per Quod</t>
+  </si>
+  <si>
+    <t>Defamation Per Se</t>
+  </si>
+  <si>
+    <t>Innuendo, interpretation or knowledge of extrinsic facts</t>
+  </si>
+  <si>
+    <t>5. Were statements were Damaging the Reputation</t>
+  </si>
+  <si>
+    <t>6. Did Plaintiff suffered Damages?</t>
+  </si>
+  <si>
+    <t>7. Is Plaintiff a Public Figure Plaintiff?</t>
+  </si>
+  <si>
+    <t>8. Can Plaintiff prove Actual Malice?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -553,6 +693,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -910,14 +1061,130 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="2" max="3" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C10" s="2"/>
+      <c r="F10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -925,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/manish/courseLaw/LMR/Workbook1.xlsx
+++ b/manish/courseLaw/LMR/Workbook1.xlsx
@@ -98,12 +98,34 @@
         </r>
       </text>
     </comment>
+    <comment ref="B12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+Injury to reputation will be presumed where there is LIBEL or SLANDER PER SE. SLANDER PER SE is found where the false statement alleges CRIMINAL behavior, LOATHSOME disease, UNCHASTE behavior or improper BUSINESS practices. [CLUB] Important!</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="134">
   <si>
     <t>FORMATION OF CONTRACT</t>
   </si>
@@ -656,6 +678,36 @@
   </si>
   <si>
     <t>8. Can Plaintiff prove Actual Malice?</t>
+  </si>
+  <si>
+    <t>Injury to Reputation iff</t>
+  </si>
+  <si>
+    <t>Libel per se or</t>
+  </si>
+  <si>
+    <t>Slandar per se</t>
+  </si>
+  <si>
+    <t>Slander Per Se</t>
+  </si>
+  <si>
+    <t>Where False Statement is</t>
+  </si>
+  <si>
+    <t>CRIMINAL behavior</t>
+  </si>
+  <si>
+    <t>LOATHSOME disease</t>
+  </si>
+  <si>
+    <t>UNCHASTE behavior</t>
+  </si>
+  <si>
+    <t>improper BUSINESS practices</t>
+  </si>
+  <si>
+    <t>CLUB</t>
   </si>
 </sst>
 </file>
@@ -1062,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1173,6 +1225,9 @@
       <c r="B12" s="1" t="s">
         <v>118</v>
       </c>
+      <c r="C12" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="F12" t="s">
         <v>123</v>
       </c>
@@ -1180,6 +1235,43 @@
     <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>119</v>
+      </c>
+      <c r="B14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/manish/courseLaw/LMR/Workbook1.xlsx
+++ b/manish/courseLaw/LMR/Workbook1.xlsx
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="182">
   <si>
     <t>FORMATION OF CONTRACT</t>
   </si>
@@ -709,12 +709,192 @@
   <si>
     <t>CLUB</t>
   </si>
+  <si>
+    <t xml:space="preserve">Sample Answer 16-4: Defamation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WILSON v. BARBARA 1) DEFAMATION? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under the law of torts DEFAMATION is a false statement of material fact of or about the plaintiff published to another party causing damage to the plaintiff's reputation. If the statement involves innuendo, interpretation, or knowledge of extrinsic facts it is DEFAMATION PER QUOD. Oral defamation is SLANDER and written or recorded defamation is LIBEL. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A false statement may be PRIVILEGED if the defendant speaks to defend a private interest, group interest or the public interest and does so without malice and in a reasonable manner calculated to defend that interest without unnecessarily harming the plaintiff. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore, if Wilson can establish a prima facie case, and that Barbara was not privileged, Barbara can be liable for defamation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2) Were there FALSE STATEMENTS OF FACT? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To establish a prima facie case, Wilson must show Barbara's objectionable comments were false. Her comments about his physical appearance, the slurred speech and bloodshot eyes, would be true and not defamatory because they do not, by themselves, cause loss of reputation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wilson's denial that he had been drinking might not be credible enough to prove the point. He may have difficulty proving factually that he had not been drinking. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore, Wilson may not be able to prove the remarks were false. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3) Were the STATEMENTS ABOUT THE PLAINTIFF? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here Barbara might say her remarks were not clearly about Wilson because she only said "someone" had done something. But the context within which the remarks were made, comments on an interview with Wilson and his physical appearance, made it clear Barbara's statements were about Wilson. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The statement involved innuendo and required extrinsic facts and interpretation because it referred to "his old ways." Therefore Barbara would argue this was a defamation PER QUOD, if at all. But Wilson would argue that since the remarks were made along with observations about "slurred speech" and "bloodshot eyes" viewers would interpret this as a reference to prior drinking problems even if they had no prior knowledge of extrinsic facts. Wilson would argue this was defamation PER SE. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore, the remarks would reasonably be interpreted to be about Wilson. </t>
+  </si>
+  <si>
+    <t>4) Did Barbara PUBLISH her remarks?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here Barbara clearly published her remarks because they were made "on TV." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5) Were the statements DAMAGING TO REPUTATION? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A statement that Wilson had become an alcoholic would be damaging to reputation because alcoholism is generally seen as a character flaw and undesirable in a person placed in a position of responsibility. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore, the remarks were damaging to reputation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6) Did Wilson SUFFER DAMAGE? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under the law of torts DEFAMATION PER QUOD requires proof of SPECIAL DAMAGES before GENERAL DAMAGES will be presumed. Special damages will be presumed in a slander per se concerning criminal acts, a loathsome disease, unchaste behavior or improper business practices. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here Wilson might argue that the claim he was alcoholic is equivalent to accusation of a loathsome disease. Barbara would dispute this, but alcoholism often is seen as a disease that might cause others to avoid the plaintiff. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbara would argue that her statements were not defamatory on their face (not per se) because they involved innuendo and required interpretation. Wilson would dispute this. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wilson would argue he had suffered SPECIAL DAMAGES because his "popularity fell" and he did not get a position he wanted. Barbara would argue that this did not damage Wilson because he was a "former" politician and "almost a recluse." Further, she would argue that Wilson "had little chance" of getting the post, so her broadcast did not cause his loss. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore, damages may be presumed, or Wilson may be able to prove damages. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7) Is Wilson a PUBLIC FIGURE PLAINTIFF? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under New York Times v. Sullivan a plaintiff that is a public figure must prove actual malice, statements made with knowledge or reckless disregard for their falsity. A public figure is one who injects themselves into the public arena. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here Wilson had been inactive in the public arena because he was "almost a recluse" and only a "former governor." Barbara would argue that Wilson agreed to be "interviewed at his home" for a "TV" show, and hoped to become the "State Republican Chair." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore, Wilson had been in the public eye, was placing himself in the public arena by willingly being interviewed, and was a public figure. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8) Can Wilson prove ACTUAL MALICE? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual malice means statements made with knowledge of or reckless disregard for their falsity. Reckless disregard means intentionally acting without awareness and with negligent disregard for the clear and serious risk to others. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here Barbara did not act with knowledge her statement was false because she "suspected" it was true. But there was a clear risk of injury to Wilson because she made comments "on TV" that would damage him. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wilson would argue she acted with a reckless disregard of whether her comments were true or not because she had an opportunity to ask Wilson and "did not ask." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbara would argue it was not reckless disregard because Wilson would only have denied drinking. She would show that no further effort on her part would have clarified the matter any further. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore, Barbara probably would be held to have not acted with actual malice. </t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Bold"/>
+      </rPr>
+      <t xml:space="preserve">ANSWER EXPLANATION: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman"/>
+      </rPr>
+      <t xml:space="preserve">This question requires discussion of defamation actions by public figures. It is an example of defamation using innuendo, interpretation (COLLOQUIUM) or knowledge of extrinsic facts (INDUCEMENT). </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A definition and discussion of actual malice is necessary. Actual malice may be based on recklessness. When it comes to recklessness, this question is a wobbler because Barbara clearly could have asked and then reported "Wilson denies a drinking problem." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If Wilson was not a public figure, he would only have to prove the falsity of Barbara’s statements and that they were of the sort that would damage his reputation. Barbara might then claim she was PRIVILEGED to make the statements, even if they were false. But she would have to prove she acted in a ‘reasonable manner’ without malice to protect the public interest. But she would not be able to prove that because it is not clear what “public interest” she is protecting, and it would not be reasonable to make damning statements of this type on TV about a private individual without at least questioning the person about it first directly. </t>
+  </si>
+  <si>
+    <r>
+      <t>PRIVILEGE is frequently tested and poorly taught so be sure to consider it in any defamation question. Did the defendant have a legitimate reason to speak out, and did they do it in a reasonable manner? The 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman"/>
+      </rPr>
+      <t xml:space="preserve">st </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman"/>
+      </rPr>
+      <t xml:space="preserve">Amendment does not protect defamatory statements, but it does protect the right to speak out to protect legitimate interests, as long as the defendant acts reasonably and without malice. Privilege defines the balance between these two conflicting rules of law.] </t>
+    </r>
+  </si>
+  <si>
+    <t>I.e. not clear if it is damaging to reputation</t>
+  </si>
+  <si>
+    <t>Libe is always libel per se</t>
+  </si>
+  <si>
+    <t>except Innuendo</t>
+  </si>
+  <si>
+    <t>Slander is per se if it has CLUB</t>
+  </si>
+  <si>
+    <t>Effect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defamation Per se </t>
+  </si>
+  <si>
+    <t>Court will award money judgement even if plaintiff did not lose money</t>
+  </si>
+  <si>
+    <t>Special damages are monetory loses.</t>
+  </si>
+  <si>
+    <t>If Defamation per quod is proved, no money judgement.</t>
+  </si>
+  <si>
+    <t>New York Times V Sullivan</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -757,6 +937,32 @@
       <color indexed="81"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="TimesNewRoman,Italic"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="TimesNewRoman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="TimesNewRoman,Bold"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="TimesNewRoman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="TimesNewRoman,Bold"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -780,13 +986,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1114,15 +1323,15 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="1" max="1" width="36.5" customWidth="1"/>
     <col min="2" max="3" width="26.33203125" customWidth="1"/>
     <col min="6" max="6" width="31.83203125" customWidth="1"/>
   </cols>
@@ -1251,27 +1460,256 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>172</v>
+      </c>
       <c r="B16" t="s">
         <v>126</v>
       </c>
       <c r="C16" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F16" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>173</v>
+      </c>
       <c r="C18" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="F18" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>133</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F22" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F28" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F30" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="144" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F34" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F36" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F38" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F40" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F42" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F43" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F45" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F47" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F49" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F51" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F53" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F55" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F57" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="59" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F59" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="61" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F61" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="63" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F63" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F65" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F67" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F69" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="71" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F71" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="73" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F73" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="75" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F75" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="77" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F77" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="79" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F79" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F81" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F83" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="85" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F85" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="87" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F87" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="89" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F89" s="5" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/manish/courseLaw/LMR/Workbook1.xlsx
+++ b/manish/courseLaw/LMR/Workbook1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500" firstSheet="6" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Contracts" sheetId="1" r:id="rId1"/>
@@ -120,12 +120,34 @@
         </r>
       </text>
     </comment>
+    <comment ref="B32" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+Under NEW YORK TIMES and its progeny, a PUBLIC FIGURE PLAINTIFF must prove ACTUAL MALICE, that the false statement was made with knowledge or reckless disregard of its falseness, in order to recover in a defamation action. A PUBLIC FIGURE is a person who has acted to put themselves in the public spotlight. Further, where a matter of PUBLIC CONCERN is at issue, or where the plaintiff seeks punitive damages, the plaintiff must at least prove NEGLIGENCE. Important!</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="224">
   <si>
     <t>FORMATION OF CONTRACT</t>
   </si>
@@ -888,6 +910,203 @@
   </si>
   <si>
     <t>New York Times V Sullivan</t>
+  </si>
+  <si>
+    <t>If Matter is Public Concern</t>
+  </si>
+  <si>
+    <t>Or Plaintiff seeks punitive damage</t>
+  </si>
+  <si>
+    <t>Plaintiff has to prove atleast negligence</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>Exceptions:</t>
+  </si>
+  <si>
+    <t>Special Made Goods</t>
+  </si>
+  <si>
+    <t>Admission by party that there was a contract</t>
+  </si>
+  <si>
+    <t>Partial Performance (acceptance of some goods)</t>
+  </si>
+  <si>
+    <t>B. CONTRACT TERMS</t>
+  </si>
+  <si>
+    <t>Timely Performance a Material Condition?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Contract Terms?</t>
+  </si>
+  <si>
+    <t>Buyer Satisfaction a Material Condition?</t>
+  </si>
+  <si>
+    <t>Parol Evidence Rule</t>
+  </si>
+  <si>
+    <t>Common Law, must have</t>
+  </si>
+  <si>
+    <t>Q-Tips</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Time of performance</t>
+  </si>
+  <si>
+    <t>Identity of Parties</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Subject matter</t>
+  </si>
+  <si>
+    <t>Express Material Conditions:</t>
+  </si>
+  <si>
+    <t>Most express terms and promises</t>
+  </si>
+  <si>
+    <t>except:</t>
+  </si>
+  <si>
+    <t>Time of Performance</t>
+  </si>
+  <si>
+    <t>Buyer Satisfaction</t>
+  </si>
+  <si>
+    <t>Promise Not to Assign</t>
+  </si>
+  <si>
+    <t>are covenants</t>
+  </si>
+  <si>
+    <t>UCC</t>
+  </si>
+  <si>
+    <t>Quantity and Price are required</t>
+  </si>
+  <si>
+    <t>Gap Fillers for other terms</t>
+  </si>
+  <si>
+    <t>Perfect Tender Rule</t>
+  </si>
+  <si>
+    <t>All terms and promises are material terms.</t>
+  </si>
+  <si>
+    <t>Not a UCC issue, only in common law</t>
+  </si>
+  <si>
+    <t>(Parties agree
+At time of Contract)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Material Condition</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">About </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Timely Performance</t>
+    </r>
+  </si>
+  <si>
+    <t>Time is of the essense.</t>
+  </si>
+  <si>
+    <t>Implied Material Condition</t>
+  </si>
+  <si>
+    <t>Under Contract Law is to be used</t>
+  </si>
+  <si>
+    <t>Reasonable Satisfaction is always Implied Material Condition</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Buyer </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Satisfaction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Material</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Condition</t>
+    </r>
+  </si>
+  <si>
+    <t>(parties may agree this and those buyers who are not satisfied have no legal duty to pay)</t>
   </si>
 </sst>
 </file>
@@ -986,7 +1205,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -996,6 +1215,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1325,8 +1547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1572,12 +1794,28 @@
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="F36" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="F38" s="4" t="s">
         <v>145</v>
       </c>
@@ -1933,8 +2171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="97" zoomScaleNormal="97" zoomScalePageLayoutView="97" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView zoomScale="97" zoomScaleNormal="97" zoomScalePageLayoutView="97" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1951,6 +2189,9 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -2171,22 +2412,30 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="3"/>
+      <c r="F22" s="1" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="F24" s="2" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="3"/>
+      <c r="F25" s="2" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
@@ -2261,12 +2510,164 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" customWidth="1"/>
+    <col min="3" max="3" width="41.83203125" customWidth="1"/>
+    <col min="4" max="4" width="46.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/manish/courseLaw/LMR/Workbook1.xlsx
+++ b/manish/courseLaw/LMR/Workbook1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Contracts" sheetId="1" r:id="rId1"/>
@@ -47,6 +47,38 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="D16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+It is an oral agreement that a contract party does not have to perform a stated contractual duty UNLESS the condition holds</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Microsoft Office User</author>
@@ -147,7 +179,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="260">
   <si>
     <t>FORMATION OF CONTRACT</t>
   </si>
@@ -1107,6 +1139,114 @@
   </si>
   <si>
     <t>(parties may agree this and those buyers who are not satisfied have no legal duty to pay)</t>
+  </si>
+  <si>
+    <t>Fully Integrated Writing</t>
+  </si>
+  <si>
+    <t>Prior agreement to vary terms of contract - not allowed</t>
+  </si>
+  <si>
+    <t>DAM FOIL</t>
+  </si>
+  <si>
+    <t>Duress</t>
+  </si>
+  <si>
+    <t>Ambiguity</t>
+  </si>
+  <si>
+    <t>Mistake</t>
+  </si>
+  <si>
+    <t>Fraud</t>
+  </si>
+  <si>
+    <t>Oral Condition Precedent</t>
+  </si>
+  <si>
+    <t>Illegality</t>
+  </si>
+  <si>
+    <t>Lack of Consideration</t>
+  </si>
+  <si>
+    <t>Statute of Fraud For Modification?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under 2-209, </t>
+  </si>
+  <si>
+    <t>Modification -</t>
+  </si>
+  <si>
+    <t>Do not require consideration</t>
+  </si>
+  <si>
+    <t>No writing - not enforceable by law</t>
+  </si>
+  <si>
+    <t>Modification can be considered as Waiver</t>
+  </si>
+  <si>
+    <t>And it can be retracted.</t>
+  </si>
+  <si>
+    <t>Required sufficient Writing (UCC 2-201)</t>
+  </si>
+  <si>
+    <t>C. Defenses</t>
+  </si>
+  <si>
+    <t>Unconscionable?</t>
+  </si>
+  <si>
+    <t>Duress?</t>
+  </si>
+  <si>
+    <t>Fraud or Deceit?</t>
+  </si>
+  <si>
+    <t>Incapacity?</t>
+  </si>
+  <si>
+    <t>Illegality?</t>
+  </si>
+  <si>
+    <t>Impossibility?</t>
+  </si>
+  <si>
+    <t>Commercial Impracticability?</t>
+  </si>
+  <si>
+    <t>Frustration of Purpose?</t>
+  </si>
+  <si>
+    <t>Mutual Mistake?</t>
+  </si>
+  <si>
+    <t>Unilateral Mistake?</t>
+  </si>
+  <si>
+    <t>E. Breach</t>
+  </si>
+  <si>
+    <t>Anticipatory Breach</t>
+  </si>
+  <si>
+    <t>Waiver of Breach</t>
+  </si>
+  <si>
+    <t>Breach of Implied Covenant?</t>
+  </si>
+  <si>
+    <t>Breach Major / Minor?</t>
+  </si>
+  <si>
+    <t>Breach on Divisible Contract?</t>
+  </si>
+  <si>
+    <t>Accord And Satisfaction?</t>
   </si>
 </sst>
 </file>
@@ -1200,8 +1340,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -1219,9 +1361,11 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2509,11 +2653,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A15" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2555,6 +2699,9 @@
       <c r="A6" s="1" t="s">
         <v>195</v>
       </c>
+      <c r="D6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -2574,6 +2721,9 @@
       <c r="B8" t="s">
         <v>216</v>
       </c>
+      <c r="D8" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -2585,11 +2735,17 @@
       <c r="C9" s="7" t="s">
         <v>223</v>
       </c>
+      <c r="D9" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>199</v>
       </c>
+      <c r="D10" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -2606,80 +2762,185 @@
       <c r="B12" t="s">
         <v>219</v>
       </c>
+      <c r="D12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="D14" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D21" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>213</v>
       </c>
     </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>240</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="37.83203125" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2698,12 +2959,48 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="34.83203125" customWidth="1"/>
+    <col min="2" max="2" width="41.5" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" customWidth="1"/>
+    <col min="4" max="4" width="42" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C17" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/manish/courseLaw/LMR/Workbook1.xlsx
+++ b/manish/courseLaw/LMR/Workbook1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500" firstSheet="11" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Contracts" sheetId="1" r:id="rId1"/>
@@ -178,8 +178,148 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="B5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+Here Karen appears to have acted with an express intent to kill because she shot Ruby in the "head" with a "gun". These facts imply an intent to kill.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+Alternatively, Karen clearly intended great bodily injury because the homicide was caused by a "firearm". Use of a firearm implies intent to cause serious bodily harm, regardless of where the victim is shot.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+deliberate creation of EXTREME RISKS to human life or deliberate breach of a pre-existing duty to protect others from extreme risks with AWARENESS of and CONSCIOUS DISREGARD for the risks, the DEPRAVED HEART MURDER rule.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Example:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+Karen also appears to have acted with an awareness and conscious disregard for danger to human life because she deliberately shot Ruby in the head for little good reason. Her act created extreme risks to Ruby, she apparently had an awareness of the risks and consciously disregarded them.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+Here there was an unlawful homicide because Marvin was a human being and he was killed by Lucy, another human being. And it was caused by commission of an inherently dangerous felony, ROBBERY, a larceny from the person by force or fear. Karen was taking personal property of another with intent to permanently deprive because she was taking “dynamite” from Marvin, and she was using force or fear to overcome his will to resist because she used a “gun”. The death of Marvin occurred within the RES GESTAE of the robbery because he was shot before she left the scene of the crime.
+Therefore, Karen can be charged with murder for killing Marvin during the robbery. This would typically be FIRST DEGREE MURDER because robbery is typically one of the “enumerated felonies” for first degree murder.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+The RES GESTAE is the sequence of events beginning with the first substantial step to commit the felony and ending when the defendants leave the scene of the crime and reach a place of relative safety.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="576">
   <si>
     <t>FORMATION OF CONTRACT</t>
   </si>
@@ -801,6 +941,9 @@
   </si>
   <si>
     <t xml:space="preserve">Therefore, the remarks would reasonably be interpreted to be about Wilson. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appendix B: Sample Answers </t>
   </si>
   <si>
     <t>4) Did Barbara PUBLISH her remarks?</t>
@@ -1248,12 +1391,1103 @@
   <si>
     <t>Accord And Satisfaction?</t>
   </si>
+  <si>
+    <t>F. Defenses</t>
+  </si>
+  <si>
+    <t>Infancy?</t>
+  </si>
+  <si>
+    <t>Mistake of Fact?</t>
+  </si>
+  <si>
+    <t>Legal Impossibility</t>
+  </si>
+  <si>
+    <t>Mistake of Law?</t>
+  </si>
+  <si>
+    <t>Factual Impossibility?</t>
+  </si>
+  <si>
+    <t>Withdrawal?</t>
+  </si>
+  <si>
+    <t>Insanity?</t>
+  </si>
+  <si>
+    <t>Consent?</t>
+  </si>
+  <si>
+    <t>Entrapment?</t>
+  </si>
+  <si>
+    <t>Necessity?</t>
+  </si>
+  <si>
+    <t>Prevention of Crime?</t>
+  </si>
+  <si>
+    <t>Self Defense</t>
+  </si>
+  <si>
+    <t>Defense of Others?</t>
+  </si>
+  <si>
+    <t>Defense of Property?</t>
+  </si>
+  <si>
+    <t>B. Murder</t>
+  </si>
+  <si>
+    <t>Murder?</t>
+  </si>
+  <si>
+    <t>Under Criminal Law</t>
+  </si>
+  <si>
+    <t>unlawful Homicide</t>
+  </si>
+  <si>
+    <t>Homicide (killing of one human being by another)</t>
+  </si>
+  <si>
+    <t>with Malice Aforethought.</t>
+  </si>
+  <si>
+    <t>Malice Aforethought?</t>
+  </si>
+  <si>
+    <t>1. Intent to Kill</t>
+  </si>
+  <si>
+    <t>2. Intent to Great Bodily Injury</t>
+  </si>
+  <si>
+    <t>3. Intent to Felony, Felony Murder Rule</t>
+  </si>
+  <si>
+    <t>4. Depraved Heart Murder Rule</t>
+  </si>
+  <si>
+    <t>(risk to human life, breach to protect)</t>
+  </si>
+  <si>
+    <t>Degrees of Murder?</t>
+  </si>
+  <si>
+    <t>Common law - no degrees</t>
+  </si>
+  <si>
+    <t>Modern Law</t>
+  </si>
+  <si>
+    <t>First Degree</t>
+  </si>
+  <si>
+    <t>1. Willful, deliberate and premeditated homicide</t>
+  </si>
+  <si>
+    <t>2. done by enumerated means (torture, poision, explosion)</t>
+  </si>
+  <si>
+    <t>3. Caused by commission of  felony</t>
+  </si>
+  <si>
+    <t>BARRKSS</t>
+  </si>
+  <si>
+    <t>Burglary, Arson, Rape, Robbery, Kidnapping, Sodomy, Sexual Assault.</t>
+  </si>
+  <si>
+    <t>Second Degree</t>
+  </si>
+  <si>
+    <t>All other murders with malice aforethought.</t>
+  </si>
+  <si>
+    <t>Proximate Cause?</t>
+  </si>
+  <si>
+    <t>Actual Cause?</t>
+  </si>
+  <si>
+    <t>Felony Murder Rule?</t>
+  </si>
+  <si>
+    <t>Homicide</t>
+  </si>
+  <si>
+    <t>(during commission of)</t>
+  </si>
+  <si>
+    <t>Inherently dangerous Felony</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Results of act </t>
+  </si>
+  <si>
+    <t>within RES GESTAE of felony</t>
+  </si>
+  <si>
+    <t>RES GESTAE</t>
+  </si>
+  <si>
+    <t>Events from first substantial step toward crime to when defendants reach a place of safety.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Answer 15-6: Murder, Murder, Murder </t>
+  </si>
+  <si>
+    <t>STATE v. KAREN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) MURDER of Marvin? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under criminal law MURDER is an unlawful homicide, the killing of one human being by another with malice aforethought. Malice for murder may be 1) express intent to kill, or implied by 2) intentionally causing great bodily injury, 3) intentionally committing an inherently dangerous felony, the FELONY-MURDER RULE, or 4) intentionally acting with an awareness of and conscious disregard for unreasonable risks to human life, the DEPRAVED HEART THEORY. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The felony-murder rule applies to deaths caused by acts done during the RES GESTAE of an inherently dangerous felony, the events beginning with the first substantial step toward commission of the crime and ending when the defendants leave the scene of the crime and reach a place of relative safety. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">At common law there were no degrees of murder but modernly statutes define first degree murder as those that are 1) willful, deliberate and premeditated, 2) by enumerated means, or 3) caused by the commission of enumerated felonies. All other murders are in the second degree. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here there was an unlawful homicide because Marvin was a human being and he was killed by Lucy, another human being. And it was caused by commission of an inherently dangerous felony, ROBBERY, a larceny from the person by force or fear. Karen was taking personal property of another with intent to permanently deprive because she was taking “dynamite” from Marvin, and she was using force or fear to overcome his will to resist because she used a “gun”. The death of Marvin occurred within the RES GESTAE of the robbery because he was shot before she left the scene of the crime. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore, Karen can be charged with murder for killing Marvin during the robbery. This would typically be FIRST DEGREE MURDER because robbery is typically one of the “enumerated felonies” for first degree murder. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2) MURDER of Ruby? MURDER is defined above. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">There was an unlawful homicide because Ruby was a human being killed by Karen, another human being, without legal justification. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here Karen appears to have acted with an express intent to kill because she shot Ruby in the "head" with a "gun". These facts imply an intent to kill. Alternatively, Karen clearly intended great bodily injury because the homicide was caused by a "firearm". Use of a firearm implies intent to cause serious bodily harm, regardless of where the victim is shot. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karen also appears to have acted with an awareness and conscious disregard for danger to human life because she deliberately shot Ruby in the head for little good reason. Her act created </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NAILING THE BAR – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Italic"/>
+      </rPr>
+      <t>How to Write Crimes Law School and Bar Exams</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">extreme risks to Ruby, she apparently had an awareness of the risks and consciously disregarded </t>
+  </si>
+  <si>
+    <t>them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Based on any of the above theories, Karen could be charged with the murder of Ruby. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It appears Karen killed Ruby willfully and deliberately. If that is proven the murder was FIRST DEGREE. Karen might argue that she did not act willfully and deliberately to kill Ruby and only reacted instinctively because she had a “short fuse”, a MITIGATING FACTOR that caused her to suffer from impaired capacity. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If Karen can convince the jury she acted instinctively and did not act willfully, deliberately and with premeditation the murder might be reduced to SECOND DEGREE. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3) ADEQUATE PROVOCATION for VOLUNTARY MANSLAUGHTER? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under criminal law VOLUNTARY MANSLAUGHTER is an unlawful, intentional homicide without malice aforethought because of adequate provocation sufficient to raise a reasonable person to a fit of rage which could and actually did cause the homicide. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generally “mere words alone” are not considered at law to be adequate provocation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here there was a lack of adequate provocation because "hard looks", being "dissed", challenged to a "spelling bee" and "criticisms of attire" are “mere words alone” that would not be sufficient to raise a reasonable person to a fit of murderous rage. The subjective factor that Karen "had a short fuse" would not lower the standard of conduct. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore, Karen would not succeed in reducing the murder charge to voluntary manslaughter. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4) MURDER OF MARY? Murder is defined above. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here there was a homicide because Mary was a human being killed by Karen, another human being. And Karen had an express intent to kill because she "decided to kill Mary". Further, this killing was willful, deliberate and premeditated because it was planned in advance. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore, Karen can be charged with FIRST DEGREE murder of Mary and she has no defense. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5) MURDER OF BILL? Murder is defined above. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here there was a homicide because Bill was a human being killed by Karen, another human being. Karen may have had an express intent to kill because she "knew the blast would probably kill Bill." But Karen would argue that she did not want to kill Bill because "she felt real bad about </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it." Regardless, Karen deliberately created extreme risks to human life with awareness of and conscious disregard because she "knew the blast would probably kill Bill." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore, Karen could be charged with murder based on a Depraved Heart Theory of malice.. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Further, this would generally be FIRST DEGREE murder because the use of explosives to murder is generally one of the “enumerated means” for first degree murder. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore, Karen can probably be charged with FIRST DEGREE murder of Bill even if she did not willfully and deliberately cause his death with premeditation. She has no defenses. </t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Bold"/>
+      </rPr>
+      <t xml:space="preserve">ANSWER EXPLANATION: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman"/>
+      </rPr>
+      <t xml:space="preserve">This purpose of this question was to present four murders, each representing one of the four types of malice for murder. Marvin is a “felony-murder rule” situation, Ruby is a “great bodily injury” case, Mary is an “intent to kill” case, and Bill is a “depraved heart theory” case. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A second purpose of the question is to illustrate that “depraved heart murder” is not necessarily a “second degree” murder. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The question asks about “first degree" murder, and it is an express call. The call also asks about "lessor included offenses." That means manslaughter and NOT assault, battery, robbery, etc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You must define and discuss robbery as a basis for the felony-murder rule application to some extent. A death caused by a robbery is almost always going to be first degree murder because virtually every State includes it as one of its “enumerated felonies”. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only one murder here presents any evidence of "provocation" or “mitigating factors”.] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Answer 15-5: Attempt, Mistake of Fact, Mistake of Law </t>
+  </si>
+  <si>
+    <t>STATE v. YANG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) LARCENY from the "Hot Tomato"? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under criminal law LARCENY is the trespassory taking and carrying away of the personal property of another with an intent to permanently deprive. Modernly it is defined as THEFT. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here Yang took and carried personal property of another because he "deftly lifted" the "wallet." Yang's intent to permanently deprive is implied by the facts. </t>
+  </si>
+  <si>
+    <t>This was a larceny but not a robbery because he did not use force or fear. Therefore, Yang can be charged with larceny.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2) ROBBERY of the Old Lady? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under criminal law ROBBERY is a larceny, the trespassory taking and carrying away of the personal property of another, from the person by means of force or fear overcoming the will of the victim to resist. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here Yang took and carried personal property of another because he "snatched a purse" and "rode away with the prize." Yang's intent to permanently deprive is implied by the facts. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was a larceny from the person because the Old Lady was "holding tight" until she "lost her grip". And he used force to overcome the will of the victim to resist because he used force to break the Old Lady's "grip". </t>
+  </si>
+  <si>
+    <t>Therefore, Yang can be charged with robbery.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3) ATTEMPTED ROBBERY or ATTEMPTED LARCENY of the Chick? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under criminal law an ATTEMPTED CRIME is a SUBSTANTIAL STEP toward committing a crime, with intent to commit the crime. Both LARCENY and ROBBER are defined above. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here a SUBSTANTIAL STEP was taken toward LARCENY because Yang "reached out to snag another purse" and he clearly intended to take and carry away the purse to permanently deprive the Chick of it. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore Yang can clearly be charged with ATTEMPTED LARCENY. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">But there was also an IMPLIED INTENT that Yang intended to commit a larceny by force or fear because he had just previously robbed the "Old Lady" and that prior act showed he had no intention of letting go of the Chick’s purse if she resisted his attempt to take it. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore, Yang can be charged with ATTEMPTED ROBBERY and it would be up to the jury to decide if there was adequate evidence of intent to rob the Chick if she resisted his efforts to take her purse. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NAILING THE BAR – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Italic"/>
+      </rPr>
+      <t xml:space="preserve">How to Write Crimes Law School and Bar Exams </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">4) MISTAKE OF FACT as a defense to ATTEMPTED LARCENY or ROBBERY? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under criminal law MISTAKE OF FACT is a defense that the defendant did not have the necessary intent because he either did not intend to commit the criminal act (GENERAL INTENT crimes) or to cause the criminal result (SPECIFIC INTENT crimes.) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here Yang reached out to take a purse that did not exist. He clearly had an intent to commit a larceny or robbery. He might argue that the Chick did not have a purse so it would have been impossible for him to commit a crime. But ATTEMPT is a SPECIFIC INTENT crime so Yang would have to show he did not have any intent to cause a criminal result. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since intent to cause a criminal result is shown, Yang could not use mistake of fact as an effective defense. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5) MISTAKE OF LAW as to the drugs? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under criminal law a MISTAKE OF LAW about the legality of an intended act does not alter the legality of the attempted or committed act. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here Yang attempted to buy a bag of "grass" that truly was grass. He intended to commit an illegal act because he thought the “grass” was illegal drugs. But he only took a substantial step toward an act that would have been a legal act, the act of buying lawn clippings. His criminal intent does not change that legal act he attempted to complete into an illegal act. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore, Yang cannot be charged with an attempted purchase of illegal drugs. </t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Bold"/>
+      </rPr>
+      <t xml:space="preserve">ANSWER EXPLANATION: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman"/>
+      </rPr>
+      <t xml:space="preserve">This question raises the distinction between larceny from the person (pick pocket, purse snatcher) and robbery (larceny from person by fear or force.) It also raises the issues of mistake of fact. This is only a defense if it negates criminal intent. It is no defense just because the attempted crime is not feasible. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Mistake of law is also raised, and it can be very confusing. Remember this simple rule: The legality of an intended act does not alter the legality of the attempted or committed act. So focus on the act actually attempted or committed, and do not focus on the act intended. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For example, suppose jealous Boris Badanuf wants to kill Natahsa Nogudnik and takes the substantial step of driving to her house and shooting her body several times, but she has already died from a broken heart (Bullwinkle rejected her). Is it attempted murder or legal impossibility? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The answer is the crime of attempt is committed at the time of the substantial step. Always focus on that instant. If Natasha was alive at the instant Boris took that first substantial step (driving up to her home), then Boris is guilty of attempted murder at that instant. If Natasha was dead at the instant of the substantial step, she could not be killed at that moment or any time after that, so Boris’ act (the substantial step) could not ever be a crime.] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Answer 15-4: Arson, Larceny, Embezzlement </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under common law ARSON was the malicious burning of the dwelling of another. Modernly arson has been extended to the malicious burning of almost any structure. Malice for arson requires a burning with wrongful intent.. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here Jim caused a burning of a structure because the "wall" of the school "classroom" was "singed." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">And Jim acted with malice because he acted with the wrongful intent of setting the fire to make himself look like a "hero." This was wrongful because he did it to disrupt the school and knowing it would damage the school’s wastepaper basket. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore, Jim can be charged with arson. 2) LARCENY of wallet? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under criminal law LARCENY is the trespassory taking and carrying away of the personal property of another with an intent to permanently deprive. Modernly it is defined as THEFT. Under the RELATION BACK doctrine some courts held that an initial taking of lost property with intent to return property to the owner becomes trespassory when a later decision to steal “relates back” to the original taking. Other courts held that the finder of lost property holds it in “CONSTRUCTIVE TRUST” for the rightful owner and a later taking was an EMBEZZLEMENT. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here Jim took and carried personal property of another because he "picked up" and "took" the "wallet belonging to Sue." However, at the time Jim took the wallet he did not have any intent to permanently deprive so that taking was not trespassory. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Later Jim formed a larcenous intent when he became "depressed", "pocketed Sue's money" and "threw" the wallet into the river. This was a trespassory taking and Jim clearly intended to permanently deprive because he threw the wallet into the river. This larcenous intent related back to the original taking under the RELATION BACK doctrine. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore, Jim can be charged with larceny in a Court that recognizes the RELATION BACK theory. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3) EMBEZZLEMENT of wallet? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under criminal law EMBEZZLEMENT is an intentional trespassory conversion of personal property of another by one entrusted with lawful possession. Modernly it is defined as THEFT. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As stated above, some Courts held that a decision to keep lost property after originally intending to return it was an EMBEZZLEMENT based on CONSTRUCTIVE TRUST THEORY. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here there was no trespassory taking of the wallet because Jim “intended to return” it. Once he had the wallet he held it in constructive trust. But there was a trespassory conversion with intent to deprive because he decided to keep the money. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore Jim could be charged with embezzlement in a Court that holds to the CONSTRUCTIVE TRUST THEORY. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4) EMBEZZLEMENT of $10? Embezzlement is defined above. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here Jim was entrusted with possession because Chester "gave him $10 to buy tickets." This was personal property because it was money. And Jim intentionally and trespassorily converted the money to his own use with intent to permanently deprive because he "decided to keep it" and "used it to buy cigarettes and Playboy magazines." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore, Jim can be charged with embezzlement. 5) LARCENY of $20 BY TRICK? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under criminal law LARCENY BY TRICK is the trespassory carrying away of the personal property of another with an intent to permanently deprive after gaining possession by means of a misrepresentation of fact. Modernly it is defined as THEFT. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here Jim trespassorily carried away personal property of another because he took "Chester's $20" to buy himself cigarettes and Playboy magazines. And it was personal property because it was money. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jim had an intent to permanently deprive because his intent at the time he gained possession was to “steal it." And Jim used a misrepresentation of fact because he said he would use the money to "buy pictures" when his true intent was to "steal it." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore, Jim can be charged with larceny of the $20 by trick. </t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Bold"/>
+      </rPr>
+      <t xml:space="preserve">ANSWER EXPLANATION: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman"/>
+      </rPr>
+      <t xml:space="preserve">This question raises the issues of the malicious intent for arson. It is not arson to burn a building by accident unless the fire was not set for a "malicious" purpose. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Malice for arson means for a "wrongful” but not necessarily illegal purpose. The purpose for the fire is malicious if the defendant started it to injure or frighten people or to damage their property. If a fire is set to clear brush on the defendant’s land and for no other purpose it is not malicious, even if the fire violated local burn-control laws. But if the fire is set to cause hurt, disruption, annoyance, etc. then the purpose is wrongful and malicious. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defendants who take property intending to return it are not guilty of a larceny at the time of the taking, but it becomes larceny (under the ‘relation back’ view) if the defendant later decides to keep the property. Some Courts held that lost property taken with intent to return it is held in ‘constructive trust’ so a subsequent keeping of the property was embezzlement. That was especially true if property was lost on a “common carrier” like a taxicab, train, or boat.] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Answer 15-3: Murder, Mistake of Law, Self Defense, Insanity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STATE v. TOM 1) MURDER? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under criminal law MURDER is an unlawful HOMICIDE, the killing of one human being by another, with MALICE aforethought. Malice for murder can be 1) express intent to kill or implied by 2) intent to cause great bodily injury, 3) intent to commit an inherently dangerous felony, the FELONY MURDER RULE or 4) intent to act with awareness of and conscious disregard for an unreasonably high risk to human life, the DEPRAVED HEART theory. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under common law there were no degrees of murder, but modernly FIRST DEGREE murder is 1) willful, deliberate and premeditated, 2) murder by enumerated means or 3) murder during enumerated dangerous felonies. All other murder is second degree. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here there was a homicide because Dick was a human being and he was “killed” by another human being, Oscar. But Tom did not do anything intending to cause Dick or anyone else to be killed or intending to cause great bodily injury to anyone. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Further, Tom was not engaged in commission of an “inherently dangerous felony” at the time so the felony-murder rule has no application. Therefore the only basis for charging Tom with murder would be the DEPRAVED HEART THEORY. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tom did not deliberately create extreme risks to other people. He could not have reasonably foreseen Oscar would start shooting. Even if some danger could have been foreseen, Tom was not aware of it and did not consciously disregard the risks because he was “in a daze”. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore, Tom did not appear to deliberately create and consciously disregard extreme risks to others, and cannot be charged with murder under the DEPRAVED HEART theory unless that could be proven. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If murder could be charged here, it would be second degree murder because the death was not willful and deliberate, during a typically enumerated felony or by a typically enumerated means. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2) INVOLUNTARY MANSLAUGHTER? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Involuntary manslaughter is an unintentional homicide resulting from GROSS NEGLIGENCE, RECKLESSNESS or the commission of a MALUM IN SE crime insufficient to support the felony murder rule. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GROSS (CRIMINAL) NEGLIGENCE is the deliberate breach of a pre-existing duty to protect others from extreme risks, and RECKLESSNESS is the deliberate creation of extreme risks to others. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here there was an unintentional homicide because Dick died and Tom did not intend for him to die. And Tom was not committing any crime because smuggling Viagra was "not a crime." The MISTAKE OF LAW by Tom does not make an otherwise innocent act a crime. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Further, resisting unlawful arrest is not a crime. Here the arrest was unlawful because there was </t>
+  </si>
+  <si>
+    <t xml:space="preserve">“no probable cause" and the police wanted to "harass" and "beat" Tom and Dick. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">And Tom was not grossly negligent because he drove “55 mph” and did not deliberately create extreme risks to others. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The State could only argue that Tom created extreme risks by refusing to stop his car, but he did not deliberately create those risks because he had an “overwhelming phobia”, was “scared to death” and “could not bring himself to stop” the car. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore, Tom could not be charged with involuntary manslaughter unless it could be proven his failure to stop was criminally negligent. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3) SELF-DEFENSE? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under criminal law a defendant is privileged to use reasonable force as necessary for SELF- DEFENSE. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here Tom acted to defend himself from harm because he was “scared to death” and Oscar wanted to "beat him." Oscar had no legal right to stop Tom because he had no probable cause. And Tom acted reasonably and used reasonable force because he only “drove at 55 mph”. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The state may argue Tom acted unreasonably by refusing to stop, even if the police lacked probable cause, but there is no legal basis for such a claim. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore, Tom would succeed in his defense that he acted in reasonable self-defense. 4) INSANITY? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under criminal law INSANITY is a defense that negates criminal intent. Under the M’NAUGHTEN RULE a person is insane if a disease of the mind so impairs their reasoning that they are unable to appreciate the nature and quality of their acts or to know that they are wrong. Under the IRRESISTIBLE IMPULSE theory a person may raise the defense of insanity if they are unable to control their acts, even if they know the act is wrong. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here Tom could not plead M’Naughten because “he knew it was wrong”. But Tom could plead an irresistible impulse because “he had an overwhelming phobia” and “he could not help himself”. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore, Tom might be successful with an insanity defense. </t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Bold"/>
+      </rPr>
+      <t xml:space="preserve">ANSWER EXPLANATION: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman"/>
+      </rPr>
+      <t xml:space="preserve">This question is quirky so paddling is necessary. Even if Tom and Dick were committing a crime it was not one of the “inherently dangerous crimes of rape, robbery, burglary or arson” so the felony-murder rule has no application here. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Tom could only be charged under Depraved Heart. For that it must be shown he created extreme risks to others with an awareness of the risks and a conscious disregarded for them. But how could he have foreseen Oscar was crazy enough to shoot Dick? If Tom acted unreasonably enough to be charged with murder, he could not show he acted reasonably for a plea of self-defense] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Answer 15-2: Accomplice and Conspiracy Liability </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STATE V. HUEY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) CONSPIRACY? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under common law a CONSPIRACY was an agreement between two or more people to pursue an illegal goal. Modernly an overt step taken toward the criminal goal is often required. Conspiracy does not merge into the criminal goal. A conspirator may be charged with all crimes by co- conspirators while they are members of the conspiracy that are within the scope of the conspiracy agreement, foreseeable acts in furtherance of the conspiracy goal. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here Huey agreed with another person because he "agreed" with "Louie", and the agreement was to pursue an illegal goal because it was to "kidnap Millie" and hold her for ransom. They took an overt step because they did kidnap her. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore, Huey can be charged with conspiracy. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2) EFFECTIVELY WITHDRAW from the conspiracy? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under criminal law EFFECTIVE WITHDRAWAL from a conspiracy is a defense to liability for subsequent crimes by co-conspirators if the defendant gives notice to the other conspirators of intent to withdraw and then the defendant must act to thwart the conspiracy from attaining its goal. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here Huey gave notice because he told Louie "I quit." And he acted to thwart the conspiracy because he "told the police." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">However, Huey did not act to thwart the conspiracy until after the kidnapping, rape and death of Millie. Withdrawal only is a defense to subsequent crimes by co-conspirators and here the withdrawal was not effective until after all crimes had been committed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore, Huey effectively withdrew from the conspiracy when he told the police everything, but that did not absolve him from crimes that occurred before that time. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3) KIDNAPPING? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under criminal law a KIDNAPPING is the unlawful taking or confining of a person against their will. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here Huey took and confined Millie against her will because he and Louie “kidnapped Millie”. Therefore, Huey can be charged with kidnapping. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4) RAPE under a theory of ACCOMPLICE LIABILITY? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under criminal law RAPE is unlawful intercourse with a person without consent. An accomplice to a crime may be charged with all subsequent crimes committed by other accomplices if they were foreseeable as the direct and natural results of their own criminal acts. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here Louie had intercourse with Millie because they "had sex." And it was without consent because Millie only agreed to intercourse because she had been kidnapped and Louie said he "would let her go in exchange." Since she was being held against her will and under duress, her apparent consent to intercourse was not effective. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore, Louie raped Millie, and that rape was foreseeable to Huey as a direct and natural consequence of his own crime of kidnapping Millie. This was all direct and natural, and should have been foreseeable to Huey because he knew "Louie was a convicted rapist." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore, Huey may be charged with the rape of Millie under a theory of accomplice liability. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5) MURDER of Millie? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under criminal law murder is an unlawful homicide, the killing of one human being by another with malice aforethought. Malice for murder may be 1) express intent to kill, or implied by 2) intentionally causing great bodily injury, 3) intentionally committing an inherently dangerous felony, the FELONY-MURDER RULE, or 4) intentionally acting with an awareness of and conscious disregard for unreasonable risks to human life, the DEPRAVED HEART THEORY. At common law there were no degrees of murder but modernly statutes define first degree murder as those that are 1) willful, deliberate and premeditated, 2) by enumerated means, or 3) caused by the commission of enumerated dangerous felonies. All other murders are in the second degree. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under criminal law one of the “inherently dangerous felonies” for application of the felony- murder rule is RAPE. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here there was a homicide because Millie was a human being and she died as a result of the acts of Louie. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huey would argue that Millie committed suicide and not homicide. But her death by her own hand was directly caused by the rape by Louie. She would not have killed herself if she had not been raped, and she would not have been raped if Huey had not kidnapped her and left her with Louie. The rape by Louie was foreseeable to Huey at the time of the kidnapping, so his own acts were the actual and proximate cause of her death. Huey and Louie effectively caused Millie to be the instrumentality of her own death. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Further, because Huey acted to place Millie at peril, he had an affirmative duty to protect her from the results of that peril, including protecting her from both Louie and her own suicidal impulses. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore, the state would successfully argue that this was a homicide and not a simple suicide. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">And the state would argue the FELONY-MURDER RULE applies to prove malice aforethought for </t>
+  </si>
+  <si>
+    <t xml:space="preserve">murder because Millie died because of the commission of an inherently dangerous crime, rape. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As an alternative, the State may also argue that DEPRAVED HEART THEORY applies. Huey kidnapped Millie and left her with Louie, deliberate acts that created extreme risks to human life, and he did that with an awareness of and conscious disregard for the risk to human life because he knew Louie was a “rapist”. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore, Huey could be charged with murder on a FELONY-MURDER or DEPRAVED HEART theory. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6) MURDER of Louie? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under the REDLINE RULE the killing of a criminal accomplice by any party other than another </t>
+  </si>
+  <si>
+    <t xml:space="preserve">criminal accomplice during the commission of an inherently dangerous felony cannot be used as a basis for charging murder under the FELONY-MURDER RULE. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here there was a homicide because Louie was a human being and he was "killed by police." But the police shooting of Louie was a justified act to prevent a felony. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore, Huey cannot be charged with FELONY-MURDER of Louie. </t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Bold"/>
+      </rPr>
+      <t xml:space="preserve">ANSWER EXPLANATION: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman"/>
+      </rPr>
+      <t xml:space="preserve">This question points out two issues. Conspiracy liability only extends to acts within the SCOPE OF THE CONSPIRACY, meaning they must be foreseeable acts in furtherance of the conspiracy goal. But, accomplice liability extends to all foreseeable crimes by co-felons that are a direct and natural result of an initial crime. Here the rape is a direct and natural result of the kidnapping, so Huey is liable based on accomplice theory even if he is not liable based on conspiracy theory. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondly, Huey failed to effectively withdraw by acting to thwart the conspiracy, so he ends up liable for crimes that occurred after he said, "I quit." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">But Huey cannot be charged with murder for the death of Louie (in many or most States) because of the Redline Rule.] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Answer 15-1: Attempt, Homicide, Res Gestae, Depraved Heart </t>
+  </si>
+  <si>
+    <t>STATE V. TOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. CONSPIRACY? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under common law a CONSPIRACY is an agreement between two or more people to work toward an illegal goal. Modernly an overt step toward the criminal goal is often required. Conspiracy does not merge into the ultimate crime. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here there was an implied agreement between Tom and Dick, two people, for an illegal goal, because they “burst” into the store together and “wanted to rob” the store. They committed an overt step toward their goal because of this. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore Tom can be charged with conspiracy. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. ATTEMPTED ROBBERY? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under criminal law an ATTEMPTED ROBBERY is committed with there is a SUBSTANTIAL STEP taken toward committing a robbery. A robbery is a LARCENY, a trespassory taking of personal property with an intent to permanently deprive, from a person by force or fear overcoming the will of the victim to resist. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here Tom took a SUBSTANTIAL STEP toward completing the robbery because he went to the store “with a gun” and “burst” through the door. And his goal was the crime of robbery because he “wanted to rob” the store. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore, Tom can be charged with attempted robbery. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. DEFENSE OF MISTAKE OF FACT? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under criminal law a mistake of fact is a valid defense if it NEGATES IMPLIED CRIMINAL INTENT. Attempt is a SPECIFIC INTENT crime, so any mistake of fact that negates criminal intent is a valid defense. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here Tom made a mistake because he thought the store was open for business, but that mistake does not negate intent because he “wanted to rob” the store. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore, Tom’s mistake of fact does not negate his criminal intent, and his defense argument fails. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NAILING THE BAR – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Italic"/>
+      </rPr>
+      <t xml:space="preserve">How to Write Crimes Law School and Bar Exams </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Italic"/>
+      </rPr>
+      <t xml:space="preserve">4. BURGLARY? </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Under the common law a burglary was a breaking and entering of the dwelling of another in the nighttime with intent to commit a felony. Further, a CONSTRUCTIVE BREAKING would be found if an entry was made by trick, threat of violence or with the help of a conspirator. MODERNLY burglary has been extended to almost any structure and all times of the day. If a larceny is not a felony, it still supports a charge of burglary. And modernly a constructive breaking will be found if there is any TRESPASSORY ENTRY, an entry without permission, express or implied. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here there was no entry to a dwelling, and the entry was through an “open” door. Therefore, no common law burglary occurred. But there was an entry to a structure because they entered a “store” and it was with intent to commit a felony because they “wanted to rob” the store. Finally, a CONSTRUCTIVE BREAKING would be found modernly because their entry was trespassory. It was trespassory because the store was not open for business, and they had no permission to enter it, either expressly or impliedly. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore they could be charged with burglary modernly but could not have been charged at common law. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. LARCENY? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under common law LARCENY was the trespassory taking and carrying away of the personal property of another with intent to permanently deprive. Modernly it is codified as “theft”. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">At common law some Courts held that property attached to the land could not be the subject of a larceny because it was real property and not personal property. Other courts disagreed, and modernly all courts would hold that when property is severed from the land to be stolen it is transformed from real property to personal property and can then be the subject of a larceny. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here Tom took and carried personal property of another because he “ripped the security camera” from the wall and took it to the “river”, and he intended to permanently deprive because he threw it in the river. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore Tom can be charged with larceny. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. MURDER OF THE BABY? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MURDER is an unlawful HOMICIDE, the killing of one human being by another with MALICE AFORETHOUGHT. MALICE for murder can be 1) an express INTENT TO KILL, or implied by 2) intent to commit GREAT BODILY INJURY, 3) a homicide caused by commission of an INHERENTLY DANGEROUS FELONY, the “FELONY MURDER RULE” or 3) DELIBERATE CREATION OF EXTREME RISKS to human life with AWARENESS of the risks and a CONSCIOUS DISREGARD for them, the “DEPRAVED HEART” murder. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under the common law and broadly adopted modern law a HUMAN BEING is a person that has been born alive and is not yet dead. About half the States have adopted FETAL-MURDER statutes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">which define the killing of a fetus with malice aforethought punishable as a murder, but they vary widely. The death of a fetus cannot qualify as a manslaughter. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Murder may be charged under the FELONY-MURDER RULE if a death is caused by the commission of an inherently dangerous felony, but only if the death is caused by acts done during the RES GESTAE of the underlying felony. The RES GESTAE of a crime is the sequence of events from the first substantial step to committing the crime and ending when the defendants leave the scene of the crime and reach a place of relative safety. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here there was no homicide because the baby was “born dead” and not born alive. But this may be defined as a murder under a fetal-murder statute in some States because the fetus was "full term." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Even if this State had a fetal-murder statute, malice for murder could not be based on intent to kill, intent to cause great bodily injury or depraved heart because the collision was by "accident" and at a reasonable speed of "75". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Further, malice could not be based on the felony-murder rule because the death occurred after the res gestae the attempted robbery had ended. It ended when they at a place of “relative safety” and were able to watch “TV”. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore, Tom cannot be charged with murder because there is no basis for finding malice, even if there was a fetal-murder statute. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. INVOLUNTARY MANSLAUGHTER. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under criminal law INVOLUNTARY MANSLAUGHTER is an UNINTENTIONAL homicide without malice aforethought resulting from GROSS NEGLIGENCE, RECKLESSNESS or the commission of a MALUM IN SE CRIME that is not inherently dangerous enough for application of the felony murder rule. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As discussed above, the death of a fetus does not qualify as a manslaughter. Therefore, Tom’s act was not sufficient to charge him with involuntary manslaughter. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. MURDER of Victor? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Murder, defined above, can be based on the DEPRAVED HEART doctrine where one acts unreasonably to DELIBERATELY CREATE EXTREME RISKS TO OTHERS, the actus reus, with AWARENESS of the risks and a CONSCIOUS DISREGARD for the risks, the mens rea. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here Tom caused a homicide because he killed Victor, a human being. And he deliberately created extreme risks because he drove down the “crowded surface streets” at “80 mph”. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Further, he was aware of the risks because he was in full control of his faculties. And he </t>
+  </si>
+  <si>
+    <t xml:space="preserve">consciously disregarded the risks because he continued to do this without any compelling reason. Therefore, Tom can be charged with the murder of Victor. </t>
+  </si>
+  <si>
+    <t>STATE V. DICK.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. CONSPIRACY, ATTEMPTED ROBBERY, BURGLARY and LARCENY? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dick was an equal participant in the crimes of conspiracy, attempted robbery, burglary and larceny, and did all of the same things as Tom relative to these acts. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore Dick was DIRECTLY LIABLE and could be charged with each of these crimes on the same facts and legal theories as explained for Tom above. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10. MURDER of Victor? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tom killed Victor and not Dick, and since “Dick was silent” and not urging Tom to run over Victor or do anything criminal, Dick could only be charged with this murder based on a vicarious liability theory. There are two vicarious liability theories: conspiracy theory and accomplice theory. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSPIRACY THEORY? A person may be charged with vicarious liability for a crime based on CONSPIRACY THEORY if while they are a member of a conspiracy a co-conspirator commits the crime within the scope of the conspiracy. But a conspiracy ends when the criminal goal is ATTAINED or ABANDONED. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here Dick was a member of a conspiracy to rob the store, but that conspiracy goal was abandoned when they found the store closed. Since the conspiracy had ended, Tom did not kill Victor the next day “within the scope” of the conspiracy. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore Dick cannot be charged on this basis. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCOMPLICE THEORY? A person who commits or helps commit a crime is liable for all subsequent crimes by co-felons that are a direct and natural result of the prior crimes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here Dick helped Tom try to rob the store the prior day, so he would be liable for any crimes by Tom that are a direct and natural result of the attempted robbery. But the murder of Victor was not a foreseeable result of the prior robbery attempt. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore Dick cannot be charged with Victor’s death based on accomplice liability. Since Dick had no direct liability or vicarious liability he cannot be charged with Murder. </t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Bold"/>
+      </rPr>
+      <t>ANSWER EXPLANATION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman"/>
+      </rPr>
+      <t>: The main points here are that:</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Modernly a burglary generally requires a trespassory entry, an entry without permission to </t>
+  </si>
+  <si>
+    <t xml:space="preserve">enter, and does not necessarily require a physical breaking. 2) A fetus is not generally considered a human being. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3) There are fetal-murder statutes you might need to discuss, but there are no “fetal-manslaughter” statutes (or if there are it is extremely unusual). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4) The felony-murder rule cannot be applied to a death that results from acts done so long after the robbery that they were not part of the res gestae of the crime. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5) There is no conspiracy liability for crimes committed by co-conspirators after the conspiracy has ended. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6) Accomplices in one crime are not automatically liable for all subsequent crimes committed by other accomplices, even if they are committed in their presence unless there is some direct and natural causality linking the second crime back to the first crime.] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Practice Question 16-1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tom and Dick burst into the 7-11 store in Sacramento through the open door with their guns drawn at midnight. They wanted to rob the store the first night it opened. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Stick ‘em up,” yelled Tom. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unfortunately, the store was empty because they made a big mistake. No one was there. There was no merchandise. The store wasn’t going to open until the next week. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">They were so mad they ripped the security camera off the wall and threw it in the river. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The next morning Tom and Dick saw themselves on the Dumb Crook Show on TV. The store security camera had filled them trying to rob the empty store. They were afraid they would be caught. So to escape Tom drove real fast to San Francisco with Dick as his passenger. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">One the freeway going 75 mph, Tom was distracted and accidentally bumped Victoria’s car. She was only going 70 mph, the posted limit. She spun out of control and crashed. She survived, but went into labor, and her full-term, viable baby was born dead. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tom then got off the freeway and drove down the crowded city surface streets of San Francisco at 80 mph. Dick was silent. The posted limit was 25 miles per hour. The car ran over homeless person Victor. He died instantly. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discuss the possible charges against Tom and Dick. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Practice Question 16-2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huey and Louie agreed to kidnap Frank's daughter, Millie, and hold her for ransom. Frank was an old movie star with lots of money. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huey knew that Louie was a convicted rapist, so he said, "Louie! I want you to swear that you won't touch this girl. Because we are just in this for the ransom. Nothing else. And if you do anything bad to her, that is going to hurt our chances to get the ransom. So, do you swear?" </t>
+  </si>
+  <si>
+    <t>Louie said, "Huey, I swear on a stack of bibles I won't touch the dame."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So Huey and Louie kidnapped Millie and held her for ransom in a rundown motel. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huey went to the store for smokes and when he came back he discovered Louie had sex with Millie by telling her he would let her go in exchange. He was furious and afraid. He said, "Louie, I quit. I ain't having nothing to do with this no more!" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huey left and went to a bar where he got very drunk. That night Millie became so despondent over allowing Louie to have intercourse with her she hung herself in the bathroom of the motel room while Louie was snoring in the bed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Police discovered where Louie was and surrounded the motel room the next morning. Louie vowed not to be taken alive and was gunned down by the cops. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huey woke up at noon. Unaware of what happened to Millie and Louie, he decided to turn himself in. So he went to the police that morning and told them everything he knew in an effort to help rescue Millie. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What crimes can Huey be charged with? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Practice Question 16-3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tom and his lover Dick made frequent trips to Mexico. Dick was getting a little impotent, so on one trip they bought some Viagra with the intent of smuggling it into the United States. They thought this was a felony, but they were wrong. It was not a crime at all. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Officer Oscar tried to pull them over solely because they looked gay, and Oscar hated gays. He intended to harass them. If he was lucky, he thought, maybe he could beat them up. Oscar had some issues to resolve, but he did not have probable cause to stop the car. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tom was afraid. He felt Oscar must somehow know he was smuggling Viagra. He thought he would be strip searched, and he had an overwhelming phobia of body cavity searches. He thought he would be put in prison and treated very badly. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tom was scared to death and could not bring himself to stop the car. He knew it was wrong, but he could not help himself. He was in a daze. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tom continued to drive carefully at 55 mph and Oscar continued to follow him. Oscar was furious. Then Oscar shot at the car several times and Dick was killed. </t>
+  </si>
+  <si>
+    <t>Tom is charged with the murder of Dick.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discuss Tom's liability for murder and lessor included offenses, and his applicable defenses. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Practice Question 16-4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jim was sweet on Sue, a cute little red-haired girl in his Senior class, but she was more interested in a big, dumb, old football player named Chester. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jim thought that Sue would dump Chester for him if he was a hero. So Jim set fire to the wastepaper basket in old-lady Smith's classroom during the class break intending to report it and be a hero. He didn't intend any harm to the building, and he honestly believed the fire would not hurt the school at all. Unfortunately, the fire slightly singed the wall, and some other boys poured water on it before Jim could report it. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the confusion Sue dropped her wallet. Jim picked it up and hid it. He planned on giving it back to her that night. Then she would see he is a hero, and she would have to go to homecoming with him. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jim called Sue's house several times that night to tell her he had her wallet. But Sue's mother kept saying she was out with Chester. Jim did not tell Sue's mother about the wallet. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This went on all night and Jim got so depressed he went to the river, pocketed Sue's money and threw Sue's wallet as far out into the current as he could throw. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The next day Chester came up to Jim in first period and asked him a favor. Chester said the football team had to assemble for a yearbook picture, so Chester asked Jim to buy him two homecoming tickets in fifth period for Sue and him to go to the dance. Jim intended to do Chester a favor and took his $10. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jim got mad and decided he would just keep Chester's money. Then after second period Chester offered Jim $20 more so Sue and him could have their pictures taken at the dance. Jim agreed and took the money with every intention of stealing it. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jim used all of Chester's money to buy cigarettes and Playboy magazines. Discuss Jim's crimes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Practice Question 16-5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yang rode his bicycle down Rodeo Drive looking for a victim. He saw a "Hot Tomato" ready to cross the street, and as he coasted past her he deftly lifted her wallet right out of her purse without her knowing. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">At the next street he snatched another purse when an "Old Lady" wasn't even looking. But she was holding tight and fell over into the street. As she hit the pavement she lost her grip and Yang rode away with another prize. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yang was having a good day. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">At the next corner Yang reached out to snag another purse. But at the last second as he reached out he realized the "Young Chick" was not carrying a purse. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disappointed, Yang called it a day. He decided to score some dope with his earnings. Seeing a dude near an alley, he entered into some negotiations. The dude said he could sell him a baggy of "grass" for $10. Yang agreed and handed over $10. Suddenly cops came out of nowhere and jumped on them before Yang got possession. It turned out the "grass" really was grass -- lawn clippings from the dude's back yard. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What crimes can Yang be charged with and what defenses might be raised? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Practice Question 16-6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karen was furious because her lover Billy ran off with Mary. Karen decided to kill Mary and looked for some dynamite to blow Mary straight to Hell. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karen went to a "Dynamite R Us Store", but the owner Marvin refused to sell her any dynamite. Karen pulled a gun and demanded quality service like it said on the sign in the window. Marvin said, "Yes, Ma'am!" and handed over 12 sticks of dynamite. Karen was happy with the service. But as she was putting away the gun, it accidentally went off and shot Marvin between the eyes. Karen felt real bad about it. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As Karen approached Mary's mobile home she was stopped by Ruby. Ruby gave her a hard look. Ruby "dissed" her. Ruby challenged her to a spelling bee and criticized her choice of attire. That was all more than Karen could take, because she always had a short fuse. So she smoked Ruby above the ear with a round from the '38. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karen proceeded to put the dynamite under Mary's double-wide "Jerry Springer" brand mobile home. She realized that the blast would probably kill Billy too, and she felt real bad about it. Billy was the reason she was acting out, her love for him and all. But the way she figured, a girl's got to do what a girl's got to do. So she washed that man right out of her hair. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">That night the blast killed both Mary and Billy. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discuss the potential first degree murder charges Karen might face along with lesser included offenses and her potential defenses. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1297,7 +2531,17 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="TimesNewRoman,Bold"/>
+    </font>
+    <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="TimesNewRoman,Italic"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="TimesNewRoman,Italic"/>
     </font>
@@ -1305,6 +2549,11 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="TimesNewRoman"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="TimesNewRoman,BoldItalic"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1321,6 +2570,11 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="TimesNewRoman,Bold"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="TimesNewRoman"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1347,18 +2601,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1828,7 +3103,7 @@
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s">
         <v>126</v>
@@ -1847,7 +3122,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C18" t="s">
         <v>132</v>
@@ -1858,7 +3133,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1871,7 +3146,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1881,7 +3156,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>138</v>
@@ -1889,7 +3164,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>139</v>
@@ -1897,7 +3172,7 @@
     </row>
     <row r="27" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1907,7 +3182,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1917,12 +3192,12 @@
     </row>
     <row r="31" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>142</v>
@@ -1930,7 +3205,7 @@
     </row>
     <row r="33" spans="2:6" ht="144" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
@@ -1940,12 +3215,12 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>144</v>
@@ -1953,12 +3228,12 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>145</v>
@@ -1971,127 +3246,127 @@
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F42" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F43" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F45" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F47" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F49" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F51" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F53" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F55" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F57" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F59" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F61" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F63" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F65" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F67" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F69" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="71" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F71" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F73" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="75" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F75" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F77" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="79" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F79" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="81" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F81" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="83" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F83" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="85" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F85" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="87" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F87" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="89" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F89" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2217,48 +3492,2261 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="I28:K109"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B23" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="9" max="9" width="53.1640625" customWidth="1"/>
+    <col min="11" max="11" width="80.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="28" spans="9:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="I28" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="29" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I29" s="2"/>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="9:11" ht="48" x14ac:dyDescent="0.2">
+      <c r="I30" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="31" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I31" s="2"/>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="9:11" ht="80" x14ac:dyDescent="0.2">
+      <c r="I32" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="33" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I33" s="2"/>
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="9:11" ht="80" x14ac:dyDescent="0.2">
+      <c r="I34" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="35" spans="9:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="I35" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="9:11" ht="48" x14ac:dyDescent="0.2">
+      <c r="I36" s="2"/>
+      <c r="K36" s="11" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="37" spans="9:11" ht="64" x14ac:dyDescent="0.2">
+      <c r="I37" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I38" s="2"/>
+      <c r="K38" s="11" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="39" spans="9:11" ht="64" x14ac:dyDescent="0.2">
+      <c r="I39" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I40" s="2"/>
+      <c r="K40" s="11" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="41" spans="9:11" ht="48" x14ac:dyDescent="0.2">
+      <c r="I41" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="9:11" ht="48" x14ac:dyDescent="0.2">
+      <c r="I42" s="2"/>
+      <c r="K42" s="11" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="43" spans="9:11" ht="64" x14ac:dyDescent="0.2">
+      <c r="I43" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="9:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="I44" s="2"/>
+      <c r="K44" s="11" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="45" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I45" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="K45" s="2"/>
+    </row>
+    <row r="46" spans="9:11" ht="48" x14ac:dyDescent="0.2">
+      <c r="K46" s="11" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="47" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="2"/>
+    </row>
+    <row r="48" spans="9:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="K48" s="11" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="49" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="2"/>
+    </row>
+    <row r="50" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="11" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="51" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="2"/>
+    </row>
+    <row r="52" spans="11:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="K52" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="53" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="2"/>
+    </row>
+    <row r="54" spans="11:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="K54" s="11" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="55" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K55" s="2"/>
+    </row>
+    <row r="56" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K56" s="13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="2"/>
+    </row>
+    <row r="58" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="11" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="59" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="2"/>
+    </row>
+    <row r="60" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="61" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="2"/>
+    </row>
+    <row r="62" spans="11:11" ht="48" x14ac:dyDescent="0.2">
+      <c r="K62" s="11" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="63" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="2"/>
+    </row>
+    <row r="64" spans="11:11" ht="64" x14ac:dyDescent="0.2">
+      <c r="K64" s="11" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="65" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="2"/>
+    </row>
+    <row r="66" spans="11:11" ht="48" x14ac:dyDescent="0.2">
+      <c r="K66" s="11" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="67" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K67" s="2"/>
+    </row>
+    <row r="68" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="11" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="69" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="2"/>
+    </row>
+    <row r="70" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="11" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="71" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="2"/>
+    </row>
+    <row r="72" spans="11:11" ht="128" x14ac:dyDescent="0.2">
+      <c r="K72" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="73" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="2"/>
+    </row>
+    <row r="74" spans="11:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="K74" s="11" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="75" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="2"/>
+    </row>
+    <row r="76" spans="11:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="K76" s="11" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="77" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="2"/>
+    </row>
+    <row r="78" spans="11:11" ht="96" x14ac:dyDescent="0.2">
+      <c r="K78" s="11" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="79" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K79" s="2"/>
+    </row>
+    <row r="80" spans="11:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="K80" s="11" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="81" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="2"/>
+    </row>
+    <row r="82" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K82" s="11" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="83" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="2"/>
+    </row>
+    <row r="84" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="13">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="85" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="2"/>
+    </row>
+    <row r="86" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="12" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="87" spans="11:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="K87" s="11" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="88" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="2"/>
+    </row>
+    <row r="89" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="11" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="90" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K90" s="2"/>
+    </row>
+    <row r="91" spans="11:11" ht="64" x14ac:dyDescent="0.2">
+      <c r="K91" s="11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="92" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="2"/>
+    </row>
+    <row r="93" spans="11:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="K93" s="11" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="94" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="2"/>
+    </row>
+    <row r="95" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K95" s="11" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="96" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="2"/>
+    </row>
+    <row r="97" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="11" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="98" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="2"/>
+    </row>
+    <row r="99" spans="11:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="K99" s="11" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="100" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="2"/>
+    </row>
+    <row r="101" spans="11:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="K101" s="11" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="102" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K102" s="2"/>
+    </row>
+    <row r="103" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K103" s="11" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="104" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K104" s="2"/>
+    </row>
+    <row r="105" spans="11:11" ht="96" x14ac:dyDescent="0.2">
+      <c r="K105" s="9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="106" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K106" s="2"/>
+    </row>
+    <row r="107" spans="11:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="K107" s="9" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="108" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K108" s="2"/>
+    </row>
+    <row r="109" spans="11:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="K109" s="9" t="s">
+        <v>466</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E305"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="101" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="53.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36.5" customWidth="1"/>
+    <col min="3" max="3" width="79.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.1640625" customWidth="1"/>
+    <col min="5" max="5" width="33.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>279</v>
+      </c>
+      <c r="B7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="C11" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="C14" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
+      <c r="C40" s="11" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="112" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="C42" s="11" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="C44" s="11" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="C46" s="11" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="1:3" ht="112" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="C48" s="11" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="C50" s="11" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C52" s="11" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="C54" s="11" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C55" s="2"/>
+    </row>
+    <row r="56" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="C56" s="11" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="C58" s="11" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C60" s="12" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C61" s="11" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C63" s="11" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C64" s="11" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C65" s="2"/>
+    </row>
+    <row r="66" spans="3:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="C66" s="11" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C67" s="2"/>
+    </row>
+    <row r="68" spans="3:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="C68" s="11" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C69" s="2"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C70" s="11" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C71" s="2"/>
+    </row>
+    <row r="72" spans="3:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="C72" s="11" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C73" s="2"/>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C74" s="11" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C75" s="2"/>
+    </row>
+    <row r="76" spans="3:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="C76" s="11" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C77" s="2"/>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C78" s="11" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C79" s="2"/>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C80" s="11" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C81" s="2"/>
+    </row>
+    <row r="82" spans="3:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="C82" s="11" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C83" s="2"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C84" s="11" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C85" s="2"/>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C86" s="11" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C87" s="2"/>
+    </row>
+    <row r="88" spans="3:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="C88" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C89" s="2"/>
+    </row>
+    <row r="90" spans="3:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="C90" s="11" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C91" s="2"/>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C92" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C93" s="2"/>
+    </row>
+    <row r="94" spans="3:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="C94" s="11" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C95" s="2"/>
+    </row>
+    <row r="96" spans="3:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="C96" s="11" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C97" s="2"/>
+    </row>
+    <row r="98" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="C98" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C99" s="2"/>
+    </row>
+    <row r="100" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="C100" s="9" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C101" s="2"/>
+    </row>
+    <row r="102" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="C102" s="9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C103" s="2"/>
+    </row>
+    <row r="104" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="C104" s="9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C105" s="2"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C106" s="13" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C107" s="2"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C108" s="2"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C109" s="2"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C110" s="2"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C111" s="2"/>
+    </row>
+    <row r="112" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A112" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="2"/>
+      <c r="C113" s="2"/>
+    </row>
+    <row r="114" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A114" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="2"/>
+      <c r="C115" s="2"/>
+    </row>
+    <row r="116" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A116" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="2"/>
+      <c r="C117" s="2"/>
+    </row>
+    <row r="118" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A118" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="2"/>
+      <c r="C119" s="2"/>
+    </row>
+    <row r="120" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A120" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="2"/>
+      <c r="C121" s="2"/>
+    </row>
+    <row r="122" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A122" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="2"/>
+      <c r="C123" s="2"/>
+    </row>
+    <row r="124" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A124" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A125" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="C125" s="2"/>
+    </row>
+    <row r="126" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="C126" s="11" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C127" s="2"/>
+    </row>
+    <row r="128" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="C128" s="11" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C129" s="2"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C130" s="11" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C131" s="2"/>
+    </row>
+    <row r="132" spans="3:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="C132" s="11" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C133" s="2"/>
+    </row>
+    <row r="134" spans="3:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="C134" s="11" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C135" s="2"/>
+    </row>
+    <row r="136" spans="3:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="C136" s="11" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C137" s="2"/>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C138" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C139" s="2"/>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C140" s="13">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C141" s="2"/>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C142" s="12" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C143" s="11" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C144" s="2"/>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C145" s="11" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C146" s="2"/>
+    </row>
+    <row r="147" spans="3:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="C147" s="11" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C148" s="2"/>
+    </row>
+    <row r="149" spans="3:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="C149" s="11" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C150" s="2"/>
+    </row>
+    <row r="151" spans="3:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="C151" s="11" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C152" s="2"/>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C153" s="11" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C154" s="2"/>
+    </row>
+    <row r="155" spans="3:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="C155" s="11" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C156" s="2"/>
+    </row>
+    <row r="157" spans="3:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="C157" s="11" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C158" s="2"/>
+    </row>
+    <row r="159" spans="3:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="C159" s="11" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C160" s="2"/>
+    </row>
+    <row r="161" spans="3:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="C161" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C162" s="2"/>
+    </row>
+    <row r="163" spans="3:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="C163" s="11" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C164" s="2"/>
+    </row>
+    <row r="165" spans="3:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="C165" s="11" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C166" s="2"/>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C167" s="11" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C168" s="2"/>
+    </row>
+    <row r="169" spans="3:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="C169" s="9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C170" s="2"/>
+    </row>
+    <row r="171" spans="3:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="C171" s="9" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C172" s="2"/>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C173" s="2"/>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C174" s="2"/>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C175" s="2"/>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C176" s="2"/>
+    </row>
+    <row r="177" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A177" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="C177" s="10" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="2"/>
+      <c r="C178" s="2"/>
+    </row>
+    <row r="179" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A179" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="C179" s="11" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="2"/>
+      <c r="C180" s="11" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="C181" s="2"/>
+    </row>
+    <row r="182" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A182" s="2"/>
+      <c r="C182" s="11" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A183" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="C183" s="2"/>
+    </row>
+    <row r="184" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A184" s="2"/>
+      <c r="C184" s="11" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A185" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="C185" s="2"/>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="2"/>
+      <c r="C186" s="11" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A187" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="C187" s="2"/>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="2"/>
+      <c r="C188" s="11" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A189" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C189" s="2"/>
+    </row>
+    <row r="190" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A190" s="2"/>
+      <c r="C190" s="11" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A191" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="C191" s="2"/>
+    </row>
+    <row r="192" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A192" s="2"/>
+      <c r="C192" s="11" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="C193" s="2"/>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="2"/>
+      <c r="C194" s="11" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C195" s="2"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C196" s="11" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C197" s="2"/>
+    </row>
+    <row r="198" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="C198" s="11" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C199" s="2"/>
+    </row>
+    <row r="200" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="C200" s="11" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C201" s="2"/>
+    </row>
+    <row r="202" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="C202" s="11" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C203" s="2"/>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C204" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C205" s="2"/>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C206" s="13">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C207" s="2"/>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C208" s="12" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="209" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C209" s="2"/>
+    </row>
+    <row r="210" spans="3:3" ht="112" x14ac:dyDescent="0.2">
+      <c r="C210" s="11" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="211" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C211" s="2"/>
+    </row>
+    <row r="212" spans="3:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="C212" s="11" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="213" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C213" s="2"/>
+    </row>
+    <row r="214" spans="3:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="C214" s="11" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="215" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C215" s="2"/>
+    </row>
+    <row r="216" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C216" s="11" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="217" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C217" s="2"/>
+    </row>
+    <row r="218" spans="3:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="C218" s="11" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="219" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C219" s="2"/>
+    </row>
+    <row r="220" spans="3:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="C220" s="11" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="221" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C221" s="2"/>
+    </row>
+    <row r="222" spans="3:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="C222" s="11" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="223" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C223" s="2"/>
+    </row>
+    <row r="224" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C224" s="11" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="225" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C225" s="2"/>
+    </row>
+    <row r="226" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C226" s="11" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="227" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C227" s="2"/>
+    </row>
+    <row r="228" spans="3:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="C228" s="11" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="229" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C229" s="2"/>
+    </row>
+    <row r="230" spans="3:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="C230" s="11" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="231" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C231" s="2"/>
+    </row>
+    <row r="232" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C232" s="13">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="233" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C233" s="2"/>
+    </row>
+    <row r="234" spans="3:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="C234" s="11" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="235" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C235" s="2"/>
+    </row>
+    <row r="236" spans="3:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="C236" s="11" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="237" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C237" s="2"/>
+    </row>
+    <row r="238" spans="3:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="C238" s="11" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="239" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C239" s="2"/>
+    </row>
+    <row r="240" spans="3:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="C240" s="11" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="241" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C241" s="2"/>
+    </row>
+    <row r="242" spans="3:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="C242" s="11" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="243" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C243" s="2"/>
+    </row>
+    <row r="244" spans="3:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="C244" s="11" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="245" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C245" s="2"/>
+    </row>
+    <row r="246" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C246" s="11" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="247" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C247" s="2"/>
+    </row>
+    <row r="248" spans="3:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="C248" s="11" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="249" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C249" s="2"/>
+    </row>
+    <row r="250" spans="3:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="C250" s="11" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="251" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C251" s="2"/>
+    </row>
+    <row r="252" spans="3:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="C252" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="253" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C253" s="2"/>
+    </row>
+    <row r="254" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C254" s="11" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="255" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C255" s="2"/>
+    </row>
+    <row r="256" spans="3:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="C256" s="11" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="257" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C257" s="2"/>
+    </row>
+    <row r="258" spans="3:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="C258" s="11" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="259" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C259" s="2"/>
+    </row>
+    <row r="260" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C260" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="261" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C261" s="2"/>
+    </row>
+    <row r="262" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C262" s="13">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="263" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C263" s="2"/>
+    </row>
+    <row r="264" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C264" s="12" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="265" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C265" s="11" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="266" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C266" s="2"/>
+    </row>
+    <row r="267" spans="3:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="C267" s="11" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="268" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C268" s="2"/>
+    </row>
+    <row r="269" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C269" s="11" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="270" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C270" s="11" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="271" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C271" s="2"/>
+    </row>
+    <row r="272" spans="3:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="C272" s="11" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="273" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C273" s="2"/>
+    </row>
+    <row r="274" spans="3:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="C274" s="11" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="275" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C275" s="2"/>
+    </row>
+    <row r="276" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C276" s="11" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="277" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C277" s="2"/>
+    </row>
+    <row r="278" spans="3:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="C278" s="11" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="279" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C279" s="2"/>
+    </row>
+    <row r="280" spans="3:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="C280" s="11" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="281" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C281" s="2"/>
+    </row>
+    <row r="282" spans="3:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="C282" s="11" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="283" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C283" s="2"/>
+    </row>
+    <row r="284" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C284" s="11" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="285" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C285" s="2"/>
+    </row>
+    <row r="286" spans="3:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="C286" s="11" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="287" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C287" s="2"/>
+    </row>
+    <row r="288" spans="3:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="C288" s="11" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="289" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C289" s="2"/>
+    </row>
+    <row r="290" spans="3:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="C290" s="11" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="291" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C291" s="2"/>
+    </row>
+    <row r="292" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C292" s="13">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="293" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C293" s="2"/>
+    </row>
+    <row r="294" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C294" s="9" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="295" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C295" s="9" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="296" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C296" s="2"/>
+    </row>
+    <row r="297" spans="3:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="C297" s="9" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="298" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C298" s="2"/>
+    </row>
+    <row r="299" spans="3:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="C299" s="9" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="300" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C300" s="2"/>
+    </row>
+    <row r="301" spans="3:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="C301" s="9" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="302" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C302" s="2"/>
+    </row>
+    <row r="303" spans="3:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="C303" s="9" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="304" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C304" s="2"/>
+    </row>
+    <row r="305" spans="3:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="C305" s="9" t="s">
+        <v>525</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="J25:M77"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="F10" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="10" max="10" width="57.5" customWidth="1"/>
+    <col min="13" max="13" width="67.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="25" spans="10:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="J25" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="26" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J26" s="2"/>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="10:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="J27" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="M27" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J28" s="2"/>
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="10:13" ht="112" x14ac:dyDescent="0.2">
+      <c r="J29" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="30" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J30" s="2"/>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="10:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="J31" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="32" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J32" s="2"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="10:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="J33" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="34" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J34" s="2"/>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="10:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="J35" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="36" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J36" s="2"/>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="10:13" ht="128" x14ac:dyDescent="0.2">
+      <c r="J37" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="38" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J38" s="2"/>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="10:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="J39" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="40" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J40" s="2"/>
+      <c r="M40" s="2"/>
+    </row>
+    <row r="41" spans="10:13" ht="80" x14ac:dyDescent="0.2">
+      <c r="J41" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="M41" s="11" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="42" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="2"/>
+    </row>
+    <row r="43" spans="10:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="M43" s="11" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="44" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="2"/>
+    </row>
+    <row r="45" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="11" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="46" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="2"/>
+    </row>
+    <row r="47" spans="10:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="M47" s="11" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="48" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="2"/>
+    </row>
+    <row r="49" spans="13:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="M49" s="11" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="50" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="2"/>
+    </row>
+    <row r="51" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="13">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="2"/>
+    </row>
+    <row r="53" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="12" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="54" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="2"/>
+    </row>
+    <row r="55" spans="13:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="M55" s="11" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="56" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M56" s="2"/>
+    </row>
+    <row r="57" spans="13:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="M57" s="11" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="58" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="2"/>
+    </row>
+    <row r="59" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="11" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="60" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="2"/>
+    </row>
+    <row r="61" spans="13:13" ht="80" x14ac:dyDescent="0.2">
+      <c r="M61" s="11" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="62" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="2"/>
+    </row>
+    <row r="63" spans="13:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="M63" s="11" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="64" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="2"/>
+    </row>
+    <row r="65" spans="13:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="M65" s="11" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="66" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="2"/>
+    </row>
+    <row r="67" spans="13:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="M67" s="11" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="68" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="2"/>
+    </row>
+    <row r="69" spans="13:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="M69" s="11" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="70" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="2"/>
+    </row>
+    <row r="71" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="72" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="2"/>
+    </row>
+    <row r="73" spans="13:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="M73" s="9" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="74" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="2"/>
+    </row>
+    <row r="75" spans="13:13" ht="96" x14ac:dyDescent="0.2">
+      <c r="M75" s="9" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="76" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="2"/>
+    </row>
+    <row r="77" spans="13:13" ht="96" x14ac:dyDescent="0.2">
+      <c r="M77" s="9" t="s">
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="I27:L80"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="H12" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="9" max="9" width="65.1640625" customWidth="1"/>
+    <col min="12" max="12" width="71.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="27" spans="9:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="I27" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="28" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I28" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="9:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="I29" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="30" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I30" s="2"/>
+      <c r="L30" s="11" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="31" spans="9:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="I31" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="9:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="I32" s="2"/>
+      <c r="L32" s="11" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="33" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I33" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="9:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="I34" s="2"/>
+      <c r="L34" s="11" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="35" spans="9:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="I35" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="9:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="I36" s="2"/>
+      <c r="L36" s="11" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="37" spans="9:12" ht="96" x14ac:dyDescent="0.2">
+      <c r="I37" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="L37" s="11" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="38" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I38" s="2"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="9:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="I39" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="L39" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="40" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="9:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="L41" s="11" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="42" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="9:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="L43" s="11" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="44" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="11" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="46" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="11" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="47" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="9:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="L48" s="11" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="49" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="2"/>
+    </row>
+    <row r="50" spans="12:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="L50" s="11" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="51" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="2"/>
+    </row>
+    <row r="52" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="11" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="53" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="2"/>
+    </row>
+    <row r="54" spans="12:12" ht="64" x14ac:dyDescent="0.2">
+      <c r="L54" s="11" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="55" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L55" s="2"/>
+    </row>
+    <row r="56" spans="12:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="L56" s="11" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="57" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="2"/>
+    </row>
+    <row r="58" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="11" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="59" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="2"/>
+    </row>
+    <row r="60" spans="12:12" ht="64" x14ac:dyDescent="0.2">
+      <c r="L60" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="61" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="2"/>
+    </row>
+    <row r="62" spans="12:12" ht="80" x14ac:dyDescent="0.2">
+      <c r="L62" s="11" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="63" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="2"/>
+    </row>
+    <row r="64" spans="12:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="L64" s="11" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="65" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="2"/>
+    </row>
+    <row r="66" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="11" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="67" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L67" s="2"/>
+    </row>
+    <row r="68" spans="12:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="L68" s="11" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="69" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="2"/>
+    </row>
+    <row r="70" spans="12:12" ht="80" x14ac:dyDescent="0.2">
+      <c r="L70" s="11" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="71" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="2"/>
+    </row>
+    <row r="72" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="11" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="73" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="2"/>
+    </row>
+    <row r="74" spans="12:12" ht="64" x14ac:dyDescent="0.2">
+      <c r="L74" s="9" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="75" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="2"/>
+    </row>
+    <row r="76" spans="12:12" ht="64" x14ac:dyDescent="0.2">
+      <c r="L76" s="9" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="77" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="2"/>
+    </row>
+    <row r="78" spans="12:12" ht="64" x14ac:dyDescent="0.2">
+      <c r="L78" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="79" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L79" s="2"/>
+    </row>
+    <row r="80" spans="12:12" ht="96" x14ac:dyDescent="0.2">
+      <c r="L80" s="9" t="s">
+        <v>376</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2289,12 +5777,78 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="30.1640625" customWidth="1"/>
+    <col min="2" max="2" width="31.83203125" customWidth="1"/>
+    <col min="3" max="3" width="37.83203125" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" customWidth="1"/>
+    <col min="5" max="5" width="46.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2315,7 +5869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView zoomScale="97" zoomScaleNormal="97" zoomScalePageLayoutView="97" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="97" zoomScaleNormal="97" zoomScalePageLayoutView="97" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2334,7 +5888,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2557,7 +6111,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F22" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -2565,12 +6119,12 @@
         <v>56</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="F24" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -2578,7 +6132,7 @@
         <v>55</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -2656,7 +6210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="B13" zoomScale="120" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -2670,212 +6224,212 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D12" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D14" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D15" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D18" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D24" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D25" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D27" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D29" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -2903,41 +6457,41 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -2961,7 +6515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -2975,29 +6529,29 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/manish/courseLaw/LMR/Workbook1.xlsx
+++ b/manish/courseLaw/LMR/Workbook1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500" firstSheet="11" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500" firstSheet="5" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Contracts" sheetId="1" r:id="rId1"/>
@@ -319,48 +319,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="682">
   <si>
     <t>FORMATION OF CONTRACT</t>
-  </si>
-  <si>
-    <t>UCC Apply?</t>
-  </si>
-  <si>
-    <t>Are Parties Merchants</t>
-  </si>
-  <si>
-    <t>Offer?</t>
-  </si>
-  <si>
-    <t>Merchant's Firm Offer</t>
-  </si>
-  <si>
-    <t>Unilateral Contract</t>
-  </si>
-  <si>
-    <t>Acceptance?</t>
-  </si>
-  <si>
-    <t>Varying Terms</t>
-  </si>
-  <si>
-    <t>Offer Lapsed</t>
-  </si>
-  <si>
-    <t>Effective Acceptance?</t>
-  </si>
-  <si>
-    <t>Effective Rejection?</t>
-  </si>
-  <si>
-    <t>Effective Revocation?</t>
-  </si>
-  <si>
-    <t>Implied-In-Fact Contract</t>
-  </si>
-  <si>
-    <t>Is Writing Needed?</t>
   </si>
   <si>
     <t>sale of goods - ucc</t>
@@ -500,12 +461,6 @@
   </si>
   <si>
     <t>Completion of Performance</t>
-  </si>
-  <si>
-    <t>Consideration?</t>
-  </si>
-  <si>
-    <t>Mutual Assent?</t>
   </si>
   <si>
     <t>Mirror Image Rule</t>
@@ -793,9 +748,6 @@
     <t>D. DEFAMATION</t>
   </si>
   <si>
-    <t>Definition</t>
-  </si>
-  <si>
     <t>False Statement</t>
   </si>
   <si>
@@ -805,9 +757,6 @@
     <t>Causing Damage to Reputation</t>
   </si>
   <si>
-    <t>Types</t>
-  </si>
-  <si>
     <t>Slander /</t>
   </si>
   <si>
@@ -820,9 +769,6 @@
     <t>Libel is written</t>
   </si>
   <si>
-    <t>Privileged</t>
-  </si>
-  <si>
     <t>Example of Essay</t>
   </si>
   <si>
@@ -853,12 +799,6 @@
     <t>to keep interest and no harm to plaintiff</t>
   </si>
   <si>
-    <t>Defamation Per Quod</t>
-  </si>
-  <si>
-    <t>Defamation Per Se</t>
-  </si>
-  <si>
     <t>Innuendo, interpretation or knowledge of extrinsic facts</t>
   </si>
   <si>
@@ -881,9 +821,6 @@
   </si>
   <si>
     <t>Slandar per se</t>
-  </si>
-  <si>
-    <t>Slander Per Se</t>
   </si>
   <si>
     <t>Where False Statement is</t>
@@ -1069,9 +1006,6 @@
     <t>Slander is per se if it has CLUB</t>
   </si>
   <si>
-    <t>Effect</t>
-  </si>
-  <si>
     <t xml:space="preserve">Defamation Per se </t>
   </si>
   <si>
@@ -1084,9 +1018,6 @@
     <t>If Defamation per quod is proved, no money judgement.</t>
   </si>
   <si>
-    <t>New York Times V Sullivan</t>
-  </si>
-  <si>
     <t>If Matter is Public Concern</t>
   </si>
   <si>
@@ -1112,18 +1043,6 @@
   </si>
   <si>
     <t>B. CONTRACT TERMS</t>
-  </si>
-  <si>
-    <t>Timely Performance a Material Condition?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Contract Terms?</t>
-  </si>
-  <si>
-    <t>Buyer Satisfaction a Material Condition?</t>
-  </si>
-  <si>
-    <t>Parol Evidence Rule</t>
   </si>
   <si>
     <t>Common Law, must have</t>
@@ -1341,34 +1260,7 @@
     <t>C. Defenses</t>
   </si>
   <si>
-    <t>Unconscionable?</t>
-  </si>
-  <si>
     <t>Duress?</t>
-  </si>
-  <si>
-    <t>Fraud or Deceit?</t>
-  </si>
-  <si>
-    <t>Incapacity?</t>
-  </si>
-  <si>
-    <t>Illegality?</t>
-  </si>
-  <si>
-    <t>Impossibility?</t>
-  </si>
-  <si>
-    <t>Commercial Impracticability?</t>
-  </si>
-  <si>
-    <t>Frustration of Purpose?</t>
-  </si>
-  <si>
-    <t>Mutual Mistake?</t>
-  </si>
-  <si>
-    <t>Unilateral Mistake?</t>
   </si>
   <si>
     <t>E. Breach</t>
@@ -2481,6 +2373,496 @@
   </si>
   <si>
     <t xml:space="preserve">Discuss the potential first degree murder charges Karen might face along with lesser included offenses and her potential defenses. </t>
+  </si>
+  <si>
+    <t>A. Inchoate Crime</t>
+  </si>
+  <si>
+    <t>Solicitation?</t>
+  </si>
+  <si>
+    <t>Conspiracy?</t>
+  </si>
+  <si>
+    <t>Attempt?</t>
+  </si>
+  <si>
+    <t>Urging</t>
+  </si>
+  <si>
+    <t>Another Person</t>
+  </si>
+  <si>
+    <t>To Commit Crime</t>
+  </si>
+  <si>
+    <t>Merges with crime</t>
+  </si>
+  <si>
+    <t>Accessory before fact</t>
+  </si>
+  <si>
+    <t>Vicariously liable</t>
+  </si>
+  <si>
+    <t>2 or more people</t>
+  </si>
+  <si>
+    <t>Work Together</t>
+  </si>
+  <si>
+    <t>Toward Illegal Goal</t>
+  </si>
+  <si>
+    <t>Overt Act is required</t>
+  </si>
+  <si>
+    <t>Member of conspiracy</t>
+  </si>
+  <si>
+    <t>Vicarously Liable</t>
+  </si>
+  <si>
+    <t>(for criminal acts of co-conspirators)</t>
+  </si>
+  <si>
+    <t>Within scope of conspiracy goal.</t>
+  </si>
+  <si>
+    <t>Crimes that were:</t>
+  </si>
+  <si>
+    <t>1) foreseeable</t>
+  </si>
+  <si>
+    <t>2) in futherance of conspiracy goal</t>
+  </si>
+  <si>
+    <t>Pinkerton's Rule?</t>
+  </si>
+  <si>
+    <t>Conspiracy does not merge with crime</t>
+  </si>
+  <si>
+    <t>Substantial Step</t>
+  </si>
+  <si>
+    <t>(toward crime)</t>
+  </si>
+  <si>
+    <t>Accomplice Liability</t>
+  </si>
+  <si>
+    <t>Vicarious Criminal Liability</t>
+  </si>
+  <si>
+    <t>For</t>
+  </si>
+  <si>
+    <t>Criminal Acts of Co-Conspirators</t>
+  </si>
+  <si>
+    <t>that</t>
+  </si>
+  <si>
+    <t>Directly and Naturally Results</t>
+  </si>
+  <si>
+    <t>Defendant's own Criminal Acts</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>Withdrawal is not a defense</t>
+  </si>
+  <si>
+    <t>B. Negligence</t>
+  </si>
+  <si>
+    <t>1. Negligence?</t>
+  </si>
+  <si>
+    <t>2. Strict Liability in Negligence?</t>
+  </si>
+  <si>
+    <t>3. Duty?</t>
+  </si>
+  <si>
+    <t>4. Negligence Per Se</t>
+  </si>
+  <si>
+    <t>5. Duty based on Peril?</t>
+  </si>
+  <si>
+    <t>6. Duty based on Premises Liability?</t>
+  </si>
+  <si>
+    <t>7. Attractive Nuisance Doctrine?</t>
+  </si>
+  <si>
+    <t>8. Liability Based on Rescuer Doctrine / Fireman's Rule?</t>
+  </si>
+  <si>
+    <t>9. Breach of Duty?</t>
+  </si>
+  <si>
+    <t>10. Breach based on Res Ipsa Loquitur?</t>
+  </si>
+  <si>
+    <t>11. Breach based on Negligent Entrustment?</t>
+  </si>
+  <si>
+    <t>12. Respondeat Superior?</t>
+  </si>
+  <si>
+    <t>13. Vicarious Liability for Joint Enterprise?</t>
+  </si>
+  <si>
+    <t>14. Liability for acts as Independent Contractor?</t>
+  </si>
+  <si>
+    <t>15. Actual Cause or Substantial Factor</t>
+  </si>
+  <si>
+    <t>16. Proximate Cause?</t>
+  </si>
+  <si>
+    <t>17. Egg Shell Plaintiff?</t>
+  </si>
+  <si>
+    <t>18. Contributory or Comparative Negligence?</t>
+  </si>
+  <si>
+    <t>19. Assumption of Risk?</t>
+  </si>
+  <si>
+    <t>20. Negligence Infliction of Emotional Distress (NIED)?</t>
+  </si>
+  <si>
+    <t>1. Contract Terms?</t>
+  </si>
+  <si>
+    <t>2. Timely Performance a Material Condition?</t>
+  </si>
+  <si>
+    <t>3. Buyer Satisfaction a Material Condition?</t>
+  </si>
+  <si>
+    <t>4. Parol Evidence Rule</t>
+  </si>
+  <si>
+    <t>1. UCC Apply?</t>
+  </si>
+  <si>
+    <t>2. Are Parties Merchants</t>
+  </si>
+  <si>
+    <t>3. Offer?</t>
+  </si>
+  <si>
+    <t>4. Merchant's Firm Offer</t>
+  </si>
+  <si>
+    <t>5. Unilateral Contract</t>
+  </si>
+  <si>
+    <t>6. Acceptance?</t>
+  </si>
+  <si>
+    <t>7. Varying Terms</t>
+  </si>
+  <si>
+    <t>8. Offer Lapsed</t>
+  </si>
+  <si>
+    <t>9. Implied-In-Fact Contract</t>
+  </si>
+  <si>
+    <t>10. Is Writing Needed?</t>
+  </si>
+  <si>
+    <t>11. Effective Acceptance?</t>
+  </si>
+  <si>
+    <t>12. Effective Rejection?</t>
+  </si>
+  <si>
+    <t>13. Effective Revocation?</t>
+  </si>
+  <si>
+    <t>14. Consideration?</t>
+  </si>
+  <si>
+    <t>15. Mutual Assent?</t>
+  </si>
+  <si>
+    <t>1. Unconscionable?</t>
+  </si>
+  <si>
+    <t>2. Duress?</t>
+  </si>
+  <si>
+    <t>3. Fraud or Deceit?</t>
+  </si>
+  <si>
+    <t>4. Incapacity?</t>
+  </si>
+  <si>
+    <t>5. Illegality?</t>
+  </si>
+  <si>
+    <t>6. Impossibility?</t>
+  </si>
+  <si>
+    <t>7. Commercial Impracticability?</t>
+  </si>
+  <si>
+    <t>8. Frustration of Purpose?</t>
+  </si>
+  <si>
+    <t>9. Mutual Mistake?</t>
+  </si>
+  <si>
+    <t>10. Unilateral Mistake?</t>
+  </si>
+  <si>
+    <t>C. Products Liability</t>
+  </si>
+  <si>
+    <t>1. Products Liability?</t>
+  </si>
+  <si>
+    <t>2. Breach of Express Warranty?</t>
+  </si>
+  <si>
+    <t>3. Breach of Implied Warranty?</t>
+  </si>
+  <si>
+    <t>4. Negligence?</t>
+  </si>
+  <si>
+    <t>5. Strict Liability?</t>
+  </si>
+  <si>
+    <t>1. Definition</t>
+  </si>
+  <si>
+    <t>2. Types</t>
+  </si>
+  <si>
+    <t>3. Privileged</t>
+  </si>
+  <si>
+    <t>4. Defamation Per Quod</t>
+  </si>
+  <si>
+    <t>5. Defamation Per Se</t>
+  </si>
+  <si>
+    <t>6. Slander Per Se</t>
+  </si>
+  <si>
+    <t>7. Effect</t>
+  </si>
+  <si>
+    <t>8. New York Times V Sullivan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ken was a politician from Los Angeles. He moved to Sacramento and purchased a spacious home on the Sacramento River. He felt he got a great deal because he only paid $400,000 and a similar home in Los Angeles would have cost him three times that amount. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ken realized his home was directly in the flight path of the airplanes taking off and landing from the County airport, and the realtor had prominently disclosed this fact on the sales documents. But Ken didn't think the noise was so bad because from his backyard he just loved to hear little birds singing along the public river parkway. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Four years later Ken lost the election and he wanted to move back to Los Angeles. When he had the house appraised, it was worth $500,000. Ken was furious because his home value had only increased 25 percent in value while most real estate had gone up 50 percent. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ken blamed the County. In the four years he owned the home the number of flights at the airport increased ten percent. This increased traffic was from increased military use in response to the crisis in Romaria. Ken could not enjoy his yard as much as before, and the little birds on the public river parkway didn't seem to sing as much as they used to. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What actions might Ken bring against the County, what defenses might be raised, and what remedies are appropriate? </t>
+  </si>
+  <si>
+    <t>Sample Answer 16-6: Nuisance</t>
+  </si>
+  <si>
+    <t>KEN v. COUNTY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) PRIVATE NUISANCE? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under tort law PRIVATE NUISANCE is an unreasonable interference with the plaintiffs’ use and enjoyment of their land. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here there was some interference because the County airport caused "noise" that prevented Ken from "enjoying his yard" and "hearing the birds." And this involved the use of Ken's land because it was his "house" and "yard." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The two elements that would be most difficult to prove are whether Ken suffered significant damages, and whether the County action was unreasonable. The County would argue that the noise was insufficient interference to prevent Ken from enjoying his land because Ken "didn't think the noise was so bad" when he bought the house. He in effect CAME TO THE NUISANCE, and that fact suggests the situation was not as bad as Ken claims. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">But Ken would try to prove that the interference was unreasonable because the County let flights increase “ten percent" in only "four years." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The County would also argue it did not cause the nuisance, and had not acted irresponsibly. The County might argue it was not responsible because the increase in noise was caused by "military use" beyond their control. Alternatively, the County would argue that it acted reasonably because the flights were in response to the "Romaria crisis." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ken would argue he suffered damages because the value of his home was less that it otherwise would be. But the County would argue there was no proof of financial loss because the home had gone up in value and the claim of loss was speculative. Further, the County would argue there was no proof the birds did not sing as much as before. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore, the County might be liable for private nuisance depending on whether Ken could prove these legal elements. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2) PUBLIC NUISANCE? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under tort law PUBLIC NUISANCE is an unreasonable interference with the plaintiff's use and enjoyment of public resources causing her particular injury that is different or greater than the general public. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here the noise interferes with the enjoyment of public land because it prevents Ken from "hearing the birds sing" on the "public river parkway." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The County may argue that Ken lacks standing because he does not suffer any injury that is different from any other member of the public. But Ken suffers particular injury because his home is "on the river" and he could hear the birds sing "from his backyard." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ken would have to prove the other elements of nuisance which are discussed above under private nuisance. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore, the County may be liable for public nuisance, depending on whether Ken can prove the County’s action is unreasonable and produces significant damages. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3) COMING TO THE NUISANCE? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under tort law COMING TO THE NUISANCE is the defense that the plaintiff moved to the location where the condition complained of already existed. It is a complete bar in a MINORITY view, but in the MAJORITY view it is only a factor to be considered in determining damages. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here Ken moved to the location because he "purchased the home." And the condition already existed because he "realized his home was in the flight path" and the "realtor disclosed the fact." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ken would argue that even though problems existed when he bought the home, they worsened after that. Further, he would argue that in any event the County action is unreasonable per se. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore, the court would consider Ken's coming to the nuisances only as a factor in determining damages in most States. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4) REMEDIES? </t>
+  </si>
+  <si>
+    <t>The REMEDIES for a nuisance action include both money damages and injunctive relief.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the nuisance is a temporary situation money damages measured by the loss of use for the period of the nuisance will be an adequate remedy. If the nuisance would continue but for injunctive relief, the Court would consider granting an injunction. Injunctive relief is an equitable remedy, and the court has discretion to deny it. The Court will balance the interests of the parties, the interests of third parties and the feasibility of judicial enforcement. If the Court denies injunctive relief, the appropriate remedy is an award of money damages measured by the loss of property value caused by the nuisance. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here the nuisance is a permanent condition, so the Court would consider injunctive relief. But the interest of third parties, people who use the airport, the military, and the County residents would be so significant the Court is unlikely to issue an injunction stopping the airport from continuing operations. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore the Court would most likely award Ken money damages to reflect the loss of market value of his property caused by the increase in airport traffic. </t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Bold"/>
+      </rPr>
+      <t xml:space="preserve">ANSWER EXPLANATION: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman"/>
+      </rPr>
+      <t xml:space="preserve">This question is roughly based on true events. The point to remember is that "coming to the nuisance" is not a complete bar to recovery. If a defendant unreasonably interferes with the use of land, a new purchaser might "buy into the right to sue" for a nuisance the previous owner did not litigate. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Just state the rule and prove (or disprove) the elements. Here Ken’s case is rather weak, so you may have to give “conditional” conclusions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discussion of “defenses” and “remedies” is mandatory because the CALL specifically asks for it.] </t>
+  </si>
+  <si>
+    <t>F. Nuisance</t>
+  </si>
+  <si>
+    <t>1. Private Nuisance?</t>
+  </si>
+  <si>
+    <t>2. Public Nuisance?</t>
+  </si>
+  <si>
+    <t>Interference</t>
+  </si>
+  <si>
+    <t>(with person's)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use and Enjoyment of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>public resources</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use and Enjoyment of their </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>own land</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Show particular injury</t>
+  </si>
+  <si>
+    <t>Greater than</t>
+  </si>
+  <si>
+    <t>that suffered by general public.</t>
   </si>
 </sst>
 </file>
@@ -2940,24 +3322,139 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:C49"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="42.5" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" customWidth="1"/>
+    <col min="3" max="3" width="48.33203125" customWidth="1"/>
+    <col min="4" max="4" width="41" customWidth="1"/>
+    <col min="5" max="5" width="34.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" customWidth="1"/>
+    <col min="5" max="5" width="35" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2967,7 +3464,7 @@
   <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2979,394 +3476,394 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>97</v>
+        <v>630</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>101</v>
+        <v>631</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>106</v>
+        <v>632</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="F5" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="F7" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="F8" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="F9" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C10" s="2"/>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F11" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>117</v>
+        <v>633</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>118</v>
+        <v>634</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>127</v>
+        <v>635</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="B14" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C14" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="B16" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="C18" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F22" s="4" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>177</v>
+        <v>636</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F28" s="4" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F30" s="4" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>182</v>
+        <v>637</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="144" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F34" s="4" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F40" s="4" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F42" s="4" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F43" s="4" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F45" s="4" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F47" s="4" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F49" s="4" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F51" s="4" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F53" s="4" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F55" s="4" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F57" s="4" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F59" s="4" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F61" s="4" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
     </row>
     <row r="63" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F63" s="4" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F65" s="4" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F67" s="4" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F69" s="4" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F71" s="4" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F73" s="4" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F75" s="4" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
     </row>
     <row r="77" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F77" s="4" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F79" s="4" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
     </row>
     <row r="81" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F81" s="4" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F83" s="5" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
     </row>
     <row r="85" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F85" s="5" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F87" s="5" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
     </row>
     <row r="89" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F89" s="5" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3391,86 +3888,86 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -3480,60 +3977,526 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="54.1640625" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
+    <col min="3" max="3" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="58.6640625" customWidth="1"/>
+    <col min="6" max="6" width="60.83203125" customWidth="1"/>
+    <col min="8" max="8" width="68.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>675</v>
+      </c>
+      <c r="B6" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>676</v>
+      </c>
+      <c r="B7" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>678</v>
+      </c>
+      <c r="B8" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" ht="72" x14ac:dyDescent="0.2">
+      <c r="C21" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="C22" s="2"/>
+      <c r="E22" s="11" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" ht="409" x14ac:dyDescent="0.2">
+      <c r="C23" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="3:5" ht="409" x14ac:dyDescent="0.2">
+      <c r="C25" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="3:5" ht="409" x14ac:dyDescent="0.2">
+      <c r="C27" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="3:5" ht="409" x14ac:dyDescent="0.2">
+      <c r="C29" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="3:5" ht="240" x14ac:dyDescent="0.2">
+      <c r="C31" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="5:5" ht="409" x14ac:dyDescent="0.2">
+      <c r="E33" s="11" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="5:5" ht="409" x14ac:dyDescent="0.2">
+      <c r="E35" s="11" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="5:5" ht="192" x14ac:dyDescent="0.2">
+      <c r="E37" s="11" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="5:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="E39" s="11" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="5:5" ht="352" x14ac:dyDescent="0.2">
+      <c r="E41" s="11" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="42" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="5:5" ht="256" x14ac:dyDescent="0.2">
+      <c r="E43" s="11" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="5:5" ht="409" x14ac:dyDescent="0.2">
+      <c r="E45" s="11" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E47" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="5:5" ht="176" x14ac:dyDescent="0.2">
+      <c r="E49" s="11" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="5:5" ht="272" x14ac:dyDescent="0.2">
+      <c r="E51" s="11" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="5:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="E53" s="11" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="54" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="5:5" ht="409" x14ac:dyDescent="0.2">
+      <c r="E55" s="11" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="56" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="5:5" ht="304" x14ac:dyDescent="0.2">
+      <c r="E57" s="11" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="58" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="5:5" ht="288" x14ac:dyDescent="0.2">
+      <c r="E59" s="11" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="60" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="5:5" ht="208" x14ac:dyDescent="0.2">
+      <c r="E61" s="11" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="62" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="5:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="E63" s="11" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="64" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="5:5" ht="176" x14ac:dyDescent="0.2">
+      <c r="E65" s="11" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="66" spans="5:5" ht="409" x14ac:dyDescent="0.2">
+      <c r="E66" s="11" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="5:5" ht="409" x14ac:dyDescent="0.2">
+      <c r="E68" s="11" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="5:5" ht="256" x14ac:dyDescent="0.2">
+      <c r="E70" s="11" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="71" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="5:5" ht="409" x14ac:dyDescent="0.2">
+      <c r="E72" s="9" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="73" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="5:5" ht="256" x14ac:dyDescent="0.2">
+      <c r="E74" s="9" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="75" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="5:5" ht="176" x14ac:dyDescent="0.2">
+      <c r="E76" s="9" t="s">
+        <v>671</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="I28:K109"/>
+  <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView topLeftCell="B23" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="28.1640625" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="35" customWidth="1"/>
     <col min="9" max="9" width="53.1640625" customWidth="1"/>
     <col min="11" max="11" width="80.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="28" spans="9:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>544</v>
+      </c>
+      <c r="B6" t="s">
+        <v>550</v>
+      </c>
+      <c r="C6" t="s">
+        <v>564</v>
+      </c>
+      <c r="D6" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>545</v>
+      </c>
+      <c r="B7" t="s">
+        <v>551</v>
+      </c>
+      <c r="E7" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>546</v>
+      </c>
+      <c r="B8" t="s">
+        <v>552</v>
+      </c>
+      <c r="D8" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>547</v>
+      </c>
+      <c r="B10" t="s">
+        <v>553</v>
+      </c>
+      <c r="D10" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>548</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="D12" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>556</v>
+      </c>
+      <c r="D16" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="I28" s="10" t="s">
-        <v>535</v>
+        <v>499</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.2">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="I29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="9:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:11" ht="48" x14ac:dyDescent="0.2">
       <c r="I30" s="9" t="s">
-        <v>536</v>
+        <v>500</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="31" spans="9:11" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="I31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="9:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:11" ht="80" x14ac:dyDescent="0.2">
       <c r="I32" s="9" t="s">
-        <v>537</v>
+        <v>501</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>431</v>
+        <v>395</v>
       </c>
     </row>
     <row r="33" spans="9:11" x14ac:dyDescent="0.2">
@@ -3542,81 +4505,81 @@
     </row>
     <row r="34" spans="9:11" ht="80" x14ac:dyDescent="0.2">
       <c r="I34" s="9" t="s">
-        <v>538</v>
+        <v>502</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>432</v>
+        <v>396</v>
       </c>
     </row>
     <row r="35" spans="9:11" ht="32" x14ac:dyDescent="0.2">
       <c r="I35" s="9" t="s">
-        <v>539</v>
+        <v>503</v>
       </c>
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="9:11" ht="48" x14ac:dyDescent="0.2">
       <c r="I36" s="2"/>
       <c r="K36" s="11" t="s">
-        <v>433</v>
+        <v>397</v>
       </c>
     </row>
     <row r="37" spans="9:11" ht="64" x14ac:dyDescent="0.2">
       <c r="I37" s="9" t="s">
-        <v>540</v>
+        <v>504</v>
       </c>
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I38" s="2"/>
       <c r="K38" s="11" t="s">
-        <v>434</v>
+        <v>398</v>
       </c>
     </row>
     <row r="39" spans="9:11" ht="64" x14ac:dyDescent="0.2">
       <c r="I39" s="9" t="s">
-        <v>541</v>
+        <v>505</v>
       </c>
       <c r="K39" s="2"/>
     </row>
     <row r="40" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I40" s="2"/>
       <c r="K40" s="11" t="s">
-        <v>435</v>
+        <v>399</v>
       </c>
     </row>
     <row r="41" spans="9:11" ht="48" x14ac:dyDescent="0.2">
       <c r="I41" s="9" t="s">
-        <v>542</v>
+        <v>506</v>
       </c>
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="9:11" ht="48" x14ac:dyDescent="0.2">
       <c r="I42" s="2"/>
       <c r="K42" s="11" t="s">
-        <v>436</v>
+        <v>400</v>
       </c>
     </row>
     <row r="43" spans="9:11" ht="64" x14ac:dyDescent="0.2">
       <c r="I43" s="9" t="s">
-        <v>543</v>
+        <v>507</v>
       </c>
       <c r="K43" s="2"/>
     </row>
     <row r="44" spans="9:11" ht="32" x14ac:dyDescent="0.2">
       <c r="I44" s="2"/>
       <c r="K44" s="11" t="s">
-        <v>437</v>
+        <v>401</v>
       </c>
     </row>
     <row r="45" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I45" s="9" t="s">
-        <v>544</v>
+        <v>508</v>
       </c>
       <c r="K45" s="2"/>
     </row>
     <row r="46" spans="9:11" ht="48" x14ac:dyDescent="0.2">
       <c r="K46" s="11" t="s">
-        <v>438</v>
+        <v>402</v>
       </c>
     </row>
     <row r="47" spans="9:11" x14ac:dyDescent="0.2">
@@ -3624,7 +4587,7 @@
     </row>
     <row r="48" spans="9:11" ht="32" x14ac:dyDescent="0.2">
       <c r="K48" s="11" t="s">
-        <v>439</v>
+        <v>403</v>
       </c>
     </row>
     <row r="49" spans="11:11" x14ac:dyDescent="0.2">
@@ -3632,7 +4595,7 @@
     </row>
     <row r="50" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K50" s="11" t="s">
-        <v>440</v>
+        <v>404</v>
       </c>
     </row>
     <row r="51" spans="11:11" x14ac:dyDescent="0.2">
@@ -3640,7 +4603,7 @@
     </row>
     <row r="52" spans="11:11" ht="32" x14ac:dyDescent="0.2">
       <c r="K52" s="11" t="s">
-        <v>441</v>
+        <v>405</v>
       </c>
     </row>
     <row r="53" spans="11:11" x14ac:dyDescent="0.2">
@@ -3648,7 +4611,7 @@
     </row>
     <row r="54" spans="11:11" ht="32" x14ac:dyDescent="0.2">
       <c r="K54" s="11" t="s">
-        <v>442</v>
+        <v>406</v>
       </c>
     </row>
     <row r="55" spans="11:11" x14ac:dyDescent="0.2">
@@ -3664,7 +4627,7 @@
     </row>
     <row r="58" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K58" s="11" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
     </row>
     <row r="59" spans="11:11" x14ac:dyDescent="0.2">
@@ -3672,7 +4635,7 @@
     </row>
     <row r="60" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K60" s="14" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="11:11" x14ac:dyDescent="0.2">
@@ -3680,7 +4643,7 @@
     </row>
     <row r="62" spans="11:11" ht="48" x14ac:dyDescent="0.2">
       <c r="K62" s="11" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
     </row>
     <row r="63" spans="11:11" x14ac:dyDescent="0.2">
@@ -3688,7 +4651,7 @@
     </row>
     <row r="64" spans="11:11" ht="64" x14ac:dyDescent="0.2">
       <c r="K64" s="11" t="s">
-        <v>445</v>
+        <v>409</v>
       </c>
     </row>
     <row r="65" spans="11:11" x14ac:dyDescent="0.2">
@@ -3696,7 +4659,7 @@
     </row>
     <row r="66" spans="11:11" ht="48" x14ac:dyDescent="0.2">
       <c r="K66" s="11" t="s">
-        <v>446</v>
+        <v>410</v>
       </c>
     </row>
     <row r="67" spans="11:11" x14ac:dyDescent="0.2">
@@ -3704,7 +4667,7 @@
     </row>
     <row r="68" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K68" s="11" t="s">
-        <v>447</v>
+        <v>411</v>
       </c>
     </row>
     <row r="69" spans="11:11" x14ac:dyDescent="0.2">
@@ -3712,7 +4675,7 @@
     </row>
     <row r="70" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K70" s="11" t="s">
-        <v>448</v>
+        <v>412</v>
       </c>
     </row>
     <row r="71" spans="11:11" x14ac:dyDescent="0.2">
@@ -3720,7 +4683,7 @@
     </row>
     <row r="72" spans="11:11" ht="128" x14ac:dyDescent="0.2">
       <c r="K72" s="11" t="s">
-        <v>449</v>
+        <v>413</v>
       </c>
     </row>
     <row r="73" spans="11:11" x14ac:dyDescent="0.2">
@@ -3728,7 +4691,7 @@
     </row>
     <row r="74" spans="11:11" ht="32" x14ac:dyDescent="0.2">
       <c r="K74" s="11" t="s">
-        <v>450</v>
+        <v>414</v>
       </c>
     </row>
     <row r="75" spans="11:11" x14ac:dyDescent="0.2">
@@ -3736,7 +4699,7 @@
     </row>
     <row r="76" spans="11:11" ht="32" x14ac:dyDescent="0.2">
       <c r="K76" s="11" t="s">
-        <v>451</v>
+        <v>415</v>
       </c>
     </row>
     <row r="77" spans="11:11" x14ac:dyDescent="0.2">
@@ -3744,7 +4707,7 @@
     </row>
     <row r="78" spans="11:11" ht="96" x14ac:dyDescent="0.2">
       <c r="K78" s="11" t="s">
-        <v>452</v>
+        <v>416</v>
       </c>
     </row>
     <row r="79" spans="11:11" x14ac:dyDescent="0.2">
@@ -3752,7 +4715,7 @@
     </row>
     <row r="80" spans="11:11" ht="32" x14ac:dyDescent="0.2">
       <c r="K80" s="11" t="s">
-        <v>453</v>
+        <v>417</v>
       </c>
     </row>
     <row r="81" spans="11:11" x14ac:dyDescent="0.2">
@@ -3760,7 +4723,7 @@
     </row>
     <row r="82" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K82" s="11" t="s">
-        <v>454</v>
+        <v>418</v>
       </c>
     </row>
     <row r="83" spans="11:11" x14ac:dyDescent="0.2">
@@ -3776,12 +4739,12 @@
     </row>
     <row r="86" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K86" s="12" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
     </row>
     <row r="87" spans="11:11" ht="32" x14ac:dyDescent="0.2">
       <c r="K87" s="11" t="s">
-        <v>455</v>
+        <v>419</v>
       </c>
     </row>
     <row r="88" spans="11:11" x14ac:dyDescent="0.2">
@@ -3789,7 +4752,7 @@
     </row>
     <row r="89" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K89" s="11" t="s">
-        <v>456</v>
+        <v>420</v>
       </c>
     </row>
     <row r="90" spans="11:11" x14ac:dyDescent="0.2">
@@ -3797,7 +4760,7 @@
     </row>
     <row r="91" spans="11:11" ht="64" x14ac:dyDescent="0.2">
       <c r="K91" s="11" t="s">
-        <v>457</v>
+        <v>421</v>
       </c>
     </row>
     <row r="92" spans="11:11" x14ac:dyDescent="0.2">
@@ -3805,7 +4768,7 @@
     </row>
     <row r="93" spans="11:11" ht="32" x14ac:dyDescent="0.2">
       <c r="K93" s="11" t="s">
-        <v>458</v>
+        <v>422</v>
       </c>
     </row>
     <row r="94" spans="11:11" x14ac:dyDescent="0.2">
@@ -3813,7 +4776,7 @@
     </row>
     <row r="95" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K95" s="11" t="s">
-        <v>459</v>
+        <v>423</v>
       </c>
     </row>
     <row r="96" spans="11:11" x14ac:dyDescent="0.2">
@@ -3821,7 +4784,7 @@
     </row>
     <row r="97" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K97" s="11" t="s">
-        <v>460</v>
+        <v>424</v>
       </c>
     </row>
     <row r="98" spans="11:11" x14ac:dyDescent="0.2">
@@ -3829,7 +4792,7 @@
     </row>
     <row r="99" spans="11:11" ht="32" x14ac:dyDescent="0.2">
       <c r="K99" s="11" t="s">
-        <v>461</v>
+        <v>425</v>
       </c>
     </row>
     <row r="100" spans="11:11" x14ac:dyDescent="0.2">
@@ -3837,7 +4800,7 @@
     </row>
     <row r="101" spans="11:11" ht="32" x14ac:dyDescent="0.2">
       <c r="K101" s="11" t="s">
-        <v>462</v>
+        <v>426</v>
       </c>
     </row>
     <row r="102" spans="11:11" x14ac:dyDescent="0.2">
@@ -3845,7 +4808,7 @@
     </row>
     <row r="103" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K103" s="11" t="s">
-        <v>463</v>
+        <v>427</v>
       </c>
     </row>
     <row r="104" spans="11:11" x14ac:dyDescent="0.2">
@@ -3853,7 +4816,7 @@
     </row>
     <row r="105" spans="11:11" ht="96" x14ac:dyDescent="0.2">
       <c r="K105" s="9" t="s">
-        <v>464</v>
+        <v>428</v>
       </c>
     </row>
     <row r="106" spans="11:11" x14ac:dyDescent="0.2">
@@ -3861,7 +4824,7 @@
     </row>
     <row r="107" spans="11:11" ht="32" x14ac:dyDescent="0.2">
       <c r="K107" s="9" t="s">
-        <v>465</v>
+        <v>429</v>
       </c>
     </row>
     <row r="108" spans="11:11" x14ac:dyDescent="0.2">
@@ -3869,7 +4832,7 @@
     </row>
     <row r="109" spans="11:11" ht="32" x14ac:dyDescent="0.2">
       <c r="K109" s="9" t="s">
-        <v>466</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -3881,7 +4844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="101" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="101" workbookViewId="0">
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
@@ -3896,158 +4859,158 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>299</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="B5" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="C5" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="B7" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="C7" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="B8" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="C14" s="2" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C16" s="1" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>302</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>569</v>
+        <v>533</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -4056,75 +5019,75 @@
     </row>
     <row r="39" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>570</v>
+        <v>534</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="C40" s="11" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="112" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>571</v>
+        <v>535</v>
       </c>
       <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3" ht="96" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="C42" s="11" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="96" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>572</v>
+        <v>536</v>
       </c>
       <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="C44" s="11" t="s">
-        <v>314</v>
+        <v>278</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="96" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>573</v>
+        <v>537</v>
       </c>
       <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="C46" s="11" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>574</v>
+        <v>538</v>
       </c>
       <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:3" ht="112" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="C48" s="11" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
-        <v>575</v>
+        <v>539</v>
       </c>
       <c r="C49" s="2"/>
     </row>
     <row r="50" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="C50" s="11" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -4132,7 +5095,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C52" s="11" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -4140,7 +5103,7 @@
     </row>
     <row r="54" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C54" s="11" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -4148,7 +5111,7 @@
     </row>
     <row r="56" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="C56" s="11" t="s">
-        <v>320</v>
+        <v>284</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -4156,7 +5119,7 @@
     </row>
     <row r="58" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C58" s="11" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -4164,12 +5127,12 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C60" s="12" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C61" s="11" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -4177,12 +5140,12 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C63" s="11" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C64" s="11" t="s">
-        <v>325</v>
+        <v>289</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.2">
@@ -4190,7 +5153,7 @@
     </row>
     <row r="66" spans="3:3" ht="64" x14ac:dyDescent="0.2">
       <c r="C66" s="11" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.2">
@@ -4198,7 +5161,7 @@
     </row>
     <row r="68" spans="3:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C68" s="11" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.2">
@@ -4206,7 +5169,7 @@
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C70" s="11" t="s">
-        <v>328</v>
+        <v>292</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.2">
@@ -4214,7 +5177,7 @@
     </row>
     <row r="72" spans="3:3" ht="48" x14ac:dyDescent="0.2">
       <c r="C72" s="11" t="s">
-        <v>329</v>
+        <v>293</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.2">
@@ -4222,7 +5185,7 @@
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C74" s="11" t="s">
-        <v>330</v>
+        <v>294</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.2">
@@ -4230,7 +5193,7 @@
     </row>
     <row r="76" spans="3:3" ht="64" x14ac:dyDescent="0.2">
       <c r="C76" s="11" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.2">
@@ -4238,7 +5201,7 @@
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C78" s="11" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.2">
@@ -4246,7 +5209,7 @@
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C80" s="11" t="s">
-        <v>333</v>
+        <v>297</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.2">
@@ -4254,7 +5217,7 @@
     </row>
     <row r="82" spans="3:3" ht="48" x14ac:dyDescent="0.2">
       <c r="C82" s="11" t="s">
-        <v>334</v>
+        <v>298</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.2">
@@ -4262,7 +5225,7 @@
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C84" s="11" t="s">
-        <v>335</v>
+        <v>299</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.2">
@@ -4270,7 +5233,7 @@
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C86" s="11" t="s">
-        <v>336</v>
+        <v>300</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.2">
@@ -4278,7 +5241,7 @@
     </row>
     <row r="88" spans="3:3" ht="64" x14ac:dyDescent="0.2">
       <c r="C88" s="11" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.2">
@@ -4286,7 +5249,7 @@
     </row>
     <row r="90" spans="3:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C90" s="11" t="s">
-        <v>338</v>
+        <v>302</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.2">
@@ -4294,7 +5257,7 @@
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C92" s="11" t="s">
-        <v>339</v>
+        <v>303</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.2">
@@ -4302,7 +5265,7 @@
     </row>
     <row r="94" spans="3:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C94" s="11" t="s">
-        <v>340</v>
+        <v>304</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.2">
@@ -4310,7 +5273,7 @@
     </row>
     <row r="96" spans="3:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C96" s="11" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -4318,7 +5281,7 @@
     </row>
     <row r="98" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="C98" s="9" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -4326,7 +5289,7 @@
     </row>
     <row r="100" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C100" s="9" t="s">
-        <v>343</v>
+        <v>307</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -4334,7 +5297,7 @@
     </row>
     <row r="102" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C102" s="9" t="s">
-        <v>344</v>
+        <v>308</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -4342,7 +5305,7 @@
     </row>
     <row r="104" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="C104" s="9" t="s">
-        <v>345</v>
+        <v>309</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -4350,7 +5313,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C106" s="13" t="s">
-        <v>346</v>
+        <v>310</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -4370,10 +5333,10 @@
     </row>
     <row r="112" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
-        <v>545</v>
+        <v>509</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>401</v>
+        <v>365</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -4382,10 +5345,10 @@
     </row>
     <row r="114" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
-        <v>546</v>
+        <v>510</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>402</v>
+        <v>366</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -4394,10 +5357,10 @@
     </row>
     <row r="116" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A116" s="9" t="s">
-        <v>547</v>
+        <v>511</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>403</v>
+        <v>367</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -4406,10 +5369,10 @@
     </row>
     <row r="118" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A118" s="9" t="s">
-        <v>548</v>
+        <v>512</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>404</v>
+        <v>368</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -4418,10 +5381,10 @@
     </row>
     <row r="120" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A120" s="9" t="s">
-        <v>549</v>
+        <v>513</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>405</v>
+        <v>369</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -4430,10 +5393,10 @@
     </row>
     <row r="122" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A122" s="9" t="s">
-        <v>550</v>
+        <v>514</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>406</v>
+        <v>370</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -4442,21 +5405,21 @@
     </row>
     <row r="124" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A124" s="9" t="s">
-        <v>551</v>
+        <v>515</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>407</v>
+        <v>371</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A125" s="9" t="s">
-        <v>552</v>
+        <v>516</v>
       </c>
       <c r="C125" s="2"/>
     </row>
     <row r="126" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="C126" s="11" t="s">
-        <v>408</v>
+        <v>372</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -4464,7 +5427,7 @@
     </row>
     <row r="128" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C128" s="11" t="s">
-        <v>409</v>
+        <v>373</v>
       </c>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.2">
@@ -4472,7 +5435,7 @@
     </row>
     <row r="130" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C130" s="11" t="s">
-        <v>410</v>
+        <v>374</v>
       </c>
     </row>
     <row r="131" spans="3:3" x14ac:dyDescent="0.2">
@@ -4480,7 +5443,7 @@
     </row>
     <row r="132" spans="3:3" ht="48" x14ac:dyDescent="0.2">
       <c r="C132" s="11" t="s">
-        <v>411</v>
+        <v>375</v>
       </c>
     </row>
     <row r="133" spans="3:3" x14ac:dyDescent="0.2">
@@ -4488,7 +5451,7 @@
     </row>
     <row r="134" spans="3:3" ht="48" x14ac:dyDescent="0.2">
       <c r="C134" s="11" t="s">
-        <v>412</v>
+        <v>376</v>
       </c>
     </row>
     <row r="135" spans="3:3" x14ac:dyDescent="0.2">
@@ -4496,7 +5459,7 @@
     </row>
     <row r="136" spans="3:3" ht="48" x14ac:dyDescent="0.2">
       <c r="C136" s="11" t="s">
-        <v>413</v>
+        <v>377</v>
       </c>
     </row>
     <row r="137" spans="3:3" x14ac:dyDescent="0.2">
@@ -4504,7 +5467,7 @@
     </row>
     <row r="138" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C138" s="14" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
     </row>
     <row r="139" spans="3:3" x14ac:dyDescent="0.2">
@@ -4520,12 +5483,12 @@
     </row>
     <row r="142" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C142" s="12" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
     </row>
     <row r="143" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C143" s="11" t="s">
-        <v>414</v>
+        <v>378</v>
       </c>
     </row>
     <row r="144" spans="3:3" x14ac:dyDescent="0.2">
@@ -4533,7 +5496,7 @@
     </row>
     <row r="145" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C145" s="11" t="s">
-        <v>415</v>
+        <v>379</v>
       </c>
     </row>
     <row r="146" spans="3:3" x14ac:dyDescent="0.2">
@@ -4541,7 +5504,7 @@
     </row>
     <row r="147" spans="3:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C147" s="11" t="s">
-        <v>416</v>
+        <v>380</v>
       </c>
     </row>
     <row r="148" spans="3:3" x14ac:dyDescent="0.2">
@@ -4549,7 +5512,7 @@
     </row>
     <row r="149" spans="3:3" ht="48" x14ac:dyDescent="0.2">
       <c r="C149" s="11" t="s">
-        <v>417</v>
+        <v>381</v>
       </c>
     </row>
     <row r="150" spans="3:3" x14ac:dyDescent="0.2">
@@ -4557,7 +5520,7 @@
     </row>
     <row r="151" spans="3:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C151" s="11" t="s">
-        <v>418</v>
+        <v>382</v>
       </c>
     </row>
     <row r="152" spans="3:3" x14ac:dyDescent="0.2">
@@ -4565,7 +5528,7 @@
     </row>
     <row r="153" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C153" s="11" t="s">
-        <v>419</v>
+        <v>383</v>
       </c>
     </row>
     <row r="154" spans="3:3" x14ac:dyDescent="0.2">
@@ -4573,7 +5536,7 @@
     </row>
     <row r="155" spans="3:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C155" s="11" t="s">
-        <v>420</v>
+        <v>384</v>
       </c>
     </row>
     <row r="156" spans="3:3" x14ac:dyDescent="0.2">
@@ -4581,7 +5544,7 @@
     </row>
     <row r="157" spans="3:3" ht="48" x14ac:dyDescent="0.2">
       <c r="C157" s="11" t="s">
-        <v>421</v>
+        <v>385</v>
       </c>
     </row>
     <row r="158" spans="3:3" x14ac:dyDescent="0.2">
@@ -4589,7 +5552,7 @@
     </row>
     <row r="159" spans="3:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C159" s="11" t="s">
-        <v>422</v>
+        <v>386</v>
       </c>
     </row>
     <row r="160" spans="3:3" x14ac:dyDescent="0.2">
@@ -4597,7 +5560,7 @@
     </row>
     <row r="161" spans="3:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C161" s="11" t="s">
-        <v>423</v>
+        <v>387</v>
       </c>
     </row>
     <row r="162" spans="3:3" x14ac:dyDescent="0.2">
@@ -4605,7 +5568,7 @@
     </row>
     <row r="163" spans="3:3" ht="80" x14ac:dyDescent="0.2">
       <c r="C163" s="11" t="s">
-        <v>424</v>
+        <v>388</v>
       </c>
     </row>
     <row r="164" spans="3:3" x14ac:dyDescent="0.2">
@@ -4613,7 +5576,7 @@
     </row>
     <row r="165" spans="3:3" ht="48" x14ac:dyDescent="0.2">
       <c r="C165" s="11" t="s">
-        <v>425</v>
+        <v>389</v>
       </c>
     </row>
     <row r="166" spans="3:3" x14ac:dyDescent="0.2">
@@ -4621,7 +5584,7 @@
     </row>
     <row r="167" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C167" s="11" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
     </row>
     <row r="168" spans="3:3" x14ac:dyDescent="0.2">
@@ -4629,7 +5592,7 @@
     </row>
     <row r="169" spans="3:3" ht="48" x14ac:dyDescent="0.2">
       <c r="C169" s="9" t="s">
-        <v>427</v>
+        <v>391</v>
       </c>
     </row>
     <row r="170" spans="3:3" x14ac:dyDescent="0.2">
@@ -4637,7 +5600,7 @@
     </row>
     <row r="171" spans="3:3" ht="80" x14ac:dyDescent="0.2">
       <c r="C171" s="9" t="s">
-        <v>428</v>
+        <v>392</v>
       </c>
     </row>
     <row r="172" spans="3:3" x14ac:dyDescent="0.2">
@@ -4657,10 +5620,10 @@
     </row>
     <row r="177" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A177" s="10" t="s">
-        <v>526</v>
+        <v>490</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>467</v>
+        <v>431</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -4669,100 +5632,100 @@
     </row>
     <row r="179" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A179" s="9" t="s">
-        <v>527</v>
+        <v>491</v>
       </c>
       <c r="C179" s="11" t="s">
-        <v>468</v>
+        <v>432</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="2"/>
       <c r="C180" s="11" t="s">
-        <v>469</v>
+        <v>433</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="9" t="s">
-        <v>528</v>
+        <v>492</v>
       </c>
       <c r="C181" s="2"/>
     </row>
     <row r="182" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A182" s="2"/>
       <c r="C182" s="11" t="s">
-        <v>470</v>
+        <v>434</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A183" s="9" t="s">
-        <v>529</v>
+        <v>493</v>
       </c>
       <c r="C183" s="2"/>
     </row>
     <row r="184" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A184" s="2"/>
       <c r="C184" s="11" t="s">
-        <v>471</v>
+        <v>435</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A185" s="9" t="s">
-        <v>530</v>
+        <v>494</v>
       </c>
       <c r="C185" s="2"/>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="2"/>
       <c r="C186" s="11" t="s">
-        <v>472</v>
+        <v>436</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A187" s="9" t="s">
-        <v>531</v>
+        <v>495</v>
       </c>
       <c r="C187" s="2"/>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="2"/>
       <c r="C188" s="11" t="s">
-        <v>473</v>
+        <v>437</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A189" s="9" t="s">
-        <v>532</v>
+        <v>496</v>
       </c>
       <c r="C189" s="2"/>
     </row>
     <row r="190" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A190" s="2"/>
       <c r="C190" s="11" t="s">
-        <v>474</v>
+        <v>438</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A191" s="9" t="s">
-        <v>533</v>
+        <v>497</v>
       </c>
       <c r="C191" s="2"/>
     </row>
     <row r="192" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A192" s="2"/>
       <c r="C192" s="11" t="s">
-        <v>475</v>
+        <v>439</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="9" t="s">
-        <v>534</v>
+        <v>498</v>
       </c>
       <c r="C193" s="2"/>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="2"/>
       <c r="C194" s="11" t="s">
-        <v>476</v>
+        <v>440</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
@@ -4770,7 +5733,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C196" s="11" t="s">
-        <v>477</v>
+        <v>441</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
@@ -4778,7 +5741,7 @@
     </row>
     <row r="198" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="C198" s="11" t="s">
-        <v>478</v>
+        <v>442</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
@@ -4786,7 +5749,7 @@
     </row>
     <row r="200" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C200" s="11" t="s">
-        <v>479</v>
+        <v>443</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
@@ -4794,7 +5757,7 @@
     </row>
     <row r="202" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C202" s="11" t="s">
-        <v>480</v>
+        <v>444</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
@@ -4802,7 +5765,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C204" s="14" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
@@ -4818,7 +5781,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C208" s="12" t="s">
-        <v>481</v>
+        <v>445</v>
       </c>
     </row>
     <row r="209" spans="3:3" x14ac:dyDescent="0.2">
@@ -4826,7 +5789,7 @@
     </row>
     <row r="210" spans="3:3" ht="112" x14ac:dyDescent="0.2">
       <c r="C210" s="11" t="s">
-        <v>482</v>
+        <v>446</v>
       </c>
     </row>
     <row r="211" spans="3:3" x14ac:dyDescent="0.2">
@@ -4834,7 +5797,7 @@
     </row>
     <row r="212" spans="3:3" ht="96" x14ac:dyDescent="0.2">
       <c r="C212" s="11" t="s">
-        <v>483</v>
+        <v>447</v>
       </c>
     </row>
     <row r="213" spans="3:3" x14ac:dyDescent="0.2">
@@ -4842,7 +5805,7 @@
     </row>
     <row r="214" spans="3:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C214" s="11" t="s">
-        <v>484</v>
+        <v>448</v>
       </c>
     </row>
     <row r="215" spans="3:3" x14ac:dyDescent="0.2">
@@ -4850,7 +5813,7 @@
     </row>
     <row r="216" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C216" s="11" t="s">
-        <v>485</v>
+        <v>449</v>
       </c>
     </row>
     <row r="217" spans="3:3" x14ac:dyDescent="0.2">
@@ -4858,7 +5821,7 @@
     </row>
     <row r="218" spans="3:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C218" s="11" t="s">
-        <v>486</v>
+        <v>450</v>
       </c>
     </row>
     <row r="219" spans="3:3" x14ac:dyDescent="0.2">
@@ -4866,7 +5829,7 @@
     </row>
     <row r="220" spans="3:3" ht="64" x14ac:dyDescent="0.2">
       <c r="C220" s="11" t="s">
-        <v>487</v>
+        <v>451</v>
       </c>
     </row>
     <row r="221" spans="3:3" x14ac:dyDescent="0.2">
@@ -4874,7 +5837,7 @@
     </row>
     <row r="222" spans="3:3" ht="48" x14ac:dyDescent="0.2">
       <c r="C222" s="11" t="s">
-        <v>488</v>
+        <v>452</v>
       </c>
     </row>
     <row r="223" spans="3:3" x14ac:dyDescent="0.2">
@@ -4882,7 +5845,7 @@
     </row>
     <row r="224" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C224" s="11" t="s">
-        <v>489</v>
+        <v>453</v>
       </c>
     </row>
     <row r="225" spans="3:3" x14ac:dyDescent="0.2">
@@ -4890,7 +5853,7 @@
     </row>
     <row r="226" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C226" s="11" t="s">
-        <v>490</v>
+        <v>454</v>
       </c>
     </row>
     <row r="227" spans="3:3" x14ac:dyDescent="0.2">
@@ -4898,7 +5861,7 @@
     </row>
     <row r="228" spans="3:3" ht="96" x14ac:dyDescent="0.2">
       <c r="C228" s="11" t="s">
-        <v>491</v>
+        <v>455</v>
       </c>
     </row>
     <row r="229" spans="3:3" x14ac:dyDescent="0.2">
@@ -4906,7 +5869,7 @@
     </row>
     <row r="230" spans="3:3" ht="48" x14ac:dyDescent="0.2">
       <c r="C230" s="11" t="s">
-        <v>492</v>
+        <v>456</v>
       </c>
     </row>
     <row r="231" spans="3:3" x14ac:dyDescent="0.2">
@@ -4922,7 +5885,7 @@
     </row>
     <row r="234" spans="3:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C234" s="11" t="s">
-        <v>493</v>
+        <v>457</v>
       </c>
     </row>
     <row r="235" spans="3:3" x14ac:dyDescent="0.2">
@@ -4930,7 +5893,7 @@
     </row>
     <row r="236" spans="3:3" ht="80" x14ac:dyDescent="0.2">
       <c r="C236" s="11" t="s">
-        <v>494</v>
+        <v>458</v>
       </c>
     </row>
     <row r="237" spans="3:3" x14ac:dyDescent="0.2">
@@ -4938,7 +5901,7 @@
     </row>
     <row r="238" spans="3:3" ht="48" x14ac:dyDescent="0.2">
       <c r="C238" s="11" t="s">
-        <v>495</v>
+        <v>459</v>
       </c>
     </row>
     <row r="239" spans="3:3" x14ac:dyDescent="0.2">
@@ -4946,7 +5909,7 @@
     </row>
     <row r="240" spans="3:3" ht="48" x14ac:dyDescent="0.2">
       <c r="C240" s="11" t="s">
-        <v>496</v>
+        <v>460</v>
       </c>
     </row>
     <row r="241" spans="3:3" x14ac:dyDescent="0.2">
@@ -4954,7 +5917,7 @@
     </row>
     <row r="242" spans="3:3" ht="48" x14ac:dyDescent="0.2">
       <c r="C242" s="11" t="s">
-        <v>497</v>
+        <v>461</v>
       </c>
     </row>
     <row r="243" spans="3:3" x14ac:dyDescent="0.2">
@@ -4962,7 +5925,7 @@
     </row>
     <row r="244" spans="3:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C244" s="11" t="s">
-        <v>498</v>
+        <v>462</v>
       </c>
     </row>
     <row r="245" spans="3:3" x14ac:dyDescent="0.2">
@@ -4970,7 +5933,7 @@
     </row>
     <row r="246" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C246" s="11" t="s">
-        <v>499</v>
+        <v>463</v>
       </c>
     </row>
     <row r="247" spans="3:3" x14ac:dyDescent="0.2">
@@ -4978,7 +5941,7 @@
     </row>
     <row r="248" spans="3:3" ht="64" x14ac:dyDescent="0.2">
       <c r="C248" s="11" t="s">
-        <v>500</v>
+        <v>464</v>
       </c>
     </row>
     <row r="249" spans="3:3" x14ac:dyDescent="0.2">
@@ -4986,7 +5949,7 @@
     </row>
     <row r="250" spans="3:3" ht="48" x14ac:dyDescent="0.2">
       <c r="C250" s="11" t="s">
-        <v>412</v>
+        <v>376</v>
       </c>
     </row>
     <row r="251" spans="3:3" x14ac:dyDescent="0.2">
@@ -4994,7 +5957,7 @@
     </row>
     <row r="252" spans="3:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C252" s="11" t="s">
-        <v>501</v>
+        <v>465</v>
       </c>
     </row>
     <row r="253" spans="3:3" x14ac:dyDescent="0.2">
@@ -5002,7 +5965,7 @@
     </row>
     <row r="254" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C254" s="11" t="s">
-        <v>502</v>
+        <v>466</v>
       </c>
     </row>
     <row r="255" spans="3:3" x14ac:dyDescent="0.2">
@@ -5010,7 +5973,7 @@
     </row>
     <row r="256" spans="3:3" ht="48" x14ac:dyDescent="0.2">
       <c r="C256" s="11" t="s">
-        <v>503</v>
+        <v>467</v>
       </c>
     </row>
     <row r="257" spans="3:3" x14ac:dyDescent="0.2">
@@ -5018,7 +5981,7 @@
     </row>
     <row r="258" spans="3:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C258" s="11" t="s">
-        <v>504</v>
+        <v>468</v>
       </c>
     </row>
     <row r="259" spans="3:3" x14ac:dyDescent="0.2">
@@ -5026,7 +5989,7 @@
     </row>
     <row r="260" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C260" s="14" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
     </row>
     <row r="261" spans="3:3" x14ac:dyDescent="0.2">
@@ -5042,12 +6005,12 @@
     </row>
     <row r="264" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C264" s="12" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
     </row>
     <row r="265" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C265" s="11" t="s">
-        <v>505</v>
+        <v>469</v>
       </c>
     </row>
     <row r="266" spans="3:3" x14ac:dyDescent="0.2">
@@ -5055,7 +6018,7 @@
     </row>
     <row r="267" spans="3:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C267" s="11" t="s">
-        <v>506</v>
+        <v>470</v>
       </c>
     </row>
     <row r="268" spans="3:3" x14ac:dyDescent="0.2">
@@ -5063,12 +6026,12 @@
     </row>
     <row r="269" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C269" s="11" t="s">
-        <v>507</v>
+        <v>471</v>
       </c>
     </row>
     <row r="270" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C270" s="11" t="s">
-        <v>508</v>
+        <v>472</v>
       </c>
     </row>
     <row r="271" spans="3:3" x14ac:dyDescent="0.2">
@@ -5076,7 +6039,7 @@
     </row>
     <row r="272" spans="3:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C272" s="11" t="s">
-        <v>509</v>
+        <v>473</v>
       </c>
     </row>
     <row r="273" spans="3:3" x14ac:dyDescent="0.2">
@@ -5084,7 +6047,7 @@
     </row>
     <row r="274" spans="3:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C274" s="11" t="s">
-        <v>510</v>
+        <v>474</v>
       </c>
     </row>
     <row r="275" spans="3:3" x14ac:dyDescent="0.2">
@@ -5092,7 +6055,7 @@
     </row>
     <row r="276" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C276" s="11" t="s">
-        <v>511</v>
+        <v>475</v>
       </c>
     </row>
     <row r="277" spans="3:3" x14ac:dyDescent="0.2">
@@ -5100,7 +6063,7 @@
     </row>
     <row r="278" spans="3:3" ht="64" x14ac:dyDescent="0.2">
       <c r="C278" s="11" t="s">
-        <v>512</v>
+        <v>476</v>
       </c>
     </row>
     <row r="279" spans="3:3" x14ac:dyDescent="0.2">
@@ -5108,7 +6071,7 @@
     </row>
     <row r="280" spans="3:3" ht="64" x14ac:dyDescent="0.2">
       <c r="C280" s="11" t="s">
-        <v>513</v>
+        <v>477</v>
       </c>
     </row>
     <row r="281" spans="3:3" x14ac:dyDescent="0.2">
@@ -5116,7 +6079,7 @@
     </row>
     <row r="282" spans="3:3" ht="48" x14ac:dyDescent="0.2">
       <c r="C282" s="11" t="s">
-        <v>514</v>
+        <v>478</v>
       </c>
     </row>
     <row r="283" spans="3:3" x14ac:dyDescent="0.2">
@@ -5124,7 +6087,7 @@
     </row>
     <row r="284" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C284" s="11" t="s">
-        <v>515</v>
+        <v>479</v>
       </c>
     </row>
     <row r="285" spans="3:3" x14ac:dyDescent="0.2">
@@ -5132,7 +6095,7 @@
     </row>
     <row r="286" spans="3:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C286" s="11" t="s">
-        <v>516</v>
+        <v>480</v>
       </c>
     </row>
     <row r="287" spans="3:3" x14ac:dyDescent="0.2">
@@ -5140,7 +6103,7 @@
     </row>
     <row r="288" spans="3:3" ht="48" x14ac:dyDescent="0.2">
       <c r="C288" s="11" t="s">
-        <v>517</v>
+        <v>481</v>
       </c>
     </row>
     <row r="289" spans="3:3" x14ac:dyDescent="0.2">
@@ -5148,7 +6111,7 @@
     </row>
     <row r="290" spans="3:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C290" s="11" t="s">
-        <v>518</v>
+        <v>482</v>
       </c>
     </row>
     <row r="291" spans="3:3" x14ac:dyDescent="0.2">
@@ -5164,12 +6127,12 @@
     </row>
     <row r="294" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C294" s="9" t="s">
-        <v>519</v>
+        <v>483</v>
       </c>
     </row>
     <row r="295" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C295" s="9" t="s">
-        <v>520</v>
+        <v>484</v>
       </c>
     </row>
     <row r="296" spans="3:3" x14ac:dyDescent="0.2">
@@ -5177,7 +6140,7 @@
     </row>
     <row r="297" spans="3:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C297" s="9" t="s">
-        <v>521</v>
+        <v>485</v>
       </c>
     </row>
     <row r="298" spans="3:3" x14ac:dyDescent="0.2">
@@ -5185,7 +6148,7 @@
     </row>
     <row r="299" spans="3:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C299" s="9" t="s">
-        <v>522</v>
+        <v>486</v>
       </c>
     </row>
     <row r="300" spans="3:3" x14ac:dyDescent="0.2">
@@ -5193,7 +6156,7 @@
     </row>
     <row r="301" spans="3:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C301" s="9" t="s">
-        <v>523</v>
+        <v>487</v>
       </c>
     </row>
     <row r="302" spans="3:3" x14ac:dyDescent="0.2">
@@ -5201,7 +6164,7 @@
     </row>
     <row r="303" spans="3:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C303" s="9" t="s">
-        <v>524</v>
+        <v>488</v>
       </c>
     </row>
     <row r="304" spans="3:3" x14ac:dyDescent="0.2">
@@ -5209,7 +6172,7 @@
     </row>
     <row r="305" spans="3:3" ht="48" x14ac:dyDescent="0.2">
       <c r="C305" s="9" t="s">
-        <v>525</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -5222,7 +6185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="J25:M77"/>
   <sheetViews>
-    <sheetView topLeftCell="F10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
@@ -5234,10 +6197,10 @@
   <sheetData>
     <row r="25" spans="10:13" ht="18" x14ac:dyDescent="0.2">
       <c r="J25" s="10" t="s">
-        <v>553</v>
+        <v>517</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>377</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="10:13" x14ac:dyDescent="0.2">
@@ -5246,10 +6209,10 @@
     </row>
     <row r="27" spans="10:13" ht="48" x14ac:dyDescent="0.2">
       <c r="J27" s="9" t="s">
-        <v>554</v>
+        <v>518</v>
       </c>
       <c r="M27" s="14" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="10:13" x14ac:dyDescent="0.2">
@@ -5258,10 +6221,10 @@
     </row>
     <row r="29" spans="10:13" ht="112" x14ac:dyDescent="0.2">
       <c r="J29" s="9" t="s">
-        <v>555</v>
+        <v>519</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>378</v>
+        <v>342</v>
       </c>
     </row>
     <row r="30" spans="10:13" x14ac:dyDescent="0.2">
@@ -5270,10 +6233,10 @@
     </row>
     <row r="31" spans="10:13" ht="48" x14ac:dyDescent="0.2">
       <c r="J31" s="9" t="s">
-        <v>556</v>
+        <v>520</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
     </row>
     <row r="32" spans="10:13" x14ac:dyDescent="0.2">
@@ -5282,10 +6245,10 @@
     </row>
     <row r="33" spans="10:13" ht="48" x14ac:dyDescent="0.2">
       <c r="J33" s="9" t="s">
-        <v>557</v>
+        <v>521</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>380</v>
+        <v>344</v>
       </c>
     </row>
     <row r="34" spans="10:13" x14ac:dyDescent="0.2">
@@ -5294,10 +6257,10 @@
     </row>
     <row r="35" spans="10:13" ht="48" x14ac:dyDescent="0.2">
       <c r="J35" s="9" t="s">
-        <v>558</v>
+        <v>522</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>381</v>
+        <v>345</v>
       </c>
     </row>
     <row r="36" spans="10:13" x14ac:dyDescent="0.2">
@@ -5306,10 +6269,10 @@
     </row>
     <row r="37" spans="10:13" ht="128" x14ac:dyDescent="0.2">
       <c r="J37" s="9" t="s">
-        <v>559</v>
+        <v>523</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>382</v>
+        <v>346</v>
       </c>
     </row>
     <row r="38" spans="10:13" x14ac:dyDescent="0.2">
@@ -5318,10 +6281,10 @@
     </row>
     <row r="39" spans="10:13" ht="64" x14ac:dyDescent="0.2">
       <c r="J39" s="9" t="s">
-        <v>560</v>
+        <v>524</v>
       </c>
       <c r="M39" s="11" t="s">
-        <v>383</v>
+        <v>347</v>
       </c>
     </row>
     <row r="40" spans="10:13" x14ac:dyDescent="0.2">
@@ -5330,10 +6293,10 @@
     </row>
     <row r="41" spans="10:13" ht="80" x14ac:dyDescent="0.2">
       <c r="J41" s="9" t="s">
-        <v>561</v>
+        <v>525</v>
       </c>
       <c r="M41" s="11" t="s">
-        <v>384</v>
+        <v>348</v>
       </c>
     </row>
     <row r="42" spans="10:13" x14ac:dyDescent="0.2">
@@ -5341,7 +6304,7 @@
     </row>
     <row r="43" spans="10:13" ht="32" x14ac:dyDescent="0.2">
       <c r="M43" s="11" t="s">
-        <v>385</v>
+        <v>349</v>
       </c>
     </row>
     <row r="44" spans="10:13" x14ac:dyDescent="0.2">
@@ -5349,7 +6312,7 @@
     </row>
     <row r="45" spans="10:13" x14ac:dyDescent="0.2">
       <c r="M45" s="11" t="s">
-        <v>386</v>
+        <v>350</v>
       </c>
     </row>
     <row r="46" spans="10:13" x14ac:dyDescent="0.2">
@@ -5357,7 +6320,7 @@
     </row>
     <row r="47" spans="10:13" ht="48" x14ac:dyDescent="0.2">
       <c r="M47" s="11" t="s">
-        <v>387</v>
+        <v>351</v>
       </c>
     </row>
     <row r="48" spans="10:13" x14ac:dyDescent="0.2">
@@ -5365,7 +6328,7 @@
     </row>
     <row r="49" spans="13:13" ht="48" x14ac:dyDescent="0.2">
       <c r="M49" s="11" t="s">
-        <v>388</v>
+        <v>352</v>
       </c>
     </row>
     <row r="50" spans="13:13" x14ac:dyDescent="0.2">
@@ -5381,7 +6344,7 @@
     </row>
     <row r="53" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M53" s="12" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
     </row>
     <row r="54" spans="13:13" x14ac:dyDescent="0.2">
@@ -5389,7 +6352,7 @@
     </row>
     <row r="55" spans="13:13" ht="64" x14ac:dyDescent="0.2">
       <c r="M55" s="11" t="s">
-        <v>389</v>
+        <v>353</v>
       </c>
     </row>
     <row r="56" spans="13:13" x14ac:dyDescent="0.2">
@@ -5397,7 +6360,7 @@
     </row>
     <row r="57" spans="13:13" ht="32" x14ac:dyDescent="0.2">
       <c r="M57" s="11" t="s">
-        <v>390</v>
+        <v>354</v>
       </c>
     </row>
     <row r="58" spans="13:13" x14ac:dyDescent="0.2">
@@ -5405,7 +6368,7 @@
     </row>
     <row r="59" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M59" s="11" t="s">
-        <v>391</v>
+        <v>355</v>
       </c>
     </row>
     <row r="60" spans="13:13" x14ac:dyDescent="0.2">
@@ -5413,7 +6376,7 @@
     </row>
     <row r="61" spans="13:13" ht="80" x14ac:dyDescent="0.2">
       <c r="M61" s="11" t="s">
-        <v>392</v>
+        <v>356</v>
       </c>
     </row>
     <row r="62" spans="13:13" x14ac:dyDescent="0.2">
@@ -5421,7 +6384,7 @@
     </row>
     <row r="63" spans="13:13" ht="32" x14ac:dyDescent="0.2">
       <c r="M63" s="11" t="s">
-        <v>393</v>
+        <v>357</v>
       </c>
     </row>
     <row r="64" spans="13:13" x14ac:dyDescent="0.2">
@@ -5429,7 +6392,7 @@
     </row>
     <row r="65" spans="13:13" ht="64" x14ac:dyDescent="0.2">
       <c r="M65" s="11" t="s">
-        <v>394</v>
+        <v>358</v>
       </c>
     </row>
     <row r="66" spans="13:13" x14ac:dyDescent="0.2">
@@ -5437,7 +6400,7 @@
     </row>
     <row r="67" spans="13:13" ht="48" x14ac:dyDescent="0.2">
       <c r="M67" s="11" t="s">
-        <v>395</v>
+        <v>359</v>
       </c>
     </row>
     <row r="68" spans="13:13" x14ac:dyDescent="0.2">
@@ -5445,7 +6408,7 @@
     </row>
     <row r="69" spans="13:13" ht="64" x14ac:dyDescent="0.2">
       <c r="M69" s="11" t="s">
-        <v>396</v>
+        <v>360</v>
       </c>
     </row>
     <row r="70" spans="13:13" x14ac:dyDescent="0.2">
@@ -5453,7 +6416,7 @@
     </row>
     <row r="71" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M71" s="11" t="s">
-        <v>397</v>
+        <v>361</v>
       </c>
     </row>
     <row r="72" spans="13:13" x14ac:dyDescent="0.2">
@@ -5461,7 +6424,7 @@
     </row>
     <row r="73" spans="13:13" ht="48" x14ac:dyDescent="0.2">
       <c r="M73" s="9" t="s">
-        <v>398</v>
+        <v>362</v>
       </c>
     </row>
     <row r="74" spans="13:13" x14ac:dyDescent="0.2">
@@ -5469,7 +6432,7 @@
     </row>
     <row r="75" spans="13:13" ht="96" x14ac:dyDescent="0.2">
       <c r="M75" s="9" t="s">
-        <v>399</v>
+        <v>363</v>
       </c>
     </row>
     <row r="76" spans="13:13" x14ac:dyDescent="0.2">
@@ -5477,7 +6440,7 @@
     </row>
     <row r="77" spans="13:13" ht="96" x14ac:dyDescent="0.2">
       <c r="M77" s="9" t="s">
-        <v>400</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -5489,7 +6452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="I27:L80"/>
   <sheetViews>
-    <sheetView topLeftCell="H12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
@@ -5501,10 +6464,10 @@
   <sheetData>
     <row r="27" spans="9:12" ht="18" x14ac:dyDescent="0.2">
       <c r="I27" s="10" t="s">
-        <v>562</v>
+        <v>526</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>347</v>
+        <v>311</v>
       </c>
     </row>
     <row r="28" spans="9:12" x14ac:dyDescent="0.2">
@@ -5513,60 +6476,60 @@
     </row>
     <row r="29" spans="9:12" ht="48" x14ac:dyDescent="0.2">
       <c r="I29" s="9" t="s">
-        <v>563</v>
+        <v>527</v>
       </c>
       <c r="L29" s="11" t="s">
-        <v>348</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I30" s="2"/>
       <c r="L30" s="11" t="s">
-        <v>349</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="9:12" ht="48" x14ac:dyDescent="0.2">
       <c r="I31" s="9" t="s">
-        <v>564</v>
+        <v>528</v>
       </c>
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="9:12" ht="48" x14ac:dyDescent="0.2">
       <c r="I32" s="2"/>
       <c r="L32" s="11" t="s">
-        <v>350</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I33" s="9" t="s">
-        <v>565</v>
+        <v>529</v>
       </c>
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="9:12" ht="32" x14ac:dyDescent="0.2">
       <c r="I34" s="2"/>
       <c r="L34" s="11" t="s">
-        <v>351</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35" spans="9:12" ht="48" x14ac:dyDescent="0.2">
       <c r="I35" s="9" t="s">
-        <v>566</v>
+        <v>530</v>
       </c>
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="9:12" ht="32" x14ac:dyDescent="0.2">
       <c r="I36" s="2"/>
       <c r="L36" s="11" t="s">
-        <v>352</v>
+        <v>316</v>
       </c>
     </row>
     <row r="37" spans="9:12" ht="96" x14ac:dyDescent="0.2">
       <c r="I37" s="9" t="s">
-        <v>567</v>
+        <v>531</v>
       </c>
       <c r="L37" s="11" t="s">
-        <v>353</v>
+        <v>317</v>
       </c>
     </row>
     <row r="38" spans="9:12" x14ac:dyDescent="0.2">
@@ -5575,10 +6538,10 @@
     </row>
     <row r="39" spans="9:12" ht="48" x14ac:dyDescent="0.2">
       <c r="I39" s="9" t="s">
-        <v>568</v>
+        <v>532</v>
       </c>
       <c r="L39" s="11" t="s">
-        <v>354</v>
+        <v>318</v>
       </c>
     </row>
     <row r="40" spans="9:12" x14ac:dyDescent="0.2">
@@ -5586,7 +6549,7 @@
     </row>
     <row r="41" spans="9:12" ht="48" x14ac:dyDescent="0.2">
       <c r="L41" s="11" t="s">
-        <v>355</v>
+        <v>319</v>
       </c>
     </row>
     <row r="42" spans="9:12" x14ac:dyDescent="0.2">
@@ -5594,7 +6557,7 @@
     </row>
     <row r="43" spans="9:12" ht="48" x14ac:dyDescent="0.2">
       <c r="L43" s="11" t="s">
-        <v>356</v>
+        <v>320</v>
       </c>
     </row>
     <row r="44" spans="9:12" x14ac:dyDescent="0.2">
@@ -5602,12 +6565,12 @@
     </row>
     <row r="45" spans="9:12" x14ac:dyDescent="0.2">
       <c r="L45" s="11" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
     </row>
     <row r="46" spans="9:12" x14ac:dyDescent="0.2">
       <c r="L46" s="11" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="9:12" x14ac:dyDescent="0.2">
@@ -5615,7 +6578,7 @@
     </row>
     <row r="48" spans="9:12" ht="48" x14ac:dyDescent="0.2">
       <c r="L48" s="11" t="s">
-        <v>359</v>
+        <v>323</v>
       </c>
     </row>
     <row r="49" spans="12:12" x14ac:dyDescent="0.2">
@@ -5623,7 +6586,7 @@
     </row>
     <row r="50" spans="12:12" ht="48" x14ac:dyDescent="0.2">
       <c r="L50" s="11" t="s">
-        <v>360</v>
+        <v>324</v>
       </c>
     </row>
     <row r="51" spans="12:12" x14ac:dyDescent="0.2">
@@ -5631,7 +6594,7 @@
     </row>
     <row r="52" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L52" s="11" t="s">
-        <v>361</v>
+        <v>325</v>
       </c>
     </row>
     <row r="53" spans="12:12" x14ac:dyDescent="0.2">
@@ -5639,7 +6602,7 @@
     </row>
     <row r="54" spans="12:12" ht="64" x14ac:dyDescent="0.2">
       <c r="L54" s="11" t="s">
-        <v>362</v>
+        <v>326</v>
       </c>
     </row>
     <row r="55" spans="12:12" x14ac:dyDescent="0.2">
@@ -5647,7 +6610,7 @@
     </row>
     <row r="56" spans="12:12" ht="48" x14ac:dyDescent="0.2">
       <c r="L56" s="11" t="s">
-        <v>363</v>
+        <v>327</v>
       </c>
     </row>
     <row r="57" spans="12:12" x14ac:dyDescent="0.2">
@@ -5655,7 +6618,7 @@
     </row>
     <row r="58" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L58" s="11" t="s">
-        <v>365</v>
+        <v>329</v>
       </c>
     </row>
     <row r="59" spans="12:12" x14ac:dyDescent="0.2">
@@ -5663,7 +6626,7 @@
     </row>
     <row r="60" spans="12:12" ht="64" x14ac:dyDescent="0.2">
       <c r="L60" s="11" t="s">
-        <v>366</v>
+        <v>330</v>
       </c>
     </row>
     <row r="61" spans="12:12" x14ac:dyDescent="0.2">
@@ -5671,7 +6634,7 @@
     </row>
     <row r="62" spans="12:12" ht="80" x14ac:dyDescent="0.2">
       <c r="L62" s="11" t="s">
-        <v>367</v>
+        <v>331</v>
       </c>
     </row>
     <row r="63" spans="12:12" x14ac:dyDescent="0.2">
@@ -5679,7 +6642,7 @@
     </row>
     <row r="64" spans="12:12" ht="32" x14ac:dyDescent="0.2">
       <c r="L64" s="11" t="s">
-        <v>368</v>
+        <v>332</v>
       </c>
     </row>
     <row r="65" spans="12:12" x14ac:dyDescent="0.2">
@@ -5687,7 +6650,7 @@
     </row>
     <row r="66" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L66" s="11" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
     </row>
     <row r="67" spans="12:12" x14ac:dyDescent="0.2">
@@ -5695,7 +6658,7 @@
     </row>
     <row r="68" spans="12:12" ht="32" x14ac:dyDescent="0.2">
       <c r="L68" s="11" t="s">
-        <v>370</v>
+        <v>334</v>
       </c>
     </row>
     <row r="69" spans="12:12" x14ac:dyDescent="0.2">
@@ -5703,7 +6666,7 @@
     </row>
     <row r="70" spans="12:12" ht="80" x14ac:dyDescent="0.2">
       <c r="L70" s="11" t="s">
-        <v>371</v>
+        <v>335</v>
       </c>
     </row>
     <row r="71" spans="12:12" x14ac:dyDescent="0.2">
@@ -5711,7 +6674,7 @@
     </row>
     <row r="72" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L72" s="11" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
     </row>
     <row r="73" spans="12:12" x14ac:dyDescent="0.2">
@@ -5719,7 +6682,7 @@
     </row>
     <row r="74" spans="12:12" ht="64" x14ac:dyDescent="0.2">
       <c r="L74" s="9" t="s">
-        <v>373</v>
+        <v>337</v>
       </c>
     </row>
     <row r="75" spans="12:12" x14ac:dyDescent="0.2">
@@ -5727,7 +6690,7 @@
     </row>
     <row r="76" spans="12:12" ht="64" x14ac:dyDescent="0.2">
       <c r="L76" s="9" t="s">
-        <v>374</v>
+        <v>338</v>
       </c>
     </row>
     <row r="77" spans="12:12" x14ac:dyDescent="0.2">
@@ -5735,7 +6698,7 @@
     </row>
     <row r="78" spans="12:12" ht="64" x14ac:dyDescent="0.2">
       <c r="L78" s="9" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
     </row>
     <row r="79" spans="12:12" x14ac:dyDescent="0.2">
@@ -5743,7 +6706,7 @@
     </row>
     <row r="80" spans="12:12" ht="96" x14ac:dyDescent="0.2">
       <c r="L80" s="9" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -5794,58 +6757,58 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -5869,8 +6832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="97" zoomScaleNormal="97" zoomScalePageLayoutView="97" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A19" zoomScale="97" zoomScaleNormal="97" zoomScalePageLayoutView="97" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5888,251 +6851,251 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>599</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>600</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>601</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
+        <v>602</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>5</v>
+        <v>603</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>604</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>605</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>8</v>
+        <v>606</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>607</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>13</v>
+        <v>608</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E14" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="D17" s="2" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F22" s="1" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="F24" s="2" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -6145,59 +7108,59 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>9</v>
+        <v>609</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>10</v>
+        <v>610</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>11</v>
+        <v>611</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>47</v>
+        <v>612</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>48</v>
+        <v>613</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -6210,8 +7173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" zoomScale="120" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView zoomScale="120" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6224,212 +7187,212 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>193</v>
+        <v>595</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>192</v>
+        <v>596</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>194</v>
+        <v>597</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>195</v>
+        <v>598</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="D6" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="B7" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="C7" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="B8" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="D8" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="D9" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" t="s">
         <v>200</v>
-      </c>
-      <c r="D10" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="B11" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="B12" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D12" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" t="s">
         <v>203</v>
-      </c>
-      <c r="D14" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" t="s">
         <v>204</v>
-      </c>
-      <c r="D15" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="D17" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="D18" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D24" t="s">
         <v>210</v>
-      </c>
-      <c r="D24" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D25" t="s">
         <v>211</v>
-      </c>
-      <c r="D25" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="D27" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="D29" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -6443,7 +7406,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6457,41 +7420,41 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>244</v>
+        <v>614</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>245</v>
+        <v>615</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>246</v>
+        <v>616</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>247</v>
+        <v>617</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>248</v>
+        <v>618</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>249</v>
+        <v>619</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>250</v>
+        <v>620</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>251</v>
+        <v>621</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>252</v>
+        <v>622</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>253</v>
+        <v>623</v>
       </c>
     </row>
   </sheetData>
@@ -6529,29 +7492,29 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/manish/courseLaw/LMR/Workbook1.xlsx
+++ b/manish/courseLaw/LMR/Workbook1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500" firstSheet="5" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="25600" windowHeight="14480" tabRatio="500" firstSheet="5" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Contracts" sheetId="1" r:id="rId1"/>
@@ -184,6 +184,61 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
+    <comment ref="A15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+Under tort law Coming to the Nuisance is the defense that the plaintiff moved to the location where condition complained of already existed. It is a complete bar in a Minority view, but in the Majority view it is only a factor to be considered in determining damages.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+The REMEDIES for a nuisance action include both money damages and injunctive relief.
+If the nuisance is a temporary situation money damages measured by the loss of use for the period of the nuisance will be an adequate remedy. If the nuisance would continue but for injunctive relief, the Court would consider granting an injunction. Injunctive relief is an equitable remedy, and the court has discretion to deny it. The Court will balance the interests of the parties, the interests of third parties and the feasibility of judicial enforcement. If the Court denies injunctive relief, the appropriate remedy is an award of money damages measured by the loss of property value caused by the nuisance.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
     <comment ref="B5" authorId="0">
       <text>
         <r>
@@ -319,7 +374,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="693">
   <si>
     <t>FORMATION OF CONTRACT</t>
   </si>
@@ -2863,6 +2918,39 @@
   </si>
   <si>
     <t>that suffered by general public.</t>
+  </si>
+  <si>
+    <t>3. Coming to Nuisance?</t>
+  </si>
+  <si>
+    <t>Plaintiff</t>
+  </si>
+  <si>
+    <t>Moved to location</t>
+  </si>
+  <si>
+    <t>Condition Complained Already Existed</t>
+  </si>
+  <si>
+    <t>Practice Question 16-6 Practice Question 16-6 C21:E23C21:E23</t>
+  </si>
+  <si>
+    <t>Complete bar in minority view, in majority view, it is factor in determining damages.</t>
+  </si>
+  <si>
+    <t>4. Remedy?</t>
+  </si>
+  <si>
+    <t>Money Damages &amp; Injunctive Relief</t>
+  </si>
+  <si>
+    <t>Nuisance temporary - Money damages</t>
+  </si>
+  <si>
+    <t>Injunctive Relief is equitable remedy.</t>
+  </si>
+  <si>
+    <t>Nuisance Permanent or will continue, Injuntive is Relief.</t>
   </si>
 </sst>
 </file>
@@ -3876,7 +3964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -3976,21 +4064,19 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E76"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="54.1640625" customWidth="1"/>
     <col min="2" max="2" width="50" customWidth="1"/>
-    <col min="3" max="3" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="58.6640625" customWidth="1"/>
-    <col min="6" max="6" width="60.83203125" customWidth="1"/>
-    <col min="8" max="8" width="68.5" customWidth="1"/>
+    <col min="3" max="3" width="60.83203125" customWidth="1"/>
+    <col min="5" max="5" width="68.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -4053,194 +4139,214 @@
         <v>681</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="72" x14ac:dyDescent="0.2">
-      <c r="C21" s="10" t="s">
-        <v>533</v>
-      </c>
-      <c r="E21" s="10" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>684</v>
+      </c>
+      <c r="B17" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B20" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+      <c r="C27" s="10" t="s">
+        <v>686</v>
+      </c>
+      <c r="E27" s="10" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="C22" s="2"/>
-      <c r="E22" s="11" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C28" s="2"/>
+      <c r="E28" s="11" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="409" x14ac:dyDescent="0.2">
-      <c r="C23" s="9" t="s">
+    <row r="29" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="C29" s="9" t="s">
         <v>638</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E29" s="11" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="3:5" ht="409" x14ac:dyDescent="0.2">
-      <c r="C25" s="9" t="s">
-        <v>639</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="3:5" ht="409" x14ac:dyDescent="0.2">
-      <c r="C27" s="9" t="s">
-        <v>640</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="3:5" ht="409" x14ac:dyDescent="0.2">
-      <c r="C29" s="9" t="s">
-        <v>641</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="3:5" ht="240" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="C31" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="3:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="C33" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="3:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="C35" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="3:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="C37" s="9" t="s">
         <v>642</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E37" s="11" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="5:5" ht="409" x14ac:dyDescent="0.2">
-      <c r="E33" s="11" t="s">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="3:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="E39" s="11" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="5:5" ht="409" x14ac:dyDescent="0.2">
-      <c r="E35" s="11" t="s">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="3:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="E41" s="11" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="5:5" ht="192" x14ac:dyDescent="0.2">
-      <c r="E37" s="11" t="s">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="3:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="E43" s="11" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="5:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="E39" s="11" t="s">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E45" s="11" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="5:5" ht="352" x14ac:dyDescent="0.2">
-      <c r="E41" s="11" t="s">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="3:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="E47" s="11" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="5:5" ht="256" x14ac:dyDescent="0.2">
-      <c r="E43" s="11" t="s">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="5:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="E49" s="11" t="s">
         <v>655</v>
-      </c>
-    </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="5:5" ht="409" x14ac:dyDescent="0.2">
-      <c r="E45" s="11" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E47" s="9">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="5:5" ht="176" x14ac:dyDescent="0.2">
-      <c r="E49" s="11" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="50" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="5:5" ht="272" x14ac:dyDescent="0.2">
+    <row r="51" spans="5:5" ht="64" x14ac:dyDescent="0.2">
       <c r="E51" s="11" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="52" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="5:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="E53" s="11" t="s">
-        <v>659</v>
+    <row r="53" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E53" s="9">
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="5:5" ht="409" x14ac:dyDescent="0.2">
+    <row r="55" spans="5:5" ht="32" x14ac:dyDescent="0.2">
       <c r="E55" s="11" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="56" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="5:5" ht="304" x14ac:dyDescent="0.2">
+    <row r="57" spans="5:5" ht="32" x14ac:dyDescent="0.2">
       <c r="E57" s="11" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="58" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="5:5" ht="288" x14ac:dyDescent="0.2">
+    <row r="59" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E59" s="11" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="60" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="5:5" ht="208" x14ac:dyDescent="0.2">
+    <row r="61" spans="5:5" ht="64" x14ac:dyDescent="0.2">
       <c r="E61" s="11" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="62" spans="5:5" x14ac:dyDescent="0.2">
@@ -4248,64 +4354,89 @@
     </row>
     <row r="63" spans="5:5" ht="48" x14ac:dyDescent="0.2">
       <c r="E63" s="11" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="64" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E64" s="2"/>
     </row>
-    <row r="65" spans="5:5" ht="176" x14ac:dyDescent="0.2">
+    <row r="65" spans="5:5" ht="48" x14ac:dyDescent="0.2">
       <c r="E65" s="11" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="5:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="E67" s="11" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E69" s="11" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="70" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="5:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="E71" s="11" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="66" spans="5:5" ht="409" x14ac:dyDescent="0.2">
-      <c r="E66" s="11" t="s">
+    <row r="72" spans="5:5" ht="128" x14ac:dyDescent="0.2">
+      <c r="E72" s="11" t="s">
         <v>666</v>
-      </c>
-    </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E67" s="2"/>
-    </row>
-    <row r="68" spans="5:5" ht="409" x14ac:dyDescent="0.2">
-      <c r="E68" s="11" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E69" s="2"/>
-    </row>
-    <row r="70" spans="5:5" ht="256" x14ac:dyDescent="0.2">
-      <c r="E70" s="11" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E71" s="2"/>
-    </row>
-    <row r="72" spans="5:5" ht="409" x14ac:dyDescent="0.2">
-      <c r="E72" s="9" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="73" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="5:5" ht="256" x14ac:dyDescent="0.2">
-      <c r="E74" s="9" t="s">
-        <v>670</v>
+    <row r="74" spans="5:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="E74" s="11" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="75" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="5:5" ht="176" x14ac:dyDescent="0.2">
-      <c r="E76" s="9" t="s">
+    <row r="76" spans="5:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="E76" s="11" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="77" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="5:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="E78" s="9" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="79" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="5:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="E80" s="9" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="81" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="5:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="E82" s="9" t="s">
         <v>671</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6832,8 +6963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="97" zoomScaleNormal="97" zoomScalePageLayoutView="97" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A18" zoomScale="97" zoomScaleNormal="97" zoomScalePageLayoutView="97" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/manish/courseLaw/LMR/Workbook1.xlsx
+++ b/manish/courseLaw/LMR/Workbook1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="25600" windowHeight="14480" tabRatio="500" firstSheet="5" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="25600" windowHeight="14480" tabRatio="500" firstSheet="11" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Contracts" sheetId="1" r:id="rId1"/>
@@ -347,6 +347,31 @@
         </r>
       </text>
     </comment>
+    <comment ref="C19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+Under CRIMINAL LAW, VOLUNTARY MANSLAUGHTER is an INTENTIONAL, unlawful homicide, the killing of one human being by another, without malice aforethought because of ADEQUATE PROVOCATION. Important!
+ADEQUATE PROVOCATION is provocation sufficient to raise a reasonable person to a murderous rage, which did raise the defendant to such a rage, and which was the actual cause of the homicide. Important!
+But ADEQUATE PROVOCATION CANNOT BE FOUND if the defendant had enough time before the killing that a reasonable person would have COOLED DOWN and no longer would have been in a murderous rage.
+Here there was a homicide because... And, adequate provocation might be found because... Therefore...</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A27" authorId="0">
       <text>
         <r>
@@ -374,7 +399,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="730">
   <si>
     <t>FORMATION OF CONTRACT</t>
   </si>
@@ -1387,9 +1412,6 @@
     <t>B. Murder</t>
   </si>
   <si>
-    <t>Murder?</t>
-  </si>
-  <si>
     <t>Under Criminal Law</t>
   </si>
   <si>
@@ -1402,9 +1424,6 @@
     <t>with Malice Aforethought.</t>
   </si>
   <si>
-    <t>Malice Aforethought?</t>
-  </si>
-  <si>
     <t>1. Intent to Kill</t>
   </si>
   <si>
@@ -1420,9 +1439,6 @@
     <t>(risk to human life, breach to protect)</t>
   </si>
   <si>
-    <t>Degrees of Murder?</t>
-  </si>
-  <si>
     <t>Common law - no degrees</t>
   </si>
   <si>
@@ -1451,15 +1467,6 @@
   </si>
   <si>
     <t>All other murders with malice aforethought.</t>
-  </si>
-  <si>
-    <t>Proximate Cause?</t>
-  </si>
-  <si>
-    <t>Actual Cause?</t>
-  </si>
-  <si>
-    <t>Felony Murder Rule?</t>
   </si>
   <si>
     <t>Homicide</t>
@@ -2951,6 +2958,135 @@
   </si>
   <si>
     <t>Nuisance Permanent or will continue, Injuntive is Relief.</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>1. Murder?</t>
+  </si>
+  <si>
+    <t>2. Malice Aforethought?</t>
+  </si>
+  <si>
+    <t>3. Degrees of Murder?</t>
+  </si>
+  <si>
+    <t>4. Actual Cause?</t>
+  </si>
+  <si>
+    <t>5. Proximate Cause?</t>
+  </si>
+  <si>
+    <t>6. Felony Murder Rule?</t>
+  </si>
+  <si>
+    <t>7. Mitigating Factors</t>
+  </si>
+  <si>
+    <t>8. Voluntary Manslaughter</t>
+  </si>
+  <si>
+    <t>9. Involuntary Manslaughter</t>
+  </si>
+  <si>
+    <t>Whether or not defendant kill with</t>
+  </si>
+  <si>
+    <t>Sufficient Prremeditation - first degree</t>
+  </si>
+  <si>
+    <t>or malice aforethought - second degree</t>
+  </si>
+  <si>
+    <t>or manslaughter</t>
+  </si>
+  <si>
+    <t>Intentional</t>
+  </si>
+  <si>
+    <t>Unlawful Homicide (killing of one human being by another)</t>
+  </si>
+  <si>
+    <t>Without Malice Aforethought</t>
+  </si>
+  <si>
+    <t>Due to Adequate Provocation</t>
+  </si>
+  <si>
+    <t>No Enough time to cool down</t>
+  </si>
+  <si>
+    <t>Provocation sufficient to raise a reasonable person to murderous rage.</t>
+  </si>
+  <si>
+    <t>UNDER CRIMINAL LAW</t>
+  </si>
+  <si>
+    <t>Unintended Homicide (killing of one human being by another)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a ressult of </t>
+  </si>
+  <si>
+    <t>Criminal Negligence</t>
+  </si>
+  <si>
+    <t>Recklessness</t>
+  </si>
+  <si>
+    <t>Malum in se crime</t>
+  </si>
+  <si>
+    <t>Recklessness is deliberate creation of extreme risks to others</t>
+  </si>
+  <si>
+    <t>Criminal Negligence is deliberate breach of pre-existing duty to protect from extreme risk.</t>
+  </si>
+  <si>
+    <t>10. Redline Rule</t>
+  </si>
+  <si>
+    <t>Co-felon cannot be charged with murder</t>
+  </si>
+  <si>
+    <t>under felony murder rule</t>
+  </si>
+  <si>
+    <t>because co-felon was killed by</t>
+  </si>
+  <si>
+    <t>victim, bystander, or police</t>
+  </si>
+  <si>
+    <t>during commission of crime.</t>
+  </si>
+  <si>
+    <t>C. Crime Against Property</t>
+  </si>
+  <si>
+    <t>E. Crime Against Person</t>
+  </si>
+  <si>
+    <t>1. Assault</t>
+  </si>
+  <si>
+    <t>2. Battery</t>
+  </si>
+  <si>
+    <t>3. Rape</t>
+  </si>
+  <si>
+    <t>4. Kidnapping</t>
+  </si>
+  <si>
+    <t>Unlawful</t>
+  </si>
+  <si>
+    <t>against their will</t>
+  </si>
+  <si>
+    <t>taking or confining people</t>
   </si>
 </sst>
 </file>
@@ -3427,77 +3563,77 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -3522,24 +3658,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
   </sheetData>
@@ -3569,13 +3705,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>89</v>
@@ -3655,13 +3791,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="F12" t="s">
         <v>103</v>
@@ -3741,7 +3877,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>117</v>
@@ -3782,7 +3918,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>121</v>
@@ -4067,7 +4203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -4079,20 +4215,20 @@
     <col min="5" max="5" width="68.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>74</v>
       </c>
@@ -4100,109 +4236,112 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>669</v>
+      </c>
+      <c r="B6" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>670</v>
+      </c>
+      <c r="B7" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>672</v>
+      </c>
+      <c r="B8" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>673</v>
+      </c>
+      <c r="C11" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>675</v>
       </c>
-      <c r="B6" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="B7" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>678</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B15" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>677</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="B17" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="B20" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="36" x14ac:dyDescent="0.2">
       <c r="C27" s="10" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C28" s="2"/>
       <c r="E28" s="11" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="C29" s="9" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -4211,10 +4350,10 @@
     </row>
     <row r="31" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="C31" s="9" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -4223,10 +4362,10 @@
     </row>
     <row r="33" spans="3:5" ht="64" x14ac:dyDescent="0.2">
       <c r="C33" s="9" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.2">
@@ -4235,10 +4374,10 @@
     </row>
     <row r="35" spans="3:5" ht="96" x14ac:dyDescent="0.2">
       <c r="C35" s="9" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.2">
@@ -4247,10 +4386,10 @@
     </row>
     <row r="37" spans="3:5" ht="32" x14ac:dyDescent="0.2">
       <c r="C37" s="9" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.2">
@@ -4258,7 +4397,7 @@
     </row>
     <row r="39" spans="3:5" ht="80" x14ac:dyDescent="0.2">
       <c r="E39" s="11" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.2">
@@ -4266,7 +4405,7 @@
     </row>
     <row r="41" spans="3:5" ht="80" x14ac:dyDescent="0.2">
       <c r="E41" s="11" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.2">
@@ -4274,7 +4413,7 @@
     </row>
     <row r="43" spans="3:5" ht="32" x14ac:dyDescent="0.2">
       <c r="E43" s="11" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.2">
@@ -4282,7 +4421,7 @@
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E45" s="11" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.2">
@@ -4290,7 +4429,7 @@
     </row>
     <row r="47" spans="3:5" ht="48" x14ac:dyDescent="0.2">
       <c r="E47" s="11" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.2">
@@ -4298,7 +4437,7 @@
     </row>
     <row r="49" spans="5:5" ht="32" x14ac:dyDescent="0.2">
       <c r="E49" s="11" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="50" spans="5:5" x14ac:dyDescent="0.2">
@@ -4306,7 +4445,7 @@
     </row>
     <row r="51" spans="5:5" ht="64" x14ac:dyDescent="0.2">
       <c r="E51" s="11" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="52" spans="5:5" x14ac:dyDescent="0.2">
@@ -4322,7 +4461,7 @@
     </row>
     <row r="55" spans="5:5" ht="32" x14ac:dyDescent="0.2">
       <c r="E55" s="11" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
     </row>
     <row r="56" spans="5:5" x14ac:dyDescent="0.2">
@@ -4330,7 +4469,7 @@
     </row>
     <row r="57" spans="5:5" ht="32" x14ac:dyDescent="0.2">
       <c r="E57" s="11" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
     </row>
     <row r="58" spans="5:5" x14ac:dyDescent="0.2">
@@ -4338,7 +4477,7 @@
     </row>
     <row r="59" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E59" s="11" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
     </row>
     <row r="60" spans="5:5" x14ac:dyDescent="0.2">
@@ -4346,7 +4485,7 @@
     </row>
     <row r="61" spans="5:5" ht="64" x14ac:dyDescent="0.2">
       <c r="E61" s="11" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
     </row>
     <row r="62" spans="5:5" x14ac:dyDescent="0.2">
@@ -4354,7 +4493,7 @@
     </row>
     <row r="63" spans="5:5" ht="48" x14ac:dyDescent="0.2">
       <c r="E63" s="11" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
     </row>
     <row r="64" spans="5:5" x14ac:dyDescent="0.2">
@@ -4362,7 +4501,7 @@
     </row>
     <row r="65" spans="5:5" ht="48" x14ac:dyDescent="0.2">
       <c r="E65" s="11" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
     </row>
     <row r="66" spans="5:5" x14ac:dyDescent="0.2">
@@ -4370,7 +4509,7 @@
     </row>
     <row r="67" spans="5:5" ht="32" x14ac:dyDescent="0.2">
       <c r="E67" s="11" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
     </row>
     <row r="68" spans="5:5" x14ac:dyDescent="0.2">
@@ -4378,7 +4517,7 @@
     </row>
     <row r="69" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E69" s="11" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
     </row>
     <row r="70" spans="5:5" x14ac:dyDescent="0.2">
@@ -4386,12 +4525,12 @@
     </row>
     <row r="71" spans="5:5" ht="32" x14ac:dyDescent="0.2">
       <c r="E71" s="11" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
     </row>
     <row r="72" spans="5:5" ht="128" x14ac:dyDescent="0.2">
       <c r="E72" s="11" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
     </row>
     <row r="73" spans="5:5" x14ac:dyDescent="0.2">
@@ -4399,7 +4538,7 @@
     </row>
     <row r="74" spans="5:5" ht="64" x14ac:dyDescent="0.2">
       <c r="E74" s="11" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
     </row>
     <row r="75" spans="5:5" x14ac:dyDescent="0.2">
@@ -4407,7 +4546,7 @@
     </row>
     <row r="76" spans="5:5" ht="32" x14ac:dyDescent="0.2">
       <c r="E76" s="11" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
     </row>
     <row r="77" spans="5:5" x14ac:dyDescent="0.2">
@@ -4415,7 +4554,7 @@
     </row>
     <row r="78" spans="5:5" ht="80" x14ac:dyDescent="0.2">
       <c r="E78" s="9" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
     </row>
     <row r="79" spans="5:5" x14ac:dyDescent="0.2">
@@ -4423,7 +4562,7 @@
     </row>
     <row r="80" spans="5:5" ht="32" x14ac:dyDescent="0.2">
       <c r="E80" s="9" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
     </row>
     <row r="81" spans="5:5" x14ac:dyDescent="0.2">
@@ -4431,7 +4570,7 @@
     </row>
     <row r="82" spans="5:5" ht="32" x14ac:dyDescent="0.2">
       <c r="E82" s="9" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
     </row>
   </sheetData>
@@ -4460,150 +4599,150 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>538</v>
+      </c>
+      <c r="B6" t="s">
         <v>544</v>
       </c>
-      <c r="B6" t="s">
-        <v>550</v>
-      </c>
       <c r="C6" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="D6" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>539</v>
+      </c>
+      <c r="B7" t="s">
         <v>545</v>
       </c>
-      <c r="B7" t="s">
-        <v>551</v>
-      </c>
       <c r="E7" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>540</v>
+      </c>
+      <c r="B8" t="s">
         <v>546</v>
       </c>
-      <c r="B8" t="s">
-        <v>552</v>
-      </c>
       <c r="D8" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>541</v>
+      </c>
+      <c r="B10" t="s">
         <v>547</v>
       </c>
-      <c r="B10" t="s">
-        <v>553</v>
-      </c>
       <c r="D10" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="D12" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="D16" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="I28" s="10" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
@@ -4612,10 +4751,10 @@
     </row>
     <row r="30" spans="2:11" ht="48" x14ac:dyDescent="0.2">
       <c r="I30" s="9" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
@@ -4624,10 +4763,10 @@
     </row>
     <row r="32" spans="2:11" ht="80" x14ac:dyDescent="0.2">
       <c r="I32" s="9" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="33" spans="9:11" x14ac:dyDescent="0.2">
@@ -4636,81 +4775,81 @@
     </row>
     <row r="34" spans="9:11" ht="80" x14ac:dyDescent="0.2">
       <c r="I34" s="9" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="35" spans="9:11" ht="32" x14ac:dyDescent="0.2">
       <c r="I35" s="9" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="9:11" ht="48" x14ac:dyDescent="0.2">
       <c r="I36" s="2"/>
       <c r="K36" s="11" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="37" spans="9:11" ht="64" x14ac:dyDescent="0.2">
       <c r="I37" s="9" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I38" s="2"/>
       <c r="K38" s="11" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="39" spans="9:11" ht="64" x14ac:dyDescent="0.2">
       <c r="I39" s="9" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="K39" s="2"/>
     </row>
     <row r="40" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I40" s="2"/>
       <c r="K40" s="11" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="41" spans="9:11" ht="48" x14ac:dyDescent="0.2">
       <c r="I41" s="9" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="9:11" ht="48" x14ac:dyDescent="0.2">
       <c r="I42" s="2"/>
       <c r="K42" s="11" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="43" spans="9:11" ht="64" x14ac:dyDescent="0.2">
       <c r="I43" s="9" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="K43" s="2"/>
     </row>
     <row r="44" spans="9:11" ht="32" x14ac:dyDescent="0.2">
       <c r="I44" s="2"/>
       <c r="K44" s="11" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="45" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I45" s="9" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="K45" s="2"/>
     </row>
     <row r="46" spans="9:11" ht="48" x14ac:dyDescent="0.2">
       <c r="K46" s="11" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="47" spans="9:11" x14ac:dyDescent="0.2">
@@ -4718,7 +4857,7 @@
     </row>
     <row r="48" spans="9:11" ht="32" x14ac:dyDescent="0.2">
       <c r="K48" s="11" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="49" spans="11:11" x14ac:dyDescent="0.2">
@@ -4726,7 +4865,7 @@
     </row>
     <row r="50" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K50" s="11" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="51" spans="11:11" x14ac:dyDescent="0.2">
@@ -4734,7 +4873,7 @@
     </row>
     <row r="52" spans="11:11" ht="32" x14ac:dyDescent="0.2">
       <c r="K52" s="11" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="53" spans="11:11" x14ac:dyDescent="0.2">
@@ -4742,7 +4881,7 @@
     </row>
     <row r="54" spans="11:11" ht="32" x14ac:dyDescent="0.2">
       <c r="K54" s="11" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="55" spans="11:11" x14ac:dyDescent="0.2">
@@ -4758,7 +4897,7 @@
     </row>
     <row r="58" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K58" s="11" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="59" spans="11:11" x14ac:dyDescent="0.2">
@@ -4774,7 +4913,7 @@
     </row>
     <row r="62" spans="11:11" ht="48" x14ac:dyDescent="0.2">
       <c r="K62" s="11" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="63" spans="11:11" x14ac:dyDescent="0.2">
@@ -4782,7 +4921,7 @@
     </row>
     <row r="64" spans="11:11" ht="64" x14ac:dyDescent="0.2">
       <c r="K64" s="11" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="65" spans="11:11" x14ac:dyDescent="0.2">
@@ -4790,7 +4929,7 @@
     </row>
     <row r="66" spans="11:11" ht="48" x14ac:dyDescent="0.2">
       <c r="K66" s="11" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="67" spans="11:11" x14ac:dyDescent="0.2">
@@ -4798,7 +4937,7 @@
     </row>
     <row r="68" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K68" s="11" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="69" spans="11:11" x14ac:dyDescent="0.2">
@@ -4806,7 +4945,7 @@
     </row>
     <row r="70" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K70" s="11" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="71" spans="11:11" x14ac:dyDescent="0.2">
@@ -4814,7 +4953,7 @@
     </row>
     <row r="72" spans="11:11" ht="128" x14ac:dyDescent="0.2">
       <c r="K72" s="11" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="73" spans="11:11" x14ac:dyDescent="0.2">
@@ -4822,7 +4961,7 @@
     </row>
     <row r="74" spans="11:11" ht="32" x14ac:dyDescent="0.2">
       <c r="K74" s="11" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="75" spans="11:11" x14ac:dyDescent="0.2">
@@ -4830,7 +4969,7 @@
     </row>
     <row r="76" spans="11:11" ht="32" x14ac:dyDescent="0.2">
       <c r="K76" s="11" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="77" spans="11:11" x14ac:dyDescent="0.2">
@@ -4838,7 +4977,7 @@
     </row>
     <row r="78" spans="11:11" ht="96" x14ac:dyDescent="0.2">
       <c r="K78" s="11" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="79" spans="11:11" x14ac:dyDescent="0.2">
@@ -4846,7 +4985,7 @@
     </row>
     <row r="80" spans="11:11" ht="32" x14ac:dyDescent="0.2">
       <c r="K80" s="11" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="81" spans="11:11" x14ac:dyDescent="0.2">
@@ -4854,7 +4993,7 @@
     </row>
     <row r="82" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K82" s="11" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="83" spans="11:11" x14ac:dyDescent="0.2">
@@ -4870,12 +5009,12 @@
     </row>
     <row r="86" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K86" s="12" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="87" spans="11:11" ht="32" x14ac:dyDescent="0.2">
       <c r="K87" s="11" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="88" spans="11:11" x14ac:dyDescent="0.2">
@@ -4883,7 +5022,7 @@
     </row>
     <row r="89" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K89" s="11" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="90" spans="11:11" x14ac:dyDescent="0.2">
@@ -4891,7 +5030,7 @@
     </row>
     <row r="91" spans="11:11" ht="64" x14ac:dyDescent="0.2">
       <c r="K91" s="11" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="92" spans="11:11" x14ac:dyDescent="0.2">
@@ -4899,7 +5038,7 @@
     </row>
     <row r="93" spans="11:11" ht="32" x14ac:dyDescent="0.2">
       <c r="K93" s="11" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="94" spans="11:11" x14ac:dyDescent="0.2">
@@ -4907,7 +5046,7 @@
     </row>
     <row r="95" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K95" s="11" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="96" spans="11:11" x14ac:dyDescent="0.2">
@@ -4915,7 +5054,7 @@
     </row>
     <row r="97" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K97" s="11" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="98" spans="11:11" x14ac:dyDescent="0.2">
@@ -4923,7 +5062,7 @@
     </row>
     <row r="99" spans="11:11" ht="32" x14ac:dyDescent="0.2">
       <c r="K99" s="11" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="100" spans="11:11" x14ac:dyDescent="0.2">
@@ -4931,7 +5070,7 @@
     </row>
     <row r="101" spans="11:11" ht="32" x14ac:dyDescent="0.2">
       <c r="K101" s="11" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="102" spans="11:11" x14ac:dyDescent="0.2">
@@ -4939,7 +5078,7 @@
     </row>
     <row r="103" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K103" s="11" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="104" spans="11:11" x14ac:dyDescent="0.2">
@@ -4947,7 +5086,7 @@
     </row>
     <row r="105" spans="11:11" ht="96" x14ac:dyDescent="0.2">
       <c r="K105" s="9" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="106" spans="11:11" x14ac:dyDescent="0.2">
@@ -4955,7 +5094,7 @@
     </row>
     <row r="107" spans="11:11" ht="32" x14ac:dyDescent="0.2">
       <c r="K107" s="9" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="108" spans="11:11" x14ac:dyDescent="0.2">
@@ -4963,7 +5102,7 @@
     </row>
     <row r="109" spans="11:11" ht="32" x14ac:dyDescent="0.2">
       <c r="K109" s="9" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -4975,15 +5114,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E305"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="101" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView zoomScale="101" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53.33203125" customWidth="1"/>
     <col min="2" max="2" width="36.5" customWidth="1"/>
-    <col min="3" max="3" width="79.33203125" customWidth="1"/>
+    <col min="3" max="3" width="47.5" customWidth="1"/>
     <col min="4" max="4" width="35.1640625" customWidth="1"/>
     <col min="5" max="5" width="33.83203125" customWidth="1"/>
   </cols>
@@ -4992,156 +5131,241 @@
       <c r="A1" s="1" t="s">
         <v>240</v>
       </c>
+      <c r="B1" t="s">
+        <v>707</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>241</v>
+        <v>688</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>246</v>
+        <v>689</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>252</v>
+        <v>690</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>264</v>
+        <v>691</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>263</v>
+        <v>692</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="C14" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C16" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>260</v>
+      </c>
+      <c r="B21" t="s">
+        <v>697</v>
+      </c>
+      <c r="C21" t="s">
+        <v>701</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="E21" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
+      <c r="B22" t="s">
+        <v>698</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="D22" t="s">
+        <v>709</v>
+      </c>
+      <c r="E22" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="B23" t="s">
+        <v>699</v>
+      </c>
+      <c r="C23" t="s">
+        <v>703</v>
+      </c>
+      <c r="D23" t="s">
+        <v>710</v>
+      </c>
+      <c r="E23" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>700</v>
+      </c>
+      <c r="C24" t="s">
+        <v>704</v>
+      </c>
+      <c r="D24" t="s">
+        <v>711</v>
+      </c>
+      <c r="E24" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>263</v>
+      </c>
+      <c r="D25" t="s">
+        <v>712</v>
+      </c>
+      <c r="E25" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>264</v>
+      </c>
+      <c r="C26" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="D27" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="C28" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="30" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>267</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -5150,75 +5374,75 @@
     </row>
     <row r="39" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="C40" s="11" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="112" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3" ht="96" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="C42" s="11" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="96" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="C44" s="11" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="96" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="C46" s="11" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:3" ht="112" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="C48" s="11" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="C49" s="2"/>
     </row>
     <row r="50" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="C50" s="11" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -5226,7 +5450,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C52" s="11" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -5234,7 +5458,7 @@
     </row>
     <row r="54" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C54" s="11" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -5242,7 +5466,7 @@
     </row>
     <row r="56" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="C56" s="11" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -5250,7 +5474,7 @@
     </row>
     <row r="58" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C58" s="11" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -5258,12 +5482,12 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C60" s="12" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C61" s="11" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -5271,12 +5495,12 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C63" s="11" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C64" s="11" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.2">
@@ -5284,7 +5508,7 @@
     </row>
     <row r="66" spans="3:3" ht="64" x14ac:dyDescent="0.2">
       <c r="C66" s="11" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.2">
@@ -5292,7 +5516,7 @@
     </row>
     <row r="68" spans="3:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C68" s="11" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.2">
@@ -5300,7 +5524,7 @@
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C70" s="11" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.2">
@@ -5308,7 +5532,7 @@
     </row>
     <row r="72" spans="3:3" ht="48" x14ac:dyDescent="0.2">
       <c r="C72" s="11" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.2">
@@ -5316,7 +5540,7 @@
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C74" s="11" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.2">
@@ -5324,7 +5548,7 @@
     </row>
     <row r="76" spans="3:3" ht="64" x14ac:dyDescent="0.2">
       <c r="C76" s="11" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.2">
@@ -5332,7 +5556,7 @@
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C78" s="11" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.2">
@@ -5340,7 +5564,7 @@
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C80" s="11" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.2">
@@ -5348,7 +5572,7 @@
     </row>
     <row r="82" spans="3:3" ht="48" x14ac:dyDescent="0.2">
       <c r="C82" s="11" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.2">
@@ -5356,7 +5580,7 @@
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C84" s="11" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.2">
@@ -5364,7 +5588,7 @@
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C86" s="11" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.2">
@@ -5372,7 +5596,7 @@
     </row>
     <row r="88" spans="3:3" ht="64" x14ac:dyDescent="0.2">
       <c r="C88" s="11" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.2">
@@ -5380,7 +5604,7 @@
     </row>
     <row r="90" spans="3:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C90" s="11" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.2">
@@ -5388,7 +5612,7 @@
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C92" s="11" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.2">
@@ -5396,7 +5620,7 @@
     </row>
     <row r="94" spans="3:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C94" s="11" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.2">
@@ -5404,7 +5628,7 @@
     </row>
     <row r="96" spans="3:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C96" s="11" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -5412,7 +5636,7 @@
     </row>
     <row r="98" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="C98" s="9" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -5420,7 +5644,7 @@
     </row>
     <row r="100" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C100" s="9" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -5428,7 +5652,7 @@
     </row>
     <row r="102" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C102" s="9" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -5436,7 +5660,7 @@
     </row>
     <row r="104" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="C104" s="9" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -5444,7 +5668,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C106" s="13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -5464,10 +5688,10 @@
     </row>
     <row r="112" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -5476,10 +5700,10 @@
     </row>
     <row r="114" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -5488,10 +5712,10 @@
     </row>
     <row r="116" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A116" s="9" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -5500,10 +5724,10 @@
     </row>
     <row r="118" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A118" s="9" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -5512,10 +5736,10 @@
     </row>
     <row r="120" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A120" s="9" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -5524,10 +5748,10 @@
     </row>
     <row r="122" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A122" s="9" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -5536,21 +5760,21 @@
     </row>
     <row r="124" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A124" s="9" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A125" s="9" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C125" s="2"/>
     </row>
     <row r="126" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="C126" s="11" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -5558,7 +5782,7 @@
     </row>
     <row r="128" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C128" s="11" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.2">
@@ -5566,7 +5790,7 @@
     </row>
     <row r="130" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C130" s="11" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="131" spans="3:3" x14ac:dyDescent="0.2">
@@ -5574,7 +5798,7 @@
     </row>
     <row r="132" spans="3:3" ht="48" x14ac:dyDescent="0.2">
       <c r="C132" s="11" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="133" spans="3:3" x14ac:dyDescent="0.2">
@@ -5582,7 +5806,7 @@
     </row>
     <row r="134" spans="3:3" ht="48" x14ac:dyDescent="0.2">
       <c r="C134" s="11" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="135" spans="3:3" x14ac:dyDescent="0.2">
@@ -5590,7 +5814,7 @@
     </row>
     <row r="136" spans="3:3" ht="48" x14ac:dyDescent="0.2">
       <c r="C136" s="11" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="137" spans="3:3" x14ac:dyDescent="0.2">
@@ -5614,12 +5838,12 @@
     </row>
     <row r="142" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C142" s="12" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="143" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C143" s="11" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="144" spans="3:3" x14ac:dyDescent="0.2">
@@ -5627,7 +5851,7 @@
     </row>
     <row r="145" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C145" s="11" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="146" spans="3:3" x14ac:dyDescent="0.2">
@@ -5635,7 +5859,7 @@
     </row>
     <row r="147" spans="3:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C147" s="11" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="148" spans="3:3" x14ac:dyDescent="0.2">
@@ -5643,7 +5867,7 @@
     </row>
     <row r="149" spans="3:3" ht="48" x14ac:dyDescent="0.2">
       <c r="C149" s="11" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="150" spans="3:3" x14ac:dyDescent="0.2">
@@ -5651,7 +5875,7 @@
     </row>
     <row r="151" spans="3:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C151" s="11" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="152" spans="3:3" x14ac:dyDescent="0.2">
@@ -5659,7 +5883,7 @@
     </row>
     <row r="153" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C153" s="11" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="154" spans="3:3" x14ac:dyDescent="0.2">
@@ -5667,7 +5891,7 @@
     </row>
     <row r="155" spans="3:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C155" s="11" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="156" spans="3:3" x14ac:dyDescent="0.2">
@@ -5675,7 +5899,7 @@
     </row>
     <row r="157" spans="3:3" ht="48" x14ac:dyDescent="0.2">
       <c r="C157" s="11" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="158" spans="3:3" x14ac:dyDescent="0.2">
@@ -5683,7 +5907,7 @@
     </row>
     <row r="159" spans="3:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C159" s="11" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="160" spans="3:3" x14ac:dyDescent="0.2">
@@ -5691,7 +5915,7 @@
     </row>
     <row r="161" spans="3:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C161" s="11" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="162" spans="3:3" x14ac:dyDescent="0.2">
@@ -5699,7 +5923,7 @@
     </row>
     <row r="163" spans="3:3" ht="80" x14ac:dyDescent="0.2">
       <c r="C163" s="11" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="164" spans="3:3" x14ac:dyDescent="0.2">
@@ -5707,7 +5931,7 @@
     </row>
     <row r="165" spans="3:3" ht="48" x14ac:dyDescent="0.2">
       <c r="C165" s="11" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="166" spans="3:3" x14ac:dyDescent="0.2">
@@ -5715,7 +5939,7 @@
     </row>
     <row r="167" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C167" s="11" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="168" spans="3:3" x14ac:dyDescent="0.2">
@@ -5723,7 +5947,7 @@
     </row>
     <row r="169" spans="3:3" ht="48" x14ac:dyDescent="0.2">
       <c r="C169" s="9" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="170" spans="3:3" x14ac:dyDescent="0.2">
@@ -5731,7 +5955,7 @@
     </row>
     <row r="171" spans="3:3" ht="80" x14ac:dyDescent="0.2">
       <c r="C171" s="9" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="172" spans="3:3" x14ac:dyDescent="0.2">
@@ -5751,10 +5975,10 @@
     </row>
     <row r="177" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A177" s="10" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -5763,100 +5987,100 @@
     </row>
     <row r="179" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A179" s="9" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C179" s="11" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="2"/>
       <c r="C180" s="11" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="9" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C181" s="2"/>
     </row>
     <row r="182" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A182" s="2"/>
       <c r="C182" s="11" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A183" s="9" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C183" s="2"/>
     </row>
     <row r="184" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A184" s="2"/>
       <c r="C184" s="11" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A185" s="9" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="C185" s="2"/>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="2"/>
       <c r="C186" s="11" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A187" s="9" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="C187" s="2"/>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="2"/>
       <c r="C188" s="11" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A189" s="9" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C189" s="2"/>
     </row>
     <row r="190" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A190" s="2"/>
       <c r="C190" s="11" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A191" s="9" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C191" s="2"/>
     </row>
     <row r="192" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A192" s="2"/>
       <c r="C192" s="11" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="9" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C193" s="2"/>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="2"/>
       <c r="C194" s="11" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
@@ -5864,7 +6088,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C196" s="11" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
@@ -5872,7 +6096,7 @@
     </row>
     <row r="198" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="C198" s="11" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
@@ -5880,7 +6104,7 @@
     </row>
     <row r="200" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C200" s="11" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
@@ -5888,7 +6112,7 @@
     </row>
     <row r="202" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C202" s="11" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
@@ -5912,7 +6136,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C208" s="12" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="209" spans="3:3" x14ac:dyDescent="0.2">
@@ -5920,7 +6144,7 @@
     </row>
     <row r="210" spans="3:3" ht="112" x14ac:dyDescent="0.2">
       <c r="C210" s="11" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="211" spans="3:3" x14ac:dyDescent="0.2">
@@ -5928,7 +6152,7 @@
     </row>
     <row r="212" spans="3:3" ht="96" x14ac:dyDescent="0.2">
       <c r="C212" s="11" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="213" spans="3:3" x14ac:dyDescent="0.2">
@@ -5936,7 +6160,7 @@
     </row>
     <row r="214" spans="3:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C214" s="11" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="215" spans="3:3" x14ac:dyDescent="0.2">
@@ -5944,7 +6168,7 @@
     </row>
     <row r="216" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C216" s="11" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="217" spans="3:3" x14ac:dyDescent="0.2">
@@ -5952,7 +6176,7 @@
     </row>
     <row r="218" spans="3:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C218" s="11" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="219" spans="3:3" x14ac:dyDescent="0.2">
@@ -5960,7 +6184,7 @@
     </row>
     <row r="220" spans="3:3" ht="64" x14ac:dyDescent="0.2">
       <c r="C220" s="11" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="221" spans="3:3" x14ac:dyDescent="0.2">
@@ -5968,7 +6192,7 @@
     </row>
     <row r="222" spans="3:3" ht="48" x14ac:dyDescent="0.2">
       <c r="C222" s="11" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="223" spans="3:3" x14ac:dyDescent="0.2">
@@ -5976,7 +6200,7 @@
     </row>
     <row r="224" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C224" s="11" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="225" spans="3:3" x14ac:dyDescent="0.2">
@@ -5984,7 +6208,7 @@
     </row>
     <row r="226" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C226" s="11" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="227" spans="3:3" x14ac:dyDescent="0.2">
@@ -5992,7 +6216,7 @@
     </row>
     <row r="228" spans="3:3" ht="96" x14ac:dyDescent="0.2">
       <c r="C228" s="11" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="229" spans="3:3" x14ac:dyDescent="0.2">
@@ -6000,7 +6224,7 @@
     </row>
     <row r="230" spans="3:3" ht="48" x14ac:dyDescent="0.2">
       <c r="C230" s="11" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="231" spans="3:3" x14ac:dyDescent="0.2">
@@ -6016,7 +6240,7 @@
     </row>
     <row r="234" spans="3:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C234" s="11" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="235" spans="3:3" x14ac:dyDescent="0.2">
@@ -6024,7 +6248,7 @@
     </row>
     <row r="236" spans="3:3" ht="80" x14ac:dyDescent="0.2">
       <c r="C236" s="11" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="237" spans="3:3" x14ac:dyDescent="0.2">
@@ -6032,7 +6256,7 @@
     </row>
     <row r="238" spans="3:3" ht="48" x14ac:dyDescent="0.2">
       <c r="C238" s="11" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="239" spans="3:3" x14ac:dyDescent="0.2">
@@ -6040,7 +6264,7 @@
     </row>
     <row r="240" spans="3:3" ht="48" x14ac:dyDescent="0.2">
       <c r="C240" s="11" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="241" spans="3:3" x14ac:dyDescent="0.2">
@@ -6048,7 +6272,7 @@
     </row>
     <row r="242" spans="3:3" ht="48" x14ac:dyDescent="0.2">
       <c r="C242" s="11" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="243" spans="3:3" x14ac:dyDescent="0.2">
@@ -6056,7 +6280,7 @@
     </row>
     <row r="244" spans="3:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C244" s="11" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="245" spans="3:3" x14ac:dyDescent="0.2">
@@ -6064,7 +6288,7 @@
     </row>
     <row r="246" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C246" s="11" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="247" spans="3:3" x14ac:dyDescent="0.2">
@@ -6072,7 +6296,7 @@
     </row>
     <row r="248" spans="3:3" ht="64" x14ac:dyDescent="0.2">
       <c r="C248" s="11" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="249" spans="3:3" x14ac:dyDescent="0.2">
@@ -6080,7 +6304,7 @@
     </row>
     <row r="250" spans="3:3" ht="48" x14ac:dyDescent="0.2">
       <c r="C250" s="11" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="251" spans="3:3" x14ac:dyDescent="0.2">
@@ -6088,7 +6312,7 @@
     </row>
     <row r="252" spans="3:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C252" s="11" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="253" spans="3:3" x14ac:dyDescent="0.2">
@@ -6096,7 +6320,7 @@
     </row>
     <row r="254" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C254" s="11" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="255" spans="3:3" x14ac:dyDescent="0.2">
@@ -6104,7 +6328,7 @@
     </row>
     <row r="256" spans="3:3" ht="48" x14ac:dyDescent="0.2">
       <c r="C256" s="11" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="257" spans="3:3" x14ac:dyDescent="0.2">
@@ -6112,7 +6336,7 @@
     </row>
     <row r="258" spans="3:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C258" s="11" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="259" spans="3:3" x14ac:dyDescent="0.2">
@@ -6136,12 +6360,12 @@
     </row>
     <row r="264" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C264" s="12" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="265" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C265" s="11" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="266" spans="3:3" x14ac:dyDescent="0.2">
@@ -6149,7 +6373,7 @@
     </row>
     <row r="267" spans="3:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C267" s="11" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="268" spans="3:3" x14ac:dyDescent="0.2">
@@ -6157,12 +6381,12 @@
     </row>
     <row r="269" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C269" s="11" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="270" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C270" s="11" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="271" spans="3:3" x14ac:dyDescent="0.2">
@@ -6170,7 +6394,7 @@
     </row>
     <row r="272" spans="3:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C272" s="11" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="273" spans="3:3" x14ac:dyDescent="0.2">
@@ -6178,7 +6402,7 @@
     </row>
     <row r="274" spans="3:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C274" s="11" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="275" spans="3:3" x14ac:dyDescent="0.2">
@@ -6186,7 +6410,7 @@
     </row>
     <row r="276" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C276" s="11" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="277" spans="3:3" x14ac:dyDescent="0.2">
@@ -6194,7 +6418,7 @@
     </row>
     <row r="278" spans="3:3" ht="64" x14ac:dyDescent="0.2">
       <c r="C278" s="11" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="279" spans="3:3" x14ac:dyDescent="0.2">
@@ -6202,7 +6426,7 @@
     </row>
     <row r="280" spans="3:3" ht="64" x14ac:dyDescent="0.2">
       <c r="C280" s="11" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="281" spans="3:3" x14ac:dyDescent="0.2">
@@ -6210,7 +6434,7 @@
     </row>
     <row r="282" spans="3:3" ht="48" x14ac:dyDescent="0.2">
       <c r="C282" s="11" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="283" spans="3:3" x14ac:dyDescent="0.2">
@@ -6218,7 +6442,7 @@
     </row>
     <row r="284" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C284" s="11" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="285" spans="3:3" x14ac:dyDescent="0.2">
@@ -6226,7 +6450,7 @@
     </row>
     <row r="286" spans="3:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C286" s="11" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="287" spans="3:3" x14ac:dyDescent="0.2">
@@ -6234,7 +6458,7 @@
     </row>
     <row r="288" spans="3:3" ht="48" x14ac:dyDescent="0.2">
       <c r="C288" s="11" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="289" spans="3:3" x14ac:dyDescent="0.2">
@@ -6242,7 +6466,7 @@
     </row>
     <row r="290" spans="3:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C290" s="11" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="291" spans="3:3" x14ac:dyDescent="0.2">
@@ -6258,12 +6482,12 @@
     </row>
     <row r="294" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C294" s="9" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="295" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C295" s="9" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="296" spans="3:3" x14ac:dyDescent="0.2">
@@ -6271,7 +6495,7 @@
     </row>
     <row r="297" spans="3:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C297" s="9" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="298" spans="3:3" x14ac:dyDescent="0.2">
@@ -6279,7 +6503,7 @@
     </row>
     <row r="299" spans="3:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C299" s="9" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="300" spans="3:3" x14ac:dyDescent="0.2">
@@ -6287,7 +6511,7 @@
     </row>
     <row r="301" spans="3:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C301" s="9" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="302" spans="3:3" x14ac:dyDescent="0.2">
@@ -6295,7 +6519,7 @@
     </row>
     <row r="303" spans="3:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C303" s="9" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="304" spans="3:3" x14ac:dyDescent="0.2">
@@ -6303,7 +6527,7 @@
     </row>
     <row r="305" spans="3:3" ht="48" x14ac:dyDescent="0.2">
       <c r="C305" s="9" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -6314,10 +6538,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="J25:M77"/>
+  <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6326,12 +6550,17 @@
     <col min="13" max="13" width="67.83203125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>721</v>
+      </c>
+    </row>
     <row r="25" spans="10:13" ht="18" x14ac:dyDescent="0.2">
       <c r="J25" s="10" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="10:13" x14ac:dyDescent="0.2">
@@ -6340,7 +6569,7 @@
     </row>
     <row r="27" spans="10:13" ht="48" x14ac:dyDescent="0.2">
       <c r="J27" s="9" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>126</v>
@@ -6352,10 +6581,10 @@
     </row>
     <row r="29" spans="10:13" ht="112" x14ac:dyDescent="0.2">
       <c r="J29" s="9" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="30" spans="10:13" x14ac:dyDescent="0.2">
@@ -6364,10 +6593,10 @@
     </row>
     <row r="31" spans="10:13" ht="48" x14ac:dyDescent="0.2">
       <c r="J31" s="9" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="32" spans="10:13" x14ac:dyDescent="0.2">
@@ -6376,10 +6605,10 @@
     </row>
     <row r="33" spans="10:13" ht="48" x14ac:dyDescent="0.2">
       <c r="J33" s="9" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="34" spans="10:13" x14ac:dyDescent="0.2">
@@ -6388,10 +6617,10 @@
     </row>
     <row r="35" spans="10:13" ht="48" x14ac:dyDescent="0.2">
       <c r="J35" s="9" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="36" spans="10:13" x14ac:dyDescent="0.2">
@@ -6400,10 +6629,10 @@
     </row>
     <row r="37" spans="10:13" ht="128" x14ac:dyDescent="0.2">
       <c r="J37" s="9" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="38" spans="10:13" x14ac:dyDescent="0.2">
@@ -6412,10 +6641,10 @@
     </row>
     <row r="39" spans="10:13" ht="64" x14ac:dyDescent="0.2">
       <c r="J39" s="9" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="M39" s="11" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="40" spans="10:13" x14ac:dyDescent="0.2">
@@ -6424,10 +6653,10 @@
     </row>
     <row r="41" spans="10:13" ht="80" x14ac:dyDescent="0.2">
       <c r="J41" s="9" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="M41" s="11" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="42" spans="10:13" x14ac:dyDescent="0.2">
@@ -6435,7 +6664,7 @@
     </row>
     <row r="43" spans="10:13" ht="32" x14ac:dyDescent="0.2">
       <c r="M43" s="11" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="44" spans="10:13" x14ac:dyDescent="0.2">
@@ -6443,7 +6672,7 @@
     </row>
     <row r="45" spans="10:13" x14ac:dyDescent="0.2">
       <c r="M45" s="11" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="46" spans="10:13" x14ac:dyDescent="0.2">
@@ -6451,7 +6680,7 @@
     </row>
     <row r="47" spans="10:13" ht="48" x14ac:dyDescent="0.2">
       <c r="M47" s="11" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="48" spans="10:13" x14ac:dyDescent="0.2">
@@ -6459,7 +6688,7 @@
     </row>
     <row r="49" spans="13:13" ht="48" x14ac:dyDescent="0.2">
       <c r="M49" s="11" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="50" spans="13:13" x14ac:dyDescent="0.2">
@@ -6475,7 +6704,7 @@
     </row>
     <row r="53" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M53" s="12" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="54" spans="13:13" x14ac:dyDescent="0.2">
@@ -6483,7 +6712,7 @@
     </row>
     <row r="55" spans="13:13" ht="64" x14ac:dyDescent="0.2">
       <c r="M55" s="11" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="56" spans="13:13" x14ac:dyDescent="0.2">
@@ -6491,7 +6720,7 @@
     </row>
     <row r="57" spans="13:13" ht="32" x14ac:dyDescent="0.2">
       <c r="M57" s="11" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="58" spans="13:13" x14ac:dyDescent="0.2">
@@ -6499,7 +6728,7 @@
     </row>
     <row r="59" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M59" s="11" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="60" spans="13:13" x14ac:dyDescent="0.2">
@@ -6507,7 +6736,7 @@
     </row>
     <row r="61" spans="13:13" ht="80" x14ac:dyDescent="0.2">
       <c r="M61" s="11" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="62" spans="13:13" x14ac:dyDescent="0.2">
@@ -6515,7 +6744,7 @@
     </row>
     <row r="63" spans="13:13" ht="32" x14ac:dyDescent="0.2">
       <c r="M63" s="11" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="64" spans="13:13" x14ac:dyDescent="0.2">
@@ -6523,7 +6752,7 @@
     </row>
     <row r="65" spans="13:13" ht="64" x14ac:dyDescent="0.2">
       <c r="M65" s="11" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="66" spans="13:13" x14ac:dyDescent="0.2">
@@ -6531,7 +6760,7 @@
     </row>
     <row r="67" spans="13:13" ht="48" x14ac:dyDescent="0.2">
       <c r="M67" s="11" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="68" spans="13:13" x14ac:dyDescent="0.2">
@@ -6539,7 +6768,7 @@
     </row>
     <row r="69" spans="13:13" ht="64" x14ac:dyDescent="0.2">
       <c r="M69" s="11" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="70" spans="13:13" x14ac:dyDescent="0.2">
@@ -6547,7 +6776,7 @@
     </row>
     <row r="71" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M71" s="11" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="72" spans="13:13" x14ac:dyDescent="0.2">
@@ -6555,7 +6784,7 @@
     </row>
     <row r="73" spans="13:13" ht="48" x14ac:dyDescent="0.2">
       <c r="M73" s="9" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="74" spans="13:13" x14ac:dyDescent="0.2">
@@ -6563,7 +6792,7 @@
     </row>
     <row r="75" spans="13:13" ht="96" x14ac:dyDescent="0.2">
       <c r="M75" s="9" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="76" spans="13:13" x14ac:dyDescent="0.2">
@@ -6571,7 +6800,7 @@
     </row>
     <row r="77" spans="13:13" ht="96" x14ac:dyDescent="0.2">
       <c r="M77" s="9" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -6595,10 +6824,10 @@
   <sheetData>
     <row r="27" spans="9:12" ht="18" x14ac:dyDescent="0.2">
       <c r="I27" s="10" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="28" spans="9:12" x14ac:dyDescent="0.2">
@@ -6607,60 +6836,60 @@
     </row>
     <row r="29" spans="9:12" ht="48" x14ac:dyDescent="0.2">
       <c r="I29" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="L29" s="11" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I30" s="2"/>
       <c r="L30" s="11" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31" spans="9:12" ht="48" x14ac:dyDescent="0.2">
       <c r="I31" s="9" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="9:12" ht="48" x14ac:dyDescent="0.2">
       <c r="I32" s="2"/>
       <c r="L32" s="11" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I33" s="9" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="9:12" ht="32" x14ac:dyDescent="0.2">
       <c r="I34" s="2"/>
       <c r="L34" s="11" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="35" spans="9:12" ht="48" x14ac:dyDescent="0.2">
       <c r="I35" s="9" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="9:12" ht="32" x14ac:dyDescent="0.2">
       <c r="I36" s="2"/>
       <c r="L36" s="11" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="37" spans="9:12" ht="96" x14ac:dyDescent="0.2">
       <c r="I37" s="9" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="L37" s="11" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="38" spans="9:12" x14ac:dyDescent="0.2">
@@ -6669,10 +6898,10 @@
     </row>
     <row r="39" spans="9:12" ht="48" x14ac:dyDescent="0.2">
       <c r="I39" s="9" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="L39" s="11" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40" spans="9:12" x14ac:dyDescent="0.2">
@@ -6680,7 +6909,7 @@
     </row>
     <row r="41" spans="9:12" ht="48" x14ac:dyDescent="0.2">
       <c r="L41" s="11" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42" spans="9:12" x14ac:dyDescent="0.2">
@@ -6688,7 +6917,7 @@
     </row>
     <row r="43" spans="9:12" ht="48" x14ac:dyDescent="0.2">
       <c r="L43" s="11" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="44" spans="9:12" x14ac:dyDescent="0.2">
@@ -6696,12 +6925,12 @@
     </row>
     <row r="45" spans="9:12" x14ac:dyDescent="0.2">
       <c r="L45" s="11" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46" spans="9:12" x14ac:dyDescent="0.2">
       <c r="L46" s="11" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="47" spans="9:12" x14ac:dyDescent="0.2">
@@ -6709,7 +6938,7 @@
     </row>
     <row r="48" spans="9:12" ht="48" x14ac:dyDescent="0.2">
       <c r="L48" s="11" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="49" spans="12:12" x14ac:dyDescent="0.2">
@@ -6717,7 +6946,7 @@
     </row>
     <row r="50" spans="12:12" ht="48" x14ac:dyDescent="0.2">
       <c r="L50" s="11" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="51" spans="12:12" x14ac:dyDescent="0.2">
@@ -6725,7 +6954,7 @@
     </row>
     <row r="52" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L52" s="11" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="53" spans="12:12" x14ac:dyDescent="0.2">
@@ -6733,7 +6962,7 @@
     </row>
     <row r="54" spans="12:12" ht="64" x14ac:dyDescent="0.2">
       <c r="L54" s="11" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="55" spans="12:12" x14ac:dyDescent="0.2">
@@ -6741,7 +6970,7 @@
     </row>
     <row r="56" spans="12:12" ht="48" x14ac:dyDescent="0.2">
       <c r="L56" s="11" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="57" spans="12:12" x14ac:dyDescent="0.2">
@@ -6749,7 +6978,7 @@
     </row>
     <row r="58" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L58" s="11" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="59" spans="12:12" x14ac:dyDescent="0.2">
@@ -6757,7 +6986,7 @@
     </row>
     <row r="60" spans="12:12" ht="64" x14ac:dyDescent="0.2">
       <c r="L60" s="11" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="61" spans="12:12" x14ac:dyDescent="0.2">
@@ -6765,7 +6994,7 @@
     </row>
     <row r="62" spans="12:12" ht="80" x14ac:dyDescent="0.2">
       <c r="L62" s="11" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="63" spans="12:12" x14ac:dyDescent="0.2">
@@ -6773,7 +7002,7 @@
     </row>
     <row r="64" spans="12:12" ht="32" x14ac:dyDescent="0.2">
       <c r="L64" s="11" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="65" spans="12:12" x14ac:dyDescent="0.2">
@@ -6781,7 +7010,7 @@
     </row>
     <row r="66" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L66" s="11" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="67" spans="12:12" x14ac:dyDescent="0.2">
@@ -6789,7 +7018,7 @@
     </row>
     <row r="68" spans="12:12" ht="32" x14ac:dyDescent="0.2">
       <c r="L68" s="11" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="69" spans="12:12" x14ac:dyDescent="0.2">
@@ -6797,7 +7026,7 @@
     </row>
     <row r="70" spans="12:12" ht="80" x14ac:dyDescent="0.2">
       <c r="L70" s="11" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="71" spans="12:12" x14ac:dyDescent="0.2">
@@ -6805,7 +7034,7 @@
     </row>
     <row r="72" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L72" s="11" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="73" spans="12:12" x14ac:dyDescent="0.2">
@@ -6813,7 +7042,7 @@
     </row>
     <row r="74" spans="12:12" ht="64" x14ac:dyDescent="0.2">
       <c r="L74" s="9" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="75" spans="12:12" x14ac:dyDescent="0.2">
@@ -6821,7 +7050,7 @@
     </row>
     <row r="76" spans="12:12" ht="64" x14ac:dyDescent="0.2">
       <c r="L76" s="9" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="77" spans="12:12" x14ac:dyDescent="0.2">
@@ -6829,7 +7058,7 @@
     </row>
     <row r="78" spans="12:12" ht="64" x14ac:dyDescent="0.2">
       <c r="L78" s="9" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="79" spans="12:12" x14ac:dyDescent="0.2">
@@ -6837,7 +7066,7 @@
     </row>
     <row r="80" spans="12:12" ht="96" x14ac:dyDescent="0.2">
       <c r="L80" s="9" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -6859,12 +7088,55 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="3" max="3" width="30.5" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>728</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6987,19 +7259,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -7084,19 +7356,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -7239,19 +7511,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -7323,16 +7595,16 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -7556,36 +7828,36 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
     </row>
   </sheetData>

--- a/manish/courseLaw/LMR/Workbook1.xlsx
+++ b/manish/courseLaw/LMR/Workbook1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="25600" windowHeight="14480" tabRatio="500" firstSheet="11" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="25600" windowHeight="14480" tabRatio="500" firstSheet="11" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Contracts" sheetId="1" r:id="rId1"/>
@@ -399,7 +399,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="778">
   <si>
     <t>FORMATION OF CONTRACT</t>
   </si>
@@ -3087,6 +3087,150 @@
   </si>
   <si>
     <t>taking or confining people</t>
+  </si>
+  <si>
+    <t>Common Law</t>
+  </si>
+  <si>
+    <t>Breaking</t>
+  </si>
+  <si>
+    <t>Entering</t>
+  </si>
+  <si>
+    <t>Dwelling of another</t>
+  </si>
+  <si>
+    <t>Night</t>
+  </si>
+  <si>
+    <t>Intent to commit felony</t>
+  </si>
+  <si>
+    <t>2. Burglary?</t>
+  </si>
+  <si>
+    <t>1. Arson?</t>
+  </si>
+  <si>
+    <t>Constructive Breaking,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if entry was result of </t>
+  </si>
+  <si>
+    <t>Trick,</t>
+  </si>
+  <si>
+    <t>Voilent Threat,</t>
+  </si>
+  <si>
+    <t>Conspiracy</t>
+  </si>
+  <si>
+    <t>Modernly</t>
+  </si>
+  <si>
+    <t>All times of day</t>
+  </si>
+  <si>
+    <t>All types of Structure</t>
+  </si>
+  <si>
+    <t>Also larceny is included in the crime</t>
+  </si>
+  <si>
+    <t>Also Trespassory entry is added, i.e. without consent entry</t>
+  </si>
+  <si>
+    <t>D. Theft Crimes</t>
+  </si>
+  <si>
+    <t>1. Larceny</t>
+  </si>
+  <si>
+    <t>2. Larceny By Trick?</t>
+  </si>
+  <si>
+    <t>3. Robbery?</t>
+  </si>
+  <si>
+    <t>4. False Pretenses</t>
+  </si>
+  <si>
+    <t>5. Embezzelment?</t>
+  </si>
+  <si>
+    <t>6. Receiving Stolen Property?</t>
+  </si>
+  <si>
+    <t>Criminal Law</t>
+  </si>
+  <si>
+    <t>Taking possession</t>
+  </si>
+  <si>
+    <t>or control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">over </t>
+  </si>
+  <si>
+    <t>stolen personal property</t>
+  </si>
+  <si>
+    <t>while knowing it is stolen</t>
+  </si>
+  <si>
+    <t>from lawfull possessor.</t>
+  </si>
+  <si>
+    <t>Trespassory Conversion</t>
+  </si>
+  <si>
+    <t>of Property of another</t>
+  </si>
+  <si>
+    <t>by one entrusted with lawful possession</t>
+  </si>
+  <si>
+    <t>intent to permanantly deprive</t>
+  </si>
+  <si>
+    <t>or substantial risk of loss</t>
+  </si>
+  <si>
+    <t>Misrepresentation of fact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to obtain title </t>
+  </si>
+  <si>
+    <t>Intent to permantly deprive</t>
+  </si>
+  <si>
+    <t>to property of another</t>
+  </si>
+  <si>
+    <t>Trespassory Taking</t>
+  </si>
+  <si>
+    <t>Carrying away</t>
+  </si>
+  <si>
+    <t>of personal property of another</t>
+  </si>
+  <si>
+    <t>Same as larceny +</t>
+  </si>
+  <si>
+    <t>Possession was gained by</t>
+  </si>
+  <si>
+    <t>Misrepresentation</t>
+  </si>
+  <si>
+    <t>Larceny with Force or Fear</t>
   </si>
 </sst>
 </file>
@@ -5114,7 +5258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E305"/>
   <sheetViews>
-    <sheetView zoomScale="101" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="101" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -6541,21 +6685,111 @@
   <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="50.6640625" customWidth="1"/>
     <col min="10" max="10" width="57.5" customWidth="1"/>
     <col min="13" max="13" width="67.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="25" spans="10:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" ht="18" x14ac:dyDescent="0.2">
       <c r="J25" s="10" t="s">
         <v>511</v>
       </c>
@@ -6563,11 +6797,11 @@
         <v>335</v>
       </c>
     </row>
-    <row r="26" spans="10:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="J26" s="2"/>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="10:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" ht="48" x14ac:dyDescent="0.2">
       <c r="J27" s="9" t="s">
         <v>512</v>
       </c>
@@ -6575,11 +6809,11 @@
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="10:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="J28" s="2"/>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="10:13" ht="112" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" ht="112" x14ac:dyDescent="0.2">
       <c r="J29" s="9" t="s">
         <v>513</v>
       </c>
@@ -6587,11 +6821,11 @@
         <v>336</v>
       </c>
     </row>
-    <row r="30" spans="10:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="J30" s="2"/>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="10:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" ht="48" x14ac:dyDescent="0.2">
       <c r="J31" s="9" t="s">
         <v>514</v>
       </c>
@@ -6599,7 +6833,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="32" spans="10:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="J32" s="2"/>
       <c r="M32" s="2"/>
     </row>
@@ -6810,262 +7044,408 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="I27:L80"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="B69" workbookViewId="0">
+      <selection activeCell="C69" sqref="A69:XFD69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="43.83203125" customWidth="1"/>
+    <col min="2" max="2" width="42" customWidth="1"/>
+    <col min="3" max="3" width="45.5" customWidth="1"/>
+    <col min="4" max="4" width="68.33203125" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="86.5" customWidth="1"/>
     <col min="9" max="9" width="65.1640625" customWidth="1"/>
     <col min="12" max="12" width="71.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="27" spans="9:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="I27" s="10" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>771</v>
+      </c>
+      <c r="B7" t="s">
+        <v>774</v>
+      </c>
+      <c r="C7" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>772</v>
+      </c>
+      <c r="B8" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>773</v>
+      </c>
+      <c r="B9" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>767</v>
+      </c>
+      <c r="B16" t="s">
+        <v>762</v>
+      </c>
+      <c r="C16" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>768</v>
+      </c>
+      <c r="B17" t="s">
+        <v>763</v>
+      </c>
+      <c r="C17" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>770</v>
+      </c>
+      <c r="B18" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>769</v>
+      </c>
+      <c r="B19" t="s">
+        <v>765</v>
+      </c>
+      <c r="C19" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="D24" s="10" t="s">
         <v>520</v>
       </c>
-      <c r="L27" s="10" t="s">
+      <c r="G24" s="10" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="28" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I28" s="2"/>
-      <c r="L28" s="2"/>
-    </row>
-    <row r="29" spans="9:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="I29" s="9" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="D26" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="L29" s="11" t="s">
+      <c r="G26" s="11" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="30" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I30" s="2"/>
-      <c r="L30" s="11" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D27" s="2"/>
+      <c r="G27" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="31" spans="9:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="I31" s="9" t="s">
+    <row r="28" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="D28" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="L31" s="2"/>
-    </row>
-    <row r="32" spans="9:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="I32" s="2"/>
-      <c r="L32" s="11" t="s">
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="D29" s="2"/>
+      <c r="G29" s="11" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="33" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I33" s="9" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D30" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="L33" s="2"/>
-    </row>
-    <row r="34" spans="9:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="I34" s="2"/>
-      <c r="L34" s="11" t="s">
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="D31" s="2"/>
+      <c r="G31" s="11" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="35" spans="9:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="I35" s="9" t="s">
+    <row r="32" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="D32" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="L35" s="2"/>
-    </row>
-    <row r="36" spans="9:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="I36" s="2"/>
-      <c r="L36" s="11" t="s">
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="4:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="D33" s="2"/>
+      <c r="G33" s="11" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="37" spans="9:12" ht="96" x14ac:dyDescent="0.2">
-      <c r="I37" s="9" t="s">
+    <row r="34" spans="4:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="D34" s="9" t="s">
         <v>525</v>
       </c>
-      <c r="L37" s="11" t="s">
+      <c r="G34" s="11" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="38" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I38" s="2"/>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="9:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="I39" s="9" t="s">
+    <row r="35" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="4:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="D36" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="L39" s="11" t="s">
+      <c r="G36" s="11" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="40" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="L40" s="2"/>
-    </row>
-    <row r="41" spans="9:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="L41" s="11" t="s">
+    <row r="37" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="4:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G38" s="11" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="42" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="L42" s="2"/>
-    </row>
-    <row r="43" spans="9:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="L43" s="11" t="s">
+    <row r="39" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="4:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="G40" s="11" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="44" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="L44" s="2"/>
-    </row>
-    <row r="45" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="L45" s="11" t="s">
+    <row r="41" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G42" s="11" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="46" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="L46" s="11" t="s">
+    <row r="43" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G43" s="11" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="47" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="L47" s="2"/>
-    </row>
-    <row r="48" spans="9:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="L48" s="11" t="s">
+    <row r="44" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="4:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G45" s="11" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="49" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L49" s="2"/>
-    </row>
-    <row r="50" spans="12:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="L50" s="11" t="s">
+    <row r="46" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="4:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G47" s="11" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="51" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L51" s="2"/>
-    </row>
-    <row r="52" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L52" s="11" t="s">
+    <row r="48" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G49" s="11" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="53" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L53" s="2"/>
-    </row>
-    <row r="54" spans="12:12" ht="64" x14ac:dyDescent="0.2">
-      <c r="L54" s="11" t="s">
+    <row r="50" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="7:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="G51" s="11" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="55" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L55" s="2"/>
-    </row>
-    <row r="56" spans="12:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="L56" s="11" t="s">
+    <row r="52" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="7:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G53" s="11" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="57" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L57" s="2"/>
-    </row>
-    <row r="58" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L58" s="11" t="s">
+    <row r="54" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G55" s="11" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="59" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L59" s="2"/>
-    </row>
-    <row r="60" spans="12:12" ht="64" x14ac:dyDescent="0.2">
-      <c r="L60" s="11" t="s">
+    <row r="56" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="7:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="G57" s="11" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="61" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L61" s="2"/>
-    </row>
-    <row r="62" spans="12:12" ht="80" x14ac:dyDescent="0.2">
-      <c r="L62" s="11" t="s">
+    <row r="58" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="7:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="G59" s="11" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="63" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L63" s="2"/>
-    </row>
-    <row r="64" spans="12:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="L64" s="11" t="s">
+    <row r="60" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="7:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G61" s="11" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="65" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L65" s="2"/>
-    </row>
-    <row r="66" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L66" s="11" t="s">
+    <row r="62" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G63" s="11" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="67" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L67" s="2"/>
-    </row>
-    <row r="68" spans="12:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="L68" s="11" t="s">
+    <row r="64" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="7:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G65" s="11" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="69" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L69" s="2"/>
-    </row>
-    <row r="70" spans="12:12" ht="80" x14ac:dyDescent="0.2">
-      <c r="L70" s="11" t="s">
+    <row r="66" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="7:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="G67" s="11" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="71" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L71" s="2"/>
-    </row>
-    <row r="72" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L72" s="11" t="s">
+    <row r="68" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G69" s="11" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="73" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L73" s="2"/>
-    </row>
-    <row r="74" spans="12:12" ht="64" x14ac:dyDescent="0.2">
-      <c r="L74" s="9" t="s">
+    <row r="70" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G70" s="2"/>
+    </row>
+    <row r="71" spans="7:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="G71" s="9" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="75" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L75" s="2"/>
-    </row>
-    <row r="76" spans="12:12" ht="64" x14ac:dyDescent="0.2">
-      <c r="L76" s="9" t="s">
+    <row r="72" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G72" s="2"/>
+    </row>
+    <row r="73" spans="7:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="G73" s="9" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="77" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L77" s="2"/>
-    </row>
-    <row r="78" spans="12:12" ht="64" x14ac:dyDescent="0.2">
-      <c r="L78" s="9" t="s">
+    <row r="74" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G74" s="2"/>
+    </row>
+    <row r="75" spans="7:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="G75" s="9" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="79" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L79" s="2"/>
-    </row>
-    <row r="80" spans="12:12" ht="96" x14ac:dyDescent="0.2">
-      <c r="L80" s="9" t="s">
+    <row r="76" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G76" s="2"/>
+    </row>
+    <row r="77" spans="7:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="G77" s="9" t="s">
         <v>334</v>
       </c>
     </row>
@@ -7090,7 +7470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>

--- a/manish/courseLaw/LMR/Workbook1.xlsx
+++ b/manish/courseLaw/LMR/Workbook1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="25600" windowHeight="14480" tabRatio="500" firstSheet="11" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="25600" windowHeight="14480" tabRatio="500" firstSheet="11" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Contracts" sheetId="1" r:id="rId1"/>
@@ -399,7 +399,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="872">
   <si>
     <t>FORMATION OF CONTRACT</t>
   </si>
@@ -3230,7 +3230,289 @@
     <t>Misrepresentation</t>
   </si>
   <si>
-    <t>Larceny with Force or Fear</t>
+    <t xml:space="preserve">Acting with </t>
+  </si>
+  <si>
+    <t>intention of causing battery</t>
+  </si>
+  <si>
+    <t>or else</t>
+  </si>
+  <si>
+    <t>to cause apprehension of battery</t>
+  </si>
+  <si>
+    <t>intention of causing</t>
+  </si>
+  <si>
+    <t>touching of victim's person</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>causing harmful or offensive touching.</t>
+  </si>
+  <si>
+    <t>Under Common Law</t>
+  </si>
+  <si>
+    <t>Intentional act</t>
+  </si>
+  <si>
+    <t>to have sexual intercourse</t>
+  </si>
+  <si>
+    <t>with female without consent</t>
+  </si>
+  <si>
+    <t>causing actual penetration.</t>
+  </si>
+  <si>
+    <t>Malicious</t>
+  </si>
+  <si>
+    <t>of Dwelling of another</t>
+  </si>
+  <si>
+    <t>Burning</t>
+  </si>
+  <si>
+    <t>Burning of any structure</t>
+  </si>
+  <si>
+    <t>Wrongful intent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Larceny from a person </t>
+  </si>
+  <si>
+    <t>with Force or Fear</t>
+  </si>
+  <si>
+    <t>to overcome will of victim to resist</t>
+  </si>
+  <si>
+    <t>5. Misprison?</t>
+  </si>
+  <si>
+    <t>6. Compunding?</t>
+  </si>
+  <si>
+    <t>Taking money or something of value</t>
+  </si>
+  <si>
+    <t>in exchange</t>
+  </si>
+  <si>
+    <t>for promise to not report crime</t>
+  </si>
+  <si>
+    <t>Failing to report crime to police</t>
+  </si>
+  <si>
+    <t>Conclusive Presumption</t>
+  </si>
+  <si>
+    <t>child under age 7 - no intent to crime</t>
+  </si>
+  <si>
+    <t>Rebuttable Presumption</t>
+  </si>
+  <si>
+    <t>Child between 7 to 14 - no intent to crime</t>
+  </si>
+  <si>
+    <t>Child above 14 - can make intent to crime</t>
+  </si>
+  <si>
+    <t>Complete defense</t>
+  </si>
+  <si>
+    <t>if it negates criminal intent.</t>
+  </si>
+  <si>
+    <t>Reasonable mistake can negate criminal intent.</t>
+  </si>
+  <si>
+    <t>Any mistake of fact may negate criminal intent.</t>
+  </si>
+  <si>
+    <t>General Intent Crime (Battery, rape, arson, involuntary manslaughter, murders)</t>
+  </si>
+  <si>
+    <t>Specific Intent Crime (All other crimes are specific intent)</t>
+  </si>
+  <si>
+    <t>Reasonable mistake of fact means</t>
+  </si>
+  <si>
+    <t>a reasonable person would have made</t>
+  </si>
+  <si>
+    <t>in same situation</t>
+  </si>
+  <si>
+    <t>Mistake of fact - no defense to attempt</t>
+  </si>
+  <si>
+    <t>if criminal intent is proven</t>
+  </si>
+  <si>
+    <t>Attempted act is not an attempted crime</t>
+  </si>
+  <si>
+    <t>even with criminal intent</t>
+  </si>
+  <si>
+    <t>when attempted crime is</t>
+  </si>
+  <si>
+    <t>legal impossibility</t>
+  </si>
+  <si>
+    <t>at the time of first substantial step</t>
+  </si>
+  <si>
+    <t>Defense about legality of act</t>
+  </si>
+  <si>
+    <t>does not alter</t>
+  </si>
+  <si>
+    <t>legality of act</t>
+  </si>
+  <si>
+    <t>Illegal is illegal and legal is legal.</t>
+  </si>
+  <si>
+    <t>Act that is done is not a Substantial Step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">towards the crime </t>
+  </si>
+  <si>
+    <t>inspite of criminal intent.</t>
+  </si>
+  <si>
+    <t>Defendants who are member of conspiracy</t>
+  </si>
+  <si>
+    <t>are not liable for crime of co-conspirators</t>
+  </si>
+  <si>
+    <t>After they have</t>
+  </si>
+  <si>
+    <t>2) Tried to Stop the co-criminals from crime.</t>
+  </si>
+  <si>
+    <t>1) Given Notice that they are abandoning</t>
+  </si>
+  <si>
+    <t>Insanity is defense if it negates</t>
+  </si>
+  <si>
+    <t>Criminal Intent</t>
+  </si>
+  <si>
+    <t>M'Naughten Rule</t>
+  </si>
+  <si>
+    <t>disease of mind</t>
+  </si>
+  <si>
+    <t>at time of the act</t>
+  </si>
+  <si>
+    <t>prevented defendant</t>
+  </si>
+  <si>
+    <t>from knowing the nature and quality of his act.</t>
+  </si>
+  <si>
+    <t>or that they were wrong.</t>
+  </si>
+  <si>
+    <t>Irresistible Impulse Rule</t>
+  </si>
+  <si>
+    <t>Insanity is defense if</t>
+  </si>
+  <si>
+    <t>Defendant knows it is wrong</t>
+  </si>
+  <si>
+    <t>but cannot stop herself.</t>
+  </si>
+  <si>
+    <t>Consent must be</t>
+  </si>
+  <si>
+    <t>informed</t>
+  </si>
+  <si>
+    <t>voluntary</t>
+  </si>
+  <si>
+    <t>given by one with legal capacity</t>
+  </si>
+  <si>
+    <t>not a defense in battery.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">was product of </t>
+  </si>
+  <si>
+    <t>Improper Police Behavior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No defense if defendant is </t>
+  </si>
+  <si>
+    <t>predisposed to crime.</t>
+  </si>
+  <si>
+    <t>Even if defendant is predisposed,</t>
+  </si>
+  <si>
+    <t>it is defense</t>
+  </si>
+  <si>
+    <t>if police conduct is outrageous and instigated the crime.</t>
+  </si>
+  <si>
+    <t>Criminal act was the result of Duress</t>
+  </si>
+  <si>
+    <t>May be raised to certain Crimes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">like self defense, defense of others and </t>
+  </si>
+  <si>
+    <t>defense of property</t>
+  </si>
+  <si>
+    <t>Prevent Felonies or Disturbance of Peace</t>
+  </si>
+  <si>
+    <t>Act reasonably to protect own safety.</t>
+  </si>
+  <si>
+    <t>Act reasonably as necessary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to defend others </t>
+  </si>
+  <si>
+    <t>who are not aggressors</t>
+  </si>
+  <si>
+    <t>Reasonable force to protect</t>
+  </si>
+  <si>
+    <t>own property or property of others.</t>
   </si>
 </sst>
 </file>
@@ -3351,7 +3633,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3383,6 +3665,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4728,7 +5013,7 @@
   <dimension ref="A1:K109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4760,9 +5045,18 @@
         <v>559</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
-        <v>557</v>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>707</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -4773,7 +5067,7 @@
         <v>544</v>
       </c>
       <c r="C6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D6" t="s">
         <v>560</v>
@@ -4785,6 +5079,9 @@
       </c>
       <c r="B7" t="s">
         <v>545</v>
+      </c>
+      <c r="C7" t="s">
+        <v>558</v>
       </c>
       <c r="E7" t="s">
         <v>561</v>
@@ -5258,8 +5555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E305"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="101" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView zoomScale="101" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5275,8 +5572,8 @@
       <c r="A1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B1" t="s">
-        <v>707</v>
+      <c r="B1" s="1" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -6685,7 +6982,7 @@
   <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6710,6 +7007,9 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>730</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>730</v>
       </c>
@@ -6720,16 +7020,25 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>790</v>
+      </c>
       <c r="B8" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>792</v>
+      </c>
       <c r="B9" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>791</v>
+      </c>
       <c r="B10" t="s">
         <v>734</v>
       </c>
@@ -6739,7 +7048,15 @@
         <v>735</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>793</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>738</v>
       </c>
@@ -6750,6 +7067,9 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>794</v>
+      </c>
       <c r="B15" t="s">
         <v>740</v>
       </c>
@@ -7046,8 +7366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B69" workbookViewId="0">
-      <selection activeCell="C69" sqref="A69:XFD69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7086,6 +7406,9 @@
       <c r="B5" s="1" t="s">
         <v>730</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>755</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -7095,7 +7418,7 @@
         <v>774</v>
       </c>
       <c r="C7" t="s">
-        <v>777</v>
+        <v>795</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -7105,6 +7428,9 @@
       <c r="B8" t="s">
         <v>775</v>
       </c>
+      <c r="C8" t="s">
+        <v>796</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -7112,6 +7438,9 @@
       </c>
       <c r="B9" t="s">
         <v>776</v>
+      </c>
+      <c r="C9" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -7468,18 +7797,18 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" customWidth="1"/>
-    <col min="3" max="3" width="30.5" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" customWidth="1"/>
+    <col min="2" max="2" width="35.83203125" customWidth="1"/>
+    <col min="3" max="3" width="36.5" customWidth="1"/>
+    <col min="4" max="4" width="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -7502,18 +7831,106 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>777</v>
+      </c>
+      <c r="B7" t="s">
+        <v>777</v>
+      </c>
+      <c r="C7" t="s">
+        <v>786</v>
+      </c>
+      <c r="D7" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D6" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>778</v>
+      </c>
+      <c r="B8" t="s">
+        <v>781</v>
+      </c>
+      <c r="C8" t="s">
+        <v>787</v>
+      </c>
+      <c r="D8" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D7" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>779</v>
+      </c>
+      <c r="B9" t="s">
+        <v>782</v>
+      </c>
+      <c r="C9" t="s">
+        <v>788</v>
+      </c>
+      <c r="D9" t="s">
         <v>728</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>780</v>
+      </c>
+      <c r="B10" t="s">
+        <v>783</v>
+      </c>
+      <c r="C10" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>803</v>
+      </c>
+      <c r="B18" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>802</v>
       </c>
     </row>
   </sheetData>
@@ -7523,16 +7940,16 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.1640625" customWidth="1"/>
-    <col min="2" max="2" width="31.83203125" customWidth="1"/>
+    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="2" max="2" width="42.1640625" customWidth="1"/>
     <col min="3" max="3" width="37.83203125" customWidth="1"/>
     <col min="4" max="4" width="38.33203125" customWidth="1"/>
     <col min="5" max="5" width="46.5" customWidth="1"/>
@@ -7560,38 +7977,359 @@
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B6" t="s">
+        <v>809</v>
+      </c>
+      <c r="C6" t="s">
+        <v>820</v>
+      </c>
+      <c r="D6" t="s">
+        <v>825</v>
+      </c>
+      <c r="E6" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="B7" t="s">
+        <v>810</v>
+      </c>
+      <c r="C7" t="s">
+        <v>821</v>
+      </c>
+      <c r="D7" t="s">
+        <v>826</v>
+      </c>
+      <c r="E7" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>822</v>
+      </c>
+      <c r="D8" t="s">
+        <v>827</v>
+      </c>
+      <c r="E8" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="C9" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>807</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="C10" t="s">
+        <v>824</v>
+      </c>
+      <c r="D10" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="15" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>217</v>
       </c>
     </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
+        <v>832</v>
+      </c>
+      <c r="B26" t="s">
+        <v>837</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D26" t="s">
+        <v>838</v>
+      </c>
+      <c r="E26" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>833</v>
+      </c>
+      <c r="B27" t="s">
+        <v>838</v>
+      </c>
+      <c r="C27" t="s">
+        <v>850</v>
+      </c>
+      <c r="D27" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>851</v>
+      </c>
+      <c r="D28" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="C29" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>836</v>
+      </c>
+      <c r="B30" t="s">
+        <v>846</v>
+      </c>
+      <c r="D30" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>835</v>
+      </c>
+      <c r="B31" t="s">
+        <v>840</v>
+      </c>
+      <c r="C31" t="s">
+        <v>853</v>
+      </c>
+      <c r="D31" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>842</v>
+      </c>
+      <c r="D33" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>843</v>
+      </c>
+      <c r="D34" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>844</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>239</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>862</v>
+      </c>
+      <c r="B45" t="s">
+        <v>865</v>
+      </c>
+      <c r="C45" t="s">
+        <v>866</v>
+      </c>
+      <c r="D45" t="s">
+        <v>867</v>
+      </c>
+      <c r="E45" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>863</v>
+      </c>
+      <c r="D46" t="s">
+        <v>868</v>
+      </c>
+      <c r="E46" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>864</v>
+      </c>
+      <c r="D47" t="s">
+        <v>869</v>
       </c>
     </row>
   </sheetData>

--- a/manish/courseLaw/LMR/Workbook1.xlsx
+++ b/manish/courseLaw/LMR/Workbook1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="25600" windowHeight="14480" tabRatio="500" firstSheet="11" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="25600" windowHeight="14480" tabRatio="500" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Contracts" sheetId="1" r:id="rId1"/>
@@ -399,7 +399,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="980">
   <si>
     <t>FORMATION OF CONTRACT</t>
   </si>
@@ -2939,9 +2939,6 @@
     <t>Condition Complained Already Existed</t>
   </si>
   <si>
-    <t>Practice Question 16-6 Practice Question 16-6 C21:E23C21:E23</t>
-  </si>
-  <si>
     <t>Complete bar in minority view, in majority view, it is factor in determining damages.</t>
   </si>
   <si>
@@ -3513,6 +3510,351 @@
   </si>
   <si>
     <t>own property or property of others.</t>
+  </si>
+  <si>
+    <t>Practice Question 16-6 Practice Question 16-6</t>
+  </si>
+  <si>
+    <t>Under tort law</t>
+  </si>
+  <si>
+    <t>Anyone who Releases</t>
+  </si>
+  <si>
+    <t>an Unreasonably Dangerous Product</t>
+  </si>
+  <si>
+    <t>into Stream of Commerce</t>
+  </si>
+  <si>
+    <t>is liable for</t>
+  </si>
+  <si>
+    <t>Personal Injury or</t>
+  </si>
+  <si>
+    <t>Property Damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product is Unreasonably Dangerous if </t>
+  </si>
+  <si>
+    <t>dangers it poses</t>
+  </si>
+  <si>
+    <t>outweights</t>
+  </si>
+  <si>
+    <t>its utility</t>
+  </si>
+  <si>
+    <t>given the commerical practicality</t>
+  </si>
+  <si>
+    <t>for making it safer</t>
+  </si>
+  <si>
+    <t>without destroying its utility</t>
+  </si>
+  <si>
+    <t>Defendant sold goods</t>
+  </si>
+  <si>
+    <t>with express representations (express warranty)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">which made them </t>
+  </si>
+  <si>
+    <t>unreasonably dangerous</t>
+  </si>
+  <si>
+    <t>and it was actual and proximate cause</t>
+  </si>
+  <si>
+    <t>of injurty to plaintiff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">by representing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">they were safe </t>
+  </si>
+  <si>
+    <t>for ordinary use</t>
+  </si>
+  <si>
+    <t>or knowing the buyers intended use</t>
+  </si>
+  <si>
+    <t>(impied warranty)</t>
+  </si>
+  <si>
+    <t>the goods were unreasonably dangerous</t>
+  </si>
+  <si>
+    <t>for that use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Macho-X99 chainsaw is a light-duty chainsaw designed for trees no bigger than 18". In the owner's manual said in big red letters, "WARNING -- NEVER TRY TO CUT DOWN A TREE BIGGER THAN 18" OR THIS SAW MIGHT CATCH FIRE." There were no warnings on the saw itself. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tom went into Sam's Bargain Center. Sam told him, "This is the best chainsaw on the market. The Macho-X99 will cut trees up to 36" in diameter." Tom bought the Macho-X99 chainsaw. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dick went into Sam's Bargain Center and said he didn't know much about chainsaws but needed one that could cut a tree about 24" in diameter. Sam told him, "I am an expert when it comes to chainsaws. I recommend this Macho-X99." Dick bought the Macho-X99 chainsaw. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moe went into Sam's Bargain Center and bought the Macho-X99 chainsaw without any discussion. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sam, Tom and Dick never read the owner's manual and were unaware of the potential fire danger. When Tom and Dick tried to cut down trees bigger than 18" the saws burst into flames and burned them. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moe saw the warning in the owner's manual and tried to return the saw. Sam refused to give Moe his money back. Moe was disgusted and threw the saw in the garbage “Dumpster”. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harry saw Moe's old saw in the garbage and took it. There was no owner's manual, but the saw was just like brand new. When he first used the saw it burst into flames and burned him. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discuss all the theories under which Tom, Dick and Harry would seek to recover from Sam. Under which theories can they NOT recover? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The National Inkwire focused on sensational articles about celebrities, complete with candid pictures taken during private moments. Actress Ellen D. Generate was pursued relentlessly. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">One time The National Inkwire reported that Ellen was secretly a generous philanthropist. In fact, Ellen was a tightwad. As a result of the Inkwire article, Ellen was besieged by requests for donations, and it was professionally impossible for her to turn them all down. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Then the Inkwire photographer, Dick took pictures of Ellen sunbathing topless on her sailboat. At the time the photo was taken Ellen was anchored four miles from land in international waters, and she had her friend Anne posted as a lookout to warn of any approaching boats or airplanes. The way Dick got the photo was by using a remote controlled, miniature submarine with a powerful telephoto lens. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ellen was so embarrassed by the nude photo that she remained secluded in her home for weeks. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ellen decided to sue the Inkwire, so she went to the grocery store and bought a copy of the issue with her photo to show her lawyer. Unfortunately Dick was following her and he took a picture of Ellen buying the Inkwire. Then Inkwire put the picture of Ellen on billboards nationwide with a caption that said "Ellen D. Generate buys Inkwire!" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Before Ellen could file suit the Inkwire ran an interview with Ellen's old boyfriend from college. He said that even though Ellen was now a strong and vocal anti-abortion advocate, she had an abortion herself in college. This was a true fact that Ellen had told her ex-boyfriend in strictest confidence. This disclosure embarrassed Ellen and made her look like a hypocrite. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discuss the possible actions Ellen might bring against the Inkwire and their defenses. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Answer 16-3: Product Liability </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOM V. SAM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under PRODUCT LIABILITY LAW a person who places an unreasonably dangerous product into the steam of commerce may be liable for the injury it causes. There are four basic theories on which a product liability action may be brought: Breach of Express Warranty, Breach of Implied Warranty, Negligence and Strict Liability. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) UNREASONABLY DANGEROUS? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A product is unreasonably dangerous if it 1) poses serious and likely dangers, that 2) could be reduced or eliminated easily, 3) without damaging product utility, or else 4) the product utility does not justify the dangers posed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here the product presented serious and likely dangers because it could burst into flame under normal use, and those dangers could have been eliminated or reduced easily by putting a warning on the saw. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore this was an unreasonably dangerous product at the time of sale. 2) BREACH OF EXPRESS WARRANTY? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under tort law there is a BREACH OF EXPRESS WARRANTY if a product is sold with 1) express representations that the buyer 2) relies on and 3) the representations are incorrect and 4) it causes the purchaser injury. The seller is liable to foreseeable plaintiffs, those with privity of contract or their family. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here Sam made express representations to Tom because he said the saw "would cut 36" trees" and Tom relied because he "bought" the saw. This was incorrect because the saw would only cut "18" trees", and this caused injury because Tom was "burned" when the saw caught on fire. And Tom had privity of contract because he was a "purchaser." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore, Tom can recover under a breach of warranty theory </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3) BREACH OF IMPLIED WARRANTY? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under tort law there is a BREACH OF IMPLIED WARRANTY if a product is unsafe for ordinary use or for the buyer’s known intended use, the buyer relies on the expertise of the seller, and the buyer is injured as a result. The seller is liable to foreseeable plaintiffs, those with privity of contract or their family. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here Tom would argue he bought the saw for ordinary use, relied on Sam’s expertise, and was injured as a result. Sam might argue that he did not know what Tom’s intended use was, and there was no evidence Tom relied on his expertise. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore Tom can pursue recovery on a breach of implied warranty theory. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4) NEGLIGENCE? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negligence is a failure to use the care a reasonable person would in the same circumstance. To prevail the plaintiff must prove duty, breach, actual cause, proximate cause and damages. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DUTY? Under tort law a person has a duty to not put an unreasonably dangerous product into the stream of commerce. Further, a person who makes express representations about a product assumes a duty of due care to make sure they are accurate and will not create peril. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here Sam owed Tom a DUTY because he was the seller of a product that posed foreseeable harm. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BREACH? Sam BREACHED his duty because he "never read the owner's manual" and misrepresented the saw. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAUSATION? That was the ACTUAL CAUSE of his injury because he would not have been hurt if he did not buy the saw. This was also the PROXIMATE CAUSE of injury because it was the direct and foreseeable result. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAMAGES? Tom had INJURY because he was "burned." Therefore, Tom could recover on a negligence theory. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5) STRICT PRODUCT LIABILITY? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under tort law a commercial seller of a product is strictly liable for personal injury or property damage if the product is unreasonably dangerous at the time it leaves the seller. The seller is liable to any person who is injured as a result. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here Sam was a commercial seller because he had a store, the "Bargain Center", selling the product. And the product was unreasonably dangerous because it "burst into flames" in normal use and had "no warnings on the saw." This caused Tom injury because he was "burned." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore, Tom can recover under strict product liability. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DICK V. SAM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6) BREACH OF EXPRESS WARRANTY? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breach of express warranty is defined above. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here Dick cannot recover under breach of express warranty because Sam only said he was an "expert" and "recommended" the saw. These are not express misrepresentations. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7) BREACH OF IMPLIED WARRANTY? Breach of implied warranty is defined above. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here Dick relied on Sam’s expertise because Dick said he “didn’t know” about saws and Sam said he was an “expert”. And Sam knew Dick’s intended use of the saw because he said he wanted to cut "24" trees". Further, the saw was not safe because it could only cut 18" logs, and this caused injury because the saw "caught fire" and Dick was "burned". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore, Dick can recover under breach of implied warranty. </t>
+  </si>
+  <si>
+    <t>8) NEGLIGENCE or STRICT PRODUCT LIABILITY?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dick's rights under negligence or strict product liability are the same as Tom's. </t>
+  </si>
+  <si>
+    <t>HARRY V. SAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9) BREACH OF EXPRESS or IMPLIED WARRANTY? Breach of warranty is explained above. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here Harry did not buy the saw from Sam so there is no privity of contract between them and Harry was not a foreseeable plaintiff to Sam. Further, Sam made no express or implied representations to Harry. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore, Harry cannot recover based on breach of warranty. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10) NEGLIGENCE? Negligence is defined above. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is not clear that Sam was the PROXIMATE CAUSE of the injury to Harry because Moe's act of throwing the saw in the garbage appears to be an interceding event that breaks the chain of causation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore, Harry's injury might be too remote in place and causation for recovery on a negligence theory. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11) STRICT PRODUCT LIABILITY? Strict Product Liability is discussed above. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here Sam would argue that even though he originally put the saw into the stream of commerce, it was TAKEN OUT OF THE STREAM OF COMMERCE because Moe threw it in the “garbage”. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Further, he would argue that Harry ASSUMED THE RISKS the saw was defective when he took it </t>
+  </si>
+  <si>
+    <t>out of the garbage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore, Harry might not be able to recover under strict product liability. </t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Bold"/>
+      </rPr>
+      <t xml:space="preserve">ANSWER EXPLANATION: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman"/>
+      </rPr>
+      <t xml:space="preserve">This question calls for a discussion of the four theories of product liability. The facts are intended to illustrate the differences between express and implied breach along with the fact that strict product liability theory extends to remote plaintiffs. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The preliminary discussion of whether this is an “unreasonably dangerous product” or not is very, very important. Stating the “balance” test given here is MANDATORY if you want to score maximum points. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be wary of products that are not really “unreasonably dangerous” at all because they have been extensively tested, have great utility (often saves lives), pose trivial risks (turns hair green) to a very small number of users (less than 0.05%), and what little danger they pose is totally unknown to the manufacturer or simply cannot be easily eliminated. That is NOT an unreasonably dangerous product! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As for Harry, it is not clear if a person can prevail on a products liability claim if the product has been discarded, scrapped or abandoned. The purpose of product liability law is to protect consumers and regular users of products, not “Dumpster Divers”. There is a strong argument that a product is no longer in the “stream of commerce” after it has been discarded or scrapped. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here it seems that Harry put the product back in the stream of commerce by retrieving it from the Dumpster. Also he has assumed the risk by doing that since he knew or should have known something might be wrong with a product that has been discarded.] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defendant has duty </t>
+  </si>
+  <si>
+    <t>not to place</t>
+  </si>
+  <si>
+    <t>unreasonably dangerous goods</t>
+  </si>
+  <si>
+    <t>into stream of commerce.</t>
+  </si>
+  <si>
+    <t>Plaintiff must be foreseeable plaintiff</t>
+  </si>
+  <si>
+    <t>proximately caused injury</t>
+  </si>
+  <si>
+    <t>by negligent acts of defendant</t>
+  </si>
+  <si>
+    <t>Seller was commercial supplier</t>
+  </si>
+  <si>
+    <t>product was unreasonably dangerous</t>
+  </si>
+  <si>
+    <t>at the time it left the defendant's control.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and defendant is only liable for </t>
+  </si>
+  <si>
+    <t>non-economic damages.</t>
+  </si>
+  <si>
+    <t>Plaintiff deliberately put themselves at risk</t>
+  </si>
+  <si>
+    <t>with full awareness of the risks</t>
+  </si>
+  <si>
+    <t>and a conscious acceptance of risks</t>
   </si>
 </sst>
 </file>
@@ -3975,16 +4317,16 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:C49"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.5" customWidth="1"/>
-    <col min="2" max="2" width="29.83203125" customWidth="1"/>
+    <col min="1" max="1" width="47.6640625" customWidth="1"/>
+    <col min="2" max="2" width="51.5" customWidth="1"/>
     <col min="3" max="3" width="48.33203125" customWidth="1"/>
     <col min="4" max="4" width="41" customWidth="1"/>
     <col min="5" max="5" width="34.6640625" customWidth="1"/>
@@ -4065,6 +4407,21 @@
         <v>588</v>
       </c>
     </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>979</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4072,23 +4429,28 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="38.83203125" customWidth="1"/>
-    <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="4" max="4" width="31.1640625" customWidth="1"/>
+    <col min="1" max="1" width="38.5" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" customWidth="1"/>
+    <col min="3" max="4" width="37" customWidth="1"/>
     <col min="5" max="5" width="35" customWidth="1"/>
+    <col min="6" max="6" width="87.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>618</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>872</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -4105,6 +4467,624 @@
       </c>
       <c r="E3" s="1" t="s">
         <v>623</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>873</v>
+      </c>
+      <c r="B5" t="s">
+        <v>886</v>
+      </c>
+      <c r="C5" t="s">
+        <v>886</v>
+      </c>
+      <c r="D5" t="s">
+        <v>965</v>
+      </c>
+      <c r="E5" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>874</v>
+      </c>
+      <c r="B6" t="s">
+        <v>887</v>
+      </c>
+      <c r="C6" t="s">
+        <v>892</v>
+      </c>
+      <c r="D6" t="s">
+        <v>966</v>
+      </c>
+      <c r="E6" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>875</v>
+      </c>
+      <c r="B7" t="s">
+        <v>888</v>
+      </c>
+      <c r="C7" t="s">
+        <v>893</v>
+      </c>
+      <c r="D7" t="s">
+        <v>967</v>
+      </c>
+      <c r="E7" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>876</v>
+      </c>
+      <c r="B8" t="s">
+        <v>889</v>
+      </c>
+      <c r="C8" t="s">
+        <v>894</v>
+      </c>
+      <c r="D8" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>877</v>
+      </c>
+      <c r="C9" t="s">
+        <v>895</v>
+      </c>
+      <c r="E9" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>878</v>
+      </c>
+      <c r="B10" t="s">
+        <v>890</v>
+      </c>
+      <c r="C10" t="s">
+        <v>896</v>
+      </c>
+      <c r="D10" t="s">
+        <v>969</v>
+      </c>
+      <c r="E10" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>891</v>
+      </c>
+      <c r="D11" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>897</v>
+      </c>
+      <c r="D12" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="C13" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>880</v>
+      </c>
+      <c r="C14" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>881</v>
+      </c>
+      <c r="C15" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="F26" s="10" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="F28" s="9" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="F30" s="9" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="F32" s="9" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F34" s="9" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="6:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="F36" s="9" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="6:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="F38" s="9" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="6:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="F40" s="9" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="41" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="6:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="F42" s="9" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="46" spans="6:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="F46" s="10" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="47" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F48" s="11" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="6:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="F50" s="11" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F52" s="11" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="6:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="F54" s="11" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="6:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="F56" s="11" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="6:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="F58" s="11" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="59" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="6:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="F60" s="11" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="61" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="6:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="F62" s="11" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="63" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F64" s="11" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F66" s="11" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F67" s="2"/>
+    </row>
+    <row r="68" spans="6:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="F68" s="11" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F69" s="2"/>
+    </row>
+    <row r="70" spans="6:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="F70" s="11" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="71" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F71" s="2"/>
+    </row>
+    <row r="72" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F72" s="11" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="73" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F73" s="2"/>
+    </row>
+    <row r="74" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F74" s="11" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="75" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F75" s="2"/>
+    </row>
+    <row r="76" spans="6:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="F76" s="11" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="77" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F77" s="2"/>
+    </row>
+    <row r="78" spans="6:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="F78" s="11" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="79" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F79" s="2"/>
+    </row>
+    <row r="80" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F80" s="11" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F81" s="2"/>
+    </row>
+    <row r="82" spans="6:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="F82" s="11" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F83" s="2"/>
+    </row>
+    <row r="84" spans="6:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="F84" s="11" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="85" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F85" s="2"/>
+    </row>
+    <row r="86" spans="6:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="F86" s="11" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="87" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F87" s="2"/>
+    </row>
+    <row r="88" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F88" s="11" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="89" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F89" s="2"/>
+    </row>
+    <row r="90" spans="6:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="F90" s="11" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="91" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F91" s="2"/>
+    </row>
+    <row r="92" spans="6:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="F92" s="11" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="93" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F93" s="2"/>
+    </row>
+    <row r="94" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F94" s="11" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="95" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F95" s="2"/>
+    </row>
+    <row r="96" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F96" s="11" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F97" s="2"/>
+    </row>
+    <row r="98" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F98" s="11" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="99" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F99" s="2"/>
+    </row>
+    <row r="100" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F100" s="11" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="101" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F101" s="2"/>
+    </row>
+    <row r="102" spans="6:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="F102" s="11" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="103" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F103" s="2"/>
+    </row>
+    <row r="104" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F104" s="11" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="105" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F105" s="2"/>
+    </row>
+    <row r="106" spans="6:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="F106" s="11" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="107" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F107" s="2"/>
+    </row>
+    <row r="108" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F108" s="11" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="109" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F109" s="2"/>
+    </row>
+    <row r="110" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F110" s="11" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="111" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F111" s="11" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="112" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F112" s="2"/>
+    </row>
+    <row r="113" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F113" s="11" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="114" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F114" s="11" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="115" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F115" s="2"/>
+    </row>
+    <row r="116" spans="6:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="F116" s="11" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="117" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F117" s="2"/>
+    </row>
+    <row r="118" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F118" s="11" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="119" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F119" s="2"/>
+    </row>
+    <row r="120" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F120" s="11" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="121" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F121" s="2"/>
+    </row>
+    <row r="122" spans="6:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="F122" s="11" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="123" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F123" s="2"/>
+    </row>
+    <row r="124" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F124" s="11" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="125" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F125" s="2"/>
+    </row>
+    <row r="126" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F126" s="11" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="127" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F127" s="2"/>
+    </row>
+    <row r="128" spans="6:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="F128" s="11" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="129" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F129" s="2"/>
+    </row>
+    <row r="130" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F130" s="11" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="131" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F131" s="2"/>
+    </row>
+    <row r="132" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F132" s="11" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="133" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F133" s="11" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="134" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F134" s="2"/>
+    </row>
+    <row r="135" spans="6:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="F135" s="9" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="136" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F136" s="2"/>
+    </row>
+    <row r="137" spans="6:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="F137" s="9" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="138" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F138" s="2"/>
+    </row>
+    <row r="139" spans="6:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="F139" s="9" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="140" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F140" s="2"/>
+    </row>
+    <row r="141" spans="6:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="F141" s="9" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="142" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F142" s="2"/>
+    </row>
+    <row r="143" spans="6:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="F143" s="9" t="s">
+        <v>964</v>
       </c>
     </row>
   </sheetData>
@@ -4116,7 +5096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -4527,16 +5507,17 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="B29" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="57.33203125" customWidth="1"/>
     <col min="2" max="2" width="52.1640625" customWidth="1"/>
+    <col min="4" max="4" width="75.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -4602,7 +5583,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -4610,7 +5591,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -4618,9 +5599,70 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="D21" s="10" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="D23" s="9" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="D25" s="9" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="D27" s="9" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="D29" s="9" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="D31" s="9" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="4:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="D33" s="9" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D35" s="9" t="s">
+        <v>913</v>
       </c>
     </row>
   </sheetData>
@@ -4632,8 +5674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4694,7 +5736,7 @@
         <v>673</v>
       </c>
       <c r="C11" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -4712,7 +5754,7 @@
         <v>676</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -4725,7 +5767,7 @@
         <v>678</v>
       </c>
       <c r="B17" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -4735,25 +5777,25 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B20" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="C27" s="10" t="s">
-        <v>680</v>
+        <v>871</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>637</v>
@@ -5047,10 +6089,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>241</v>
@@ -5555,7 +6597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E305"/>
   <sheetViews>
-    <sheetView zoomScale="101" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="101" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -5578,19 +6620,19 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>691</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -5676,19 +6718,19 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>696</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -5696,16 +6738,16 @@
         <v>260</v>
       </c>
       <c r="B21" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C21" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E21" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -5713,16 +6755,16 @@
         <v>261</v>
       </c>
       <c r="B22" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D22" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E22" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -5730,30 +6772,30 @@
         <v>262</v>
       </c>
       <c r="B23" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C23" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D23" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E23" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C24" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D24" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E24" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -5761,10 +6803,10 @@
         <v>263</v>
       </c>
       <c r="D25" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E25" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -5772,7 +6814,7 @@
         <v>264</v>
       </c>
       <c r="C26" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -5780,15 +6822,15 @@
         <v>265</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="C28" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -6995,118 +8037,118 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B9" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B10" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B15" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="18" x14ac:dyDescent="0.2">
@@ -7385,150 +8427,150 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>750</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B7" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C7" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B8" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C8" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B9" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C9" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>753</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B16" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C16" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B17" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C17" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B18" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B19" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C19" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -7813,21 +8855,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>725</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -7838,7 +8880,7 @@
         <v>241</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>241</v>
@@ -7846,91 +8888,91 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B7" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D7" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B8" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C8" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D8" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B9" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C9" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D9" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B10" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C10" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>798</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B18" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
   </sheetData>
@@ -7942,7 +8984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
@@ -7979,7 +9021,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>241</v>
@@ -7996,112 +9038,112 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B6" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C6" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D6" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B7" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D7" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E8" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C9" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C10" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D10" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="15" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -8140,126 +9182,126 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B26" t="s">
+        <v>836</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="D26" t="s">
         <v>837</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="D26" t="s">
-        <v>838</v>
-      </c>
       <c r="E26" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B27" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C27" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D27" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D28" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C29" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B30" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D30" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B31" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C31" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D31" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D33" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D34" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -8298,38 +9340,38 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B45" t="s">
+        <v>864</v>
+      </c>
+      <c r="C45" t="s">
         <v>865</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>866</v>
       </c>
-      <c r="D45" t="s">
-        <v>867</v>
-      </c>
       <c r="E45" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D46" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E46" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D47" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
   </sheetData>

--- a/manish/courseLaw/LMR/Workbook1.xlsx
+++ b/manish/courseLaw/LMR/Workbook1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="25600" windowHeight="14480" tabRatio="500" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="25600" windowHeight="14480" tabRatio="500" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Contracts" sheetId="1" r:id="rId1"/>
@@ -399,7 +399,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="1190">
   <si>
     <t>FORMATION OF CONTRACT</t>
   </si>
@@ -3856,12 +3856,1414 @@
   <si>
     <t>and a conscious acceptance of risks</t>
   </si>
+  <si>
+    <t>Abuse of Process?</t>
+  </si>
+  <si>
+    <t>Bringing civil action</t>
+  </si>
+  <si>
+    <t>without legitimate basis</t>
+  </si>
+  <si>
+    <t>out of malice</t>
+  </si>
+  <si>
+    <t>for an improper purpose.</t>
+  </si>
+  <si>
+    <t>Unreasonable interference</t>
+  </si>
+  <si>
+    <t>with plaintiff's known business relationship</t>
+  </si>
+  <si>
+    <t>causing damages</t>
+  </si>
+  <si>
+    <t>Tortious Interference?</t>
+  </si>
+  <si>
+    <t>Fraud?</t>
+  </si>
+  <si>
+    <t>False representation of fact</t>
+  </si>
+  <si>
+    <t>made knowingly</t>
+  </si>
+  <si>
+    <t>with intent to deceive</t>
+  </si>
+  <si>
+    <t>causing damages.</t>
+  </si>
+  <si>
+    <t>that are reasonably relied upon (by plaintiff)</t>
+  </si>
+  <si>
+    <t>Problem 7 Torts</t>
+  </si>
+  <si>
+    <t>Star approached Buck, the owner of JavaManiac, with a business proposal. Star knew where there was a retail space for lease that would be a great place for a JavaManiac franchise. Buck told Star that she would be granted a JavaManiac license if the location was acceptable. Based on this Star described the location in detail and gave Buck its address. Buck said he would have someone "check it out." </t>
+  </si>
+  <si>
+    <t>Buck had no intention of giving Star a franchise. He just wanted her to reveal the location. Based on Star's description it sounded perfect for a JavaManiac outlet, and Buck wanted to take the space himself. </t>
+  </si>
+  <si>
+    <t>Buck went to the location suggested by Star and saw that it was perfect for JavaManiac. He then contacted the owner, Jack. Jack said he already had tentatively promised the lease to someone named Star. Buck said, "I know Star," and held his hand in the air with his thumb out to indicate that Star had a drinking problem. Then Buck looked at Jack very sincerely and said, "I probably shouldn't say this, but I feel I have a duty to tell you that you don't want to lease to someone like Star." </t>
+  </si>
+  <si>
+    <t>Buck reported to Star that the location was unacceptable because it was too small to meet the secret JavaManiac minimum guidelines. </t>
+  </si>
+  <si>
+    <t>Star was very dejected and withdrew her offer to lease the space. Jack was relieved. </t>
+  </si>
+  <si>
+    <t>Three months later Star happened upon the grand opening of the next new JavaManiac franchise at the very location he had suggested. Standing in front were Buck and Jack shaking hands. Star was furious and accused Buck of cheating her. Buck rolled his eyes at Jack and said, "See what I mean?" </t>
+  </si>
+  <si>
+    <t>Then Buck sued Star for slander per se for accusing him of questionable business practices. Star won the suit when the jury found her statements had been true. </t>
+  </si>
+  <si>
+    <t>What are Star's possible actions against Buck? (Do not discuss intentional infliction, defamation or false light.) </t>
+  </si>
+  <si>
+    <t>Solution</t>
+  </si>
+  <si>
+    <t>Star v Buck</t>
+  </si>
+  <si>
+    <t>1. Fraud?</t>
+  </si>
+  <si>
+    <r>
+      <t>Under tort law FRAUD is based on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t>false representation of fact</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t> by the defendant made </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t>knowingly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t> with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t>intent to deceive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t> that are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t>reasonably relied</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t> upon by the plaintiff </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t>causing damages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Here Buck made a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t>statement of fact</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t> when he said a franchise “would be granted” if the location was suitable and that was </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t> because he had “no intention” of granting Star a franchise. He</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t> intended to deceive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t> because he wanted her to reveal the location and Star </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t>reasonably relied</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t> on his representation because she did reveal the location. That caused her </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t>damages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t> because Buck used the information to convince Jack not to lease the “perfect location” to Star.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Buck also made </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t>false statements</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t> when he told Star the location was “too small for a franchise.” He </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t>intended to deceive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t> her so she would not go through with her lease plans. And she </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t>reasonably relied</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t> on that statement because she “withdrew” her offer to Jack. That caused her </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t>damages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t> because she otherwise would have secured the lease.</t>
+    </r>
+  </si>
+  <si>
+    <t>Therefore, Star can prove the elements of fraud and Buck may reliable for the damages she suffered.</t>
+  </si>
+  <si>
+    <t>2. Tortious Interference?</t>
+  </si>
+  <si>
+    <r>
+      <t>Under tort law INTERFERENCE is an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t>unreasonable interference</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t> with the plaintiffs </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t>known business relationships</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t> causing damages.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Here Buck </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t>interfered</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t> with Star’s business relationship with Jack by suggesting to him that “Star drank” and was a “bad tenant choice.” Buck also interfered by telling Star the space was “too small for a coffee shop”.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Buck did these acts </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t>knowing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t> that he was interfering with the business relationship between Jack and Star because Jack had told him he, “promised the location to Start.” The acts were </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t>unreasonable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t>because they were intentional false statements intended to damage Star. And they caused Star </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t>damages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t> because it prevented her from completing the lease agreement with Jack.</t>
+    </r>
+  </si>
+  <si>
+    <t>Therefore, Buck can be liable for tortious interference.</t>
+  </si>
+  <si>
+    <t>3. Abuse of Process?</t>
+  </si>
+  <si>
+    <r>
+      <t>Under tort law ABUSE OF PROCESS is bringing a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t>civil action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t> against the plaintiff </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t>without</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t>legitimatebasis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t> out of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t>malice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t> and for an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t>improper purpose</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Here Buck brought a civil action against Star because he “sued Star for slander.” And he had no legitimate basis because all of Star’s statements were true.Buck acted out of malice and for an improper purpose because he was trying to refute Star’s statements and hide the truth.</t>
+  </si>
+  <si>
+    <t>Therefore Buck could be liable for abuse of process.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Definition: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Under the UCC acceptance of an offer can be made by any reasonable means showing assent to an offer. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The rights and remedies of the parties here depend on whether there was a valid contract. A CONTRACT is a promise or set of promises the performance of which the law will recognize as a duty and for the breach of which the law will provide a remedy. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under the UCC PERFECT TENDER RULE goods must be delivered exactly as ordered. </t>
+  </si>
+  <si>
+    <t>D. Third Party Rights</t>
+  </si>
+  <si>
+    <t>1. Is the Plaintiff an Intended Third-Party Beneficiary?</t>
+  </si>
+  <si>
+    <t>2. Standing Based on Valid Assignment?</t>
+  </si>
+  <si>
+    <t>3. Valid Delegation of Performance?</t>
+  </si>
+  <si>
+    <t>4. Effect of Assignment on Claims and Defenses?</t>
+  </si>
+  <si>
+    <t>5. Effect of Modification after Assignment?</t>
+  </si>
+  <si>
+    <t>Example of Third party Beneficiary in Practical World</t>
+  </si>
+  <si>
+    <t>This is third party beneficiary</t>
+  </si>
+  <si>
+    <t>C is Donee Beneficiary</t>
+  </si>
+  <si>
+    <t>A wants to Buy Good X from B to give gift (birthday present) to his child C</t>
+  </si>
+  <si>
+    <t>A is promisee and B is promisor</t>
+  </si>
+  <si>
+    <t>1. A's rights under a Third Party Beneficiary Contract?</t>
+  </si>
+  <si>
+    <t>The rights and remedies of the parties here depends on whether there was a valid contract. A CONTRACT is a promise or set of promises the performance of which the law will recognise as a duty and for the breach of which the law will provide a remedy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UCC? UCC Article 2 governs contracts for the sale of GOODS, movable things at the time of
+identification to the contract.
+Here the question involves a sale of a "car" and it is movable because it was to be delivered.
+Therefore, the UCC applies here.</t>
+  </si>
+  <si>
+    <t>3. C's rights and remedies against A?</t>
+  </si>
+  <si>
+    <t>4. C's rights as third party beneficiary against B?</t>
+  </si>
+  <si>
+    <t>2. A's Remedies?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Under contract law a THIRD-PARTY BENEFICIARY CONTRACT is one with a main </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>purpose</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  of providing a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>benefit to a third party</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. The contract can be enforced by the original party, the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>promisee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or by a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vested intended beneficiary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A beneficiary may be a DONEE (of a gift) or a CREDITOR (payment of a debt) beneficiary. The beneficiary </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vests</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> upon becoming aware of and changing position in reliance of the contract.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Here the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>purpose</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of the contract is to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>benefit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> C because he was to get a "new X" as a "birthday present". Therefore this is a third-party benefit contract. C is an intended </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Donee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> beneficiary because it is a "birthday present".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A is the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>promisee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> because B promised to "deliver" the X in "two weeks". B is a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>promisor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> becaue he promised to deliver X to C.</t>
+    </r>
+  </si>
+  <si>
+    <t>Therefore this is a third-party beneficiary contract, and A as promisee can enforce it.</t>
+  </si>
+  <si>
+    <t>How to write a third party essay</t>
+  </si>
+  <si>
+    <t>Here B has breached because he did not deliver the promised car.</t>
+  </si>
+  <si>
+    <t>Therefore, A can demand delivery from B or repudiate the contract and demand return of his $2,000. If he covers by buying the X elsewhere he can demand the excess of his cover price, if any, over the contract price.</t>
+  </si>
+  <si>
+    <t>Under the PERFECT TENDER RULE of the UCC a non-breaching buyer in a non-delivery situation can demand conforming goods, repudiate the contract or buy goods to cover and demand the excess of the cover price over the contract price.</t>
+  </si>
+  <si>
+    <t>A donee beneficiary cannot enforce the promise of a gift against the promisee at law and can only enforce at equaity based on promissory estoppel.</t>
+  </si>
+  <si>
+    <t>Here A entered into the contract with B tov give C a GIFT, so C was a DONEE beneficiary. While there is no evidence A has breached the contrat with B, and even if he did C would have no right to enforce the contract against A at law.</t>
+  </si>
+  <si>
+    <t>Therefore, if A had refused to perform the contract (e.g had refused to make the car payments) C could only plead equity against A based on principles of promissory estoppel.</t>
+  </si>
+  <si>
+    <t>Third-party beneficiary contracts are defined above. C is an intended third party beneficiary because the known purpose of the original contract was to give him a "birthday present". He vested when he became aware of he original contract and changed position in reliance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A vested third-party beneficiary can enforce the contract against the promisor in the same manner as promisee. </t>
+  </si>
+  <si>
+    <t>Therefore, C can enforce the original contract against B in the same manner and extend as A.</t>
+  </si>
+  <si>
+    <t>5. C's Remedies Against B?</t>
+  </si>
+  <si>
+    <t>C's remedies would be same as A.</t>
+  </si>
+  <si>
+    <t>Intended Third Party is a party</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">because contract was </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>intended</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to benefit him.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">that can seek damages for breach of contract </t>
+  </si>
+  <si>
+    <t>between two parties</t>
+  </si>
+  <si>
+    <t>Under contract law a THIRD-PARTY BENEFICIARY CONTRACT is one with a main purpose  of providing a benefit to a third party.</t>
+  </si>
+  <si>
+    <t>Incidental beneficiary was not intended to get benefit</t>
+  </si>
+  <si>
+    <t>He cannot enforce the contract or seek damages</t>
+  </si>
+  <si>
+    <t>Vesting is must.</t>
+  </si>
+  <si>
+    <t>Donee or Creditor beneficiary are two types.</t>
+  </si>
+  <si>
+    <t>Assignee can seek damages from Promisor</t>
+  </si>
+  <si>
+    <t>if assignee was EXPRESSLY ASSIGNED rights of</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">original promisee, ASSIGNOR, by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>expression of clear intent.</t>
+    </r>
+  </si>
+  <si>
+    <t>Assginment becomes effective</t>
+  </si>
+  <si>
+    <t>when assignee gives the promisor a NOTICE Of rights.</t>
+  </si>
+  <si>
+    <t>When assignment is effect, promisor is liable only to assignee</t>
+  </si>
+  <si>
+    <t>and rights of original assignor/promisee are EXTINGUISHED.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If assignment was in exchange for CONSIDERATION, </t>
+  </si>
+  <si>
+    <t>given by assignee to promisee/assignor</t>
+  </si>
+  <si>
+    <t>the assignment is IRREVOCABLE</t>
+  </si>
+  <si>
+    <t>and it creates legal contract between assignee and assignor.</t>
+  </si>
+  <si>
+    <t>Contract creates implied warranties like:</t>
+  </si>
+  <si>
+    <t>1. that the rights assigned exits.</t>
+  </si>
+  <si>
+    <t>2. that the assignor has the authority to assign them.</t>
+  </si>
+  <si>
+    <t>3. all documents provided are bonafide.</t>
+  </si>
+  <si>
+    <t>Assignee may seek legal damages from assignor for breach of warranty.</t>
+  </si>
+  <si>
+    <t>1) in writing</t>
+  </si>
+  <si>
+    <t>If assignment was Gratuitous, it is REVOCABLE until assignment is made:</t>
+  </si>
+  <si>
+    <t>2) token chose is delivered.</t>
+  </si>
+  <si>
+    <t>3) detrimental reliance makes revocation inequitable.</t>
+  </si>
+  <si>
+    <t>A gratuitous assignment creates no implied warranties can can only be enforced in equity.</t>
+  </si>
+  <si>
+    <t>Duty to perform may be delegated to Delegetee</t>
+  </si>
+  <si>
+    <t>by original promisor / delegator.</t>
+  </si>
+  <si>
+    <t>Promisor will remain primarily liable to promisee</t>
+  </si>
+  <si>
+    <t>for performance.</t>
+  </si>
+  <si>
+    <t>Delegation becomes EFFECTIVE when the delegetee agrees to perform the duties of promisor / delegator.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If delegetee accepts delegation in exchange of </t>
+  </si>
+  <si>
+    <t>consideration, a legal contract is created.</t>
+  </si>
+  <si>
+    <t>Between promisor/delegator and delegetee.</t>
+  </si>
+  <si>
+    <t>And promisee becomes intended third party beneficiary.</t>
+  </si>
+  <si>
+    <t>As a third party beneficiary the promisee has standing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to pursue legal actions against both promisor/deglegator</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> and delegatee.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If delegatee Gratuitously accepts the delegation, </t>
+  </si>
+  <si>
+    <t>the delegatee has no legal liability to original promisee</t>
+  </si>
+  <si>
+    <t>and the promisee can only enforce the delegation agreement</t>
+  </si>
+  <si>
+    <t>in equity by showing detrimental reliance.</t>
+  </si>
+  <si>
+    <t>Promisor may generally assert any claim or defense</t>
+  </si>
+  <si>
+    <t>against the assignee that could have been asserted</t>
+  </si>
+  <si>
+    <t>against the promisee/assignor.</t>
+  </si>
+  <si>
+    <t>Modificaiton of a contract after it has been assigned is effective</t>
+  </si>
+  <si>
+    <t xml:space="preserve">against the assignee if </t>
+  </si>
+  <si>
+    <t>1) the contract has not ye been fully performed,</t>
+  </si>
+  <si>
+    <t>The assignee acuires CORRESPONDING RIGHTS under the</t>
+  </si>
+  <si>
+    <t>modified contract.</t>
+  </si>
+  <si>
+    <t>2) modification is made in good faith and in accordance with reasonable commercial standards.</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Groucho entered into a contract with new car dealer Harpo to buy a new Dodge for his brother Chico on his birthday. The agreed sales price was $25,000. Harpo promised the new car would be delivered by Chico's birthday within two weeks. Chico was ecstatic. Groucho made a down payment of $2,000 and promised to pay an additional amount of $23,000 for the car over a five- year period. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Example:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Harpo made a deal with another dealer, Swifty. Swifty agreed to deliver a Dodge of the type specified on time for Chico's birthday in exchange for an immediate payment of $20,000. Swifty became insolvent, its inventory was seized and it did not deliver the Dodge. Harpo blames Swifty. Chico was upset he didn't get the car he expected.</t>
+    </r>
+  </si>
+  <si>
+    <t>B made a deal with another dealer D, D agree to deliver X before C's birthday in exchange for payment of $20k. D could not deliver and B is blaming D and C is upset.</t>
+  </si>
+  <si>
+    <t>B is promisor, B delegates his duty to D, D is delegatee</t>
+  </si>
+  <si>
+    <t>B becomes Delegator, B and D forms a contract,</t>
+  </si>
+  <si>
+    <t>C becomes intended third party beneficiary for B and D.</t>
+  </si>
+  <si>
+    <t>A v. D</t>
+  </si>
+  <si>
+    <t>1. A's rights under the Delegation contract?</t>
+  </si>
+  <si>
+    <t>Under the contract law, a DELEGATION is a second contract conveying the duty of performance under the first contract from the original promisor to a delegatee. The promisor in the first contract requires primary liability to the promisee. The delegetee assumes secondary liability to the promisee of the first contract if she expressly accepts the delegation in exchange for consideration, a bargained for exchange of value creating legal liability. In the delegation contract between the promisor/delegator and the delegatee the original promisee is a CREDITOR third-party beneficiary with standing to enforce the contract.</t>
+  </si>
+  <si>
+    <t>The delegatee can raise all defenses that are available to the promisee in the orignal contract.</t>
+  </si>
+  <si>
+    <t>Here there is a delegation contract between B and D supported by consideration because D expressly accepted the duty by saying he "agreed to deliver" in exchange for an "immediate payment of $20,000"</t>
+  </si>
+  <si>
+    <t>Therefore, A has standing to enforce D's promise to deliver the car as a creditor third party beneficiary.</t>
+  </si>
+  <si>
+    <t>2. A's REMEDIES against D?</t>
+  </si>
+  <si>
+    <t>A promisee under a contract can enforce the delegation contract as an intended third-party beneficiary in the same way as the original promisee of the delegation agreement (B).</t>
+  </si>
+  <si>
+    <t>Here A's remedies against D are the same as his remedies against B, and A can recover from D any amounts he cannot recover from B.</t>
+  </si>
+  <si>
+    <t>B Vs D.</t>
+  </si>
+  <si>
+    <t>3. B's rights under the DELEGATION contract?</t>
+  </si>
+  <si>
+    <t>Delegation is defined above.</t>
+  </si>
+  <si>
+    <t>Here the delegation from B to D is a contract between them because D promised "to deliver the car", and it is legal contract supported by consideration because D received an "immediate payment of $20,000". D was the promisor and B the promisee.</t>
+  </si>
+  <si>
+    <t>Therefore, B can enforce his contract with D and seek recover from D for any damages due to A or / C.</t>
+  </si>
+  <si>
+    <t>C vs. D.</t>
+  </si>
+  <si>
+    <t>4. C's rights and remedies against D?</t>
+  </si>
+  <si>
+    <t>Since D agreed to perform the duties of B, D assumed the same liability as B. And since C has the same enforcement rights as A, C's rights and remedies to enforce the contract against D are the same as B.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Answer 16-3: Third Parties in a UCC Setting </t>
+  </si>
+  <si>
+    <t>1) UCC?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCC Article 2 governs contracts for the sale of GOODS, movable things at the time of </t>
+  </si>
+  <si>
+    <t>identification to the contract.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here the question involves a sale of a "car" and it is movable because it was to be delivered. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore, the UCC applies here. </t>
+  </si>
+  <si>
+    <t>GROUCHO v. HARPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2) Groucho's rights under a THIRD-PARTY BENEFICIARY CONTRACT? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under contract law a THIRD-PARTY BENEFICIARY CONTRACT is one with a main purpose of providing a benefit to a third party. The contract can be enforced by the original party, the promisee, or by a vested intended beneficiary. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A beneficiary may be a DONEE (of a gift) or a CREDITOR (payment of a debt) beneficiary. The beneficiary vests upon becoming aware of and changing position in reliance on the contract. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here the purpose of the contract is to benefit Chico because he was to get a "new Dodge" as a "birthday present." Therefore this is a third-party benefit contract. Chico is an intended DONEE beneficiary because it is a "birthday present." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Groucho is the promisee because Harpo promised to "deliver" the car in "two weeks." Harpo is the promisor because he has promised to deliver the car to Chico. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore, this is a third-party beneficiary contract, and Groucho as promisee can enforce it. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3) Groucho's REMEDIES? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under the PERFECT TENDER RULE of the UCC a non-breaching buyer in a non-delivery situation can demand conforming goods, repudiate the contract or by goods to cover and demand the excess of the cover price over the contract price. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here Harpo has breached because he did not deliver the promised car. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore, Groucho can demand delivery from Harpo or repudiate the contract and demand return of his $2,000. If he covers by buying the car elsewhere he can demand the excess of his cover price, if any, over the contract price. </t>
+  </si>
+  <si>
+    <t>GROUCHO v. SWIFTY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4) Groucho's rights under the DELEGATION contract? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under contract law a DELEGATION is a second contract conveying the duty of performance under the first contract from the original promisor to a delegatee. The promisor in the first contract retains primary liability to the promisee. The delegatee assumes secondary liability to the promisee of the first contract if she expressly accepts the delegation in exchange for consideration, a bargained for exchange of value creating legal liability. In the delegation contract between the promisor/delegator and the delegatee the original promisee is a CREDITOR third-party beneficiary with standing to enforce the contract. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A delegatee can raise all defenses that are available to the promisee in the original contract. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here there is a delegation contract between Harpo and Swifty supported by consideration because Swifty expressly accepted the duty by saying he "agreed to deliver" in exchange for an “immediate payment of $20,000”. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore, Groucho has standing to enforce Swifty's promise to deliver the car as a creditor third- party beneficiary. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5) Groucho's REMEDIES against Swifty? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A promisee under a contract can enforce the delegation contract as an intended third-party beneficiary in the same way as the original promisee of the delegation agreement (Harpo). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here Groucho's remedies against Swifty are the same as his remedies against Harpo, and Groucho can recover from Swifty any amounts he cannot recover from Harpo. </t>
+  </si>
+  <si>
+    <t>HARPO v. SWIFTY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6) Harpo's rights under the DELEGATION contract? Delegation is defined above. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here the delegation from Harpo to Swifty is a contract between them because Swifty promised "to deliver the car", and it is a legal contract supported by consideration because Swifty received an “immediate payment of $20,000”.Swifty was the promisor and Harpo the promisee. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore, Harpo can enforce his contract with Swifty and seek recovery from Swifty for any damages due Groucho and/or Chico. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NAILING THE BAR – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Italic"/>
+      </rPr>
+      <t xml:space="preserve">How to Write Contracts &amp; UCC Law School and Bar Exams </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Italic"/>
+      </rPr>
+      <t xml:space="preserve">CHICO v. HARPO </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">7) Chico's rights as a THIRD-PARTY BENEFICIARY? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Third-party beneficiary contracts are defined above. Chico is an intended third-party beneficiary because the known purpose of the original contract was to give him a "birthday present." He vested when he became aware of the original contract and changed position in reliance. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A vested third-party beneficiary can enforce the contract against the promisor in the same manner as the promisee. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore, Chico can enforce the original contract against Harpo in the same manner and extent as Groucho </t>
+  </si>
+  <si>
+    <t>8) Chico's REMEDIES?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chico's remedies would be the same as Groucho. </t>
+  </si>
+  <si>
+    <t>CHICO v. SWIFTY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9) Chico's rights and remedies against Swifty? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since Swifty agreed to perform the duties of Harpo, Swifty assumed the same liability as Harpo. And since Chico has the same enforcement rights as Groucho, Chico's rights and remedies to enforce the contract against Swifty are the same as against Harpo. </t>
+  </si>
+  <si>
+    <t>CHICO v. GROUCHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10) Chico's rights and remedies against Groucho? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A donee beneficiary cannot enforce the promise of a gift against the promisee at law and can only enforce at equity based on promissory estoppel. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here Groucho entered into the contract with Harpo to give Chico a GIFT, so Chico was a DONEE beneficiary. While there is no evidence Groucho has breached the contract with Harpo, and even if he did Chico would have no right to enforce the contract against Groucho at law. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore, if Groucho had refused to perform the contract (e.g. had refused to make the car payments) Chico could only plead equity against Groucho based on principals of promissory estoppel. </t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Bold"/>
+      </rPr>
+      <t xml:space="preserve">ANSWER EXPLANATION: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman"/>
+      </rPr>
+      <t xml:space="preserve">The point of this question is that a contract intended to benefit a third party (Chico) can be enforced against the promisor (Harpo) by both the intended beneficiary (Chico) and the promisee (Groucho). Further, a delegation contract supported by consideration (a legally binding contract and not just a gift promise) can be enforced by the delegator (Harpo) against the delegatee (Swifty) and also by the promisee (Groucho) and intended beneficiary (Chico). </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">But if the promisee’s effort (Groucho’s effort) to bestow benefit on the beneficiary (Chico) is gratuitous, the donee beneficiary cannot enforce the original contract (Groucho-Harpo contract) against the promisee (Groucho) at law. The donee beneficiary could only plead promissory estoppel or detrimental reliance against the promisee in equity, given evidence to support such a claim. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the contract is for a sale of goods, as is the case here, the UCC also governs the remedies of the parties at law, but the equitable remedies would generally remain the same as at common law. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You should identify each party as promisee, promisor, delegatee, donee/creditor beneficiary, etc. because that designation determines their RIGHTS and REMEDIES (just as the call of the question asks.) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keeping the parties straight may require drawing a diagram and labeling each party with the various terms.] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harpo made a deal with another dealer, Swifty. Swifty agreed to deliver a Dodge of the type specified on time for Chico's birthday in exchange for an immediate payment of $20,000. </t>
+  </si>
+  <si>
+    <t>Swifty became insolvent, its inventory was seized and it did not deliver the Dodge. Harpo blames Swifty.</t>
+  </si>
+  <si>
+    <t>Chico was upset he didn't get the car he expected.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the rights, remedies and defenses of Groucho, Harpo, Chico and Swifty? </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3950,6 +5352,17 @@
       <color theme="1"/>
       <name val="TimesNewRoman"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="HelveticaNeue"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="HelveticaNeue"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3968,14 +5381,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4012,12 +5429,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4305,12 +5729,259 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="I2:K60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="9" max="9" width="38.83203125" customWidth="1"/>
+    <col min="10" max="10" width="41.5" customWidth="1"/>
+    <col min="11" max="11" width="34.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I2" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="4" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>990</v>
+      </c>
+      <c r="J4" t="s">
+        <v>985</v>
+      </c>
+      <c r="K4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="5" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I5" t="s">
+        <v>991</v>
+      </c>
+      <c r="J5" t="s">
+        <v>986</v>
+      </c>
+      <c r="K5" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="6" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>992</v>
+      </c>
+      <c r="J6" t="s">
+        <v>987</v>
+      </c>
+      <c r="K6" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="7" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I7" t="s">
+        <v>994</v>
+      </c>
+      <c r="K7" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="8" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I8" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="14" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="J14" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="16" spans="9:11" ht="160" x14ac:dyDescent="0.2">
+      <c r="J16" s="16" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="10:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="J18" s="16" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="19" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="10:10" ht="192" x14ac:dyDescent="0.2">
+      <c r="J20" s="16" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="21" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="10:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="J22" s="16" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="23" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="10:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="J24" s="16" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="10:10" ht="128" x14ac:dyDescent="0.2">
+      <c r="J26" s="16" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="27" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="10:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="J28" s="16" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="29" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="10:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="J30" s="16" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="32" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J32" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="34" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J34" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="35" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J35" s="16" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="36" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="10:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="J37" s="16" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="38" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="10:10" ht="176" x14ac:dyDescent="0.2">
+      <c r="J40" s="16" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="41" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="10:10" ht="128" x14ac:dyDescent="0.2">
+      <c r="J42" s="16" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="43" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="10:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="J44" s="16" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="45" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J46" s="16" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="47" spans="10:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="J47" s="16" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="48" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="10:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="J49" s="16" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="50" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="10:10" ht="144" x14ac:dyDescent="0.2">
+      <c r="J51" s="16" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="52" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="10:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="J53" s="16" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="54" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J54" s="2"/>
+    </row>
+    <row r="55" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J55" s="16" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="56" spans="10:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="J56" s="16" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="57" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="10:10" ht="112" x14ac:dyDescent="0.2">
+      <c r="J58" s="16" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="59" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J59" s="2"/>
+    </row>
+    <row r="60" spans="10:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="J60" s="16" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4319,7 +5990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
@@ -9393,10 +11064,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="97" zoomScaleNormal="97" zoomScalePageLayoutView="97" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="A25" zoomScale="97" zoomScaleNormal="97" zoomScalePageLayoutView="97" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9665,8 +11336,10 @@
       <c r="A26" s="2"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
+    <row r="27" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>1020</v>
+      </c>
       <c r="F27" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -9724,6 +11397,16 @@
     <row r="35" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>1022</v>
       </c>
     </row>
   </sheetData>
@@ -10027,13 +11710,872 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C38" zoomScale="101" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="51.33203125" customWidth="1"/>
+    <col min="2" max="2" width="51.1640625" customWidth="1"/>
+    <col min="3" max="3" width="52.83203125" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" customWidth="1"/>
+    <col min="5" max="5" width="53.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" ht="128" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="D48" s="2"/>
+      <c r="E48" s="11" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="B49" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D50" s="9" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="B51" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="2:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="B53" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="E56" s="11" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="B57" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="2:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="E58" s="11" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="B59" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="2:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="E60" s="11" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="B61" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="2:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="E62" s="11" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="2:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="E64" s="11" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="B65" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="2:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="E66" s="11" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="B67" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E68" s="11" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="B69" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="2:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="E70" s="11" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="2:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="E72" s="11" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="B73" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="2:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="E74" s="11" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="B75" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E76" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="B77" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E78" s="11" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" spans="1:5" ht="176" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E82" s="2"/>
+    </row>
+    <row r="83" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="E83" s="11" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E84" s="2"/>
+    </row>
+    <row r="85" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="E85" s="11" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E86" s="2"/>
+    </row>
+    <row r="87" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E89" s="11" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="B91" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E92" s="2"/>
+    </row>
+    <row r="93" spans="1:5" ht="176" x14ac:dyDescent="0.2">
+      <c r="B93" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E94" s="2"/>
+    </row>
+    <row r="95" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="B95" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="E96" s="11" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="B97" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E97" s="2"/>
+    </row>
+    <row r="98" spans="2:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="E98" s="11" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="B99" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E99" s="2"/>
+    </row>
+    <row r="100" spans="2:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="E100" s="11" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B101" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E101" s="2"/>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E102" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="B103" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E103" s="2"/>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E104" s="9">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="B105" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E105" s="2"/>
+    </row>
+    <row r="106" spans="2:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="E106" s="12" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B107" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E107" s="2"/>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E108" s="11" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B109" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E109" s="2"/>
+    </row>
+    <row r="110" spans="2:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="E110" s="11" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B111" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E111" s="2"/>
+    </row>
+    <row r="112" spans="2:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="E112" s="11" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="B113" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E113" s="2"/>
+    </row>
+    <row r="114" spans="2:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="E114" s="11" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="B115" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E115" s="2"/>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E116" s="11" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B117" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E117" s="11" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E118" s="2"/>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B119" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E119" s="11" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E120" s="11" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="B121" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E121" s="2"/>
+    </row>
+    <row r="122" spans="2:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="E122" s="11" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E123" s="2"/>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E124" s="11" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E125" s="11" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E126" s="2"/>
+    </row>
+    <row r="127" spans="2:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="E127" s="11" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E128" s="2"/>
+    </row>
+    <row r="129" spans="5:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="E129" s="11" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="130" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E130" s="2"/>
+    </row>
+    <row r="131" spans="5:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="E131" s="11" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="132" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E132" s="2"/>
+    </row>
+    <row r="133" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E133" s="9">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="134" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E134" s="2"/>
+    </row>
+    <row r="135" spans="5:5" ht="128" x14ac:dyDescent="0.2">
+      <c r="E135" s="9" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="136" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E136" s="2"/>
+    </row>
+    <row r="137" spans="5:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="E137" s="9" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="138" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E138" s="2"/>
+    </row>
+    <row r="139" spans="5:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="E139" s="9" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="140" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E140" s="2"/>
+    </row>
+    <row r="141" spans="5:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="E141" s="9" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="142" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E142" s="2"/>
+    </row>
+    <row r="143" spans="5:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="E143" s="9" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/manish/courseLaw/LMR/Workbook1.xlsx
+++ b/manish/courseLaw/LMR/Workbook1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="25600" windowHeight="14480" tabRatio="500" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="25600" windowHeight="14480" tabRatio="500" firstSheet="12" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Contracts" sheetId="1" r:id="rId1"/>
@@ -399,7 +399,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="1190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="737">
   <si>
     <t>FORMATION OF CONTRACT</t>
   </si>
@@ -921,157 +921,7 @@
     <t>CLUB</t>
   </si>
   <si>
-    <t xml:space="preserve">Sample Answer 16-4: Defamation </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WILSON v. BARBARA 1) DEFAMATION? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Under the law of torts DEFAMATION is a false statement of material fact of or about the plaintiff published to another party causing damage to the plaintiff's reputation. If the statement involves innuendo, interpretation, or knowledge of extrinsic facts it is DEFAMATION PER QUOD. Oral defamation is SLANDER and written or recorded defamation is LIBEL. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A false statement may be PRIVILEGED if the defendant speaks to defend a private interest, group interest or the public interest and does so without malice and in a reasonable manner calculated to defend that interest without unnecessarily harming the plaintiff. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore, if Wilson can establish a prima facie case, and that Barbara was not privileged, Barbara can be liable for defamation. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2) Were there FALSE STATEMENTS OF FACT? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">To establish a prima facie case, Wilson must show Barbara's objectionable comments were false. Her comments about his physical appearance, the slurred speech and bloodshot eyes, would be true and not defamatory because they do not, by themselves, cause loss of reputation. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wilson's denial that he had been drinking might not be credible enough to prove the point. He may have difficulty proving factually that he had not been drinking. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore, Wilson may not be able to prove the remarks were false. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3) Were the STATEMENTS ABOUT THE PLAINTIFF? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here Barbara might say her remarks were not clearly about Wilson because she only said "someone" had done something. But the context within which the remarks were made, comments on an interview with Wilson and his physical appearance, made it clear Barbara's statements were about Wilson. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The statement involved innuendo and required extrinsic facts and interpretation because it referred to "his old ways." Therefore Barbara would argue this was a defamation PER QUOD, if at all. But Wilson would argue that since the remarks were made along with observations about "slurred speech" and "bloodshot eyes" viewers would interpret this as a reference to prior drinking problems even if they had no prior knowledge of extrinsic facts. Wilson would argue this was defamation PER SE. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore, the remarks would reasonably be interpreted to be about Wilson. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Appendix B: Sample Answers </t>
-  </si>
-  <si>
-    <t>4) Did Barbara PUBLISH her remarks?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here Barbara clearly published her remarks because they were made "on TV." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5) Were the statements DAMAGING TO REPUTATION? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A statement that Wilson had become an alcoholic would be damaging to reputation because alcoholism is generally seen as a character flaw and undesirable in a person placed in a position of responsibility. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore, the remarks were damaging to reputation. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6) Did Wilson SUFFER DAMAGE? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Under the law of torts DEFAMATION PER QUOD requires proof of SPECIAL DAMAGES before GENERAL DAMAGES will be presumed. Special damages will be presumed in a slander per se concerning criminal acts, a loathsome disease, unchaste behavior or improper business practices. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here Wilson might argue that the claim he was alcoholic is equivalent to accusation of a loathsome disease. Barbara would dispute this, but alcoholism often is seen as a disease that might cause others to avoid the plaintiff. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barbara would argue that her statements were not defamatory on their face (not per se) because they involved innuendo and required interpretation. Wilson would dispute this. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wilson would argue he had suffered SPECIAL DAMAGES because his "popularity fell" and he did not get a position he wanted. Barbara would argue that this did not damage Wilson because he was a "former" politician and "almost a recluse." Further, she would argue that Wilson "had little chance" of getting the post, so her broadcast did not cause his loss. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore, damages may be presumed, or Wilson may be able to prove damages. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7) Is Wilson a PUBLIC FIGURE PLAINTIFF? </t>
-  </si>
-  <si>
     <t xml:space="preserve">Under New York Times v. Sullivan a plaintiff that is a public figure must prove actual malice, statements made with knowledge or reckless disregard for their falsity. A public figure is one who injects themselves into the public arena. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here Wilson had been inactive in the public arena because he was "almost a recluse" and only a "former governor." Barbara would argue that Wilson agreed to be "interviewed at his home" for a "TV" show, and hoped to become the "State Republican Chair." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore, Wilson had been in the public eye, was placing himself in the public arena by willingly being interviewed, and was a public figure. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8) Can Wilson prove ACTUAL MALICE? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actual malice means statements made with knowledge of or reckless disregard for their falsity. Reckless disregard means intentionally acting without awareness and with negligent disregard for the clear and serious risk to others. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here Barbara did not act with knowledge her statement was false because she "suspected" it was true. But there was a clear risk of injury to Wilson because she made comments "on TV" that would damage him. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wilson would argue she acted with a reckless disregard of whether her comments were true or not because she had an opportunity to ask Wilson and "did not ask." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barbara would argue it was not reckless disregard because Wilson would only have denied drinking. She would show that no further effort on her part would have clarified the matter any further. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore, Barbara probably would be held to have not acted with actual malice. </t>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="TimesNewRoman,Bold"/>
-      </rPr>
-      <t xml:space="preserve">ANSWER EXPLANATION: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="TimesNewRoman"/>
-      </rPr>
-      <t xml:space="preserve">This question requires discussion of defamation actions by public figures. It is an example of defamation using innuendo, interpretation (COLLOQUIUM) or knowledge of extrinsic facts (INDUCEMENT). </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">A definition and discussion of actual malice is necessary. Actual malice may be based on recklessness. When it comes to recklessness, this question is a wobbler because Barbara clearly could have asked and then reported "Wilson denies a drinking problem." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">If Wilson was not a public figure, he would only have to prove the falsity of Barbara’s statements and that they were of the sort that would damage his reputation. Barbara might then claim she was PRIVILEGED to make the statements, even if they were false. But she would have to prove she acted in a ‘reasonable manner’ without malice to protect the public interest. But she would not be able to prove that because it is not clear what “public interest” she is protecting, and it would not be reasonable to make damning statements of this type on TV about a private individual without at least questioning the person about it first directly. </t>
-  </si>
-  <si>
-    <r>
-      <t>PRIVILEGE is frequently tested and poorly taught so be sure to consider it in any defamation question. Did the defendant have a legitimate reason to speak out, and did they do it in a reasonable manner? The 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="TimesNewRoman"/>
-      </rPr>
-      <t xml:space="preserve">st </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="TimesNewRoman"/>
-      </rPr>
-      <t xml:space="preserve">Amendment does not protect defamatory statements, but it does protect the right to speak out to protect legitimate interests, as long as the defendant acts reasonably and without malice. Privilege defines the balance between these two conflicting rules of law.] </t>
-    </r>
   </si>
   <si>
     <t>I.e. not clear if it is damaging to reputation</t>
@@ -1493,145 +1343,6 @@
     <t>Events from first substantial step toward crime to when defendants reach a place of safety.</t>
   </si>
   <si>
-    <t xml:space="preserve">Sample Answer 15-6: Murder, Murder, Murder </t>
-  </si>
-  <si>
-    <t>STATE v. KAREN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) MURDER of Marvin? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Under criminal law MURDER is an unlawful homicide, the killing of one human being by another with malice aforethought. Malice for murder may be 1) express intent to kill, or implied by 2) intentionally causing great bodily injury, 3) intentionally committing an inherently dangerous felony, the FELONY-MURDER RULE, or 4) intentionally acting with an awareness of and conscious disregard for unreasonable risks to human life, the DEPRAVED HEART THEORY. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The felony-murder rule applies to deaths caused by acts done during the RES GESTAE of an inherently dangerous felony, the events beginning with the first substantial step toward commission of the crime and ending when the defendants leave the scene of the crime and reach a place of relative safety. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">At common law there were no degrees of murder but modernly statutes define first degree murder as those that are 1) willful, deliberate and premeditated, 2) by enumerated means, or 3) caused by the commission of enumerated felonies. All other murders are in the second degree. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here there was an unlawful homicide because Marvin was a human being and he was killed by Lucy, another human being. And it was caused by commission of an inherently dangerous felony, ROBBERY, a larceny from the person by force or fear. Karen was taking personal property of another with intent to permanently deprive because she was taking “dynamite” from Marvin, and she was using force or fear to overcome his will to resist because she used a “gun”. The death of Marvin occurred within the RES GESTAE of the robbery because he was shot before she left the scene of the crime. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore, Karen can be charged with murder for killing Marvin during the robbery. This would typically be FIRST DEGREE MURDER because robbery is typically one of the “enumerated felonies” for first degree murder. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2) MURDER of Ruby? MURDER is defined above. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">There was an unlawful homicide because Ruby was a human being killed by Karen, another human being, without legal justification. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here Karen appears to have acted with an express intent to kill because she shot Ruby in the "head" with a "gun". These facts imply an intent to kill. Alternatively, Karen clearly intended great bodily injury because the homicide was caused by a "firearm". Use of a firearm implies intent to cause serious bodily harm, regardless of where the victim is shot. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karen also appears to have acted with an awareness and conscious disregard for danger to human life because she deliberately shot Ruby in the head for little good reason. Her act created </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">NAILING THE BAR – </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="TimesNewRoman,Italic"/>
-      </rPr>
-      <t>How to Write Crimes Law School and Bar Exams</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">extreme risks to Ruby, she apparently had an awareness of the risks and consciously disregarded </t>
-  </si>
-  <si>
-    <t>them.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Based on any of the above theories, Karen could be charged with the murder of Ruby. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">It appears Karen killed Ruby willfully and deliberately. If that is proven the murder was FIRST DEGREE. Karen might argue that she did not act willfully and deliberately to kill Ruby and only reacted instinctively because she had a “short fuse”, a MITIGATING FACTOR that caused her to suffer from impaired capacity. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">If Karen can convince the jury she acted instinctively and did not act willfully, deliberately and with premeditation the murder might be reduced to SECOND DEGREE. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3) ADEQUATE PROVOCATION for VOLUNTARY MANSLAUGHTER? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Under criminal law VOLUNTARY MANSLAUGHTER is an unlawful, intentional homicide without malice aforethought because of adequate provocation sufficient to raise a reasonable person to a fit of rage which could and actually did cause the homicide. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generally “mere words alone” are not considered at law to be adequate provocation. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here there was a lack of adequate provocation because "hard looks", being "dissed", challenged to a "spelling bee" and "criticisms of attire" are “mere words alone” that would not be sufficient to raise a reasonable person to a fit of murderous rage. The subjective factor that Karen "had a short fuse" would not lower the standard of conduct. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore, Karen would not succeed in reducing the murder charge to voluntary manslaughter. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4) MURDER OF MARY? Murder is defined above. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here there was a homicide because Mary was a human being killed by Karen, another human being. And Karen had an express intent to kill because she "decided to kill Mary". Further, this killing was willful, deliberate and premeditated because it was planned in advance. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore, Karen can be charged with FIRST DEGREE murder of Mary and she has no defense. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5) MURDER OF BILL? Murder is defined above. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here there was a homicide because Bill was a human being killed by Karen, another human being. Karen may have had an express intent to kill because she "knew the blast would probably kill Bill." But Karen would argue that she did not want to kill Bill because "she felt real bad about </t>
-  </si>
-  <si>
-    <t xml:space="preserve">it." Regardless, Karen deliberately created extreme risks to human life with awareness of and conscious disregard because she "knew the blast would probably kill Bill." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore, Karen could be charged with murder based on a Depraved Heart Theory of malice.. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Further, this would generally be FIRST DEGREE murder because the use of explosives to murder is generally one of the “enumerated means” for first degree murder. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore, Karen can probably be charged with FIRST DEGREE murder of Bill even if she did not willfully and deliberately cause his death with premeditation. She has no defenses. </t>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="TimesNewRoman,Bold"/>
-      </rPr>
-      <t xml:space="preserve">ANSWER EXPLANATION: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="TimesNewRoman"/>
-      </rPr>
-      <t xml:space="preserve">This purpose of this question was to present four murders, each representing one of the four types of malice for murder. Marvin is a “felony-murder rule” situation, Ruby is a “great bodily injury” case, Mary is an “intent to kill” case, and Bill is a “depraved heart theory” case. </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">A second purpose of the question is to illustrate that “depraved heart murder” is not necessarily a “second degree” murder. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The question asks about “first degree" murder, and it is an express call. The call also asks about "lessor included offenses." That means manslaughter and NOT assault, battery, robbery, etc. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">You must define and discuss robbery as a basis for the felony-murder rule application to some extent. A death caused by a robbery is almost always going to be first degree murder because virtually every State includes it as one of its “enumerated felonies”. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only one murder here presents any evidence of "provocation" or “mitigating factors”.] </t>
-  </si>
-  <si>
     <t xml:space="preserve">Sample Answer 15-5: Attempt, Mistake of Fact, Mistake of Law </t>
   </si>
   <si>
@@ -1681,19 +1392,6 @@
   </si>
   <si>
     <t xml:space="preserve">Therefore, Yang can be charged with ATTEMPTED ROBBERY and it would be up to the jury to decide if there was adequate evidence of intent to rob the Chick if she resisted his efforts to take her purse. </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">NAILING THE BAR – </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="TimesNewRoman,Italic"/>
-      </rPr>
-      <t xml:space="preserve">How to Write Crimes Law School and Bar Exams </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">4) MISTAKE OF FACT as a defense to ATTEMPTED LARCENY or ROBBERY? </t>
@@ -1750,693 +1448,6 @@
     <t xml:space="preserve">The answer is the crime of attempt is committed at the time of the substantial step. Always focus on that instant. If Natasha was alive at the instant Boris took that first substantial step (driving up to her home), then Boris is guilty of attempted murder at that instant. If Natasha was dead at the instant of the substantial step, she could not be killed at that moment or any time after that, so Boris’ act (the substantial step) could not ever be a crime.] </t>
   </si>
   <si>
-    <t xml:space="preserve">Sample Answer 15-4: Arson, Larceny, Embezzlement </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Under common law ARSON was the malicious burning of the dwelling of another. Modernly arson has been extended to the malicious burning of almost any structure. Malice for arson requires a burning with wrongful intent.. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here Jim caused a burning of a structure because the "wall" of the school "classroom" was "singed." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">And Jim acted with malice because he acted with the wrongful intent of setting the fire to make himself look like a "hero." This was wrongful because he did it to disrupt the school and knowing it would damage the school’s wastepaper basket. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore, Jim can be charged with arson. 2) LARCENY of wallet? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Under criminal law LARCENY is the trespassory taking and carrying away of the personal property of another with an intent to permanently deprive. Modernly it is defined as THEFT. Under the RELATION BACK doctrine some courts held that an initial taking of lost property with intent to return property to the owner becomes trespassory when a later decision to steal “relates back” to the original taking. Other courts held that the finder of lost property holds it in “CONSTRUCTIVE TRUST” for the rightful owner and a later taking was an EMBEZZLEMENT. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here Jim took and carried personal property of another because he "picked up" and "took" the "wallet belonging to Sue." However, at the time Jim took the wallet he did not have any intent to permanently deprive so that taking was not trespassory. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Later Jim formed a larcenous intent when he became "depressed", "pocketed Sue's money" and "threw" the wallet into the river. This was a trespassory taking and Jim clearly intended to permanently deprive because he threw the wallet into the river. This larcenous intent related back to the original taking under the RELATION BACK doctrine. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore, Jim can be charged with larceny in a Court that recognizes the RELATION BACK theory. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3) EMBEZZLEMENT of wallet? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Under criminal law EMBEZZLEMENT is an intentional trespassory conversion of personal property of another by one entrusted with lawful possession. Modernly it is defined as THEFT. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">As stated above, some Courts held that a decision to keep lost property after originally intending to return it was an EMBEZZLEMENT based on CONSTRUCTIVE TRUST THEORY. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here there was no trespassory taking of the wallet because Jim “intended to return” it. Once he had the wallet he held it in constructive trust. But there was a trespassory conversion with intent to deprive because he decided to keep the money. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore Jim could be charged with embezzlement in a Court that holds to the CONSTRUCTIVE TRUST THEORY. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4) EMBEZZLEMENT of $10? Embezzlement is defined above. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here Jim was entrusted with possession because Chester "gave him $10 to buy tickets." This was personal property because it was money. And Jim intentionally and trespassorily converted the money to his own use with intent to permanently deprive because he "decided to keep it" and "used it to buy cigarettes and Playboy magazines." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore, Jim can be charged with embezzlement. 5) LARCENY of $20 BY TRICK? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Under criminal law LARCENY BY TRICK is the trespassory carrying away of the personal property of another with an intent to permanently deprive after gaining possession by means of a misrepresentation of fact. Modernly it is defined as THEFT. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here Jim trespassorily carried away personal property of another because he took "Chester's $20" to buy himself cigarettes and Playboy magazines. And it was personal property because it was money. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jim had an intent to permanently deprive because his intent at the time he gained possession was to “steal it." And Jim used a misrepresentation of fact because he said he would use the money to "buy pictures" when his true intent was to "steal it." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore, Jim can be charged with larceny of the $20 by trick. </t>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="TimesNewRoman,Bold"/>
-      </rPr>
-      <t xml:space="preserve">ANSWER EXPLANATION: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="TimesNewRoman"/>
-      </rPr>
-      <t xml:space="preserve">This question raises the issues of the malicious intent for arson. It is not arson to burn a building by accident unless the fire was not set for a "malicious" purpose. </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Malice for arson means for a "wrongful” but not necessarily illegal purpose. The purpose for the fire is malicious if the defendant started it to injure or frighten people or to damage their property. If a fire is set to clear brush on the defendant’s land and for no other purpose it is not malicious, even if the fire violated local burn-control laws. But if the fire is set to cause hurt, disruption, annoyance, etc. then the purpose is wrongful and malicious. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Defendants who take property intending to return it are not guilty of a larceny at the time of the taking, but it becomes larceny (under the ‘relation back’ view) if the defendant later decides to keep the property. Some Courts held that lost property taken with intent to return it is held in ‘constructive trust’ so a subsequent keeping of the property was embezzlement. That was especially true if property was lost on a “common carrier” like a taxicab, train, or boat.] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample Answer 15-3: Murder, Mistake of Law, Self Defense, Insanity </t>
-  </si>
-  <si>
-    <t xml:space="preserve">STATE v. TOM 1) MURDER? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Under criminal law MURDER is an unlawful HOMICIDE, the killing of one human being by another, with MALICE aforethought. Malice for murder can be 1) express intent to kill or implied by 2) intent to cause great bodily injury, 3) intent to commit an inherently dangerous felony, the FELONY MURDER RULE or 4) intent to act with awareness of and conscious disregard for an unreasonably high risk to human life, the DEPRAVED HEART theory. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Under common law there were no degrees of murder, but modernly FIRST DEGREE murder is 1) willful, deliberate and premeditated, 2) murder by enumerated means or 3) murder during enumerated dangerous felonies. All other murder is second degree. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here there was a homicide because Dick was a human being and he was “killed” by another human being, Oscar. But Tom did not do anything intending to cause Dick or anyone else to be killed or intending to cause great bodily injury to anyone. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Further, Tom was not engaged in commission of an “inherently dangerous felony” at the time so the felony-murder rule has no application. Therefore the only basis for charging Tom with murder would be the DEPRAVED HEART THEORY. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tom did not deliberately create extreme risks to other people. He could not have reasonably foreseen Oscar would start shooting. Even if some danger could have been foreseen, Tom was not aware of it and did not consciously disregard the risks because he was “in a daze”. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore, Tom did not appear to deliberately create and consciously disregard extreme risks to others, and cannot be charged with murder under the DEPRAVED HEART theory unless that could be proven. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">If murder could be charged here, it would be second degree murder because the death was not willful and deliberate, during a typically enumerated felony or by a typically enumerated means. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2) INVOLUNTARY MANSLAUGHTER? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Involuntary manslaughter is an unintentional homicide resulting from GROSS NEGLIGENCE, RECKLESSNESS or the commission of a MALUM IN SE crime insufficient to support the felony murder rule. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GROSS (CRIMINAL) NEGLIGENCE is the deliberate breach of a pre-existing duty to protect others from extreme risks, and RECKLESSNESS is the deliberate creation of extreme risks to others. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here there was an unintentional homicide because Dick died and Tom did not intend for him to die. And Tom was not committing any crime because smuggling Viagra was "not a crime." The MISTAKE OF LAW by Tom does not make an otherwise innocent act a crime. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Further, resisting unlawful arrest is not a crime. Here the arrest was unlawful because there was </t>
-  </si>
-  <si>
-    <t xml:space="preserve">“no probable cause" and the police wanted to "harass" and "beat" Tom and Dick. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">And Tom was not grossly negligent because he drove “55 mph” and did not deliberately create extreme risks to others. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The State could only argue that Tom created extreme risks by refusing to stop his car, but he did not deliberately create those risks because he had an “overwhelming phobia”, was “scared to death” and “could not bring himself to stop” the car. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore, Tom could not be charged with involuntary manslaughter unless it could be proven his failure to stop was criminally negligent. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3) SELF-DEFENSE? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Under criminal law a defendant is privileged to use reasonable force as necessary for SELF- DEFENSE. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here Tom acted to defend himself from harm because he was “scared to death” and Oscar wanted to "beat him." Oscar had no legal right to stop Tom because he had no probable cause. And Tom acted reasonably and used reasonable force because he only “drove at 55 mph”. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The state may argue Tom acted unreasonably by refusing to stop, even if the police lacked probable cause, but there is no legal basis for such a claim. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore, Tom would succeed in his defense that he acted in reasonable self-defense. 4) INSANITY? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Under criminal law INSANITY is a defense that negates criminal intent. Under the M’NAUGHTEN RULE a person is insane if a disease of the mind so impairs their reasoning that they are unable to appreciate the nature and quality of their acts or to know that they are wrong. Under the IRRESISTIBLE IMPULSE theory a person may raise the defense of insanity if they are unable to control their acts, even if they know the act is wrong. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here Tom could not plead M’Naughten because “he knew it was wrong”. But Tom could plead an irresistible impulse because “he had an overwhelming phobia” and “he could not help himself”. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore, Tom might be successful with an insanity defense. </t>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="TimesNewRoman,Bold"/>
-      </rPr>
-      <t xml:space="preserve">ANSWER EXPLANATION: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="TimesNewRoman"/>
-      </rPr>
-      <t xml:space="preserve">This question is quirky so paddling is necessary. Even if Tom and Dick were committing a crime it was not one of the “inherently dangerous crimes of rape, robbery, burglary or arson” so the felony-murder rule has no application here. </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Tom could only be charged under Depraved Heart. For that it must be shown he created extreme risks to others with an awareness of the risks and a conscious disregarded for them. But how could he have foreseen Oscar was crazy enough to shoot Dick? If Tom acted unreasonably enough to be charged with murder, he could not show he acted reasonably for a plea of self-defense] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample Answer 15-2: Accomplice and Conspiracy Liability </t>
-  </si>
-  <si>
-    <t xml:space="preserve">STATE V. HUEY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) CONSPIRACY? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Under common law a CONSPIRACY was an agreement between two or more people to pursue an illegal goal. Modernly an overt step taken toward the criminal goal is often required. Conspiracy does not merge into the criminal goal. A conspirator may be charged with all crimes by co- conspirators while they are members of the conspiracy that are within the scope of the conspiracy agreement, foreseeable acts in furtherance of the conspiracy goal. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here Huey agreed with another person because he "agreed" with "Louie", and the agreement was to pursue an illegal goal because it was to "kidnap Millie" and hold her for ransom. They took an overt step because they did kidnap her. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore, Huey can be charged with conspiracy. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2) EFFECTIVELY WITHDRAW from the conspiracy? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Under criminal law EFFECTIVE WITHDRAWAL from a conspiracy is a defense to liability for subsequent crimes by co-conspirators if the defendant gives notice to the other conspirators of intent to withdraw and then the defendant must act to thwart the conspiracy from attaining its goal. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here Huey gave notice because he told Louie "I quit." And he acted to thwart the conspiracy because he "told the police." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">However, Huey did not act to thwart the conspiracy until after the kidnapping, rape and death of Millie. Withdrawal only is a defense to subsequent crimes by co-conspirators and here the withdrawal was not effective until after all crimes had been committed. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore, Huey effectively withdrew from the conspiracy when he told the police everything, but that did not absolve him from crimes that occurred before that time. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3) KIDNAPPING? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Under criminal law a KIDNAPPING is the unlawful taking or confining of a person against their will. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here Huey took and confined Millie against her will because he and Louie “kidnapped Millie”. Therefore, Huey can be charged with kidnapping. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4) RAPE under a theory of ACCOMPLICE LIABILITY? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Under criminal law RAPE is unlawful intercourse with a person without consent. An accomplice to a crime may be charged with all subsequent crimes committed by other accomplices if they were foreseeable as the direct and natural results of their own criminal acts. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here Louie had intercourse with Millie because they "had sex." And it was without consent because Millie only agreed to intercourse because she had been kidnapped and Louie said he "would let her go in exchange." Since she was being held against her will and under duress, her apparent consent to intercourse was not effective. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore, Louie raped Millie, and that rape was foreseeable to Huey as a direct and natural consequence of his own crime of kidnapping Millie. This was all direct and natural, and should have been foreseeable to Huey because he knew "Louie was a convicted rapist." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore, Huey may be charged with the rape of Millie under a theory of accomplice liability. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5) MURDER of Millie? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Under criminal law murder is an unlawful homicide, the killing of one human being by another with malice aforethought. Malice for murder may be 1) express intent to kill, or implied by 2) intentionally causing great bodily injury, 3) intentionally committing an inherently dangerous felony, the FELONY-MURDER RULE, or 4) intentionally acting with an awareness of and conscious disregard for unreasonable risks to human life, the DEPRAVED HEART THEORY. At common law there were no degrees of murder but modernly statutes define first degree murder as those that are 1) willful, deliberate and premeditated, 2) by enumerated means, or 3) caused by the commission of enumerated dangerous felonies. All other murders are in the second degree. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Under criminal law one of the “inherently dangerous felonies” for application of the felony- murder rule is RAPE. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here there was a homicide because Millie was a human being and she died as a result of the acts of Louie. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huey would argue that Millie committed suicide and not homicide. But her death by her own hand was directly caused by the rape by Louie. She would not have killed herself if she had not been raped, and she would not have been raped if Huey had not kidnapped her and left her with Louie. The rape by Louie was foreseeable to Huey at the time of the kidnapping, so his own acts were the actual and proximate cause of her death. Huey and Louie effectively caused Millie to be the instrumentality of her own death. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Further, because Huey acted to place Millie at peril, he had an affirmative duty to protect her from the results of that peril, including protecting her from both Louie and her own suicidal impulses. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore, the state would successfully argue that this was a homicide and not a simple suicide. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">And the state would argue the FELONY-MURDER RULE applies to prove malice aforethought for </t>
-  </si>
-  <si>
-    <t xml:space="preserve">murder because Millie died because of the commission of an inherently dangerous crime, rape. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">As an alternative, the State may also argue that DEPRAVED HEART THEORY applies. Huey kidnapped Millie and left her with Louie, deliberate acts that created extreme risks to human life, and he did that with an awareness of and conscious disregard for the risk to human life because he knew Louie was a “rapist”. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore, Huey could be charged with murder on a FELONY-MURDER or DEPRAVED HEART theory. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6) MURDER of Louie? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Under the REDLINE RULE the killing of a criminal accomplice by any party other than another </t>
-  </si>
-  <si>
-    <t xml:space="preserve">criminal accomplice during the commission of an inherently dangerous felony cannot be used as a basis for charging murder under the FELONY-MURDER RULE. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here there was a homicide because Louie was a human being and he was "killed by police." But the police shooting of Louie was a justified act to prevent a felony. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore, Huey cannot be charged with FELONY-MURDER of Louie. </t>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="TimesNewRoman,Bold"/>
-      </rPr>
-      <t xml:space="preserve">ANSWER EXPLANATION: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="TimesNewRoman"/>
-      </rPr>
-      <t xml:space="preserve">This question points out two issues. Conspiracy liability only extends to acts within the SCOPE OF THE CONSPIRACY, meaning they must be foreseeable acts in furtherance of the conspiracy goal. But, accomplice liability extends to all foreseeable crimes by co-felons that are a direct and natural result of an initial crime. Here the rape is a direct and natural result of the kidnapping, so Huey is liable based on accomplice theory even if he is not liable based on conspiracy theory. </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Secondly, Huey failed to effectively withdraw by acting to thwart the conspiracy, so he ends up liable for crimes that occurred after he said, "I quit." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">But Huey cannot be charged with murder for the death of Louie (in many or most States) because of the Redline Rule.] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample Answer 15-1: Attempt, Homicide, Res Gestae, Depraved Heart </t>
-  </si>
-  <si>
-    <t>STATE V. TOM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. CONSPIRACY? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Under common law a CONSPIRACY is an agreement between two or more people to work toward an illegal goal. Modernly an overt step toward the criminal goal is often required. Conspiracy does not merge into the ultimate crime. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here there was an implied agreement between Tom and Dick, two people, for an illegal goal, because they “burst” into the store together and “wanted to rob” the store. They committed an overt step toward their goal because of this. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore Tom can be charged with conspiracy. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. ATTEMPTED ROBBERY? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Under criminal law an ATTEMPTED ROBBERY is committed with there is a SUBSTANTIAL STEP taken toward committing a robbery. A robbery is a LARCENY, a trespassory taking of personal property with an intent to permanently deprive, from a person by force or fear overcoming the will of the victim to resist. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here Tom took a SUBSTANTIAL STEP toward completing the robbery because he went to the store “with a gun” and “burst” through the door. And his goal was the crime of robbery because he “wanted to rob” the store. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore, Tom can be charged with attempted robbery. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. DEFENSE OF MISTAKE OF FACT? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Under criminal law a mistake of fact is a valid defense if it NEGATES IMPLIED CRIMINAL INTENT. Attempt is a SPECIFIC INTENT crime, so any mistake of fact that negates criminal intent is a valid defense. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here Tom made a mistake because he thought the store was open for business, but that mistake does not negate intent because he “wanted to rob” the store. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore, Tom’s mistake of fact does not negate his criminal intent, and his defense argument fails. </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">NAILING THE BAR – </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="TimesNewRoman,Italic"/>
-      </rPr>
-      <t xml:space="preserve">How to Write Crimes Law School and Bar Exams </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="TimesNewRoman,Italic"/>
-      </rPr>
-      <t xml:space="preserve">4. BURGLARY? </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Under the common law a burglary was a breaking and entering of the dwelling of another in the nighttime with intent to commit a felony. Further, a CONSTRUCTIVE BREAKING would be found if an entry was made by trick, threat of violence or with the help of a conspirator. MODERNLY burglary has been extended to almost any structure and all times of the day. If a larceny is not a felony, it still supports a charge of burglary. And modernly a constructive breaking will be found if there is any TRESPASSORY ENTRY, an entry without permission, express or implied. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here there was no entry to a dwelling, and the entry was through an “open” door. Therefore, no common law burglary occurred. But there was an entry to a structure because they entered a “store” and it was with intent to commit a felony because they “wanted to rob” the store. Finally, a CONSTRUCTIVE BREAKING would be found modernly because their entry was trespassory. It was trespassory because the store was not open for business, and they had no permission to enter it, either expressly or impliedly. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore they could be charged with burglary modernly but could not have been charged at common law. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5. LARCENY? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Under common law LARCENY was the trespassory taking and carrying away of the personal property of another with intent to permanently deprive. Modernly it is codified as “theft”. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">At common law some Courts held that property attached to the land could not be the subject of a larceny because it was real property and not personal property. Other courts disagreed, and modernly all courts would hold that when property is severed from the land to be stolen it is transformed from real property to personal property and can then be the subject of a larceny. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here Tom took and carried personal property of another because he “ripped the security camera” from the wall and took it to the “river”, and he intended to permanently deprive because he threw it in the river. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore Tom can be charged with larceny. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6. MURDER OF THE BABY? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MURDER is an unlawful HOMICIDE, the killing of one human being by another with MALICE AFORETHOUGHT. MALICE for murder can be 1) an express INTENT TO KILL, or implied by 2) intent to commit GREAT BODILY INJURY, 3) a homicide caused by commission of an INHERENTLY DANGEROUS FELONY, the “FELONY MURDER RULE” or 3) DELIBERATE CREATION OF EXTREME RISKS to human life with AWARENESS of the risks and a CONSCIOUS DISREGARD for them, the “DEPRAVED HEART” murder. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Under the common law and broadly adopted modern law a HUMAN BEING is a person that has been born alive and is not yet dead. About half the States have adopted FETAL-MURDER statutes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">which define the killing of a fetus with malice aforethought punishable as a murder, but they vary widely. The death of a fetus cannot qualify as a manslaughter. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Murder may be charged under the FELONY-MURDER RULE if a death is caused by the commission of an inherently dangerous felony, but only if the death is caused by acts done during the RES GESTAE of the underlying felony. The RES GESTAE of a crime is the sequence of events from the first substantial step to committing the crime and ending when the defendants leave the scene of the crime and reach a place of relative safety. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here there was no homicide because the baby was “born dead” and not born alive. But this may be defined as a murder under a fetal-murder statute in some States because the fetus was "full term." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Even if this State had a fetal-murder statute, malice for murder could not be based on intent to kill, intent to cause great bodily injury or depraved heart because the collision was by "accident" and at a reasonable speed of "75". </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Further, malice could not be based on the felony-murder rule because the death occurred after the res gestae the attempted robbery had ended. It ended when they at a place of “relative safety” and were able to watch “TV”. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore, Tom cannot be charged with murder because there is no basis for finding malice, even if there was a fetal-murder statute. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7. INVOLUNTARY MANSLAUGHTER. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Under criminal law INVOLUNTARY MANSLAUGHTER is an UNINTENTIONAL homicide without malice aforethought resulting from GROSS NEGLIGENCE, RECKLESSNESS or the commission of a MALUM IN SE CRIME that is not inherently dangerous enough for application of the felony murder rule. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">As discussed above, the death of a fetus does not qualify as a manslaughter. Therefore, Tom’s act was not sufficient to charge him with involuntary manslaughter. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8. MURDER of Victor? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Murder, defined above, can be based on the DEPRAVED HEART doctrine where one acts unreasonably to DELIBERATELY CREATE EXTREME RISKS TO OTHERS, the actus reus, with AWARENESS of the risks and a CONSCIOUS DISREGARD for the risks, the mens rea. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here Tom caused a homicide because he killed Victor, a human being. And he deliberately created extreme risks because he drove down the “crowded surface streets” at “80 mph”. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Further, he was aware of the risks because he was in full control of his faculties. And he </t>
-  </si>
-  <si>
-    <t xml:space="preserve">consciously disregarded the risks because he continued to do this without any compelling reason. Therefore, Tom can be charged with the murder of Victor. </t>
-  </si>
-  <si>
-    <t>STATE V. DICK.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9. CONSPIRACY, ATTEMPTED ROBBERY, BURGLARY and LARCENY? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dick was an equal participant in the crimes of conspiracy, attempted robbery, burglary and larceny, and did all of the same things as Tom relative to these acts. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore Dick was DIRECTLY LIABLE and could be charged with each of these crimes on the same facts and legal theories as explained for Tom above. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10. MURDER of Victor? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tom killed Victor and not Dick, and since “Dick was silent” and not urging Tom to run over Victor or do anything criminal, Dick could only be charged with this murder based on a vicarious liability theory. There are two vicarious liability theories: conspiracy theory and accomplice theory. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSPIRACY THEORY? A person may be charged with vicarious liability for a crime based on CONSPIRACY THEORY if while they are a member of a conspiracy a co-conspirator commits the crime within the scope of the conspiracy. But a conspiracy ends when the criminal goal is ATTAINED or ABANDONED. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here Dick was a member of a conspiracy to rob the store, but that conspiracy goal was abandoned when they found the store closed. Since the conspiracy had ended, Tom did not kill Victor the next day “within the scope” of the conspiracy. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore Dick cannot be charged on this basis. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACCOMPLICE THEORY? A person who commits or helps commit a crime is liable for all subsequent crimes by co-felons that are a direct and natural result of the prior crimes. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here Dick helped Tom try to rob the store the prior day, so he would be liable for any crimes by Tom that are a direct and natural result of the attempted robbery. But the murder of Victor was not a foreseeable result of the prior robbery attempt. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore Dick cannot be charged with Victor’s death based on accomplice liability. Since Dick had no direct liability or vicarious liability he cannot be charged with Murder. </t>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="TimesNewRoman,Bold"/>
-      </rPr>
-      <t>ANSWER EXPLANATION</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="TimesNewRoman"/>
-      </rPr>
-      <t>: The main points here are that:</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Modernly a burglary generally requires a trespassory entry, an entry without permission to </t>
-  </si>
-  <si>
-    <t xml:space="preserve">enter, and does not necessarily require a physical breaking. 2) A fetus is not generally considered a human being. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3) There are fetal-murder statutes you might need to discuss, but there are no “fetal-manslaughter” statutes (or if there are it is extremely unusual). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4) The felony-murder rule cannot be applied to a death that results from acts done so long after the robbery that they were not part of the res gestae of the crime. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5) There is no conspiracy liability for crimes committed by co-conspirators after the conspiracy has ended. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6) Accomplices in one crime are not automatically liable for all subsequent crimes committed by other accomplices, even if they are committed in their presence unless there is some direct and natural causality linking the second crime back to the first crime.] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Practice Question 16-1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tom and Dick burst into the 7-11 store in Sacramento through the open door with their guns drawn at midnight. They wanted to rob the store the first night it opened. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">“Stick ‘em up,” yelled Tom. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unfortunately, the store was empty because they made a big mistake. No one was there. There was no merchandise. The store wasn’t going to open until the next week. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">They were so mad they ripped the security camera off the wall and threw it in the river. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The next morning Tom and Dick saw themselves on the Dumb Crook Show on TV. The store security camera had filled them trying to rob the empty store. They were afraid they would be caught. So to escape Tom drove real fast to San Francisco with Dick as his passenger. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">One the freeway going 75 mph, Tom was distracted and accidentally bumped Victoria’s car. She was only going 70 mph, the posted limit. She spun out of control and crashed. She survived, but went into labor, and her full-term, viable baby was born dead. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tom then got off the freeway and drove down the crowded city surface streets of San Francisco at 80 mph. Dick was silent. The posted limit was 25 miles per hour. The car ran over homeless person Victor. He died instantly. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discuss the possible charges against Tom and Dick. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Practice Question 16-2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huey and Louie agreed to kidnap Frank's daughter, Millie, and hold her for ransom. Frank was an old movie star with lots of money. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huey knew that Louie was a convicted rapist, so he said, "Louie! I want you to swear that you won't touch this girl. Because we are just in this for the ransom. Nothing else. And if you do anything bad to her, that is going to hurt our chances to get the ransom. So, do you swear?" </t>
-  </si>
-  <si>
-    <t>Louie said, "Huey, I swear on a stack of bibles I won't touch the dame."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So Huey and Louie kidnapped Millie and held her for ransom in a rundown motel. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huey went to the store for smokes and when he came back he discovered Louie had sex with Millie by telling her he would let her go in exchange. He was furious and afraid. He said, "Louie, I quit. I ain't having nothing to do with this no more!" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huey left and went to a bar where he got very drunk. That night Millie became so despondent over allowing Louie to have intercourse with her she hung herself in the bathroom of the motel room while Louie was snoring in the bed. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Police discovered where Louie was and surrounded the motel room the next morning. Louie vowed not to be taken alive and was gunned down by the cops. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huey woke up at noon. Unaware of what happened to Millie and Louie, he decided to turn himself in. So he went to the police that morning and told them everything he knew in an effort to help rescue Millie. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">What crimes can Huey be charged with? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Practice Question 16-3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tom and his lover Dick made frequent trips to Mexico. Dick was getting a little impotent, so on one trip they bought some Viagra with the intent of smuggling it into the United States. They thought this was a felony, but they were wrong. It was not a crime at all. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Officer Oscar tried to pull them over solely because they looked gay, and Oscar hated gays. He intended to harass them. If he was lucky, he thought, maybe he could beat them up. Oscar had some issues to resolve, but he did not have probable cause to stop the car. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tom was afraid. He felt Oscar must somehow know he was smuggling Viagra. He thought he would be strip searched, and he had an overwhelming phobia of body cavity searches. He thought he would be put in prison and treated very badly. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tom was scared to death and could not bring himself to stop the car. He knew it was wrong, but he could not help himself. He was in a daze. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tom continued to drive carefully at 55 mph and Oscar continued to follow him. Oscar was furious. Then Oscar shot at the car several times and Dick was killed. </t>
-  </si>
-  <si>
-    <t>Tom is charged with the murder of Dick.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discuss Tom's liability for murder and lessor included offenses, and his applicable defenses. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Practice Question 16-4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jim was sweet on Sue, a cute little red-haired girl in his Senior class, but she was more interested in a big, dumb, old football player named Chester. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jim thought that Sue would dump Chester for him if he was a hero. So Jim set fire to the wastepaper basket in old-lady Smith's classroom during the class break intending to report it and be a hero. He didn't intend any harm to the building, and he honestly believed the fire would not hurt the school at all. Unfortunately, the fire slightly singed the wall, and some other boys poured water on it before Jim could report it. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the confusion Sue dropped her wallet. Jim picked it up and hid it. He planned on giving it back to her that night. Then she would see he is a hero, and she would have to go to homecoming with him. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jim called Sue's house several times that night to tell her he had her wallet. But Sue's mother kept saying she was out with Chester. Jim did not tell Sue's mother about the wallet. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This went on all night and Jim got so depressed he went to the river, pocketed Sue's money and threw Sue's wallet as far out into the current as he could throw. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The next day Chester came up to Jim in first period and asked him a favor. Chester said the football team had to assemble for a yearbook picture, so Chester asked Jim to buy him two homecoming tickets in fifth period for Sue and him to go to the dance. Jim intended to do Chester a favor and took his $10. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jim got mad and decided he would just keep Chester's money. Then after second period Chester offered Jim $20 more so Sue and him could have their pictures taken at the dance. Jim agreed and took the money with every intention of stealing it. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jim used all of Chester's money to buy cigarettes and Playboy magazines. Discuss Jim's crimes. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Practice Question 16-5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yang rode his bicycle down Rodeo Drive looking for a victim. He saw a "Hot Tomato" ready to cross the street, and as he coasted past her he deftly lifted her wallet right out of her purse without her knowing. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">At the next street he snatched another purse when an "Old Lady" wasn't even looking. But she was holding tight and fell over into the street. As she hit the pavement she lost her grip and Yang rode away with another prize. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yang was having a good day. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">At the next corner Yang reached out to snag another purse. But at the last second as he reached out he realized the "Young Chick" was not carrying a purse. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disappointed, Yang called it a day. He decided to score some dope with his earnings. Seeing a dude near an alley, he entered into some negotiations. The dude said he could sell him a baggy of "grass" for $10. Yang agreed and handed over $10. Suddenly cops came out of nowhere and jumped on them before Yang got possession. It turned out the "grass" really was grass -- lawn clippings from the dude's back yard. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">What crimes can Yang be charged with and what defenses might be raised? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Practice Question 16-6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karen was furious because her lover Billy ran off with Mary. Karen decided to kill Mary and looked for some dynamite to blow Mary straight to Hell. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karen went to a "Dynamite R Us Store", but the owner Marvin refused to sell her any dynamite. Karen pulled a gun and demanded quality service like it said on the sign in the window. Marvin said, "Yes, Ma'am!" and handed over 12 sticks of dynamite. Karen was happy with the service. But as she was putting away the gun, it accidentally went off and shot Marvin between the eyes. Karen felt real bad about it. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">As Karen approached Mary's mobile home she was stopped by Ruby. Ruby gave her a hard look. Ruby "dissed" her. Ruby challenged her to a spelling bee and criticized her choice of attire. That was all more than Karen could take, because she always had a short fuse. So she smoked Ruby above the ear with a round from the '38. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karen proceeded to put the dynamite under Mary's double-wide "Jerry Springer" brand mobile home. She realized that the blast would probably kill Billy too, and she felt real bad about it. Billy was the reason she was acting out, her love for him and all. But the way she figured, a girl's got to do what a girl's got to do. So she washed that man right out of her hair. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">That night the blast killed both Mary and Billy. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discuss the potential first degree murder charges Karen might face along with lesser included offenses and her potential defenses. </t>
-  </si>
-  <si>
     <t>A. Inchoate Crime</t>
   </si>
   <si>
@@ -2729,126 +1740,6 @@
   </si>
   <si>
     <t>8. New York Times V Sullivan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ken was a politician from Los Angeles. He moved to Sacramento and purchased a spacious home on the Sacramento River. He felt he got a great deal because he only paid $400,000 and a similar home in Los Angeles would have cost him three times that amount. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ken realized his home was directly in the flight path of the airplanes taking off and landing from the County airport, and the realtor had prominently disclosed this fact on the sales documents. But Ken didn't think the noise was so bad because from his backyard he just loved to hear little birds singing along the public river parkway. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Four years later Ken lost the election and he wanted to move back to Los Angeles. When he had the house appraised, it was worth $500,000. Ken was furious because his home value had only increased 25 percent in value while most real estate had gone up 50 percent. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ken blamed the County. In the four years he owned the home the number of flights at the airport increased ten percent. This increased traffic was from increased military use in response to the crisis in Romaria. Ken could not enjoy his yard as much as before, and the little birds on the public river parkway didn't seem to sing as much as they used to. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">What actions might Ken bring against the County, what defenses might be raised, and what remedies are appropriate? </t>
-  </si>
-  <si>
-    <t>Sample Answer 16-6: Nuisance</t>
-  </si>
-  <si>
-    <t>KEN v. COUNTY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) PRIVATE NUISANCE? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Under tort law PRIVATE NUISANCE is an unreasonable interference with the plaintiffs’ use and enjoyment of their land. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here there was some interference because the County airport caused "noise" that prevented Ken from "enjoying his yard" and "hearing the birds." And this involved the use of Ken's land because it was his "house" and "yard." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The two elements that would be most difficult to prove are whether Ken suffered significant damages, and whether the County action was unreasonable. The County would argue that the noise was insufficient interference to prevent Ken from enjoying his land because Ken "didn't think the noise was so bad" when he bought the house. He in effect CAME TO THE NUISANCE, and that fact suggests the situation was not as bad as Ken claims. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">But Ken would try to prove that the interference was unreasonable because the County let flights increase “ten percent" in only "four years." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The County would also argue it did not cause the nuisance, and had not acted irresponsibly. The County might argue it was not responsible because the increase in noise was caused by "military use" beyond their control. Alternatively, the County would argue that it acted reasonably because the flights were in response to the "Romaria crisis." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ken would argue he suffered damages because the value of his home was less that it otherwise would be. But the County would argue there was no proof of financial loss because the home had gone up in value and the claim of loss was speculative. Further, the County would argue there was no proof the birds did not sing as much as before. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore, the County might be liable for private nuisance depending on whether Ken could prove these legal elements. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2) PUBLIC NUISANCE? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Under tort law PUBLIC NUISANCE is an unreasonable interference with the plaintiff's use and enjoyment of public resources causing her particular injury that is different or greater than the general public. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here the noise interferes with the enjoyment of public land because it prevents Ken from "hearing the birds sing" on the "public river parkway." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The County may argue that Ken lacks standing because he does not suffer any injury that is different from any other member of the public. But Ken suffers particular injury because his home is "on the river" and he could hear the birds sing "from his backyard." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ken would have to prove the other elements of nuisance which are discussed above under private nuisance. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore, the County may be liable for public nuisance, depending on whether Ken can prove the County’s action is unreasonable and produces significant damages. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3) COMING TO THE NUISANCE? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Under tort law COMING TO THE NUISANCE is the defense that the plaintiff moved to the location where the condition complained of already existed. It is a complete bar in a MINORITY view, but in the MAJORITY view it is only a factor to be considered in determining damages. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here Ken moved to the location because he "purchased the home." And the condition already existed because he "realized his home was in the flight path" and the "realtor disclosed the fact." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ken would argue that even though problems existed when he bought the home, they worsened after that. Further, he would argue that in any event the County action is unreasonable per se. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore, the court would consider Ken's coming to the nuisances only as a factor in determining damages in most States. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4) REMEDIES? </t>
-  </si>
-  <si>
-    <t>The REMEDIES for a nuisance action include both money damages and injunctive relief.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the nuisance is a temporary situation money damages measured by the loss of use for the period of the nuisance will be an adequate remedy. If the nuisance would continue but for injunctive relief, the Court would consider granting an injunction. Injunctive relief is an equitable remedy, and the court has discretion to deny it. The Court will balance the interests of the parties, the interests of third parties and the feasibility of judicial enforcement. If the Court denies injunctive relief, the appropriate remedy is an award of money damages measured by the loss of property value caused by the nuisance. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here the nuisance is a permanent condition, so the Court would consider injunctive relief. But the interest of third parties, people who use the airport, the military, and the County residents would be so significant the Court is unlikely to issue an injunction stopping the airport from continuing operations. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore the Court would most likely award Ken money damages to reflect the loss of market value of his property caused by the increase in airport traffic. </t>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="TimesNewRoman,Bold"/>
-      </rPr>
-      <t xml:space="preserve">ANSWER EXPLANATION: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="TimesNewRoman"/>
-      </rPr>
-      <t xml:space="preserve">This question is roughly based on true events. The point to remember is that "coming to the nuisance" is not a complete bar to recovery. If a defendant unreasonably interferes with the use of land, a new purchaser might "buy into the right to sue" for a nuisance the previous owner did not litigate. </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Just state the rule and prove (or disprove) the elements. Here Ken’s case is rather weak, so you may have to give “conditional” conclusions. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discussion of “defenses” and “remedies” is mandatory because the CALL specifically asks for it.] </t>
   </si>
   <si>
     <t>F. Nuisance</t>
@@ -3512,9 +2403,6 @@
     <t>own property or property of others.</t>
   </si>
   <si>
-    <t>Practice Question 16-6 Practice Question 16-6</t>
-  </si>
-  <si>
     <t>Under tort law</t>
   </si>
   <si>
@@ -3596,222 +2484,6 @@
     <t>for that use</t>
   </si>
   <si>
-    <t xml:space="preserve">The Macho-X99 chainsaw is a light-duty chainsaw designed for trees no bigger than 18". In the owner's manual said in big red letters, "WARNING -- NEVER TRY TO CUT DOWN A TREE BIGGER THAN 18" OR THIS SAW MIGHT CATCH FIRE." There were no warnings on the saw itself. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tom went into Sam's Bargain Center. Sam told him, "This is the best chainsaw on the market. The Macho-X99 will cut trees up to 36" in diameter." Tom bought the Macho-X99 chainsaw. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dick went into Sam's Bargain Center and said he didn't know much about chainsaws but needed one that could cut a tree about 24" in diameter. Sam told him, "I am an expert when it comes to chainsaws. I recommend this Macho-X99." Dick bought the Macho-X99 chainsaw. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moe went into Sam's Bargain Center and bought the Macho-X99 chainsaw without any discussion. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sam, Tom and Dick never read the owner's manual and were unaware of the potential fire danger. When Tom and Dick tried to cut down trees bigger than 18" the saws burst into flames and burned them. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moe saw the warning in the owner's manual and tried to return the saw. Sam refused to give Moe his money back. Moe was disgusted and threw the saw in the garbage “Dumpster”. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harry saw Moe's old saw in the garbage and took it. There was no owner's manual, but the saw was just like brand new. When he first used the saw it burst into flames and burned him. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discuss all the theories under which Tom, Dick and Harry would seek to recover from Sam. Under which theories can they NOT recover? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The National Inkwire focused on sensational articles about celebrities, complete with candid pictures taken during private moments. Actress Ellen D. Generate was pursued relentlessly. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">One time The National Inkwire reported that Ellen was secretly a generous philanthropist. In fact, Ellen was a tightwad. As a result of the Inkwire article, Ellen was besieged by requests for donations, and it was professionally impossible for her to turn them all down. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Then the Inkwire photographer, Dick took pictures of Ellen sunbathing topless on her sailboat. At the time the photo was taken Ellen was anchored four miles from land in international waters, and she had her friend Anne posted as a lookout to warn of any approaching boats or airplanes. The way Dick got the photo was by using a remote controlled, miniature submarine with a powerful telephoto lens. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ellen was so embarrassed by the nude photo that she remained secluded in her home for weeks. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ellen decided to sue the Inkwire, so she went to the grocery store and bought a copy of the issue with her photo to show her lawyer. Unfortunately Dick was following her and he took a picture of Ellen buying the Inkwire. Then Inkwire put the picture of Ellen on billboards nationwide with a caption that said "Ellen D. Generate buys Inkwire!" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Before Ellen could file suit the Inkwire ran an interview with Ellen's old boyfriend from college. He said that even though Ellen was now a strong and vocal anti-abortion advocate, she had an abortion herself in college. This was a true fact that Ellen had told her ex-boyfriend in strictest confidence. This disclosure embarrassed Ellen and made her look like a hypocrite. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discuss the possible actions Ellen might bring against the Inkwire and their defenses. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample Answer 16-3: Product Liability </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOM V. SAM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Under PRODUCT LIABILITY LAW a person who places an unreasonably dangerous product into the steam of commerce may be liable for the injury it causes. There are four basic theories on which a product liability action may be brought: Breach of Express Warranty, Breach of Implied Warranty, Negligence and Strict Liability. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) UNREASONABLY DANGEROUS? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A product is unreasonably dangerous if it 1) poses serious and likely dangers, that 2) could be reduced or eliminated easily, 3) without damaging product utility, or else 4) the product utility does not justify the dangers posed. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here the product presented serious and likely dangers because it could burst into flame under normal use, and those dangers could have been eliminated or reduced easily by putting a warning on the saw. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore this was an unreasonably dangerous product at the time of sale. 2) BREACH OF EXPRESS WARRANTY? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Under tort law there is a BREACH OF EXPRESS WARRANTY if a product is sold with 1) express representations that the buyer 2) relies on and 3) the representations are incorrect and 4) it causes the purchaser injury. The seller is liable to foreseeable plaintiffs, those with privity of contract or their family. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here Sam made express representations to Tom because he said the saw "would cut 36" trees" and Tom relied because he "bought" the saw. This was incorrect because the saw would only cut "18" trees", and this caused injury because Tom was "burned" when the saw caught on fire. And Tom had privity of contract because he was a "purchaser." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore, Tom can recover under a breach of warranty theory </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3) BREACH OF IMPLIED WARRANTY? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Under tort law there is a BREACH OF IMPLIED WARRANTY if a product is unsafe for ordinary use or for the buyer’s known intended use, the buyer relies on the expertise of the seller, and the buyer is injured as a result. The seller is liable to foreseeable plaintiffs, those with privity of contract or their family. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here Tom would argue he bought the saw for ordinary use, relied on Sam’s expertise, and was injured as a result. Sam might argue that he did not know what Tom’s intended use was, and there was no evidence Tom relied on his expertise. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore Tom can pursue recovery on a breach of implied warranty theory. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4) NEGLIGENCE? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Negligence is a failure to use the care a reasonable person would in the same circumstance. To prevail the plaintiff must prove duty, breach, actual cause, proximate cause and damages. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DUTY? Under tort law a person has a duty to not put an unreasonably dangerous product into the stream of commerce. Further, a person who makes express representations about a product assumes a duty of due care to make sure they are accurate and will not create peril. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here Sam owed Tom a DUTY because he was the seller of a product that posed foreseeable harm. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BREACH? Sam BREACHED his duty because he "never read the owner's manual" and misrepresented the saw. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAUSATION? That was the ACTUAL CAUSE of his injury because he would not have been hurt if he did not buy the saw. This was also the PROXIMATE CAUSE of injury because it was the direct and foreseeable result. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAMAGES? Tom had INJURY because he was "burned." Therefore, Tom could recover on a negligence theory. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5) STRICT PRODUCT LIABILITY? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Under tort law a commercial seller of a product is strictly liable for personal injury or property damage if the product is unreasonably dangerous at the time it leaves the seller. The seller is liable to any person who is injured as a result. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here Sam was a commercial seller because he had a store, the "Bargain Center", selling the product. And the product was unreasonably dangerous because it "burst into flames" in normal use and had "no warnings on the saw." This caused Tom injury because he was "burned." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore, Tom can recover under strict product liability. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DICK V. SAM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6) BREACH OF EXPRESS WARRANTY? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Breach of express warranty is defined above. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here Dick cannot recover under breach of express warranty because Sam only said he was an "expert" and "recommended" the saw. These are not express misrepresentations. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7) BREACH OF IMPLIED WARRANTY? Breach of implied warranty is defined above. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here Dick relied on Sam’s expertise because Dick said he “didn’t know” about saws and Sam said he was an “expert”. And Sam knew Dick’s intended use of the saw because he said he wanted to cut "24" trees". Further, the saw was not safe because it could only cut 18" logs, and this caused injury because the saw "caught fire" and Dick was "burned". </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore, Dick can recover under breach of implied warranty. </t>
-  </si>
-  <si>
-    <t>8) NEGLIGENCE or STRICT PRODUCT LIABILITY?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dick's rights under negligence or strict product liability are the same as Tom's. </t>
-  </si>
-  <si>
-    <t>HARRY V. SAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9) BREACH OF EXPRESS or IMPLIED WARRANTY? Breach of warranty is explained above. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here Harry did not buy the saw from Sam so there is no privity of contract between them and Harry was not a foreseeable plaintiff to Sam. Further, Sam made no express or implied representations to Harry. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore, Harry cannot recover based on breach of warranty. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10) NEGLIGENCE? Negligence is defined above. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">It is not clear that Sam was the PROXIMATE CAUSE of the injury to Harry because Moe's act of throwing the saw in the garbage appears to be an interceding event that breaks the chain of causation. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore, Harry's injury might be too remote in place and causation for recovery on a negligence theory. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">11) STRICT PRODUCT LIABILITY? Strict Product Liability is discussed above. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here Sam would argue that even though he originally put the saw into the stream of commerce, it was TAKEN OUT OF THE STREAM OF COMMERCE because Moe threw it in the “garbage”. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Further, he would argue that Harry ASSUMED THE RISKS the saw was defective when he took it </t>
-  </si>
-  <si>
-    <t>out of the garbage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore, Harry might not be able to recover under strict product liability. </t>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="TimesNewRoman,Bold"/>
-      </rPr>
-      <t xml:space="preserve">ANSWER EXPLANATION: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="TimesNewRoman"/>
-      </rPr>
-      <t xml:space="preserve">This question calls for a discussion of the four theories of product liability. The facts are intended to illustrate the differences between express and implied breach along with the fact that strict product liability theory extends to remote plaintiffs. </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">The preliminary discussion of whether this is an “unreasonably dangerous product” or not is very, very important. Stating the “balance” test given here is MANDATORY if you want to score maximum points. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Be wary of products that are not really “unreasonably dangerous” at all because they have been extensively tested, have great utility (often saves lives), pose trivial risks (turns hair green) to a very small number of users (less than 0.05%), and what little danger they pose is totally unknown to the manufacturer or simply cannot be easily eliminated. That is NOT an unreasonably dangerous product! </t>
-  </si>
-  <si>
-    <t xml:space="preserve">As for Harry, it is not clear if a person can prevail on a products liability claim if the product has been discarded, scrapped or abandoned. The purpose of product liability law is to protect consumers and regular users of products, not “Dumpster Divers”. There is a strong argument that a product is no longer in the “stream of commerce” after it has been discarded or scrapped. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here it seems that Harry put the product back in the stream of commerce by retrieving it from the Dumpster. Also he has assumed the risk by doing that since he knew or should have known something might be wrong with a product that has been discarded.] </t>
-  </si>
-  <si>
     <t xml:space="preserve">Defendant has duty </t>
   </si>
   <si>
@@ -3900,520 +2572,6 @@
   </si>
   <si>
     <t>that are reasonably relied upon (by plaintiff)</t>
-  </si>
-  <si>
-    <t>Problem 7 Torts</t>
-  </si>
-  <si>
-    <t>Star approached Buck, the owner of JavaManiac, with a business proposal. Star knew where there was a retail space for lease that would be a great place for a JavaManiac franchise. Buck told Star that she would be granted a JavaManiac license if the location was acceptable. Based on this Star described the location in detail and gave Buck its address. Buck said he would have someone "check it out." </t>
-  </si>
-  <si>
-    <t>Buck had no intention of giving Star a franchise. He just wanted her to reveal the location. Based on Star's description it sounded perfect for a JavaManiac outlet, and Buck wanted to take the space himself. </t>
-  </si>
-  <si>
-    <t>Buck went to the location suggested by Star and saw that it was perfect for JavaManiac. He then contacted the owner, Jack. Jack said he already had tentatively promised the lease to someone named Star. Buck said, "I know Star," and held his hand in the air with his thumb out to indicate that Star had a drinking problem. Then Buck looked at Jack very sincerely and said, "I probably shouldn't say this, but I feel I have a duty to tell you that you don't want to lease to someone like Star." </t>
-  </si>
-  <si>
-    <t>Buck reported to Star that the location was unacceptable because it was too small to meet the secret JavaManiac minimum guidelines. </t>
-  </si>
-  <si>
-    <t>Star was very dejected and withdrew her offer to lease the space. Jack was relieved. </t>
-  </si>
-  <si>
-    <t>Three months later Star happened upon the grand opening of the next new JavaManiac franchise at the very location he had suggested. Standing in front were Buck and Jack shaking hands. Star was furious and accused Buck of cheating her. Buck rolled his eyes at Jack and said, "See what I mean?" </t>
-  </si>
-  <si>
-    <t>Then Buck sued Star for slander per se for accusing him of questionable business practices. Star won the suit when the jury found her statements had been true. </t>
-  </si>
-  <si>
-    <t>What are Star's possible actions against Buck? (Do not discuss intentional infliction, defamation or false light.) </t>
-  </si>
-  <si>
-    <t>Solution</t>
-  </si>
-  <si>
-    <t>Star v Buck</t>
-  </si>
-  <si>
-    <t>1. Fraud?</t>
-  </si>
-  <si>
-    <r>
-      <t>Under tort law FRAUD is based on </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t>false representation of fact</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t> by the defendant made </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t>knowingly</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t> with </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t>intent to deceive</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t> that are </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t>reasonably relied</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t> upon by the plaintiff </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t>causing damages</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Here Buck made a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t>statement of fact</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t> when he said a franchise “would be granted” if the location was suitable and that was </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t>false</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t> because he had “no intention” of granting Star a franchise. He</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t> intended to deceive</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t> because he wanted her to reveal the location and Star </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t>reasonably relied</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t> on his representation because she did reveal the location. That caused her </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t>damages</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t> because Buck used the information to convince Jack not to lease the “perfect location” to Star.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Buck also made </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t>false statements</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t> when he told Star the location was “too small for a franchise.” He </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t>intended to deceive</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t> her so she would not go through with her lease plans. And she </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t>reasonably relied</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t> on that statement because she “withdrew” her offer to Jack. That caused her </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t>damages</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t> because she otherwise would have secured the lease.</t>
-    </r>
-  </si>
-  <si>
-    <t>Therefore, Star can prove the elements of fraud and Buck may reliable for the damages she suffered.</t>
-  </si>
-  <si>
-    <t>2. Tortious Interference?</t>
-  </si>
-  <si>
-    <r>
-      <t>Under tort law INTERFERENCE is an </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t>unreasonable interference</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t> with the plaintiffs </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t>known business relationships</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t> causing damages.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Here Buck </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t>interfered</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t> with Star’s business relationship with Jack by suggesting to him that “Star drank” and was a “bad tenant choice.” Buck also interfered by telling Star the space was “too small for a coffee shop”.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Buck did these acts </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t>knowing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t> that he was interfering with the business relationship between Jack and Star because Jack had told him he, “promised the location to Start.” The acts were </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t>unreasonable</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t>because they were intentional false statements intended to damage Star. And they caused Star </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t>damages</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t> because it prevented her from completing the lease agreement with Jack.</t>
-    </r>
-  </si>
-  <si>
-    <t>Therefore, Buck can be liable for tortious interference.</t>
-  </si>
-  <si>
-    <t>3. Abuse of Process?</t>
-  </si>
-  <si>
-    <r>
-      <t>Under tort law ABUSE OF PROCESS is bringing a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t>civil action</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t> against the plaintiff </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t>without</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t>legitimatebasis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t> out of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t>malice</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t> and for an </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t>improper purpose</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="HelveticaNeue"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Here Buck brought a civil action against Star because he “sued Star for slander.” And he had no legitimate basis because all of Star’s statements were true.Buck acted out of malice and for an improper purpose because he was trying to refute Star’s statements and hide the truth.</t>
-  </si>
-  <si>
-    <t>Therefore Buck could be liable for abuse of process.</t>
   </si>
   <si>
     <r>
@@ -5061,202 +3219,63 @@
     <t>Since D agreed to perform the duties of B, D assumed the same liability as B. And since C has the same enforcement rights as A, C's rights and remedies to enforce the contract against D are the same as B.</t>
   </si>
   <si>
-    <t xml:space="preserve">Sample Answer 16-3: Third Parties in a UCC Setting </t>
-  </si>
-  <si>
-    <t>1) UCC?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCC Article 2 governs contracts for the sale of GOODS, movable things at the time of </t>
-  </si>
-  <si>
-    <t>identification to the contract.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here the question involves a sale of a "car" and it is movable because it was to be delivered. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore, the UCC applies here. </t>
-  </si>
-  <si>
-    <t>GROUCHO v. HARPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2) Groucho's rights under a THIRD-PARTY BENEFICIARY CONTRACT? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Under contract law a THIRD-PARTY BENEFICIARY CONTRACT is one with a main purpose of providing a benefit to a third party. The contract can be enforced by the original party, the promisee, or by a vested intended beneficiary. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A beneficiary may be a DONEE (of a gift) or a CREDITOR (payment of a debt) beneficiary. The beneficiary vests upon becoming aware of and changing position in reliance on the contract. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here the purpose of the contract is to benefit Chico because he was to get a "new Dodge" as a "birthday present." Therefore this is a third-party benefit contract. Chico is an intended DONEE beneficiary because it is a "birthday present." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Groucho is the promisee because Harpo promised to "deliver" the car in "two weeks." Harpo is the promisor because he has promised to deliver the car to Chico. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore, this is a third-party beneficiary contract, and Groucho as promisee can enforce it. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3) Groucho's REMEDIES? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Under the PERFECT TENDER RULE of the UCC a non-breaching buyer in a non-delivery situation can demand conforming goods, repudiate the contract or by goods to cover and demand the excess of the cover price over the contract price. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here Harpo has breached because he did not deliver the promised car. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore, Groucho can demand delivery from Harpo or repudiate the contract and demand return of his $2,000. If he covers by buying the car elsewhere he can demand the excess of his cover price, if any, over the contract price. </t>
-  </si>
-  <si>
-    <t>GROUCHO v. SWIFTY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4) Groucho's rights under the DELEGATION contract? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Under contract law a DELEGATION is a second contract conveying the duty of performance under the first contract from the original promisor to a delegatee. The promisor in the first contract retains primary liability to the promisee. The delegatee assumes secondary liability to the promisee of the first contract if she expressly accepts the delegation in exchange for consideration, a bargained for exchange of value creating legal liability. In the delegation contract between the promisor/delegator and the delegatee the original promisee is a CREDITOR third-party beneficiary with standing to enforce the contract. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A delegatee can raise all defenses that are available to the promisee in the original contract. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here there is a delegation contract between Harpo and Swifty supported by consideration because Swifty expressly accepted the duty by saying he "agreed to deliver" in exchange for an “immediate payment of $20,000”. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore, Groucho has standing to enforce Swifty's promise to deliver the car as a creditor third- party beneficiary. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5) Groucho's REMEDIES against Swifty? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A promisee under a contract can enforce the delegation contract as an intended third-party beneficiary in the same way as the original promisee of the delegation agreement (Harpo). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here Groucho's remedies against Swifty are the same as his remedies against Harpo, and Groucho can recover from Swifty any amounts he cannot recover from Harpo. </t>
-  </si>
-  <si>
-    <t>HARPO v. SWIFTY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6) Harpo's rights under the DELEGATION contract? Delegation is defined above. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here the delegation from Harpo to Swifty is a contract between them because Swifty promised "to deliver the car", and it is a legal contract supported by consideration because Swifty received an “immediate payment of $20,000”.Swifty was the promisor and Harpo the promisee. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore, Harpo can enforce his contract with Swifty and seek recovery from Swifty for any damages due Groucho and/or Chico. </t>
+    <t>Promissory Estoppel?</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">NAILING THE BAR – </t>
+      <t>Under the doctrine of Promissory estoppel a party can seek enforcement of an otherwise unenforceable promise where 1) a party </t>
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="TimesNewRoman,Italic"/>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
       </rPr>
-      <t xml:space="preserve">How to Write Contracts &amp; UCC Law School and Bar Exams </t>
+      <t>made a promise</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="TimesNewRoman,Italic"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
       </rPr>
-      <t xml:space="preserve">CHICO v. HARPO </t>
+      <t>, 2) </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">7) Chico's rights as a THIRD-PARTY BENEFICIARY? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Third-party beneficiary contracts are defined above. Chico is an intended third-party beneficiary because the known purpose of the original contract was to give him a "birthday present." He vested when he became aware of the original contract and changed position in reliance. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A vested third-party beneficiary can enforce the contract against the promisor in the same manner as the promisee. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore, Chico can enforce the original contract against Harpo in the same manner and extent as Groucho </t>
-  </si>
-  <si>
-    <t>8) Chico's REMEDIES?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chico's remedies would be the same as Groucho. </t>
-  </si>
-  <si>
-    <t>CHICO v. SWIFTY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9) Chico's rights and remedies against Swifty? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Since Swifty agreed to perform the duties of Harpo, Swifty assumed the same liability as Harpo. And since Chico has the same enforcement rights as Groucho, Chico's rights and remedies to enforce the contract against Swifty are the same as against Harpo. </t>
-  </si>
-  <si>
-    <t>CHICO v. GROUCHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10) Chico's rights and remedies against Groucho? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A donee beneficiary cannot enforce the promise of a gift against the promisee at law and can only enforce at equity based on promissory estoppel. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here Groucho entered into the contract with Harpo to give Chico a GIFT, so Chico was a DONEE beneficiary. While there is no evidence Groucho has breached the contract with Harpo, and even if he did Chico would have no right to enforce the contract against Groucho at law. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore, if Groucho had refused to perform the contract (e.g. had refused to make the car payments) Chico could only plead equity against Groucho based on principals of promissory estoppel. </t>
-  </si>
-  <si>
     <r>
-      <t>[</t>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t>intending to induce reliance</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="TimesNewRoman,Bold"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
       </rPr>
-      <t xml:space="preserve">ANSWER EXPLANATION: </t>
+      <t>, 3) there was </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t>reasonable reliance</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="TimesNewRoman"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
       </rPr>
-      <t xml:space="preserve">The point of this question is that a contract intended to benefit a third party (Chico) can be enforced against the promisor (Harpo) by both the intended beneficiary (Chico) and the promisee (Groucho). Further, a delegation contract supported by consideration (a legally binding contract and not just a gift promise) can be enforced by the delegator (Harpo) against the delegatee (Swifty) and also by the promisee (Groucho) and intended beneficiary (Chico). </t>
+      <t> by the other party and 4) injustice will result if the promise is not enforce.</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">But if the promisee’s effort (Groucho’s effort) to bestow benefit on the beneficiary (Chico) is gratuitous, the donee beneficiary cannot enforce the original contract (Groucho-Harpo contract) against the promisee (Groucho) at law. The donee beneficiary could only plead promissory estoppel or detrimental reliance against the promisee in equity, given evidence to support such a claim. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the contract is for a sale of goods, as is the case here, the UCC also governs the remedies of the parties at law, but the equitable remedies would generally remain the same as at common law. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">You should identify each party as promisee, promisor, delegatee, donee/creditor beneficiary, etc. because that designation determines their RIGHTS and REMEDIES (just as the call of the question asks.) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keeping the parties straight may require drawing a diagram and labeling each party with the various terms.] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harpo made a deal with another dealer, Swifty. Swifty agreed to deliver a Dodge of the type specified on time for Chico's birthday in exchange for an immediate payment of $20,000. </t>
-  </si>
-  <si>
-    <t>Swifty became insolvent, its inventory was seized and it did not deliver the Dodge. Harpo blames Swifty.</t>
-  </si>
-  <si>
-    <t>Chico was upset he didn't get the car he expected.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What are the rights, remedies and defenses of Groucho, Harpo, Chico and Swifty? </t>
   </si>
 </sst>
 </file>
@@ -5337,11 +3356,6 @@
       <name val="TimesNewRoman,Bold"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="TimesNewRoman"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
@@ -5362,6 +3376,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="HelveticaNeue"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5401,7 +3421,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -5411,7 +3431,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5420,7 +3440,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5429,7 +3449,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5732,7 +3752,7 @@
   <dimension ref="I2:K60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="J14" sqref="J14:J153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5744,149 +3764,120 @@
   <sheetData>
     <row r="2" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I2" s="1" t="s">
-        <v>989</v>
+        <v>613</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>988</v>
+        <v>612</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>980</v>
+        <v>604</v>
       </c>
     </row>
     <row r="4" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I4" t="s">
-        <v>990</v>
+        <v>614</v>
       </c>
       <c r="J4" t="s">
-        <v>985</v>
+        <v>609</v>
       </c>
       <c r="K4" t="s">
-        <v>981</v>
+        <v>605</v>
       </c>
     </row>
     <row r="5" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I5" t="s">
-        <v>991</v>
+        <v>615</v>
       </c>
       <c r="J5" t="s">
-        <v>986</v>
+        <v>610</v>
       </c>
       <c r="K5" t="s">
-        <v>982</v>
+        <v>606</v>
       </c>
     </row>
     <row r="6" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I6" t="s">
-        <v>992</v>
+        <v>616</v>
       </c>
       <c r="J6" t="s">
-        <v>987</v>
+        <v>611</v>
       </c>
       <c r="K6" t="s">
-        <v>983</v>
+        <v>607</v>
       </c>
     </row>
     <row r="7" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I7" t="s">
-        <v>994</v>
+        <v>618</v>
       </c>
       <c r="K7" t="s">
-        <v>984</v>
+        <v>608</v>
       </c>
     </row>
     <row r="8" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I8" t="s">
-        <v>993</v>
+        <v>617</v>
       </c>
     </row>
     <row r="14" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="J14" s="1" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="16" spans="9:11" ht="160" x14ac:dyDescent="0.2">
-      <c r="J16" s="16" t="s">
-        <v>996</v>
-      </c>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="16" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="J16" s="16"/>
     </row>
     <row r="17" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="10:10" ht="80" x14ac:dyDescent="0.2">
-      <c r="J18" s="16" t="s">
-        <v>997</v>
-      </c>
+    <row r="18" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J18" s="16"/>
     </row>
     <row r="19" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="10:10" ht="192" x14ac:dyDescent="0.2">
-      <c r="J20" s="16" t="s">
-        <v>998</v>
-      </c>
+    <row r="20" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J20" s="16"/>
     </row>
     <row r="21" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="10:10" ht="64" x14ac:dyDescent="0.2">
-      <c r="J22" s="16" t="s">
-        <v>999</v>
-      </c>
+    <row r="22" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J22" s="16"/>
     </row>
     <row r="23" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="10:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="J24" s="16" t="s">
-        <v>1000</v>
-      </c>
+    <row r="24" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J24" s="16"/>
     </row>
     <row r="25" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="10:10" ht="128" x14ac:dyDescent="0.2">
-      <c r="J26" s="16" t="s">
-        <v>1001</v>
-      </c>
+    <row r="26" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J26" s="16"/>
     </row>
     <row r="27" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="10:10" ht="64" x14ac:dyDescent="0.2">
-      <c r="J28" s="16" t="s">
-        <v>1002</v>
-      </c>
+    <row r="28" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J28" s="16"/>
     </row>
     <row r="29" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="10:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="J30" s="16" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="32" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J32" t="s">
-        <v>1004</v>
-      </c>
+    <row r="30" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J30" s="16"/>
     </row>
     <row r="34" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J34" s="16" t="s">
-        <v>1005</v>
-      </c>
+      <c r="J34" s="16"/>
     </row>
     <row r="35" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J35" s="16" t="s">
-        <v>1006</v>
-      </c>
+      <c r="J35" s="16"/>
     </row>
     <row r="36" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="10:10" ht="80" x14ac:dyDescent="0.2">
-      <c r="J37" s="16" t="s">
-        <v>1007</v>
-      </c>
+    <row r="37" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J37" s="16"/>
     </row>
     <row r="38" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J38" s="2"/>
@@ -5894,92 +3885,68 @@
     <row r="39" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="10:10" ht="176" x14ac:dyDescent="0.2">
-      <c r="J40" s="16" t="s">
-        <v>1008</v>
-      </c>
+    <row r="40" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J40" s="16"/>
     </row>
     <row r="41" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="10:10" ht="128" x14ac:dyDescent="0.2">
-      <c r="J42" s="16" t="s">
-        <v>1009</v>
-      </c>
+    <row r="42" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J42" s="16"/>
     </row>
     <row r="43" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="10:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="J44" s="16" t="s">
-        <v>1010</v>
-      </c>
+    <row r="44" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J44" s="16"/>
     </row>
     <row r="45" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J46" s="16" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="47" spans="10:10" ht="64" x14ac:dyDescent="0.2">
-      <c r="J47" s="16" t="s">
-        <v>1012</v>
-      </c>
+      <c r="J46" s="16"/>
+    </row>
+    <row r="47" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J47" s="16"/>
     </row>
     <row r="48" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="10:10" ht="80" x14ac:dyDescent="0.2">
-      <c r="J49" s="16" t="s">
-        <v>1013</v>
-      </c>
+    <row r="49" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J49" s="16"/>
     </row>
     <row r="50" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="10:10" ht="144" x14ac:dyDescent="0.2">
-      <c r="J51" s="16" t="s">
-        <v>1014</v>
-      </c>
+    <row r="51" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J51" s="16"/>
     </row>
     <row r="52" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="10:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="J53" s="16" t="s">
-        <v>1015</v>
-      </c>
+    <row r="53" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J53" s="16"/>
     </row>
     <row r="54" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J54" s="2"/>
     </row>
     <row r="55" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J55" s="16" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="56" spans="10:10" ht="64" x14ac:dyDescent="0.2">
-      <c r="J56" s="16" t="s">
-        <v>1017</v>
-      </c>
+      <c r="J55" s="16"/>
+    </row>
+    <row r="56" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J56" s="16"/>
     </row>
     <row r="57" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="10:10" ht="112" x14ac:dyDescent="0.2">
-      <c r="J58" s="16" t="s">
-        <v>1018</v>
-      </c>
+    <row r="58" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J58" s="16"/>
     </row>
     <row r="59" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="10:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="J60" s="16" t="s">
-        <v>1019</v>
-      </c>
+    <row r="60" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J60" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5990,7 +3957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
@@ -6005,92 +3972,92 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>568</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>569</v>
+        <v>294</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>570</v>
+        <v>295</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>571</v>
+        <v>296</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>572</v>
+        <v>297</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>573</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>574</v>
+        <v>299</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>575</v>
+        <v>300</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>576</v>
+        <v>301</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>577</v>
+        <v>302</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>578</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>579</v>
+        <v>304</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>580</v>
+        <v>305</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>581</v>
+        <v>306</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>582</v>
+        <v>307</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>583</v>
+        <v>308</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>584</v>
+        <v>309</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>585</v>
+        <v>310</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>586</v>
+        <v>311</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>587</v>
+        <v>312</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>588</v>
+        <v>313</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>977</v>
+        <v>601</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>978</v>
+        <v>602</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>979</v>
+        <v>603</v>
       </c>
     </row>
   </sheetData>
@@ -6102,8 +4069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26:F158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6117,646 +4084,526 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>618</v>
+        <v>343</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>872</v>
+        <v>562</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>619</v>
+        <v>344</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>620</v>
+        <v>345</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>621</v>
+        <v>346</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>622</v>
+        <v>347</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>623</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>873</v>
+        <v>563</v>
       </c>
       <c r="B5" t="s">
-        <v>886</v>
+        <v>576</v>
       </c>
       <c r="C5" t="s">
-        <v>886</v>
+        <v>576</v>
       </c>
       <c r="D5" t="s">
-        <v>965</v>
+        <v>589</v>
       </c>
       <c r="E5" t="s">
-        <v>972</v>
+        <v>596</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>874</v>
+        <v>564</v>
       </c>
       <c r="B6" t="s">
-        <v>887</v>
+        <v>577</v>
       </c>
       <c r="C6" t="s">
-        <v>892</v>
+        <v>582</v>
       </c>
       <c r="D6" t="s">
-        <v>966</v>
+        <v>590</v>
       </c>
       <c r="E6" t="s">
-        <v>973</v>
+        <v>597</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>875</v>
+        <v>565</v>
       </c>
       <c r="B7" t="s">
-        <v>888</v>
+        <v>578</v>
       </c>
       <c r="C7" t="s">
-        <v>893</v>
+        <v>583</v>
       </c>
       <c r="D7" t="s">
-        <v>967</v>
+        <v>591</v>
       </c>
       <c r="E7" t="s">
-        <v>974</v>
+        <v>598</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>876</v>
+        <v>566</v>
       </c>
       <c r="B8" t="s">
-        <v>889</v>
+        <v>579</v>
       </c>
       <c r="C8" t="s">
-        <v>894</v>
+        <v>584</v>
       </c>
       <c r="D8" t="s">
-        <v>968</v>
+        <v>592</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>877</v>
+        <v>567</v>
       </c>
       <c r="C9" t="s">
-        <v>895</v>
+        <v>585</v>
       </c>
       <c r="E9" t="s">
-        <v>975</v>
+        <v>599</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>878</v>
+        <v>568</v>
       </c>
       <c r="B10" t="s">
-        <v>890</v>
+        <v>580</v>
       </c>
       <c r="C10" t="s">
-        <v>896</v>
+        <v>586</v>
       </c>
       <c r="D10" t="s">
-        <v>969</v>
+        <v>593</v>
       </c>
       <c r="E10" t="s">
-        <v>976</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>891</v>
+        <v>581</v>
       </c>
       <c r="D11" t="s">
-        <v>970</v>
+        <v>594</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>897</v>
+        <v>587</v>
       </c>
       <c r="D12" t="s">
-        <v>971</v>
+        <v>595</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>879</v>
+        <v>569</v>
       </c>
       <c r="C13" t="s">
-        <v>898</v>
+        <v>588</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>880</v>
+        <v>570</v>
       </c>
       <c r="C14" t="s">
-        <v>890</v>
+        <v>580</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>881</v>
+        <v>571</v>
       </c>
       <c r="C15" t="s">
-        <v>891</v>
+        <v>581</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>882</v>
+        <v>572</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>883</v>
+        <v>573</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>884</v>
+        <v>574</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>885</v>
+        <v>575</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F26" s="10" t="s">
-        <v>503</v>
-      </c>
+      <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="F28" s="9" t="s">
-        <v>899</v>
-      </c>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="F30" s="9" t="s">
-        <v>900</v>
-      </c>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="F32" s="9" t="s">
-        <v>901</v>
-      </c>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F32" s="9"/>
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F34" s="9" t="s">
-        <v>902</v>
-      </c>
+      <c r="F34" s="9"/>
     </row>
     <row r="35" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="6:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="F36" s="9" t="s">
-        <v>903</v>
-      </c>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F36" s="9"/>
     </row>
     <row r="37" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="6:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="F38" s="9" t="s">
-        <v>904</v>
-      </c>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F38" s="9"/>
     </row>
     <row r="39" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="6:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="F40" s="9" t="s">
-        <v>905</v>
-      </c>
+    <row r="40" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F40" s="9"/>
     </row>
     <row r="41" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="6:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="F42" s="9" t="s">
-        <v>906</v>
-      </c>
+    <row r="42" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F42" s="9"/>
     </row>
     <row r="46" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F46" s="10" t="s">
-        <v>914</v>
-      </c>
+      <c r="F46" s="10"/>
     </row>
     <row r="47" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F48" s="11" t="s">
-        <v>915</v>
-      </c>
+      <c r="F48" s="11"/>
     </row>
     <row r="49" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="6:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="F50" s="11" t="s">
-        <v>916</v>
-      </c>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F50" s="11"/>
     </row>
     <row r="51" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F52" s="11" t="s">
-        <v>917</v>
-      </c>
+      <c r="F52" s="11"/>
     </row>
     <row r="53" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="6:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="F54" s="11" t="s">
-        <v>918</v>
-      </c>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F54" s="11"/>
     </row>
     <row r="55" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="6:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="F56" s="11" t="s">
-        <v>919</v>
-      </c>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F56" s="11"/>
     </row>
     <row r="57" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="6:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="F58" s="11" t="s">
-        <v>920</v>
-      </c>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F58" s="11"/>
     </row>
     <row r="59" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="6:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="F60" s="11" t="s">
-        <v>921</v>
-      </c>
+    <row r="60" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F60" s="11"/>
     </row>
     <row r="61" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="6:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="F62" s="11" t="s">
-        <v>922</v>
-      </c>
+    <row r="62" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F62" s="11"/>
     </row>
     <row r="63" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F64" s="11" t="s">
-        <v>923</v>
-      </c>
+      <c r="F64" s="11"/>
     </row>
     <row r="65" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F66" s="11" t="s">
-        <v>924</v>
-      </c>
+      <c r="F66" s="11"/>
     </row>
     <row r="67" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="6:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="F68" s="11" t="s">
-        <v>925</v>
-      </c>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F68" s="11"/>
     </row>
     <row r="69" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="6:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="F70" s="11" t="s">
-        <v>926</v>
-      </c>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F70" s="11"/>
     </row>
     <row r="71" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F72" s="11" t="s">
-        <v>927</v>
-      </c>
+      <c r="F72" s="11"/>
     </row>
     <row r="73" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F74" s="11" t="s">
-        <v>928</v>
-      </c>
+      <c r="F74" s="11"/>
     </row>
     <row r="75" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="6:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="F76" s="11" t="s">
-        <v>929</v>
-      </c>
+    <row r="76" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F76" s="11"/>
     </row>
     <row r="77" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="6:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="F78" s="11" t="s">
-        <v>930</v>
-      </c>
+    <row r="78" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F78" s="11"/>
     </row>
     <row r="79" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F80" s="11" t="s">
-        <v>931</v>
-      </c>
+      <c r="F80" s="11"/>
     </row>
     <row r="81" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="6:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="F82" s="11" t="s">
-        <v>932</v>
-      </c>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F82" s="11"/>
     </row>
     <row r="83" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="6:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="F84" s="11" t="s">
-        <v>933</v>
-      </c>
+    <row r="84" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F84" s="11"/>
     </row>
     <row r="85" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="6:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="F86" s="11" t="s">
-        <v>934</v>
-      </c>
+    <row r="86" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F86" s="11"/>
     </row>
     <row r="87" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F87" s="2"/>
     </row>
     <row r="88" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F88" s="11" t="s">
-        <v>935</v>
-      </c>
+      <c r="F88" s="11"/>
     </row>
     <row r="89" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="6:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="F90" s="11" t="s">
-        <v>936</v>
-      </c>
+    <row r="90" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F90" s="11"/>
     </row>
     <row r="91" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="6:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="F92" s="11" t="s">
-        <v>937</v>
-      </c>
+    <row r="92" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F92" s="11"/>
     </row>
     <row r="93" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F93" s="2"/>
     </row>
     <row r="94" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F94" s="11" t="s">
-        <v>938</v>
-      </c>
+      <c r="F94" s="11"/>
     </row>
     <row r="95" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F95" s="2"/>
     </row>
     <row r="96" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F96" s="11" t="s">
-        <v>939</v>
-      </c>
+      <c r="F96" s="11"/>
     </row>
     <row r="97" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F97" s="2"/>
     </row>
     <row r="98" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F98" s="11" t="s">
-        <v>940</v>
-      </c>
+      <c r="F98" s="11"/>
     </row>
     <row r="99" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F99" s="2"/>
     </row>
     <row r="100" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F100" s="11" t="s">
-        <v>941</v>
-      </c>
+      <c r="F100" s="11"/>
     </row>
     <row r="101" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="6:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="F102" s="11" t="s">
-        <v>942</v>
-      </c>
+    <row r="102" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F102" s="11"/>
     </row>
     <row r="103" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F103" s="2"/>
     </row>
     <row r="104" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F104" s="11" t="s">
-        <v>943</v>
-      </c>
+      <c r="F104" s="11"/>
     </row>
     <row r="105" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F105" s="2"/>
     </row>
-    <row r="106" spans="6:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="F106" s="11" t="s">
-        <v>944</v>
-      </c>
+    <row r="106" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F106" s="11"/>
     </row>
     <row r="107" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F107" s="2"/>
     </row>
     <row r="108" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F108" s="11" t="s">
-        <v>945</v>
-      </c>
+      <c r="F108" s="11"/>
     </row>
     <row r="109" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F109" s="2"/>
     </row>
     <row r="110" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F110" s="11" t="s">
-        <v>946</v>
-      </c>
+      <c r="F110" s="11"/>
     </row>
     <row r="111" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F111" s="11" t="s">
-        <v>947</v>
-      </c>
+      <c r="F111" s="11"/>
     </row>
     <row r="112" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F112" s="2"/>
     </row>
     <row r="113" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F113" s="11" t="s">
-        <v>948</v>
-      </c>
+      <c r="F113" s="11"/>
     </row>
     <row r="114" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F114" s="11" t="s">
-        <v>949</v>
-      </c>
+      <c r="F114" s="11"/>
     </row>
     <row r="115" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F115" s="2"/>
     </row>
-    <row r="116" spans="6:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="F116" s="11" t="s">
-        <v>950</v>
-      </c>
+    <row r="116" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F116" s="11"/>
     </row>
     <row r="117" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F117" s="2"/>
     </row>
     <row r="118" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F118" s="11" t="s">
-        <v>951</v>
-      </c>
+      <c r="F118" s="11"/>
     </row>
     <row r="119" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F119" s="2"/>
     </row>
     <row r="120" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F120" s="11" t="s">
-        <v>952</v>
-      </c>
+      <c r="F120" s="11"/>
     </row>
     <row r="121" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F121" s="2"/>
     </row>
-    <row r="122" spans="6:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="F122" s="11" t="s">
-        <v>953</v>
-      </c>
+    <row r="122" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F122" s="11"/>
     </row>
     <row r="123" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F123" s="2"/>
     </row>
     <row r="124" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F124" s="11" t="s">
-        <v>954</v>
-      </c>
+      <c r="F124" s="11"/>
     </row>
     <row r="125" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F125" s="2"/>
     </row>
     <row r="126" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F126" s="11" t="s">
-        <v>955</v>
-      </c>
+      <c r="F126" s="11"/>
     </row>
     <row r="127" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F127" s="2"/>
     </row>
-    <row r="128" spans="6:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="F128" s="11" t="s">
-        <v>956</v>
-      </c>
+    <row r="128" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F128" s="11"/>
     </row>
     <row r="129" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F129" s="2"/>
     </row>
     <row r="130" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F130" s="11" t="s">
-        <v>957</v>
-      </c>
+      <c r="F130" s="11"/>
     </row>
     <row r="131" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F131" s="2"/>
     </row>
     <row r="132" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F132" s="11" t="s">
-        <v>958</v>
-      </c>
+      <c r="F132" s="11"/>
     </row>
     <row r="133" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F133" s="11" t="s">
-        <v>959</v>
-      </c>
+      <c r="F133" s="11"/>
     </row>
     <row r="134" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F134" s="2"/>
     </row>
-    <row r="135" spans="6:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="F135" s="9" t="s">
-        <v>960</v>
-      </c>
+    <row r="135" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F135" s="9"/>
     </row>
     <row r="136" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F136" s="2"/>
     </row>
-    <row r="137" spans="6:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="F137" s="9" t="s">
-        <v>961</v>
-      </c>
+    <row r="137" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F137" s="9"/>
     </row>
     <row r="138" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F138" s="2"/>
     </row>
-    <row r="139" spans="6:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="F139" s="9" t="s">
-        <v>962</v>
-      </c>
+    <row r="139" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F139" s="9"/>
     </row>
     <row r="140" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F140" s="2"/>
     </row>
-    <row r="141" spans="6:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="F141" s="9" t="s">
-        <v>963</v>
-      </c>
+    <row r="141" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F141" s="9"/>
     </row>
     <row r="142" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F142" s="2"/>
     </row>
-    <row r="143" spans="6:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="F143" s="9" t="s">
-        <v>964</v>
-      </c>
+    <row r="143" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F143" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6767,8 +4614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16:F189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6785,13 +4632,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>624</v>
+        <v>349</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>625</v>
+        <v>350</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>626</v>
+        <v>351</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>89</v>
@@ -6871,13 +4718,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>627</v>
+        <v>352</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>628</v>
+        <v>353</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>629</v>
+        <v>354</v>
       </c>
       <c r="F12" t="s">
         <v>103</v>
@@ -6904,7 +4751,7 @@
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="B16" t="s">
         <v>106</v>
@@ -6912,9 +4759,7 @@
       <c r="C16" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>113</v>
-      </c>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
@@ -6923,252 +4768,178 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="C18" t="s">
         <v>111</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>114</v>
-      </c>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="4" t="s">
-        <v>116</v>
-      </c>
+      <c r="F22" s="4"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>117</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="F24" s="4"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>156</v>
-      </c>
-      <c r="F26" s="4" t="s">
         <v>118</v>
       </c>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="4" t="s">
-        <v>119</v>
-      </c>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F30" s="4" t="s">
-        <v>120</v>
-      </c>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>121</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" spans="2:6" ht="144" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F34" s="4" t="s">
-        <v>122</v>
-      </c>
+      <c r="F34" s="4"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F36" s="4" t="s">
         <v>123</v>
       </c>
+      <c r="F36" s="4"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F38" s="4" t="s">
         <v>124</v>
       </c>
+      <c r="F38" s="4"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F40" s="4" t="s">
-        <v>125</v>
-      </c>
+      <c r="F40" s="4"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F42" s="4" t="s">
-        <v>127</v>
-      </c>
+      <c r="F42" s="4"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F43" s="4" t="s">
-        <v>128</v>
-      </c>
+      <c r="F43" s="4"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F45" s="4" t="s">
-        <v>129</v>
-      </c>
+      <c r="F45" s="4"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F47" s="4" t="s">
-        <v>130</v>
-      </c>
+      <c r="F47" s="4"/>
     </row>
     <row r="49" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F49" s="4" t="s">
-        <v>131</v>
-      </c>
+      <c r="F49" s="4"/>
     </row>
     <row r="51" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F51" s="4" t="s">
-        <v>132</v>
-      </c>
+      <c r="F51" s="4"/>
     </row>
     <row r="53" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F53" s="4" t="s">
-        <v>133</v>
-      </c>
+      <c r="F53" s="4"/>
     </row>
     <row r="55" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F55" s="4" t="s">
-        <v>134</v>
-      </c>
+      <c r="F55" s="4"/>
     </row>
     <row r="57" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F57" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="F57" s="4"/>
     </row>
     <row r="59" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F59" s="4" t="s">
-        <v>136</v>
-      </c>
+      <c r="F59" s="4"/>
     </row>
     <row r="61" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F61" s="4" t="s">
-        <v>137</v>
-      </c>
+      <c r="F61" s="4"/>
     </row>
     <row r="63" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F63" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="F63" s="4"/>
     </row>
     <row r="65" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F65" s="4" t="s">
-        <v>139</v>
-      </c>
+      <c r="F65" s="4"/>
     </row>
     <row r="67" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F67" s="4" t="s">
-        <v>140</v>
-      </c>
+      <c r="F67" s="4"/>
     </row>
     <row r="69" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F69" s="4" t="s">
-        <v>141</v>
-      </c>
+      <c r="F69" s="4"/>
     </row>
     <row r="71" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F71" s="4" t="s">
-        <v>142</v>
-      </c>
+      <c r="F71" s="4"/>
     </row>
     <row r="73" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F73" s="4" t="s">
-        <v>143</v>
-      </c>
+      <c r="F73" s="4"/>
     </row>
     <row r="75" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F75" s="4" t="s">
-        <v>144</v>
-      </c>
+      <c r="F75" s="4"/>
     </row>
     <row r="77" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F77" s="4" t="s">
-        <v>145</v>
-      </c>
+      <c r="F77" s="4"/>
     </row>
     <row r="79" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F79" s="4" t="s">
-        <v>146</v>
-      </c>
+      <c r="F79" s="4"/>
     </row>
     <row r="81" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F81" s="4" t="s">
-        <v>147</v>
-      </c>
+      <c r="F81" s="4"/>
     </row>
     <row r="83" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F83" s="5" t="s">
-        <v>148</v>
-      </c>
+      <c r="F83" s="5"/>
     </row>
     <row r="85" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F85" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="F85" s="5"/>
     </row>
     <row r="87" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F87" s="5" t="s">
-        <v>150</v>
-      </c>
+      <c r="F87" s="5"/>
     </row>
     <row r="89" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F89" s="5" t="s">
-        <v>151</v>
-      </c>
+      <c r="F89" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7180,8 +4951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="B29" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21:D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7276,65 +5047,49 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="D21" s="10" t="s">
-        <v>520</v>
-      </c>
+      <c r="D21" s="10"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="D23" s="9" t="s">
-        <v>907</v>
-      </c>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="D25" s="9" t="s">
-        <v>908</v>
-      </c>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" ht="80" x14ac:dyDescent="0.2">
-      <c r="D27" s="9" t="s">
-        <v>909</v>
-      </c>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="D29" s="9" t="s">
-        <v>910</v>
-      </c>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="D31" s="9" t="s">
-        <v>911</v>
-      </c>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D31" s="9"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="4:4" ht="80" x14ac:dyDescent="0.2">
-      <c r="D33" s="9" t="s">
-        <v>912</v>
-      </c>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D35" s="9" t="s">
-        <v>913</v>
-      </c>
+      <c r="D35" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7345,8 +5100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7359,15 +5114,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>666</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>667</v>
+        <v>358</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>668</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -7380,340 +5135,268 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>669</v>
+        <v>360</v>
       </c>
       <c r="B6" t="s">
-        <v>669</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>670</v>
+        <v>361</v>
       </c>
       <c r="B7" t="s">
-        <v>670</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>672</v>
+        <v>363</v>
       </c>
       <c r="B8" t="s">
-        <v>671</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>673</v>
+        <v>364</v>
       </c>
       <c r="C11" t="s">
-        <v>686</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>674</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>675</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>676</v>
+        <v>367</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>681</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>677</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>678</v>
+        <v>369</v>
       </c>
       <c r="B17" t="s">
-        <v>682</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>679</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>683</v>
+        <v>374</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>680</v>
+        <v>371</v>
       </c>
       <c r="B20" t="s">
-        <v>685</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>684</v>
+        <v>375</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="C27" s="10" t="s">
-        <v>871</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>637</v>
-      </c>
+      <c r="C27" s="10"/>
+      <c r="E27" s="10"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C28" s="2"/>
-      <c r="E28" s="11" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="C29" s="9" t="s">
-        <v>632</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>639</v>
-      </c>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C29" s="9"/>
+      <c r="E29" s="11"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="C31" s="9" t="s">
-        <v>633</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>640</v>
-      </c>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C31" s="9"/>
+      <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C32" s="2"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="3:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="C33" s="9" t="s">
-        <v>634</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>641</v>
-      </c>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C33" s="9"/>
+      <c r="E33" s="11"/>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="3:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="C35" s="9" t="s">
-        <v>635</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>642</v>
-      </c>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C35" s="9"/>
+      <c r="E35" s="11"/>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="3:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="C37" s="9" t="s">
-        <v>636</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>643</v>
-      </c>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C37" s="9"/>
+      <c r="E37" s="11"/>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="3:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="E39" s="11" t="s">
-        <v>644</v>
-      </c>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E39" s="11"/>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="3:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="E41" s="11" t="s">
-        <v>645</v>
-      </c>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E41" s="11"/>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="3:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="E43" s="11" t="s">
-        <v>646</v>
-      </c>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E43" s="11"/>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E45" s="11" t="s">
-        <v>647</v>
-      </c>
+      <c r="E45" s="11"/>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="3:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="E47" s="11" t="s">
-        <v>648</v>
-      </c>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E47" s="11"/>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="5:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="E49" s="11" t="s">
-        <v>649</v>
-      </c>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E49" s="11"/>
     </row>
     <row r="50" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="5:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="E51" s="11" t="s">
-        <v>650</v>
-      </c>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E51" s="11"/>
     </row>
     <row r="52" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E52" s="2"/>
     </row>
     <row r="53" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E53" s="9">
-        <v>80</v>
-      </c>
+      <c r="E53" s="9"/>
     </row>
     <row r="54" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="5:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="E55" s="11" t="s">
-        <v>651</v>
-      </c>
+    <row r="55" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E55" s="11"/>
     </row>
     <row r="56" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="5:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="E57" s="11" t="s">
-        <v>652</v>
-      </c>
+    <row r="57" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E57" s="11"/>
     </row>
     <row r="58" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E58" s="2"/>
     </row>
     <row r="59" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E59" s="11" t="s">
-        <v>653</v>
-      </c>
+      <c r="E59" s="11"/>
     </row>
     <row r="60" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="5:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="E61" s="11" t="s">
-        <v>654</v>
-      </c>
+    <row r="61" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E61" s="11"/>
     </row>
     <row r="62" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="5:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="E63" s="11" t="s">
-        <v>655</v>
-      </c>
+    <row r="63" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E63" s="11"/>
     </row>
     <row r="64" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E64" s="2"/>
     </row>
-    <row r="65" spans="5:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="E65" s="11" t="s">
-        <v>656</v>
-      </c>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E65" s="11"/>
     </row>
     <row r="66" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E66" s="2"/>
     </row>
-    <row r="67" spans="5:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="E67" s="11" t="s">
-        <v>657</v>
-      </c>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E67" s="11"/>
     </row>
     <row r="68" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E68" s="2"/>
     </row>
     <row r="69" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E69" s="11" t="s">
-        <v>658</v>
-      </c>
+      <c r="E69" s="11"/>
     </row>
     <row r="70" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E70" s="2"/>
     </row>
-    <row r="71" spans="5:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="E71" s="11" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="72" spans="5:5" ht="128" x14ac:dyDescent="0.2">
-      <c r="E72" s="11" t="s">
-        <v>660</v>
-      </c>
+    <row r="71" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E71" s="11"/>
+    </row>
+    <row r="72" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E72" s="11"/>
     </row>
     <row r="73" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="5:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="E74" s="11" t="s">
-        <v>661</v>
-      </c>
+    <row r="74" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E74" s="11"/>
     </row>
     <row r="75" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="5:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="E76" s="11" t="s">
-        <v>662</v>
-      </c>
+    <row r="76" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E76" s="11"/>
     </row>
     <row r="77" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="5:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="E78" s="9" t="s">
-        <v>663</v>
-      </c>
+    <row r="78" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E78" s="9"/>
     </row>
     <row r="79" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="5:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="E80" s="9" t="s">
-        <v>664</v>
-      </c>
+    <row r="80" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E80" s="9"/>
     </row>
     <row r="81" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E81" s="2"/>
     </row>
-    <row r="82" spans="5:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="E82" s="9" t="s">
-        <v>665</v>
-      </c>
+    <row r="82" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E82" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7725,8 +5408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView view="pageLayout" topLeftCell="I14" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28:K112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7741,526 +5424,429 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>534</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>535</v>
+        <v>260</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>536</v>
+        <v>261</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>537</v>
+        <v>262</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>559</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>706</v>
+        <v>397</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>729</v>
+        <v>420</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>538</v>
+        <v>263</v>
       </c>
       <c r="B6" t="s">
-        <v>544</v>
+        <v>269</v>
       </c>
       <c r="C6" t="s">
-        <v>557</v>
+        <v>282</v>
       </c>
       <c r="D6" t="s">
-        <v>560</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="B7" t="s">
-        <v>545</v>
+        <v>270</v>
       </c>
       <c r="C7" t="s">
-        <v>558</v>
+        <v>283</v>
       </c>
       <c r="E7" t="s">
-        <v>561</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>540</v>
+        <v>265</v>
       </c>
       <c r="B8" t="s">
-        <v>546</v>
+        <v>271</v>
       </c>
       <c r="D8" t="s">
-        <v>562</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
-        <v>563</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>541</v>
+        <v>266</v>
       </c>
       <c r="B10" t="s">
-        <v>547</v>
+        <v>272</v>
       </c>
       <c r="D10" t="s">
-        <v>564</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
-        <v>566</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>542</v>
+        <v>267</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>555</v>
+        <v>280</v>
       </c>
       <c r="D12" t="s">
-        <v>565</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>543</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>548</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>549</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>550</v>
+        <v>275</v>
       </c>
       <c r="D16" t="s">
-        <v>567</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>551</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>552</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>553</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>554</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>556</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="I28" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>387</v>
-      </c>
+      <c r="I28" s="10"/>
+      <c r="K28" s="10"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="I29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="2:11" ht="48" x14ac:dyDescent="0.2">
-      <c r="I30" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>388</v>
-      </c>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="I30" s="9"/>
+      <c r="K30" s="11"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="I31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="2:11" ht="80" x14ac:dyDescent="0.2">
-      <c r="I32" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="K32" s="11" t="s">
-        <v>389</v>
-      </c>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="I32" s="9"/>
+      <c r="K32" s="11"/>
     </row>
     <row r="33" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="9:11" ht="80" x14ac:dyDescent="0.2">
-      <c r="I34" s="9" t="s">
-        <v>496</v>
-      </c>
-      <c r="K34" s="11" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="35" spans="9:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="I35" s="9" t="s">
-        <v>497</v>
-      </c>
+    <row r="34" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I34" s="9"/>
+      <c r="K34" s="11"/>
+    </row>
+    <row r="35" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I35" s="9"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="9:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="36" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I36" s="2"/>
-      <c r="K36" s="11" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="37" spans="9:11" ht="64" x14ac:dyDescent="0.2">
-      <c r="I37" s="9" t="s">
-        <v>498</v>
-      </c>
+      <c r="K36" s="11"/>
+    </row>
+    <row r="37" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I37" s="9"/>
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I38" s="2"/>
-      <c r="K38" s="11" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="39" spans="9:11" ht="64" x14ac:dyDescent="0.2">
-      <c r="I39" s="9" t="s">
-        <v>499</v>
-      </c>
+      <c r="K38" s="11"/>
+    </row>
+    <row r="39" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I39" s="9"/>
       <c r="K39" s="2"/>
     </row>
     <row r="40" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I40" s="2"/>
-      <c r="K40" s="11" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="41" spans="9:11" ht="48" x14ac:dyDescent="0.2">
-      <c r="I41" s="9" t="s">
-        <v>500</v>
-      </c>
+      <c r="K40" s="11"/>
+    </row>
+    <row r="41" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I41" s="9"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="9:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="42" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I42" s="2"/>
-      <c r="K42" s="11" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="43" spans="9:11" ht="64" x14ac:dyDescent="0.2">
-      <c r="I43" s="9" t="s">
-        <v>501</v>
-      </c>
+      <c r="K42" s="11"/>
+    </row>
+    <row r="43" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I43" s="9"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="9:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="44" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I44" s="2"/>
-      <c r="K44" s="11" t="s">
-        <v>395</v>
-      </c>
+      <c r="K44" s="11"/>
     </row>
     <row r="45" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I45" s="9" t="s">
-        <v>502</v>
-      </c>
+      <c r="I45" s="9"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="9:11" ht="48" x14ac:dyDescent="0.2">
-      <c r="K46" s="11" t="s">
-        <v>396</v>
-      </c>
+    <row r="46" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="11"/>
     </row>
     <row r="47" spans="9:11" x14ac:dyDescent="0.2">
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="9:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="K48" s="11" t="s">
-        <v>397</v>
-      </c>
+    <row r="48" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="11"/>
     </row>
     <row r="49" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K49" s="2"/>
     </row>
     <row r="50" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K50" s="11" t="s">
-        <v>398</v>
-      </c>
+      <c r="K50" s="11"/>
     </row>
     <row r="51" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K51" s="2"/>
     </row>
-    <row r="52" spans="11:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="K52" s="11" t="s">
-        <v>399</v>
-      </c>
+    <row r="52" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="11"/>
     </row>
     <row r="53" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K53" s="2"/>
     </row>
-    <row r="54" spans="11:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="K54" s="11" t="s">
-        <v>400</v>
-      </c>
+    <row r="54" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="11"/>
     </row>
     <row r="55" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K55" s="2"/>
     </row>
     <row r="56" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K56" s="13">
-        <v>70</v>
-      </c>
+      <c r="K56" s="13"/>
     </row>
     <row r="57" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K57" s="2"/>
     </row>
     <row r="58" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K58" s="11" t="s">
-        <v>401</v>
-      </c>
+      <c r="K58" s="11"/>
     </row>
     <row r="59" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K59" s="2"/>
     </row>
     <row r="60" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K60" s="14" t="s">
-        <v>126</v>
-      </c>
+      <c r="K60" s="14"/>
     </row>
     <row r="61" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K61" s="2"/>
     </row>
-    <row r="62" spans="11:11" ht="48" x14ac:dyDescent="0.2">
-      <c r="K62" s="11" t="s">
-        <v>402</v>
-      </c>
+    <row r="62" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="11"/>
     </row>
     <row r="63" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K63" s="2"/>
     </row>
-    <row r="64" spans="11:11" ht="64" x14ac:dyDescent="0.2">
-      <c r="K64" s="11" t="s">
-        <v>403</v>
-      </c>
+    <row r="64" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="11"/>
     </row>
     <row r="65" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K65" s="2"/>
     </row>
-    <row r="66" spans="11:11" ht="48" x14ac:dyDescent="0.2">
-      <c r="K66" s="11" t="s">
-        <v>404</v>
-      </c>
+    <row r="66" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="11"/>
     </row>
     <row r="67" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K67" s="2"/>
     </row>
     <row r="68" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K68" s="11" t="s">
-        <v>405</v>
-      </c>
+      <c r="K68" s="11"/>
     </row>
     <row r="69" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K69" s="2"/>
     </row>
     <row r="70" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K70" s="11" t="s">
-        <v>406</v>
-      </c>
+      <c r="K70" s="11"/>
     </row>
     <row r="71" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K71" s="2"/>
     </row>
-    <row r="72" spans="11:11" ht="128" x14ac:dyDescent="0.2">
-      <c r="K72" s="11" t="s">
-        <v>407</v>
-      </c>
+    <row r="72" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="11"/>
     </row>
     <row r="73" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K73" s="2"/>
     </row>
-    <row r="74" spans="11:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="K74" s="11" t="s">
-        <v>408</v>
-      </c>
+    <row r="74" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="11"/>
     </row>
     <row r="75" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K75" s="2"/>
     </row>
-    <row r="76" spans="11:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="K76" s="11" t="s">
-        <v>409</v>
-      </c>
+    <row r="76" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="11"/>
     </row>
     <row r="77" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K77" s="2"/>
     </row>
-    <row r="78" spans="11:11" ht="96" x14ac:dyDescent="0.2">
-      <c r="K78" s="11" t="s">
-        <v>410</v>
-      </c>
+    <row r="78" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K78" s="11"/>
     </row>
     <row r="79" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K79" s="2"/>
     </row>
-    <row r="80" spans="11:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="K80" s="11" t="s">
-        <v>411</v>
-      </c>
+    <row r="80" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="11"/>
     </row>
     <row r="81" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K81" s="2"/>
     </row>
     <row r="82" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K82" s="11" t="s">
-        <v>412</v>
-      </c>
+      <c r="K82" s="11"/>
     </row>
     <row r="83" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K83" s="2"/>
     </row>
     <row r="84" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K84" s="13">
-        <v>71</v>
-      </c>
+      <c r="K84" s="13"/>
     </row>
     <row r="85" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K85" s="2"/>
     </row>
     <row r="86" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K86" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="87" spans="11:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="K87" s="11" t="s">
-        <v>413</v>
-      </c>
+      <c r="K86" s="12"/>
+    </row>
+    <row r="87" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="11"/>
     </row>
     <row r="88" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K88" s="2"/>
     </row>
     <row r="89" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K89" s="11" t="s">
-        <v>414</v>
-      </c>
+      <c r="K89" s="11"/>
     </row>
     <row r="90" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K90" s="2"/>
     </row>
-    <row r="91" spans="11:11" ht="64" x14ac:dyDescent="0.2">
-      <c r="K91" s="11" t="s">
-        <v>415</v>
-      </c>
+    <row r="91" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="11"/>
     </row>
     <row r="92" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K92" s="2"/>
     </row>
-    <row r="93" spans="11:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="K93" s="11" t="s">
-        <v>416</v>
-      </c>
+    <row r="93" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="11"/>
     </row>
     <row r="94" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K94" s="2"/>
     </row>
     <row r="95" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K95" s="11" t="s">
-        <v>417</v>
-      </c>
+      <c r="K95" s="11"/>
     </row>
     <row r="96" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K96" s="2"/>
     </row>
     <row r="97" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K97" s="11" t="s">
-        <v>418</v>
-      </c>
+      <c r="K97" s="11"/>
     </row>
     <row r="98" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K98" s="2"/>
     </row>
-    <row r="99" spans="11:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="K99" s="11" t="s">
-        <v>419</v>
-      </c>
+    <row r="99" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="11"/>
     </row>
     <row r="100" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K100" s="2"/>
     </row>
-    <row r="101" spans="11:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="K101" s="11" t="s">
-        <v>420</v>
-      </c>
+    <row r="101" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="11"/>
     </row>
     <row r="102" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K102" s="2"/>
     </row>
     <row r="103" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K103" s="11" t="s">
-        <v>421</v>
-      </c>
+      <c r="K103" s="11"/>
     </row>
     <row r="104" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K104" s="2"/>
     </row>
-    <row r="105" spans="11:11" ht="96" x14ac:dyDescent="0.2">
-      <c r="K105" s="9" t="s">
-        <v>422</v>
-      </c>
+    <row r="105" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K105" s="9"/>
     </row>
     <row r="106" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K106" s="2"/>
     </row>
-    <row r="107" spans="11:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="K107" s="9" t="s">
-        <v>423</v>
-      </c>
+    <row r="107" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K107" s="9"/>
     </row>
     <row r="108" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K108" s="2"/>
     </row>
-    <row r="109" spans="11:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="K109" s="9" t="s">
-        <v>424</v>
-      </c>
+    <row r="109" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K109" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="1" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8268,8 +5854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E305"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="101" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A26" zoomScale="101" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:C314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8283,547 +5869,459 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>687</v>
+        <v>378</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>688</v>
+        <v>379</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>689</v>
+        <v>380</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>690</v>
+        <v>381</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>691</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="B5" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="C5" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="B7" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="C7" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="B8" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="C14" s="2" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C16" s="1" t="s">
-        <v>258</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>692</v>
+        <v>383</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>693</v>
+        <v>384</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>694</v>
+        <v>385</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>695</v>
+        <v>386</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>714</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="B21" t="s">
-        <v>696</v>
+        <v>387</v>
       </c>
       <c r="C21" t="s">
-        <v>700</v>
+        <v>391</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>707</v>
+        <v>398</v>
       </c>
       <c r="E21" t="s">
-        <v>715</v>
+        <v>406</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="B22" t="s">
-        <v>697</v>
+        <v>388</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>701</v>
+        <v>392</v>
       </c>
       <c r="D22" t="s">
-        <v>708</v>
+        <v>399</v>
       </c>
       <c r="E22" t="s">
-        <v>716</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="B23" t="s">
-        <v>698</v>
+        <v>389</v>
       </c>
       <c r="C23" t="s">
-        <v>702</v>
+        <v>393</v>
       </c>
       <c r="D23" t="s">
-        <v>709</v>
+        <v>400</v>
       </c>
       <c r="E23" t="s">
-        <v>717</v>
+        <v>408</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>699</v>
+        <v>390</v>
       </c>
       <c r="C24" t="s">
-        <v>703</v>
+        <v>394</v>
       </c>
       <c r="D24" t="s">
-        <v>710</v>
+        <v>401</v>
       </c>
       <c r="E24" t="s">
-        <v>718</v>
+        <v>409</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="D25" t="s">
-        <v>711</v>
+        <v>402</v>
       </c>
       <c r="E25" t="s">
-        <v>719</v>
+        <v>410</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="C26" t="s">
-        <v>704</v>
+        <v>395</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>713</v>
+        <v>404</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="C28" s="2" t="s">
-        <v>705</v>
+        <v>396</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>712</v>
+        <v>403</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" s="10" t="s">
-        <v>527</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>268</v>
-      </c>
+      <c r="A37" s="10"/>
+      <c r="C37" s="10"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
-        <v>528</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>269</v>
-      </c>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="9"/>
+      <c r="C39" s="11"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
-      <c r="C40" s="11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="112" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
-        <v>529</v>
-      </c>
+      <c r="C40" s="11"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="9"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
-      <c r="C42" s="11" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="96" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
-        <v>530</v>
-      </c>
+      <c r="C42" s="11"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="9"/>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="C44" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="96" x14ac:dyDescent="0.2">
-      <c r="A45" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="C44" s="11"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="9"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="C46" s="11" t="s">
-        <v>273</v>
-      </c>
+      <c r="C46" s="11"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="9" t="s">
-        <v>532</v>
-      </c>
+      <c r="A47" s="9"/>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:3" ht="112" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
-      <c r="C48" s="11" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="s">
-        <v>533</v>
-      </c>
+      <c r="C48" s="11"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="9"/>
       <c r="C49" s="2"/>
     </row>
-    <row r="50" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="C50" s="11" t="s">
-        <v>275</v>
-      </c>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C50" s="11"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C52" s="11" t="s">
-        <v>276</v>
-      </c>
+      <c r="C52" s="11"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="C54" s="11" t="s">
-        <v>277</v>
-      </c>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C54" s="11"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="C56" s="11" t="s">
-        <v>278</v>
-      </c>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C56" s="11"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="C58" s="11" t="s">
-        <v>279</v>
-      </c>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C58" s="11"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C60" s="12" t="s">
-        <v>280</v>
-      </c>
+      <c r="C60" s="12"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C61" s="11" t="s">
-        <v>281</v>
-      </c>
+      <c r="C61" s="11"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C62" s="2"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C63" s="11" t="s">
-        <v>282</v>
-      </c>
+      <c r="C63" s="11"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C64" s="11" t="s">
-        <v>283</v>
-      </c>
+      <c r="C64" s="11"/>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C65" s="2"/>
     </row>
-    <row r="66" spans="3:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="C66" s="11" t="s">
-        <v>284</v>
-      </c>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C66" s="11"/>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C67" s="2"/>
     </row>
-    <row r="68" spans="3:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="C68" s="11" t="s">
-        <v>285</v>
-      </c>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C68" s="11"/>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C69" s="2"/>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C70" s="11" t="s">
-        <v>286</v>
-      </c>
+      <c r="C70" s="11"/>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C71" s="2"/>
     </row>
-    <row r="72" spans="3:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="C72" s="11" t="s">
-        <v>287</v>
-      </c>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C72" s="11"/>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C73" s="2"/>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C74" s="11" t="s">
-        <v>288</v>
-      </c>
+      <c r="C74" s="11"/>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C75" s="2"/>
     </row>
-    <row r="76" spans="3:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="C76" s="11" t="s">
-        <v>289</v>
-      </c>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C76" s="11"/>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C77" s="2"/>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C78" s="11" t="s">
-        <v>290</v>
-      </c>
+      <c r="C78" s="11"/>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C79" s="2"/>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C80" s="11" t="s">
-        <v>291</v>
-      </c>
+      <c r="C80" s="11"/>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C81" s="2"/>
     </row>
-    <row r="82" spans="3:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="C82" s="11" t="s">
-        <v>292</v>
-      </c>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C82" s="11"/>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C83" s="2"/>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C84" s="11" t="s">
-        <v>293</v>
-      </c>
+      <c r="C84" s="11"/>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C85" s="2"/>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C86" s="11" t="s">
-        <v>294</v>
-      </c>
+      <c r="C86" s="11"/>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C87" s="2"/>
     </row>
-    <row r="88" spans="3:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="C88" s="11" t="s">
-        <v>295</v>
-      </c>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C88" s="11"/>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C89" s="2"/>
     </row>
-    <row r="90" spans="3:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="C90" s="11" t="s">
-        <v>296</v>
-      </c>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C90" s="11"/>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C91" s="2"/>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C92" s="11" t="s">
-        <v>297</v>
-      </c>
+      <c r="C92" s="11"/>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C93" s="2"/>
     </row>
-    <row r="94" spans="3:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="C94" s="11" t="s">
-        <v>298</v>
-      </c>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C94" s="11"/>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C95" s="2"/>
     </row>
-    <row r="96" spans="3:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="C96" s="11" t="s">
-        <v>299</v>
-      </c>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C96" s="11"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C97" s="2"/>
     </row>
-    <row r="98" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="C98" s="9" t="s">
-        <v>300</v>
-      </c>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C98" s="9"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C99" s="2"/>
     </row>
-    <row r="100" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="C100" s="9" t="s">
-        <v>301</v>
-      </c>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C100" s="9"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C101" s="2"/>
     </row>
-    <row r="102" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="C102" s="9" t="s">
-        <v>302</v>
-      </c>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C102" s="9"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C103" s="2"/>
     </row>
-    <row r="104" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="C104" s="9" t="s">
-        <v>303</v>
-      </c>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C104" s="9"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C105" s="2"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C106" s="13" t="s">
-        <v>304</v>
-      </c>
+      <c r="C106" s="13"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C107" s="2"/>
@@ -8841,276 +6339,198 @@
       <c r="C111" s="2"/>
     </row>
     <row r="112" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A112" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>359</v>
-      </c>
+      <c r="A112" s="8"/>
+      <c r="C112" s="10"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="2"/>
       <c r="C113" s="2"/>
     </row>
-    <row r="114" spans="1:3" ht="80" x14ac:dyDescent="0.2">
-      <c r="A114" s="9" t="s">
-        <v>504</v>
-      </c>
-      <c r="C114" s="11" t="s">
-        <v>360</v>
-      </c>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="9"/>
+      <c r="C114" s="11"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
       <c r="C115" s="2"/>
     </row>
-    <row r="116" spans="1:3" ht="80" x14ac:dyDescent="0.2">
-      <c r="A116" s="9" t="s">
-        <v>505</v>
-      </c>
-      <c r="C116" s="11" t="s">
-        <v>361</v>
-      </c>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="9"/>
+      <c r="C116" s="11"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
       <c r="C117" s="2"/>
     </row>
-    <row r="118" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A118" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="C118" s="11" t="s">
-        <v>362</v>
-      </c>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="9"/>
+      <c r="C118" s="11"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
       <c r="C119" s="2"/>
     </row>
-    <row r="120" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A120" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="C120" s="11" t="s">
-        <v>363</v>
-      </c>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="9"/>
+      <c r="C120" s="11"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
       <c r="C121" s="2"/>
     </row>
-    <row r="122" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A122" s="9" t="s">
-        <v>508</v>
-      </c>
-      <c r="C122" s="11" t="s">
-        <v>364</v>
-      </c>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="9"/>
+      <c r="C122" s="11"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
       <c r="C123" s="2"/>
     </row>
-    <row r="124" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A124" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="C124" s="11" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A125" s="9" t="s">
-        <v>510</v>
-      </c>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="9"/>
+      <c r="C124" s="11"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="9"/>
       <c r="C125" s="2"/>
     </row>
-    <row r="126" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="C126" s="11" t="s">
-        <v>366</v>
-      </c>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C126" s="11"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C127" s="2"/>
     </row>
-    <row r="128" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="C128" s="11" t="s">
-        <v>367</v>
-      </c>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C128" s="11"/>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C129" s="2"/>
     </row>
     <row r="130" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C130" s="11" t="s">
-        <v>368</v>
-      </c>
+      <c r="C130" s="11"/>
     </row>
     <row r="131" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C131" s="2"/>
     </row>
-    <row r="132" spans="3:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="C132" s="11" t="s">
-        <v>369</v>
-      </c>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C132" s="11"/>
     </row>
     <row r="133" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C133" s="2"/>
     </row>
-    <row r="134" spans="3:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="C134" s="11" t="s">
-        <v>370</v>
-      </c>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C134" s="11"/>
     </row>
     <row r="135" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C135" s="2"/>
     </row>
-    <row r="136" spans="3:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="C136" s="11" t="s">
-        <v>371</v>
-      </c>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C136" s="11"/>
     </row>
     <row r="137" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C137" s="2"/>
     </row>
     <row r="138" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C138" s="14" t="s">
-        <v>126</v>
-      </c>
+      <c r="C138" s="14"/>
     </row>
     <row r="139" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C139" s="2"/>
     </row>
     <row r="140" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C140" s="13">
-        <v>73</v>
-      </c>
+      <c r="C140" s="13"/>
     </row>
     <row r="141" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C141" s="2"/>
     </row>
     <row r="142" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C142" s="12" t="s">
-        <v>280</v>
-      </c>
+      <c r="C142" s="12"/>
     </row>
     <row r="143" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C143" s="11" t="s">
-        <v>372</v>
-      </c>
+      <c r="C143" s="11"/>
     </row>
     <row r="144" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C144" s="2"/>
     </row>
     <row r="145" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C145" s="11" t="s">
-        <v>373</v>
-      </c>
+      <c r="C145" s="11"/>
     </row>
     <row r="146" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C146" s="2"/>
     </row>
-    <row r="147" spans="3:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="C147" s="11" t="s">
-        <v>374</v>
-      </c>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C147" s="11"/>
     </row>
     <row r="148" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C148" s="2"/>
     </row>
-    <row r="149" spans="3:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="C149" s="11" t="s">
-        <v>375</v>
-      </c>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C149" s="11"/>
     </row>
     <row r="150" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C150" s="2"/>
     </row>
-    <row r="151" spans="3:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="C151" s="11" t="s">
-        <v>376</v>
-      </c>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C151" s="11"/>
     </row>
     <row r="152" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C152" s="2"/>
     </row>
     <row r="153" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C153" s="11" t="s">
-        <v>377</v>
-      </c>
+      <c r="C153" s="11"/>
     </row>
     <row r="154" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C154" s="2"/>
     </row>
-    <row r="155" spans="3:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="C155" s="11" t="s">
-        <v>378</v>
-      </c>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C155" s="11"/>
     </row>
     <row r="156" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C156" s="2"/>
     </row>
-    <row r="157" spans="3:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="C157" s="11" t="s">
-        <v>379</v>
-      </c>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C157" s="11"/>
     </row>
     <row r="158" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C158" s="2"/>
     </row>
-    <row r="159" spans="3:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="C159" s="11" t="s">
-        <v>380</v>
-      </c>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C159" s="11"/>
     </row>
     <row r="160" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C160" s="2"/>
     </row>
-    <row r="161" spans="3:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="C161" s="11" t="s">
-        <v>381</v>
-      </c>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C161" s="11"/>
     </row>
     <row r="162" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C162" s="2"/>
     </row>
-    <row r="163" spans="3:3" ht="80" x14ac:dyDescent="0.2">
-      <c r="C163" s="11" t="s">
-        <v>382</v>
-      </c>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C163" s="11"/>
     </row>
     <row r="164" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C164" s="2"/>
     </row>
-    <row r="165" spans="3:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="C165" s="11" t="s">
-        <v>383</v>
-      </c>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C165" s="11"/>
     </row>
     <row r="166" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C166" s="2"/>
     </row>
     <row r="167" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C167" s="11" t="s">
-        <v>384</v>
-      </c>
+      <c r="C167" s="11"/>
     </row>
     <row r="168" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C168" s="2"/>
     </row>
-    <row r="169" spans="3:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="C169" s="9" t="s">
-        <v>385</v>
-      </c>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C169" s="9"/>
     </row>
     <row r="170" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C170" s="2"/>
     </row>
-    <row r="171" spans="3:3" ht="80" x14ac:dyDescent="0.2">
-      <c r="C171" s="9" t="s">
-        <v>386</v>
-      </c>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C171" s="9"/>
     </row>
     <row r="172" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C172" s="2"/>
@@ -9128,561 +6548,409 @@
       <c r="C176" s="2"/>
     </row>
     <row r="177" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A177" s="10" t="s">
-        <v>484</v>
-      </c>
-      <c r="C177" s="10" t="s">
-        <v>425</v>
-      </c>
+      <c r="A177" s="10"/>
+      <c r="C177" s="10"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="2"/>
       <c r="C178" s="2"/>
     </row>
-    <row r="179" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A179" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="C179" s="11" t="s">
-        <v>426</v>
-      </c>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="9"/>
+      <c r="C179" s="11"/>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="2"/>
-      <c r="C180" s="11" t="s">
-        <v>427</v>
-      </c>
+      <c r="C180" s="11"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" s="9" t="s">
-        <v>486</v>
-      </c>
+      <c r="A181" s="9"/>
       <c r="C181" s="2"/>
     </row>
-    <row r="182" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="2"/>
-      <c r="C182" s="11" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A183" s="9" t="s">
-        <v>487</v>
-      </c>
+      <c r="C182" s="11"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="9"/>
       <c r="C183" s="2"/>
     </row>
-    <row r="184" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="2"/>
-      <c r="C184" s="11" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A185" s="9" t="s">
-        <v>488</v>
-      </c>
+      <c r="C184" s="11"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="9"/>
       <c r="C185" s="2"/>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="2"/>
-      <c r="C186" s="11" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="80" x14ac:dyDescent="0.2">
-      <c r="A187" s="9" t="s">
-        <v>489</v>
-      </c>
+      <c r="C186" s="11"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="9"/>
       <c r="C187" s="2"/>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="2"/>
-      <c r="C188" s="11" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="80" x14ac:dyDescent="0.2">
-      <c r="A189" s="9" t="s">
-        <v>490</v>
-      </c>
+      <c r="C188" s="11"/>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="9"/>
       <c r="C189" s="2"/>
     </row>
-    <row r="190" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="2"/>
-      <c r="C190" s="11" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A191" s="9" t="s">
-        <v>491</v>
-      </c>
+      <c r="C190" s="11"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="9"/>
       <c r="C191" s="2"/>
     </row>
-    <row r="192" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="2"/>
-      <c r="C192" s="11" t="s">
-        <v>433</v>
-      </c>
+      <c r="C192" s="11"/>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A193" s="9" t="s">
-        <v>492</v>
-      </c>
+      <c r="A193" s="9"/>
       <c r="C193" s="2"/>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="2"/>
-      <c r="C194" s="11" t="s">
-        <v>434</v>
-      </c>
+      <c r="C194" s="11"/>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C195" s="2"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C196" s="11" t="s">
-        <v>435</v>
-      </c>
+      <c r="C196" s="11"/>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C197" s="2"/>
     </row>
-    <row r="198" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="C198" s="11" t="s">
-        <v>436</v>
-      </c>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C198" s="11"/>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C199" s="2"/>
     </row>
-    <row r="200" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="C200" s="11" t="s">
-        <v>437</v>
-      </c>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C200" s="11"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C201" s="2"/>
     </row>
-    <row r="202" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="C202" s="11" t="s">
-        <v>438</v>
-      </c>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C202" s="11"/>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C203" s="2"/>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C204" s="14" t="s">
-        <v>126</v>
-      </c>
+      <c r="C204" s="14"/>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C205" s="2"/>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C206" s="13">
-        <v>65</v>
-      </c>
+      <c r="C206" s="13"/>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C207" s="2"/>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C208" s="12" t="s">
-        <v>439</v>
-      </c>
+      <c r="C208" s="12"/>
     </row>
     <row r="209" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C209" s="2"/>
     </row>
-    <row r="210" spans="3:3" ht="112" x14ac:dyDescent="0.2">
-      <c r="C210" s="11" t="s">
-        <v>440</v>
-      </c>
+    <row r="210" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C210" s="11"/>
     </row>
     <row r="211" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C211" s="2"/>
     </row>
-    <row r="212" spans="3:3" ht="96" x14ac:dyDescent="0.2">
-      <c r="C212" s="11" t="s">
-        <v>441</v>
-      </c>
+    <row r="212" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C212" s="11"/>
     </row>
     <row r="213" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C213" s="2"/>
     </row>
-    <row r="214" spans="3:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="C214" s="11" t="s">
-        <v>442</v>
-      </c>
+    <row r="214" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C214" s="11"/>
     </row>
     <row r="215" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C215" s="2"/>
     </row>
     <row r="216" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C216" s="11" t="s">
-        <v>443</v>
-      </c>
+      <c r="C216" s="11"/>
     </row>
     <row r="217" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C217" s="2"/>
     </row>
-    <row r="218" spans="3:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="C218" s="11" t="s">
-        <v>444</v>
-      </c>
+    <row r="218" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C218" s="11"/>
     </row>
     <row r="219" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C219" s="2"/>
     </row>
-    <row r="220" spans="3:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="C220" s="11" t="s">
-        <v>445</v>
-      </c>
+    <row r="220" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C220" s="11"/>
     </row>
     <row r="221" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C221" s="2"/>
     </row>
-    <row r="222" spans="3:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="C222" s="11" t="s">
-        <v>446</v>
-      </c>
+    <row r="222" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C222" s="11"/>
     </row>
     <row r="223" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C223" s="2"/>
     </row>
     <row r="224" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C224" s="11" t="s">
-        <v>447</v>
-      </c>
+      <c r="C224" s="11"/>
     </row>
     <row r="225" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C225" s="2"/>
     </row>
     <row r="226" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C226" s="11" t="s">
-        <v>448</v>
-      </c>
+      <c r="C226" s="11"/>
     </row>
     <row r="227" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C227" s="2"/>
     </row>
-    <row r="228" spans="3:3" ht="96" x14ac:dyDescent="0.2">
-      <c r="C228" s="11" t="s">
-        <v>449</v>
-      </c>
+    <row r="228" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C228" s="11"/>
     </row>
     <row r="229" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C229" s="2"/>
     </row>
-    <row r="230" spans="3:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="C230" s="11" t="s">
-        <v>450</v>
-      </c>
+    <row r="230" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C230" s="11"/>
     </row>
     <row r="231" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C231" s="2"/>
     </row>
     <row r="232" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C232" s="13">
-        <v>66</v>
-      </c>
+      <c r="C232" s="13"/>
     </row>
     <row r="233" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C233" s="2"/>
     </row>
-    <row r="234" spans="3:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="C234" s="11" t="s">
-        <v>451</v>
-      </c>
+    <row r="234" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C234" s="11"/>
     </row>
     <row r="235" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C235" s="2"/>
     </row>
-    <row r="236" spans="3:3" ht="80" x14ac:dyDescent="0.2">
-      <c r="C236" s="11" t="s">
-        <v>452</v>
-      </c>
+    <row r="236" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C236" s="11"/>
     </row>
     <row r="237" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C237" s="2"/>
     </row>
-    <row r="238" spans="3:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="C238" s="11" t="s">
-        <v>453</v>
-      </c>
+    <row r="238" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C238" s="11"/>
     </row>
     <row r="239" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C239" s="2"/>
     </row>
-    <row r="240" spans="3:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="C240" s="11" t="s">
-        <v>454</v>
-      </c>
+    <row r="240" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C240" s="11"/>
     </row>
     <row r="241" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C241" s="2"/>
     </row>
-    <row r="242" spans="3:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="C242" s="11" t="s">
-        <v>455</v>
-      </c>
+    <row r="242" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C242" s="11"/>
     </row>
     <row r="243" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C243" s="2"/>
     </row>
-    <row r="244" spans="3:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="C244" s="11" t="s">
-        <v>456</v>
-      </c>
+    <row r="244" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C244" s="11"/>
     </row>
     <row r="245" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C245" s="2"/>
     </row>
     <row r="246" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C246" s="11" t="s">
-        <v>457</v>
-      </c>
+      <c r="C246" s="11"/>
     </row>
     <row r="247" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C247" s="2"/>
     </row>
-    <row r="248" spans="3:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="C248" s="11" t="s">
-        <v>458</v>
-      </c>
+    <row r="248" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C248" s="11"/>
     </row>
     <row r="249" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C249" s="2"/>
     </row>
-    <row r="250" spans="3:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="C250" s="11" t="s">
-        <v>370</v>
-      </c>
+    <row r="250" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C250" s="11"/>
     </row>
     <row r="251" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C251" s="2"/>
     </row>
-    <row r="252" spans="3:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="C252" s="11" t="s">
-        <v>459</v>
-      </c>
+    <row r="252" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C252" s="11"/>
     </row>
     <row r="253" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C253" s="2"/>
     </row>
     <row r="254" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C254" s="11" t="s">
-        <v>460</v>
-      </c>
+      <c r="C254" s="11"/>
     </row>
     <row r="255" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C255" s="2"/>
     </row>
-    <row r="256" spans="3:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="C256" s="11" t="s">
-        <v>461</v>
-      </c>
+    <row r="256" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C256" s="11"/>
     </row>
     <row r="257" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C257" s="2"/>
     </row>
-    <row r="258" spans="3:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="C258" s="11" t="s">
-        <v>462</v>
-      </c>
+    <row r="258" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C258" s="11"/>
     </row>
     <row r="259" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C259" s="2"/>
     </row>
     <row r="260" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C260" s="14" t="s">
-        <v>126</v>
-      </c>
+      <c r="C260" s="14"/>
     </row>
     <row r="261" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C261" s="2"/>
     </row>
     <row r="262" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C262" s="13">
-        <v>67</v>
-      </c>
+      <c r="C262" s="13"/>
     </row>
     <row r="263" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C263" s="2"/>
     </row>
     <row r="264" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C264" s="12" t="s">
-        <v>280</v>
-      </c>
+      <c r="C264" s="12"/>
     </row>
     <row r="265" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C265" s="11" t="s">
-        <v>463</v>
-      </c>
+      <c r="C265" s="11"/>
     </row>
     <row r="266" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C266" s="2"/>
     </row>
-    <row r="267" spans="3:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="C267" s="11" t="s">
-        <v>464</v>
-      </c>
+    <row r="267" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C267" s="11"/>
     </row>
     <row r="268" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C268" s="2"/>
     </row>
     <row r="269" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C269" s="11" t="s">
-        <v>465</v>
-      </c>
+      <c r="C269" s="11"/>
     </row>
     <row r="270" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C270" s="11" t="s">
-        <v>466</v>
-      </c>
+      <c r="C270" s="11"/>
     </row>
     <row r="271" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C271" s="2"/>
     </row>
-    <row r="272" spans="3:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="C272" s="11" t="s">
-        <v>467</v>
-      </c>
+    <row r="272" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C272" s="11"/>
     </row>
     <row r="273" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C273" s="2"/>
     </row>
-    <row r="274" spans="3:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="C274" s="11" t="s">
-        <v>468</v>
-      </c>
+    <row r="274" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C274" s="11"/>
     </row>
     <row r="275" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C275" s="2"/>
     </row>
     <row r="276" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C276" s="11" t="s">
-        <v>469</v>
-      </c>
+      <c r="C276" s="11"/>
     </row>
     <row r="277" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C277" s="2"/>
     </row>
-    <row r="278" spans="3:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="C278" s="11" t="s">
-        <v>470</v>
-      </c>
+    <row r="278" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C278" s="11"/>
     </row>
     <row r="279" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C279" s="2"/>
     </row>
-    <row r="280" spans="3:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="C280" s="11" t="s">
-        <v>471</v>
-      </c>
+    <row r="280" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C280" s="11"/>
     </row>
     <row r="281" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C281" s="2"/>
     </row>
-    <row r="282" spans="3:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="C282" s="11" t="s">
-        <v>472</v>
-      </c>
+    <row r="282" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C282" s="11"/>
     </row>
     <row r="283" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C283" s="2"/>
     </row>
     <row r="284" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C284" s="11" t="s">
-        <v>473</v>
-      </c>
+      <c r="C284" s="11"/>
     </row>
     <row r="285" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C285" s="2"/>
     </row>
-    <row r="286" spans="3:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="C286" s="11" t="s">
-        <v>474</v>
-      </c>
+    <row r="286" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C286" s="11"/>
     </row>
     <row r="287" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C287" s="2"/>
     </row>
-    <row r="288" spans="3:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="C288" s="11" t="s">
-        <v>475</v>
-      </c>
+    <row r="288" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C288" s="11"/>
     </row>
     <row r="289" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C289" s="2"/>
     </row>
-    <row r="290" spans="3:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="C290" s="11" t="s">
-        <v>476</v>
-      </c>
+    <row r="290" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C290" s="11"/>
     </row>
     <row r="291" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C291" s="2"/>
     </row>
     <row r="292" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C292" s="13">
-        <v>68</v>
-      </c>
+      <c r="C292" s="13"/>
     </row>
     <row r="293" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C293" s="2"/>
     </row>
     <row r="294" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C294" s="9" t="s">
-        <v>477</v>
-      </c>
+      <c r="C294" s="9"/>
     </row>
     <row r="295" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C295" s="9" t="s">
-        <v>478</v>
-      </c>
+      <c r="C295" s="9"/>
     </row>
     <row r="296" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C296" s="2"/>
     </row>
-    <row r="297" spans="3:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="C297" s="9" t="s">
-        <v>479</v>
-      </c>
+    <row r="297" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C297" s="9"/>
     </row>
     <row r="298" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C298" s="2"/>
     </row>
-    <row r="299" spans="3:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="C299" s="9" t="s">
-        <v>480</v>
-      </c>
+    <row r="299" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C299" s="9"/>
     </row>
     <row r="300" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C300" s="2"/>
     </row>
-    <row r="301" spans="3:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="C301" s="9" t="s">
-        <v>481</v>
-      </c>
+    <row r="301" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C301" s="9"/>
     </row>
     <row r="302" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C302" s="2"/>
     </row>
-    <row r="303" spans="3:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="C303" s="9" t="s">
-        <v>482</v>
-      </c>
+    <row r="303" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C303" s="9"/>
     </row>
     <row r="304" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C304" s="2"/>
     </row>
-    <row r="305" spans="3:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="C305" s="9" t="s">
-        <v>483</v>
-      </c>
+    <row r="305" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C305" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9694,8 +6962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25:M106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9708,367 +6976,295 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>720</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>736</v>
+        <v>427</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>735</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>729</v>
+        <v>420</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>729</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>730</v>
+        <v>421</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>789</v>
+        <v>480</v>
       </c>
       <c r="B8" t="s">
-        <v>731</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>791</v>
+        <v>482</v>
       </c>
       <c r="B9" t="s">
-        <v>732</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>790</v>
+        <v>481</v>
       </c>
       <c r="B10" t="s">
-        <v>733</v>
+        <v>424</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>734</v>
+        <v>425</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>742</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>792</v>
+        <v>483</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>737</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>738</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>793</v>
+        <v>484</v>
       </c>
       <c r="B15" t="s">
-        <v>739</v>
+        <v>430</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>740</v>
+        <v>431</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>741</v>
+        <v>432</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>742</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>743</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>744</v>
+        <v>435</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>745</v>
+        <v>436</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>746</v>
+        <v>437</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="J25" s="10" t="s">
-        <v>511</v>
-      </c>
-      <c r="M25" s="10" t="s">
-        <v>335</v>
-      </c>
+      <c r="J25" s="10"/>
+      <c r="M25" s="10"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="J26" s="2"/>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="2:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="J27" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="M27" s="14" t="s">
-        <v>126</v>
-      </c>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J27" s="9"/>
+      <c r="M27" s="14"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="J28" s="2"/>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="2:13" ht="112" x14ac:dyDescent="0.2">
-      <c r="J29" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="M29" s="11" t="s">
-        <v>336</v>
-      </c>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J29" s="9"/>
+      <c r="M29" s="11"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="J30" s="2"/>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="2:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="J31" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="M31" s="11" t="s">
-        <v>337</v>
-      </c>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J31" s="9"/>
+      <c r="M31" s="11"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="J32" s="2"/>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="10:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="J33" s="9" t="s">
-        <v>515</v>
-      </c>
-      <c r="M33" s="11" t="s">
-        <v>338</v>
-      </c>
+    <row r="33" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J33" s="9"/>
+      <c r="M33" s="11"/>
     </row>
     <row r="34" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J34" s="2"/>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="10:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="J35" s="9" t="s">
-        <v>516</v>
-      </c>
-      <c r="M35" s="11" t="s">
-        <v>339</v>
-      </c>
+    <row r="35" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J35" s="9"/>
+      <c r="M35" s="11"/>
     </row>
     <row r="36" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J36" s="2"/>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="10:13" ht="128" x14ac:dyDescent="0.2">
-      <c r="J37" s="9" t="s">
-        <v>517</v>
-      </c>
-      <c r="M37" s="11" t="s">
-        <v>340</v>
-      </c>
+    <row r="37" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J37" s="9"/>
+      <c r="M37" s="11"/>
     </row>
     <row r="38" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J38" s="2"/>
       <c r="M38" s="2"/>
     </row>
-    <row r="39" spans="10:13" ht="64" x14ac:dyDescent="0.2">
-      <c r="J39" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="M39" s="11" t="s">
-        <v>341</v>
-      </c>
+    <row r="39" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J39" s="9"/>
+      <c r="M39" s="11"/>
     </row>
     <row r="40" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J40" s="2"/>
       <c r="M40" s="2"/>
     </row>
-    <row r="41" spans="10:13" ht="80" x14ac:dyDescent="0.2">
-      <c r="J41" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="M41" s="11" t="s">
-        <v>342</v>
-      </c>
+    <row r="41" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J41" s="9"/>
+      <c r="M41" s="11"/>
     </row>
     <row r="42" spans="10:13" x14ac:dyDescent="0.2">
       <c r="M42" s="2"/>
     </row>
-    <row r="43" spans="10:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="M43" s="11" t="s">
-        <v>343</v>
-      </c>
+    <row r="43" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="11"/>
     </row>
     <row r="44" spans="10:13" x14ac:dyDescent="0.2">
       <c r="M44" s="2"/>
     </row>
     <row r="45" spans="10:13" x14ac:dyDescent="0.2">
-      <c r="M45" s="11" t="s">
-        <v>344</v>
-      </c>
+      <c r="M45" s="11"/>
     </row>
     <row r="46" spans="10:13" x14ac:dyDescent="0.2">
       <c r="M46" s="2"/>
     </row>
-    <row r="47" spans="10:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="M47" s="11" t="s">
-        <v>345</v>
-      </c>
+    <row r="47" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="11"/>
     </row>
     <row r="48" spans="10:13" x14ac:dyDescent="0.2">
       <c r="M48" s="2"/>
     </row>
-    <row r="49" spans="13:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="M49" s="11" t="s">
-        <v>346</v>
-      </c>
+    <row r="49" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="11"/>
     </row>
     <row r="50" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M50" s="2"/>
     </row>
     <row r="51" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M51" s="13">
-        <v>75</v>
-      </c>
+      <c r="M51" s="13"/>
     </row>
     <row r="52" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M52" s="2"/>
     </row>
     <row r="53" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M53" s="12" t="s">
-        <v>322</v>
-      </c>
+      <c r="M53" s="12"/>
     </row>
     <row r="54" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M54" s="2"/>
     </row>
-    <row r="55" spans="13:13" ht="64" x14ac:dyDescent="0.2">
-      <c r="M55" s="11" t="s">
-        <v>347</v>
-      </c>
+    <row r="55" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M55" s="11"/>
     </row>
     <row r="56" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M56" s="2"/>
     </row>
-    <row r="57" spans="13:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="M57" s="11" t="s">
-        <v>348</v>
-      </c>
+    <row r="57" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="11"/>
     </row>
     <row r="58" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M58" s="2"/>
     </row>
     <row r="59" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M59" s="11" t="s">
-        <v>349</v>
-      </c>
+      <c r="M59" s="11"/>
     </row>
     <row r="60" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M60" s="2"/>
     </row>
-    <row r="61" spans="13:13" ht="80" x14ac:dyDescent="0.2">
-      <c r="M61" s="11" t="s">
-        <v>350</v>
-      </c>
+    <row r="61" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="11"/>
     </row>
     <row r="62" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M62" s="2"/>
     </row>
-    <row r="63" spans="13:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="M63" s="11" t="s">
-        <v>351</v>
-      </c>
+    <row r="63" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="11"/>
     </row>
     <row r="64" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M64" s="2"/>
     </row>
-    <row r="65" spans="13:13" ht="64" x14ac:dyDescent="0.2">
-      <c r="M65" s="11" t="s">
-        <v>352</v>
-      </c>
+    <row r="65" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="11"/>
     </row>
     <row r="66" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M66" s="2"/>
     </row>
-    <row r="67" spans="13:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="M67" s="11" t="s">
-        <v>353</v>
-      </c>
+    <row r="67" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M67" s="11"/>
     </row>
     <row r="68" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M68" s="2"/>
     </row>
-    <row r="69" spans="13:13" ht="64" x14ac:dyDescent="0.2">
-      <c r="M69" s="11" t="s">
-        <v>354</v>
-      </c>
+    <row r="69" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="11"/>
     </row>
     <row r="70" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M70" s="2"/>
     </row>
     <row r="71" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M71" s="11" t="s">
-        <v>355</v>
-      </c>
+      <c r="M71" s="11"/>
     </row>
     <row r="72" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M72" s="2"/>
     </row>
-    <row r="73" spans="13:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="M73" s="9" t="s">
-        <v>356</v>
-      </c>
+    <row r="73" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="9"/>
     </row>
     <row r="74" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M74" s="2"/>
     </row>
-    <row r="75" spans="13:13" ht="96" x14ac:dyDescent="0.2">
-      <c r="M75" s="9" t="s">
-        <v>357</v>
-      </c>
+    <row r="75" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="9"/>
     </row>
     <row r="76" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M76" s="2"/>
     </row>
-    <row r="77" spans="13:13" ht="96" x14ac:dyDescent="0.2">
-      <c r="M77" s="9" t="s">
-        <v>358</v>
-      </c>
+    <row r="77" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10079,8 +7275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24:D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10098,220 +7294,208 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>747</v>
+        <v>438</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>748</v>
+        <v>439</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>749</v>
+        <v>440</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>750</v>
+        <v>441</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>729</v>
+        <v>420</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>729</v>
+        <v>420</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>754</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>770</v>
+        <v>461</v>
       </c>
       <c r="B7" t="s">
-        <v>773</v>
+        <v>464</v>
       </c>
       <c r="C7" t="s">
-        <v>794</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>771</v>
+        <v>462</v>
       </c>
       <c r="B8" t="s">
-        <v>774</v>
+        <v>465</v>
       </c>
       <c r="C8" t="s">
-        <v>795</v>
+        <v>486</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>772</v>
+        <v>463</v>
       </c>
       <c r="B9" t="s">
-        <v>775</v>
+        <v>466</v>
       </c>
       <c r="C9" t="s">
-        <v>796</v>
+        <v>487</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>768</v>
+        <v>459</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>751</v>
+        <v>442</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>752</v>
+        <v>443</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>753</v>
+        <v>444</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>729</v>
+        <v>420</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>729</v>
+        <v>420</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>754</v>
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>766</v>
+        <v>457</v>
       </c>
       <c r="B16" t="s">
-        <v>761</v>
+        <v>452</v>
       </c>
       <c r="C16" t="s">
-        <v>755</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>767</v>
+        <v>458</v>
       </c>
       <c r="B17" t="s">
-        <v>762</v>
+        <v>453</v>
       </c>
       <c r="C17" t="s">
-        <v>756</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>769</v>
+        <v>460</v>
       </c>
       <c r="B18" t="s">
-        <v>763</v>
+        <v>454</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>768</v>
+        <v>459</v>
       </c>
       <c r="B19" t="s">
-        <v>764</v>
+        <v>455</v>
       </c>
       <c r="C19" t="s">
-        <v>757</v>
+        <v>448</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>765</v>
+        <v>456</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>758</v>
+        <v>449</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>759</v>
+        <v>450</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>760</v>
+        <v>451</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="D24" s="10" t="s">
-        <v>520</v>
-      </c>
+      <c r="D24" s="10"/>
       <c r="G24" s="10" t="s">
-        <v>305</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="D26" s="9" t="s">
-        <v>521</v>
-      </c>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D26" s="9"/>
       <c r="G26" s="11" t="s">
-        <v>306</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D27" s="2"/>
       <c r="G27" s="11" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="D28" s="9" t="s">
-        <v>522</v>
-      </c>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D28" s="9"/>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="D29" s="2"/>
       <c r="G29" s="11" t="s">
-        <v>308</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D30" s="9" t="s">
-        <v>523</v>
-      </c>
+      <c r="D30" s="9"/>
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="D31" s="2"/>
       <c r="G31" s="11" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="D32" s="9" t="s">
-        <v>524</v>
-      </c>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D32" s="9"/>
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="4:7" ht="32" x14ac:dyDescent="0.2">
       <c r="D33" s="2"/>
       <c r="G33" s="11" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="34" spans="4:7" ht="96" x14ac:dyDescent="0.2">
-      <c r="D34" s="9" t="s">
-        <v>525</v>
-      </c>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D34" s="9"/>
       <c r="G34" s="11" t="s">
-        <v>311</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="4:7" x14ac:dyDescent="0.2">
@@ -10319,11 +7503,9 @@
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="4:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="D36" s="9" t="s">
-        <v>526</v>
-      </c>
+      <c r="D36" s="9"/>
       <c r="G36" s="11" t="s">
-        <v>312</v>
+        <v>237</v>
       </c>
     </row>
     <row r="37" spans="4:7" x14ac:dyDescent="0.2">
@@ -10331,7 +7513,7 @@
     </row>
     <row r="38" spans="4:7" ht="32" x14ac:dyDescent="0.2">
       <c r="G38" s="11" t="s">
-        <v>313</v>
+        <v>238</v>
       </c>
     </row>
     <row r="39" spans="4:7" x14ac:dyDescent="0.2">
@@ -10339,7 +7521,7 @@
     </row>
     <row r="40" spans="4:7" ht="48" x14ac:dyDescent="0.2">
       <c r="G40" s="11" t="s">
-        <v>314</v>
+        <v>239</v>
       </c>
     </row>
     <row r="41" spans="4:7" x14ac:dyDescent="0.2">
@@ -10347,12 +7529,12 @@
     </row>
     <row r="42" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G42" s="11" t="s">
-        <v>315</v>
+        <v>240</v>
       </c>
     </row>
     <row r="43" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G43" s="11" t="s">
-        <v>316</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44" spans="4:7" x14ac:dyDescent="0.2">
@@ -10360,7 +7542,7 @@
     </row>
     <row r="45" spans="4:7" ht="32" x14ac:dyDescent="0.2">
       <c r="G45" s="11" t="s">
-        <v>317</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46" spans="4:7" x14ac:dyDescent="0.2">
@@ -10368,7 +7550,7 @@
     </row>
     <row r="47" spans="4:7" ht="32" x14ac:dyDescent="0.2">
       <c r="G47" s="11" t="s">
-        <v>318</v>
+        <v>243</v>
       </c>
     </row>
     <row r="48" spans="4:7" x14ac:dyDescent="0.2">
@@ -10376,7 +7558,7 @@
     </row>
     <row r="49" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G49" s="11" t="s">
-        <v>319</v>
+        <v>244</v>
       </c>
     </row>
     <row r="50" spans="7:7" x14ac:dyDescent="0.2">
@@ -10384,7 +7566,7 @@
     </row>
     <row r="51" spans="7:7" ht="48" x14ac:dyDescent="0.2">
       <c r="G51" s="11" t="s">
-        <v>320</v>
+        <v>245</v>
       </c>
     </row>
     <row r="52" spans="7:7" x14ac:dyDescent="0.2">
@@ -10392,7 +7574,7 @@
     </row>
     <row r="53" spans="7:7" ht="32" x14ac:dyDescent="0.2">
       <c r="G53" s="11" t="s">
-        <v>321</v>
+        <v>246</v>
       </c>
     </row>
     <row r="54" spans="7:7" x14ac:dyDescent="0.2">
@@ -10400,7 +7582,7 @@
     </row>
     <row r="55" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G55" s="11" t="s">
-        <v>323</v>
+        <v>247</v>
       </c>
     </row>
     <row r="56" spans="7:7" x14ac:dyDescent="0.2">
@@ -10408,7 +7590,7 @@
     </row>
     <row r="57" spans="7:7" ht="48" x14ac:dyDescent="0.2">
       <c r="G57" s="11" t="s">
-        <v>324</v>
+        <v>248</v>
       </c>
     </row>
     <row r="58" spans="7:7" x14ac:dyDescent="0.2">
@@ -10416,7 +7598,7 @@
     </row>
     <row r="59" spans="7:7" ht="64" x14ac:dyDescent="0.2">
       <c r="G59" s="11" t="s">
-        <v>325</v>
+        <v>249</v>
       </c>
     </row>
     <row r="60" spans="7:7" x14ac:dyDescent="0.2">
@@ -10424,7 +7606,7 @@
     </row>
     <row r="61" spans="7:7" ht="32" x14ac:dyDescent="0.2">
       <c r="G61" s="11" t="s">
-        <v>326</v>
+        <v>250</v>
       </c>
     </row>
     <row r="62" spans="7:7" x14ac:dyDescent="0.2">
@@ -10432,7 +7614,7 @@
     </row>
     <row r="63" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G63" s="11" t="s">
-        <v>327</v>
+        <v>251</v>
       </c>
     </row>
     <row r="64" spans="7:7" x14ac:dyDescent="0.2">
@@ -10440,7 +7622,7 @@
     </row>
     <row r="65" spans="7:7" ht="32" x14ac:dyDescent="0.2">
       <c r="G65" s="11" t="s">
-        <v>328</v>
+        <v>252</v>
       </c>
     </row>
     <row r="66" spans="7:7" x14ac:dyDescent="0.2">
@@ -10448,7 +7630,7 @@
     </row>
     <row r="67" spans="7:7" ht="64" x14ac:dyDescent="0.2">
       <c r="G67" s="11" t="s">
-        <v>329</v>
+        <v>253</v>
       </c>
     </row>
     <row r="68" spans="7:7" x14ac:dyDescent="0.2">
@@ -10456,7 +7638,7 @@
     </row>
     <row r="69" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G69" s="11" t="s">
-        <v>330</v>
+        <v>254</v>
       </c>
     </row>
     <row r="70" spans="7:7" x14ac:dyDescent="0.2">
@@ -10464,7 +7646,7 @@
     </row>
     <row r="71" spans="7:7" ht="64" x14ac:dyDescent="0.2">
       <c r="G71" s="9" t="s">
-        <v>331</v>
+        <v>255</v>
       </c>
     </row>
     <row r="72" spans="7:7" x14ac:dyDescent="0.2">
@@ -10472,7 +7654,7 @@
     </row>
     <row r="73" spans="7:7" ht="48" x14ac:dyDescent="0.2">
       <c r="G73" s="9" t="s">
-        <v>332</v>
+        <v>256</v>
       </c>
     </row>
     <row r="74" spans="7:7" x14ac:dyDescent="0.2">
@@ -10480,7 +7662,7 @@
     </row>
     <row r="75" spans="7:7" ht="48" x14ac:dyDescent="0.2">
       <c r="G75" s="9" t="s">
-        <v>333</v>
+        <v>257</v>
       </c>
     </row>
     <row r="76" spans="7:7" x14ac:dyDescent="0.2">
@@ -10488,7 +7670,7 @@
     </row>
     <row r="77" spans="7:7" ht="80" x14ac:dyDescent="0.2">
       <c r="G77" s="9" t="s">
-        <v>334</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -10526,124 +7708,124 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>721</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>722</v>
+        <v>413</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>723</v>
+        <v>414</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>724</v>
+        <v>415</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>725</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>784</v>
+        <v>475</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>776</v>
+        <v>467</v>
       </c>
       <c r="B7" t="s">
-        <v>776</v>
+        <v>467</v>
       </c>
       <c r="C7" t="s">
-        <v>785</v>
+        <v>476</v>
       </c>
       <c r="D7" t="s">
-        <v>726</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>777</v>
+        <v>468</v>
       </c>
       <c r="B8" t="s">
-        <v>780</v>
+        <v>471</v>
       </c>
       <c r="C8" t="s">
-        <v>786</v>
+        <v>477</v>
       </c>
       <c r="D8" t="s">
-        <v>728</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>778</v>
+        <v>469</v>
       </c>
       <c r="B9" t="s">
-        <v>781</v>
+        <v>472</v>
       </c>
       <c r="C9" t="s">
-        <v>787</v>
+        <v>478</v>
       </c>
       <c r="D9" t="s">
-        <v>727</v>
+        <v>418</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>779</v>
+        <v>470</v>
       </c>
       <c r="B10" t="s">
-        <v>782</v>
+        <v>473</v>
       </c>
       <c r="C10" t="s">
-        <v>788</v>
+        <v>479</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>783</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>797</v>
+        <v>488</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>798</v>
+        <v>489</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>784</v>
+        <v>475</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>802</v>
+        <v>493</v>
       </c>
       <c r="B18" t="s">
-        <v>799</v>
+        <v>490</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>800</v>
+        <v>491</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>801</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -10655,7 +7837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
@@ -10670,379 +7852,379 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>729</v>
+        <v>420</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>803</v>
+        <v>494</v>
       </c>
       <c r="B6" t="s">
-        <v>808</v>
+        <v>499</v>
       </c>
       <c r="C6" t="s">
-        <v>819</v>
+        <v>510</v>
       </c>
       <c r="D6" t="s">
-        <v>824</v>
+        <v>515</v>
       </c>
       <c r="E6" t="s">
-        <v>828</v>
+        <v>519</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>804</v>
+        <v>495</v>
       </c>
       <c r="B7" t="s">
-        <v>809</v>
+        <v>500</v>
       </c>
       <c r="C7" t="s">
-        <v>820</v>
+        <v>511</v>
       </c>
       <c r="D7" t="s">
-        <v>825</v>
+        <v>516</v>
       </c>
       <c r="E7" t="s">
-        <v>829</v>
+        <v>520</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>821</v>
+        <v>512</v>
       </c>
       <c r="D8" t="s">
-        <v>826</v>
+        <v>517</v>
       </c>
       <c r="E8" t="s">
-        <v>830</v>
+        <v>521</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>805</v>
+        <v>496</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>812</v>
+        <v>503</v>
       </c>
       <c r="C9" t="s">
-        <v>822</v>
+        <v>513</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>806</v>
+        <v>497</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>810</v>
+        <v>501</v>
       </c>
       <c r="C10" t="s">
-        <v>823</v>
+        <v>514</v>
       </c>
       <c r="D10" t="s">
-        <v>827</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>807</v>
+        <v>498</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>813</v>
+        <v>504</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>811</v>
+        <v>502</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="15" t="s">
-        <v>814</v>
+        <v>505</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>815</v>
+        <v>506</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>816</v>
+        <v>507</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>817</v>
+        <v>508</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>818</v>
+        <v>509</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>831</v>
+        <v>522</v>
       </c>
       <c r="B26" t="s">
-        <v>836</v>
+        <v>527</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>848</v>
+        <v>539</v>
       </c>
       <c r="D26" t="s">
-        <v>837</v>
+        <v>528</v>
       </c>
       <c r="E26" t="s">
-        <v>860</v>
+        <v>551</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>832</v>
+        <v>523</v>
       </c>
       <c r="B27" t="s">
-        <v>837</v>
+        <v>528</v>
       </c>
       <c r="C27" t="s">
-        <v>849</v>
+        <v>540</v>
       </c>
       <c r="D27" t="s">
-        <v>853</v>
+        <v>544</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>850</v>
+        <v>541</v>
       </c>
       <c r="D28" t="s">
-        <v>854</v>
+        <v>545</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>833</v>
+        <v>524</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>838</v>
+        <v>529</v>
       </c>
       <c r="C29" t="s">
-        <v>851</v>
+        <v>542</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>835</v>
+        <v>526</v>
       </c>
       <c r="B30" t="s">
-        <v>845</v>
+        <v>536</v>
       </c>
       <c r="D30" t="s">
-        <v>855</v>
+        <v>546</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>834</v>
+        <v>525</v>
       </c>
       <c r="B31" t="s">
-        <v>839</v>
+        <v>530</v>
       </c>
       <c r="C31" t="s">
-        <v>852</v>
+        <v>543</v>
       </c>
       <c r="D31" t="s">
-        <v>856</v>
+        <v>547</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>840</v>
+        <v>531</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>841</v>
+        <v>532</v>
       </c>
       <c r="D33" t="s">
-        <v>857</v>
+        <v>548</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>842</v>
+        <v>533</v>
       </c>
       <c r="D34" t="s">
-        <v>858</v>
+        <v>549</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>843</v>
+        <v>534</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>859</v>
+        <v>550</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>844</v>
+        <v>535</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>845</v>
+        <v>536</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>846</v>
+        <v>537</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>847</v>
+        <v>538</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>239</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>861</v>
+        <v>552</v>
       </c>
       <c r="B45" t="s">
-        <v>864</v>
+        <v>555</v>
       </c>
       <c r="C45" t="s">
-        <v>865</v>
+        <v>556</v>
       </c>
       <c r="D45" t="s">
-        <v>866</v>
+        <v>557</v>
       </c>
       <c r="E45" t="s">
-        <v>869</v>
+        <v>560</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>862</v>
+        <v>553</v>
       </c>
       <c r="D46" t="s">
-        <v>867</v>
+        <v>558</v>
       </c>
       <c r="E46" t="s">
-        <v>870</v>
+        <v>561</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>863</v>
+        <v>554</v>
       </c>
       <c r="D47" t="s">
-        <v>868</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>
@@ -11085,24 +8267,24 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>593</v>
+        <v>318</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>594</v>
+        <v>319</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>595</v>
+        <v>320</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>596</v>
+        <v>321</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>597</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -11187,19 +8369,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>598</v>
+        <v>323</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>599</v>
+        <v>324</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>600</v>
+        <v>325</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>601</v>
+        <v>326</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>602</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -11308,7 +8490,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F22" s="1" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11316,12 +8498,12 @@
         <v>41</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="F24" s="2" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11329,7 +8511,7 @@
         <v>40</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -11338,25 +8520,25 @@
     </row>
     <row r="27" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>1020</v>
+        <v>619</v>
       </c>
       <c r="F27" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>603</v>
+        <v>328</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>604</v>
+        <v>329</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>605</v>
+        <v>330</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>606</v>
+        <v>331</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>607</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -11401,12 +8583,12 @@
     </row>
     <row r="40" spans="1:3" ht="96" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>1021</v>
+        <v>620</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>1022</v>
+        <v>621</v>
       </c>
     </row>
   </sheetData>
@@ -11433,212 +8615,212 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>589</v>
+        <v>314</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>590</v>
+        <v>315</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>591</v>
+        <v>316</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>592</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>195</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="D6" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="C7" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="B8" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="D8" t="s">
-        <v>199</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>197</v>
+        <v>159</v>
       </c>
       <c r="D9" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="D10" t="s">
-        <v>200</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="B11" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="B12" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="D12" t="s">
-        <v>201</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>202</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="D14" t="s">
-        <v>203</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s">
-        <v>204</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="D17" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="D18" t="s">
-        <v>207</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>180</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="D24" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="D25" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="D27" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="D29" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>187</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -11652,7 +8834,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="G1" sqref="G1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11666,41 +8848,41 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>608</v>
+        <v>333</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>609</v>
+        <v>334</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>610</v>
+        <v>335</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>611</v>
+        <v>336</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>612</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>613</v>
+        <v>338</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>614</v>
+        <v>339</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>615</v>
+        <v>340</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>616</v>
+        <v>341</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>617</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -11712,8 +8894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C38" zoomScale="101" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView zoomScale="101" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47:E174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11727,214 +8909,214 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1023</v>
+        <v>622</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>1024</v>
+        <v>623</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1025</v>
+        <v>624</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1026</v>
+        <v>625</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1027</v>
+        <v>626</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1028</v>
+        <v>627</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1057</v>
+        <v>656</v>
       </c>
       <c r="B5" t="s">
-        <v>1066</v>
+        <v>665</v>
       </c>
       <c r="C5" t="s">
-        <v>1087</v>
+        <v>686</v>
       </c>
       <c r="D5" t="s">
-        <v>1103</v>
+        <v>702</v>
       </c>
       <c r="E5" t="s">
-        <v>1106</v>
+        <v>705</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1059</v>
+        <v>658</v>
       </c>
       <c r="B6" t="s">
-        <v>1067</v>
+        <v>666</v>
       </c>
       <c r="C6" t="s">
-        <v>1088</v>
+        <v>687</v>
       </c>
       <c r="D6" t="s">
-        <v>1104</v>
+        <v>703</v>
       </c>
       <c r="E6" t="s">
-        <v>1107</v>
+        <v>706</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1060</v>
+        <v>659</v>
       </c>
       <c r="B7" t="s">
-        <v>1068</v>
+        <v>667</v>
       </c>
       <c r="D7" t="s">
-        <v>1105</v>
+        <v>704</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1058</v>
+        <v>657</v>
       </c>
       <c r="C8" t="s">
-        <v>1089</v>
+        <v>688</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>1090</v>
+        <v>689</v>
       </c>
       <c r="E9" t="s">
-        <v>1108</v>
+        <v>707</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>1061</v>
+        <v>660</v>
       </c>
       <c r="B10" t="s">
-        <v>1069</v>
+        <v>668</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1091</v>
+        <v>690</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>1111</v>
+        <v>710</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>1070</v>
+        <v>669</v>
       </c>
       <c r="E11" t="s">
-        <v>1109</v>
+        <v>708</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1062</v>
+        <v>661</v>
       </c>
       <c r="C12" t="s">
-        <v>1092</v>
+        <v>691</v>
       </c>
       <c r="E12" t="s">
-        <v>1110</v>
+        <v>709</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1063</v>
+        <v>662</v>
       </c>
       <c r="B13" t="s">
-        <v>1071</v>
+        <v>670</v>
       </c>
       <c r="C13" t="s">
-        <v>1093</v>
+        <v>692</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>1072</v>
+        <v>671</v>
       </c>
       <c r="C14" t="s">
-        <v>1094</v>
+        <v>693</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1064</v>
+        <v>663</v>
       </c>
       <c r="C15" t="s">
-        <v>1095</v>
+        <v>694</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>1073</v>
+        <v>672</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1065</v>
+        <v>664</v>
       </c>
       <c r="B17" t="s">
-        <v>1074</v>
+        <v>673</v>
       </c>
       <c r="C17" t="s">
-        <v>1096</v>
+        <v>695</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>1075</v>
+        <v>674</v>
       </c>
       <c r="C18" t="s">
-        <v>1097</v>
+        <v>696</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>1076</v>
+        <v>675</v>
       </c>
       <c r="C19" t="s">
-        <v>1098</v>
+        <v>697</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>1077</v>
+        <v>676</v>
       </c>
       <c r="C21" t="s">
-        <v>1099</v>
+        <v>698</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>1078</v>
+        <v>677</v>
       </c>
       <c r="C22" t="s">
-        <v>1100</v>
+        <v>699</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>1079</v>
+        <v>678</v>
       </c>
       <c r="C23" t="s">
-        <v>1101</v>
+        <v>700</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>1080</v>
+        <v>679</v>
       </c>
       <c r="C24" t="s">
-        <v>1102</v>
+        <v>701</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>1081</v>
+        <v>680</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -11942,22 +9124,22 @@
     </row>
     <row r="28" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>1083</v>
+        <v>682</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>1082</v>
+        <v>681</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>1084</v>
+        <v>683</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
-        <v>1085</v>
+        <v>684</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -11965,17 +9147,17 @@
     </row>
     <row r="33" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>1086</v>
+        <v>685</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>1045</v>
+        <v>644</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>1029</v>
+        <v>628</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -11983,61 +9165,53 @@
     </row>
     <row r="38" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>1035</v>
+        <v>634</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1036</v>
+        <v>635</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>1032</v>
+        <v>631</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>1030</v>
+        <v>629</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>1031</v>
+        <v>630</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>1033</v>
+        <v>632</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>1112</v>
+        <v>711</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>1034</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>1136</v>
-      </c>
+        <v>633</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:5" ht="128" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>1113</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>1021</v>
-      </c>
+        <v>639</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D46" s="2"/>
@@ -12045,533 +9219,419 @@
     </row>
     <row r="47" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>1186</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>640</v>
+      </c>
+      <c r="D47" s="9"/>
+      <c r="E47" s="11"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D48" s="2"/>
-      <c r="E48" s="11" t="s">
-        <v>1138</v>
-      </c>
+      <c r="E48" s="11"/>
     </row>
     <row r="49" spans="2:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>1187</v>
-      </c>
+        <v>641</v>
+      </c>
+      <c r="D49" s="9"/>
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D50" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>1139</v>
-      </c>
+      <c r="D50" s="9"/>
+      <c r="E50" s="11"/>
     </row>
     <row r="51" spans="2:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>1189</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>1140</v>
-      </c>
+        <v>642</v>
+      </c>
+      <c r="D51" s="9"/>
+      <c r="E51" s="11"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E52" s="2"/>
     </row>
     <row r="53" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>1141</v>
-      </c>
+        <v>643</v>
+      </c>
+      <c r="E53" s="11"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E54" s="2"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="E56" s="11" t="s">
-        <v>1143</v>
-      </c>
+        <v>638</v>
+      </c>
+      <c r="E55" s="11"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E56" s="11"/>
     </row>
     <row r="57" spans="2:5" ht="80" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
-        <v>1048</v>
+        <v>647</v>
       </c>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="2:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="E58" s="11" t="s">
-        <v>1144</v>
-      </c>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E58" s="11"/>
     </row>
     <row r="59" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
-        <v>1046</v>
+        <v>645</v>
       </c>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="2:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="E60" s="11" t="s">
-        <v>1145</v>
-      </c>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E60" s="11"/>
     </row>
     <row r="61" spans="2:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
-        <v>1047</v>
+        <v>646</v>
       </c>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="2:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="E62" s="11" t="s">
-        <v>1146</v>
-      </c>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E62" s="11"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
-        <v>1037</v>
+        <v>636</v>
       </c>
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="2:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="E64" s="11" t="s">
-        <v>1147</v>
-      </c>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E64" s="11"/>
     </row>
     <row r="65" spans="2:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
-        <v>1049</v>
+        <v>648</v>
       </c>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="2:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="E66" s="11" t="s">
-        <v>1148</v>
-      </c>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E66" s="11"/>
     </row>
     <row r="67" spans="2:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
-        <v>1050</v>
+        <v>649</v>
       </c>
       <c r="E67" s="2"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E68" s="11" t="s">
-        <v>1149</v>
-      </c>
+      <c r="E68" s="11"/>
     </row>
     <row r="69" spans="2:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
-        <v>1051</v>
+        <v>650</v>
       </c>
       <c r="E69" s="2"/>
     </row>
-    <row r="70" spans="2:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="E70" s="11" t="s">
-        <v>1150</v>
-      </c>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E70" s="11"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
-        <v>1038</v>
+        <v>637</v>
       </c>
       <c r="E71" s="2"/>
     </row>
-    <row r="72" spans="2:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="E72" s="11" t="s">
-        <v>1151</v>
-      </c>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E72" s="11"/>
     </row>
     <row r="73" spans="2:5" ht="80" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
-        <v>1052</v>
+        <v>651</v>
       </c>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="2:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="E74" s="11" t="s">
-        <v>1152</v>
-      </c>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E74" s="11"/>
     </row>
     <row r="75" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B75" s="2" t="s">
-        <v>1053</v>
+        <v>652</v>
       </c>
       <c r="E75" s="2"/>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E76" s="9">
-        <v>80</v>
-      </c>
+      <c r="E76" s="9"/>
     </row>
     <row r="77" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
-        <v>1054</v>
+        <v>653</v>
       </c>
       <c r="E77" s="2"/>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E78" s="11" t="s">
-        <v>1153</v>
-      </c>
+      <c r="E78" s="11"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="E79" s="11" t="s">
-        <v>1154</v>
-      </c>
+        <v>654</v>
+      </c>
+      <c r="E79" s="11"/>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="1:5" ht="176" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>1056</v>
-      </c>
-      <c r="E81" s="11" t="s">
-        <v>1155</v>
-      </c>
+        <v>655</v>
+      </c>
+      <c r="E81" s="11"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E82" s="2"/>
     </row>
-    <row r="83" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="E83" s="11" t="s">
-        <v>1156</v>
-      </c>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E83" s="11"/>
     </row>
     <row r="84" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>1115</v>
+        <v>714</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>1114</v>
+        <v>713</v>
       </c>
       <c r="E84" s="2"/>
     </row>
-    <row r="85" spans="1:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="E85" s="11" t="s">
-        <v>1157</v>
-      </c>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E85" s="11"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>1116</v>
+        <v>715</v>
       </c>
       <c r="E86" s="2"/>
     </row>
-    <row r="87" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>1117</v>
-      </c>
-      <c r="E87" s="11" t="s">
-        <v>1158</v>
-      </c>
+        <v>716</v>
+      </c>
+      <c r="E87" s="11"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>1118</v>
+        <v>717</v>
       </c>
       <c r="E88" s="2"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E89" s="11" t="s">
-        <v>1159</v>
-      </c>
+      <c r="E89" s="11"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>1119</v>
+        <v>718</v>
       </c>
       <c r="E90" s="2"/>
     </row>
-    <row r="91" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B91" s="1" t="s">
-        <v>1120</v>
-      </c>
-      <c r="E91" s="11" t="s">
-        <v>1160</v>
-      </c>
+        <v>719</v>
+      </c>
+      <c r="E91" s="11"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E92" s="2"/>
     </row>
     <row r="93" spans="1:5" ht="176" x14ac:dyDescent="0.2">
       <c r="B93" s="2" t="s">
-        <v>1121</v>
-      </c>
-      <c r="E93" s="11" t="s">
-        <v>1161</v>
-      </c>
+        <v>720</v>
+      </c>
+      <c r="E93" s="11"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E94" s="2"/>
     </row>
     <row r="95" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B95" s="2" t="s">
-        <v>1122</v>
-      </c>
-      <c r="E95" s="11" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="E96" s="11" t="s">
-        <v>1163</v>
-      </c>
+        <v>721</v>
+      </c>
+      <c r="E95" s="11"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E96" s="11"/>
     </row>
     <row r="97" spans="2:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B97" s="2" t="s">
-        <v>1123</v>
+        <v>722</v>
       </c>
       <c r="E97" s="2"/>
     </row>
-    <row r="98" spans="2:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="E98" s="11" t="s">
-        <v>1164</v>
-      </c>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E98" s="11"/>
     </row>
     <row r="99" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B99" s="2" t="s">
-        <v>1124</v>
+        <v>723</v>
       </c>
       <c r="E99" s="2"/>
     </row>
-    <row r="100" spans="2:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="E100" s="11" t="s">
-        <v>1165</v>
-      </c>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E100" s="11"/>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B101" s="1" t="s">
-        <v>1125</v>
+        <v>724</v>
       </c>
       <c r="E101" s="2"/>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E102" s="14" t="s">
-        <v>126</v>
-      </c>
+      <c r="E102" s="14"/>
     </row>
     <row r="103" spans="2:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B103" s="2" t="s">
-        <v>1126</v>
+        <v>725</v>
       </c>
       <c r="E103" s="2"/>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E104" s="9">
-        <v>81</v>
-      </c>
+      <c r="E104" s="9"/>
     </row>
     <row r="105" spans="2:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B105" s="2" t="s">
-        <v>1127</v>
+        <v>726</v>
       </c>
       <c r="E105" s="2"/>
     </row>
-    <row r="106" spans="2:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="E106" s="12" t="s">
-        <v>1166</v>
-      </c>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E106" s="12"/>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B107" s="1" t="s">
-        <v>1128</v>
+        <v>727</v>
       </c>
       <c r="E107" s="2"/>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E108" s="11" t="s">
-        <v>1167</v>
-      </c>
+      <c r="E108" s="11"/>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B109" s="1" t="s">
-        <v>1129</v>
+        <v>728</v>
       </c>
       <c r="E109" s="2"/>
     </row>
-    <row r="110" spans="2:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="E110" s="11" t="s">
-        <v>1168</v>
-      </c>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E110" s="11"/>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B111" s="2" t="s">
-        <v>1130</v>
+        <v>729</v>
       </c>
       <c r="E111" s="2"/>
     </row>
-    <row r="112" spans="2:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="E112" s="11" t="s">
-        <v>1169</v>
-      </c>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E112" s="11"/>
     </row>
     <row r="113" spans="2:5" ht="80" x14ac:dyDescent="0.2">
       <c r="B113" s="2" t="s">
-        <v>1131</v>
+        <v>730</v>
       </c>
       <c r="E113" s="2"/>
     </row>
-    <row r="114" spans="2:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="E114" s="11" t="s">
-        <v>1170</v>
-      </c>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E114" s="11"/>
     </row>
     <row r="115" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B115" s="2" t="s">
-        <v>1132</v>
+        <v>731</v>
       </c>
       <c r="E115" s="2"/>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E116" s="11" t="s">
-        <v>1171</v>
-      </c>
+      <c r="E116" s="11"/>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B117" s="1" t="s">
-        <v>1133</v>
-      </c>
-      <c r="E117" s="11" t="s">
-        <v>1172</v>
-      </c>
+        <v>732</v>
+      </c>
+      <c r="E117" s="11"/>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E118" s="2"/>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B119" s="1" t="s">
-        <v>1134</v>
-      </c>
-      <c r="E119" s="11" t="s">
-        <v>1173</v>
-      </c>
+        <v>733</v>
+      </c>
+      <c r="E119" s="11"/>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E120" s="11" t="s">
-        <v>1174</v>
-      </c>
+      <c r="E120" s="11"/>
     </row>
     <row r="121" spans="2:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B121" s="2" t="s">
-        <v>1135</v>
+        <v>734</v>
       </c>
       <c r="E121" s="2"/>
     </row>
-    <row r="122" spans="2:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="E122" s="11" t="s">
-        <v>1175</v>
-      </c>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E122" s="11"/>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E123" s="2"/>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E124" s="11" t="s">
-        <v>1176</v>
-      </c>
+      <c r="E124" s="11"/>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E125" s="11" t="s">
-        <v>1177</v>
-      </c>
+      <c r="E125" s="11"/>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E126" s="2"/>
     </row>
-    <row r="127" spans="2:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="E127" s="11" t="s">
-        <v>1178</v>
-      </c>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E127" s="11"/>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E128" s="2"/>
     </row>
-    <row r="129" spans="5:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="E129" s="11" t="s">
-        <v>1179</v>
-      </c>
+    <row r="129" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E129" s="11"/>
     </row>
     <row r="130" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E130" s="2"/>
     </row>
-    <row r="131" spans="5:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="E131" s="11" t="s">
-        <v>1180</v>
-      </c>
+    <row r="131" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E131" s="11"/>
     </row>
     <row r="132" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E132" s="2"/>
     </row>
     <row r="133" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E133" s="9">
-        <v>82</v>
-      </c>
+      <c r="E133" s="9"/>
     </row>
     <row r="134" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E134" s="2"/>
     </row>
-    <row r="135" spans="5:5" ht="128" x14ac:dyDescent="0.2">
-      <c r="E135" s="9" t="s">
-        <v>1181</v>
-      </c>
+    <row r="135" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E135" s="9"/>
     </row>
     <row r="136" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E136" s="2"/>
     </row>
-    <row r="137" spans="5:5" ht="112" x14ac:dyDescent="0.2">
-      <c r="E137" s="9" t="s">
-        <v>1182</v>
-      </c>
+    <row r="137" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E137" s="9"/>
     </row>
     <row r="138" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E138" s="2"/>
     </row>
-    <row r="139" spans="5:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="E139" s="9" t="s">
-        <v>1183</v>
-      </c>
+    <row r="139" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E139" s="9"/>
     </row>
     <row r="140" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E140" s="2"/>
     </row>
-    <row r="141" spans="5:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="E141" s="9" t="s">
-        <v>1184</v>
-      </c>
+    <row r="141" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E141" s="9"/>
     </row>
     <row r="142" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E142" s="2"/>
     </row>
-    <row r="143" spans="5:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="E143" s="9" t="s">
-        <v>1185</v>
-      </c>
+    <row r="143" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E143" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12597,29 +9657,29 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -12629,12 +9689,28 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="I2:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="9" max="9" width="53" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I2" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="4" spans="9:9" ht="96" x14ac:dyDescent="0.2">
+      <c r="I4" s="16" t="s">
+        <v>736</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/manish/courseLaw/LMR/Workbook1.xlsx
+++ b/manish/courseLaw/LMR/Workbook1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="25600" windowHeight="14480" tabRatio="500" firstSheet="12" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="25600" windowHeight="14480" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Contracts" sheetId="1" r:id="rId1"/>
@@ -399,7 +399,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="879">
   <si>
     <t>FORMATION OF CONTRACT</t>
   </si>
@@ -3219,11 +3219,992 @@
     <t>Since D agreed to perform the duties of B, D assumed the same liability as B. And since C has the same enforcement rights as A, C's rights and remedies to enforce the contract against D are the same as B.</t>
   </si>
   <si>
-    <t>Promissory Estoppel?</t>
-  </si>
-  <si>
-    <r>
-      <t>Under the doctrine of Promissory estoppel a party can seek enforcement of an otherwise unenforceable promise where 1) a party </t>
+    <t>E. Breach?</t>
+  </si>
+  <si>
+    <t>1. Was there an Anticipatory Breach?</t>
+  </si>
+  <si>
+    <t>2. Waiver of breach?</t>
+  </si>
+  <si>
+    <t>3. Was there a Breach of Implied Covenant?</t>
+  </si>
+  <si>
+    <t>4. Breach major or minor?</t>
+  </si>
+  <si>
+    <t>5. Effect of Breach on Divisible Contract?</t>
+  </si>
+  <si>
+    <t>6. Waiver of Condition?</t>
+  </si>
+  <si>
+    <t>7. Was there an Accord and Satisfaction?</t>
+  </si>
+  <si>
+    <t>1. Common Law Remedy of Non Breaching Party?</t>
+  </si>
+  <si>
+    <t>2. Consequential Damages?</t>
+  </si>
+  <si>
+    <t>4. UCC Remedy of Non Breaching Buyer?</t>
+  </si>
+  <si>
+    <t>3. Common law remedy of Breaching Party?</t>
+  </si>
+  <si>
+    <t>F. Remedies</t>
+  </si>
+  <si>
+    <t>5. UCC Remedy of Non-Breaching Seller?</t>
+  </si>
+  <si>
+    <t>6. UCC Remedy of Breaching Seller?</t>
+  </si>
+  <si>
+    <t>7. Is liquidated clause enforceable?</t>
+  </si>
+  <si>
+    <t>8. Was there an Implied-In-Law contract?</t>
+  </si>
+  <si>
+    <t>9. Can Promissory Estoppel be Pled?</t>
+  </si>
+  <si>
+    <t>10. Can Detrimental Reliance be pled?</t>
+  </si>
+  <si>
+    <t>11. Is Equitable Restitution appropriate?</t>
+  </si>
+  <si>
+    <t>12. Is Specific Performance appropriate?</t>
+  </si>
+  <si>
+    <t>Specific performance is an equitable remedy.</t>
+  </si>
+  <si>
+    <t>of unique property.</t>
+  </si>
+  <si>
+    <t>Not for services as it is against constitution</t>
+  </si>
+  <si>
+    <t>But Business organization may be ordered.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Court directs parties to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>deliver possession and title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Awarded by Court of Equity</t>
+  </si>
+  <si>
+    <t>When parties have no legal remedy.</t>
+  </si>
+  <si>
+    <t>Purpose may be:</t>
+  </si>
+  <si>
+    <t>1. Compensate for injuries suffered.</t>
+  </si>
+  <si>
+    <t>2. Prevent Unjust Enrichment.</t>
+  </si>
+  <si>
+    <t>3. Prevent frustration of reasonable expectations.</t>
+  </si>
+  <si>
+    <t>4. Restore the status quo</t>
+  </si>
+  <si>
+    <t>Right to COMPENSATORY DAMAGES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculated as sum of </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reliance Damages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, out of pocket expenses which is paid by non breaching party before the breach in reliance on the contract.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expectation Damages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, expected benefits of the contract lost because of the breach.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Incidental Damages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, out of pocket expenses which non breaching party paid because of breach (after breach) like storage costs, etc.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Consequential Damages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, lost profits on collateral contracts that failed because of breach.</t>
+    </r>
+  </si>
+  <si>
+    <t>Non breaching party must prove their damages with</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Could</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> not have been avoided.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. That they were </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Caused</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> by breach,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Substantial </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Certainity,</t>
+    </r>
+  </si>
+  <si>
+    <t>and has right to an award of all damages caused.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Non breaching party </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>freed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from all obligations</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Breaching party - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>major</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> breach</t>
+    </r>
+  </si>
+  <si>
+    <t>Breaching party - substantially performed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non breaching party is obligated </t>
+  </si>
+  <si>
+    <t>with an OFFSET for damages against contract price.</t>
+  </si>
+  <si>
+    <t>Non breaching buyer of unique property</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can ask for SPECIFIC PERFORMANCE </t>
+  </si>
+  <si>
+    <t>to obtain title, possession or performance.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Under </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hadley v. Baxendale</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, party may recover Consequential Damage like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">lost profits </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>expected from collateral contracts.</t>
+    </r>
+  </si>
+  <si>
+    <t>that fail because contract was breached, only if it can be shown the damages were CCCC</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4) the loss </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Couldn't</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> be avoided.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3) Clearly </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Caused</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (resulting from) the breach and</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Certain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (measurable) as to dollar value</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Contemplated</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (foreseen) by both parties at time of contract.</t>
+    </r>
+  </si>
+  <si>
+    <t>Those who have SUBSTANTIALLY PERFORMED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has right to recover </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTRACT PRICE LESS AN OFFSET </t>
+  </si>
+  <si>
+    <t>for damages caused by the breach.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Those who did MAJOR BREACH has to seek </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESTITUTION for AMOUNTS PAID and </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENEFITS CONFERRED to the extent they </t>
+  </si>
+  <si>
+    <t>exceed the damages of the non breaching party</t>
+  </si>
+  <si>
+    <t>to prevent UNJUST ENRICHMENT.</t>
+  </si>
+  <si>
+    <t>Under the PERFECT TENDER RULE of the UCC</t>
+  </si>
+  <si>
+    <t>a non breaching buyer can either ACCEPT or REJECT</t>
+  </si>
+  <si>
+    <t>non-confirming goods.</t>
+  </si>
+  <si>
+    <t>Also they can REPUDIATE the contract and COVER,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">or they can AFFIRM the contract and </t>
+  </si>
+  <si>
+    <t>DEMAND CONFORMING GOODS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If goods are UNIQUE, they can ask for special </t>
+  </si>
+  <si>
+    <t>performance to obtain title and possession.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">but confirming goods at a PUBLIC or PRIVATE </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Under UCC, a non-breaching seller can </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sell rejected</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Salvage Sale</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (with notice to breaching buyer)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">and demand the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>excess</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> if any, of the </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>contract price</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> over the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Salvage price</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>In Lost Volume Situation, sellers can sell goods to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">someone else, they can demand the </t>
+  </si>
+  <si>
+    <t>BENEFIT OF BARGAIN of their "lost profits"</t>
+  </si>
+  <si>
+    <t>of acquiring the Goods.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>excess</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> if any, of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Contract price</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>over</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> their cost</t>
+    </r>
+  </si>
+  <si>
+    <t>And if goods are special made or for some reason</t>
+  </si>
+  <si>
+    <t>cannot be sold elsewhere, seller can "sue on contract</t>
+  </si>
+  <si>
+    <t>price" to get judgment for that amount.</t>
+  </si>
+  <si>
+    <t>Under UCC, buyer seller that GIVES NOTICE of an</t>
+  </si>
+  <si>
+    <t>intent to cure has an absolute right to cure the</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has a right to REASONABLE EXTRA TIME, in which </t>
+  </si>
+  <si>
+    <t>to cure beyond the contract period if non-confirming</t>
+  </si>
+  <si>
+    <t>goods have been shipped with a reasonable belief</t>
+  </si>
+  <si>
+    <t>they would satisfy the needs of the buyer.</t>
+  </si>
+  <si>
+    <t>breach WITHIN THE CONTRACT PERIOD, and also</t>
+  </si>
+  <si>
+    <t>It specifies that sole remedy of non breaching</t>
+  </si>
+  <si>
+    <t>party is a specified amount of money damages.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">These clauses are enforceable if </t>
+  </si>
+  <si>
+    <t>1. Damages arising from a breach were</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Uncertain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> at the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>time of Contract.</t>
+    </r>
+  </si>
+  <si>
+    <t>at the time of contract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3) enforcement after a breach will provide a </t>
+  </si>
+  <si>
+    <t>party.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>REASONABLE REMEDY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for the non-breaching</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. the specified amount was </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>REASONABLE</t>
+    </r>
+  </si>
+  <si>
+    <t>Liquidated damage in case of Unique property is unenforceable and specific performance is the only resort.</t>
+  </si>
+  <si>
+    <t>For implied in law contracts</t>
+  </si>
+  <si>
+    <t>where there is no legal enforceable contract</t>
+  </si>
+  <si>
+    <t>Court may either award amount necessary to prevent</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>unjust enrichment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to the respondent,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">or amount necessary to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prevent frustration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reasonable expectations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of the movant.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Under the doctrine of Detrimental Reliance a party can seek enforcement of an otherwise unenforceable promise where 1) a party </t>
     </r>
     <r>
       <rPr>
@@ -3274,15 +4255,740 @@
         <color rgb="FF000000"/>
         <rFont val="HelveticaNeue"/>
       </rPr>
-      <t> by the other party and 4) injustice will result if the promise is not enforce.</t>
-    </r>
+      <t xml:space="preserve"> on </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t>either deliberate false representation of fact or misleading behavior</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t xml:space="preserve"> and 4) injustice will result if the promise is not enforce.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Under the doctrine of Promissory estoppel a party can seek enforcement of an otherwise unenforceable promise where 1) a party </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t>made a promise</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t>, 2) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t>intending to induce reliance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t>, 3) there was </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t>reasonable reliance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t>by the other party</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="HelveticaNeue"/>
+      </rPr>
+      <t xml:space="preserve"> and 4) injustice will result if the promise is not enforce.</t>
+    </r>
+  </si>
+  <si>
+    <t>Under contract law an ACCORD AND SATISFACTION</t>
+  </si>
+  <si>
+    <t>is binding on both parties</t>
+  </si>
+  <si>
+    <t>the other party has breached the original contract.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">if there is an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>agreement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> by the parties to settle a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reasonable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>good faith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> claim by one party that </t>
+    </r>
+  </si>
+  <si>
+    <t>Party performs a contractual duty</t>
+  </si>
+  <si>
+    <t>that is subject to condition precedent</t>
+  </si>
+  <si>
+    <t>the condition fails to hold,</t>
+  </si>
+  <si>
+    <t>the party Waives the condition.</t>
+  </si>
+  <si>
+    <t>Waiving party has legal right to retract the waiver.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Under </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>contract law</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> if a party performs a contractual duty that is s</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ubject to a condition precedent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> at a time the condition </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fails to hold</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, the party </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WAIVES THE CONDITION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">e.g Here, on June 1, Painter was ready to start but an IMPLIED CONDITION PRECEDENT that the drywall be completed first was not satisfied. Therefore, because an IMPLIED CONDITION PRECEDENT was not satisfied, Painter's start was waived. </t>
+  </si>
+  <si>
+    <t>Under the UCC a breach with respect to any shipment</t>
+  </si>
+  <si>
+    <t>of goods under Divisble Contract</t>
+  </si>
+  <si>
+    <t>does not constitute a breach of entire contract.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIVISIBLE contract is one under which goods are to be delivered in separate shipments which can each be evaluated separately under the contract. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realize the first party to breach a contract is the breaching party and after that the other party is the non-breaching party no matter what they do later. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For UCC, Under the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Perfect Tender Rule</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, any </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shipment of non-confirming goods</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>breach</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of contract.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">so that non breaching party can seek </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Immediate Payment </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>of Damages.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>accelerates the future contractual duties</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of breaching party to present</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A major breach </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>excuses</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the non breaching party from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>all further performance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of contractual duties </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A MAJOR BREACH is either an act which deprives the other party of the BENEFIT OF THE BARGAIN or the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>violation of an EXPRESS OR IMPLIED MATERIAL CONDITION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> by a party, regardless of its effect on the other party. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Under common law, Breach is a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>failure to perform</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a contractual </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>duty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> when it becomes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>due.</t>
+    </r>
+  </si>
+  <si>
+    <t>Under contract law an anticipatory breach is a CLEAR STATEMENT OR INDICATION that a party WILL NOT PERFORM future contractual duties when they become due.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This is major breach , non breaching parties are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>excused</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from performance of all remaining contractual duties, and the future duties of the breaching party are ACCELERATED to the present.</t>
+    </r>
+  </si>
+  <si>
+    <t>If a party has a REASONABLE BASES to believe the other party may not perform future contractual duties, the party may demand REASONABLE ASSURANCES and REFUSE TO PERFORM until they are provided. Reasonable assurance means a financial gurantee or payment into escrow.</t>
+  </si>
+  <si>
+    <t>If reasonable assurances are properly demanded and not provided, the failure to respond constitutes an anticipatory breach.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Under contract law if a non-breaching party lets the breaching party continue performance after major breach it </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">WAIVES the breach. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The waiver cannot be revoked and the non breaching party is forever ESTOPPED from citing the breach as major and can only cite it as a minor breach.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">An implied material condition of every contract is that parties must act in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>good faith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and are bound by an IMPLIED COVENANT that they will act as a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reasonably</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>necessary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>help</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>other parties</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> enjoy the benefits of the contract and they will not act in any way to prevent him from occuring.</t>
+    </r>
+  </si>
+  <si>
+    <t>A breach of Good Faith or acting in a bad faith means either deciet, concealment or fraud at the time of execution or else the breach of an implied covenant.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3383,6 +5089,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="HelveticaNeue"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3403,36 +5116,27 @@
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3446,10 +5150,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3744,6 +5457,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -5408,8 +7122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="I14" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28:K112"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5839,14 +7553,9 @@
       <c r="K109" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="1" OnePage="0" WScale="100"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5854,7 +7563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E305"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="101" workbookViewId="0">
+    <sheetView zoomScale="101" workbookViewId="0">
       <selection activeCell="A37" sqref="A37:C314"/>
     </sheetView>
   </sheetViews>
@@ -7275,7 +8984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="D24" sqref="D24:D120"/>
     </sheetView>
   </sheetViews>
@@ -7687,6 +9396,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -8241,6 +9951,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -8248,7 +9959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="97" zoomScaleNormal="97" zoomScalePageLayoutView="97" workbookViewId="0">
+    <sheetView zoomScale="97" zoomScaleNormal="97" zoomScalePageLayoutView="97" workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
@@ -8825,6 +10536,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -8887,6 +10599,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -9641,18 +11354,18 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="101" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.83203125" customWidth="1"/>
-    <col min="2" max="2" width="41.5" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" customWidth="1"/>
-    <col min="4" max="4" width="42" customWidth="1"/>
+    <col min="1" max="1" width="48.5" customWidth="1"/>
+    <col min="2" max="2" width="47.33203125" customWidth="1"/>
+    <col min="3" max="3" width="45.5" customWidth="1"/>
+    <col min="4" max="4" width="55" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -9674,7 +11387,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>185</v>
       </c>
@@ -9682,35 +11395,609 @@
         <v>186</v>
       </c>
     </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="D33" s="2" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="D34" s="2" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="D36" s="2" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>861</v>
+      </c>
+      <c r="B42" t="s">
+        <v>854</v>
+      </c>
+      <c r="C42" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>862</v>
+      </c>
+      <c r="B43" t="s">
+        <v>855</v>
+      </c>
+      <c r="C43" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>863</v>
+      </c>
+      <c r="B44" t="s">
+        <v>856</v>
+      </c>
+      <c r="C44" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>857</v>
+      </c>
+      <c r="C45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="B51" s="2" t="s">
+        <v>860</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="I2:I4"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="43.1640625" customWidth="1"/>
+    <col min="2" max="3" width="46" customWidth="1"/>
+    <col min="4" max="4" width="46.83203125" customWidth="1"/>
     <col min="9" max="9" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I2" s="1" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="4" spans="9:9" ht="96" x14ac:dyDescent="0.2">
-      <c r="I4" s="16" t="s">
-        <v>736</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>768</v>
+      </c>
+      <c r="C5" t="s">
+        <v>793</v>
+      </c>
+      <c r="D5" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>769</v>
+      </c>
+      <c r="C6" t="s">
+        <v>794</v>
+      </c>
+      <c r="D6" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="C7" t="s">
+        <v>795</v>
+      </c>
+      <c r="D7" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="C8" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="D9" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="C10" t="s">
+        <v>797</v>
+      </c>
+      <c r="D10" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>790</v>
+      </c>
+      <c r="C11" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="B12" t="s">
+        <v>789</v>
+      </c>
+      <c r="C12" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="C13" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="C14" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>802</v>
+      </c>
+      <c r="B34" t="s">
+        <v>811</v>
+      </c>
+      <c r="C34" t="s">
+        <v>823</v>
+      </c>
+      <c r="D34" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>803</v>
+      </c>
+      <c r="B35" t="s">
+        <v>810</v>
+      </c>
+      <c r="C35" t="s">
+        <v>824</v>
+      </c>
+      <c r="D35" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>804</v>
+      </c>
+      <c r="B36" t="s">
+        <v>812</v>
+      </c>
+      <c r="C36" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>813</v>
+      </c>
+      <c r="C37" t="s">
+        <v>825</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>805</v>
+      </c>
+      <c r="B38" t="s">
+        <v>814</v>
+      </c>
+      <c r="C38" t="s">
+        <v>826</v>
+      </c>
+      <c r="D38" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>806</v>
+      </c>
+      <c r="C39" t="s">
+        <v>827</v>
+      </c>
+      <c r="D39" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>807</v>
+      </c>
+      <c r="B40" t="s">
+        <v>815</v>
+      </c>
+      <c r="C40" t="s">
+        <v>828</v>
+      </c>
+      <c r="D40" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>816</v>
+      </c>
+      <c r="D41" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>808</v>
+      </c>
+      <c r="B42" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>809</v>
+      </c>
+      <c r="B43" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>830</v>
+      </c>
+      <c r="B55" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>831</v>
+      </c>
+      <c r="B56" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>832</v>
+      </c>
+      <c r="B58" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>833</v>
+      </c>
+      <c r="B59" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>834</v>
+      </c>
+      <c r="B60" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>839</v>
+      </c>
+      <c r="B61" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>838</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>837</v>
+      </c>
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>848</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>847</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/manish/courseLaw/LMR/Workbook1.xlsx
+++ b/manish/courseLaw/LMR/Workbook1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="25600" windowHeight="14480" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="25600" windowHeight="14480" tabRatio="500" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Contracts" sheetId="1" r:id="rId1"/>
@@ -52,6 +52,38 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
+    <comment ref="A48" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+Malicious mischief is the malicious destruction of property.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
     <comment ref="D16" authorId="0">
       <text>
         <r>
@@ -78,7 +110,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Microsoft Office User</author>
@@ -178,7 +210,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Microsoft Office User</author>
@@ -233,7 +265,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Microsoft Office User</author>
@@ -399,7 +431,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="1096">
   <si>
     <t>FORMATION OF CONTRACT</t>
   </si>
@@ -4975,13 +5007,744 @@
   </si>
   <si>
     <t>A breach of Good Faith or acting in a bad faith means either deciet, concealment or fraud at the time of execution or else the breach of an implied covenant.</t>
+  </si>
+  <si>
+    <t>11. Lack of Intent?</t>
+  </si>
+  <si>
+    <t>there is sufficient INTENT to enter into contract</t>
+  </si>
+  <si>
+    <t>if objective observer listening to the parties</t>
+  </si>
+  <si>
+    <r>
+      <t>that</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> assent would form a bargain.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">from their </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">communications </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">would have </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reasonably concluded</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Under </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Objective Main Rule</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>12. Lack of Consideration?</t>
+  </si>
+  <si>
+    <t>Every valid contract and modification</t>
+  </si>
+  <si>
+    <t>must be supported by</t>
+  </si>
+  <si>
+    <t>Consideration</t>
+  </si>
+  <si>
+    <t>a Bargained for exchange posing sufficient Legal Detrriment that law will enforce the agreement.</t>
+  </si>
+  <si>
+    <t>Under UCC</t>
+  </si>
+  <si>
+    <t>Contract can be modified without consideration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unconscionable contract is </t>
+  </si>
+  <si>
+    <t>not enforceable because there is</t>
+  </si>
+  <si>
+    <t>NO REASONABLE FINDING OF INTENT</t>
+  </si>
+  <si>
+    <t>to enter into the contract.</t>
+  </si>
+  <si>
+    <t>Adhesion Contract is a take it or leave it</t>
+  </si>
+  <si>
+    <t>that party is forced to agree it,</t>
+  </si>
+  <si>
+    <t>it is often unenforceable.</t>
+  </si>
+  <si>
+    <t>Only contract with good faith are enforceable</t>
+  </si>
+  <si>
+    <t>No contract with illegal threat is valid.</t>
+  </si>
+  <si>
+    <t>Deliberate act to create threats of economic</t>
+  </si>
+  <si>
+    <t>harm are not valid.</t>
+  </si>
+  <si>
+    <t>Concealment of material fact</t>
+  </si>
+  <si>
+    <t>by party with duty to reveal facts</t>
+  </si>
+  <si>
+    <t>or misrepresenting the facts</t>
+  </si>
+  <si>
+    <t>is unenforceable.</t>
+  </si>
+  <si>
+    <t>Contract is unenforceable against</t>
+  </si>
+  <si>
+    <t>who lacks legal capacity</t>
+  </si>
+  <si>
+    <t>exceptions are necessities of life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unenforceable to contract </t>
+  </si>
+  <si>
+    <t>with illegal purpose</t>
+  </si>
+  <si>
+    <t>If contract becomes impossible to perform</t>
+  </si>
+  <si>
+    <t>because of events beyond the control of the parties.</t>
+  </si>
+  <si>
+    <t>Contract is void if performance by a party</t>
+  </si>
+  <si>
+    <t>would be financially burdensome</t>
+  </si>
+  <si>
+    <t>because of events beyond the control of parties</t>
+  </si>
+  <si>
+    <t>that it would cause an injustice.</t>
+  </si>
+  <si>
+    <t>party enter into contract</t>
+  </si>
+  <si>
+    <t>knowingly that failure of some condition</t>
+  </si>
+  <si>
+    <t>with deny benefit of bargain to one party</t>
+  </si>
+  <si>
+    <t>due to events beyong their control.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And failure of which excues both the parties </t>
+  </si>
+  <si>
+    <t>from agreement.</t>
+  </si>
+  <si>
+    <t>Under peerless,</t>
+  </si>
+  <si>
+    <t>parties enter into contract because of</t>
+  </si>
+  <si>
+    <t>misunderstanding as to material fact.</t>
+  </si>
+  <si>
+    <t>Contract is void.</t>
+  </si>
+  <si>
+    <t>One party enters into the contract</t>
+  </si>
+  <si>
+    <t>because of misuderstanding of material fact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">majority view, contract is valid, </t>
+  </si>
+  <si>
+    <t>unless other party knows about it</t>
+  </si>
+  <si>
+    <t>minority view, contract is void if</t>
+  </si>
+  <si>
+    <t>1) party discover mistake quickly</t>
+  </si>
+  <si>
+    <t>2) give prompt notice of mistake</t>
+  </si>
+  <si>
+    <t>3) reimburse the other party for any expense.</t>
+  </si>
+  <si>
+    <t>Issues</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>J2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Does UCC apply? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Are the parties MERCHANTS? </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. Was the communication of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman"/>
+      </rPr>
+      <t xml:space="preserve">[date] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Italic"/>
+      </rPr>
+      <t xml:space="preserve">an OFFER? </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Was the offer a MERCHANT’S FIRM OFFER? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Was it an offer for a UNILATERAL CONTRACT? </t>
+  </si>
+  <si>
+    <t>6. Was the communication (action) of [date] an (implied) ACCEPTANCE?</t>
+  </si>
+  <si>
+    <t>7. Did the VARYING TERMS become part of the contract?</t>
+  </si>
+  <si>
+    <t>8. Had the OFFER LAPSED before acceptance was attempted?</t>
+  </si>
+  <si>
+    <t>9. Was the communication of [date] an EFFECTIVE ACCEPTANCE?</t>
+  </si>
+  <si>
+    <t>10. Was the communication of [date] an EFFECTIVE REJECTION?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11. Was the communication of [date] an EFFECTIVE REVOCATION? </t>
+  </si>
+  <si>
+    <t>12. Was there an IMPLIED-IN-FACT CONTRACT?</t>
+  </si>
+  <si>
+    <t>13. Is a WRITING needed?</t>
+  </si>
+  <si>
+    <t>14. What were the CONTRACT TERMS?</t>
+  </si>
+  <si>
+    <t>15. Was TIMELY PERFORMANCE a MATERIAL CONDITION?</t>
+  </si>
+  <si>
+    <t>16. Was Buyer SATISFACTION a MATERIAL CONDITION?</t>
+  </si>
+  <si>
+    <t>17. Does the PAROL EVIDENCE RULE bar evidence of other covenants and terms?</t>
+  </si>
+  <si>
+    <t>18. Can LACK OF INTENT be raised as a defense?</t>
+  </si>
+  <si>
+    <t>19. Is LACK OF CONSIDERATION a defense?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20. Was the need for a WRITING SATISFIED? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21. Was the contract UNCONSCIONABLE? </t>
+  </si>
+  <si>
+    <t>22. Is DURESS a defense?</t>
+  </si>
+  <si>
+    <t>23. Is FRAUD (or DECEIT) a defense?</t>
+  </si>
+  <si>
+    <t>24. Is INCAPACITY a defense?</t>
+  </si>
+  <si>
+    <t>25. Is ILLEGALITY a defense?</t>
+  </si>
+  <si>
+    <t>26. Is IMPOSSIBILITY a defense?</t>
+  </si>
+  <si>
+    <t>27. Is COMMERCIAL IMPRACTICABILITY a defense?</t>
+  </si>
+  <si>
+    <t>28. Is FRUSTRATION OF PURPOSE a defense?</t>
+  </si>
+  <si>
+    <t>29. Is MUTUAL MISTAKE a defense?</t>
+  </si>
+  <si>
+    <t>30. Is UNILATERAL MISTAKE a defense?</t>
+  </si>
+  <si>
+    <t>31. Was there an ANTICIPATORY BREACH?</t>
+  </si>
+  <si>
+    <t>32. WAIVER of the breach?</t>
+  </si>
+  <si>
+    <t>33. Was there a BREACH OF IMPLIED COVENANT?</t>
+  </si>
+  <si>
+    <t>34. BREACH? MAJOR OR MINOR?</t>
+  </si>
+  <si>
+    <t>35. EFFECT OF BREACH ON A DIVISIBLE CONTRACT?</t>
+  </si>
+  <si>
+    <t>36. WAIVER of condition?</t>
+  </si>
+  <si>
+    <t>37. Was there an ACCORD AND SATISFACTION?</t>
+  </si>
+  <si>
+    <t>38. Is the plaintiff an INTENDED THIRD-PARTY BENEFICIARY?</t>
+  </si>
+  <si>
+    <t>39. STANDING based on a VALID ASSIGNMENT?</t>
+  </si>
+  <si>
+    <t>40. VALID DELEGATION of performance</t>
+  </si>
+  <si>
+    <t>41. Effect of ASSIGNMENT on CLAIMS AND DEFENSES</t>
+  </si>
+  <si>
+    <t>42. Effect of MODIFICATION AFTER ASSIGNMENT?</t>
+  </si>
+  <si>
+    <t>43. COMMON LAW REMEDY of the NON-BREACHING PARTY?</t>
+  </si>
+  <si>
+    <t>44. CONSEQUENTIAL DAMAGES?</t>
+  </si>
+  <si>
+    <t>45. COMMON LAW REMEDY of the BREACHING PARTY?</t>
+  </si>
+  <si>
+    <t>46. UCC REMEDY of the NON-BREACHING BUYER?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47. UCC REMEDY of the NON-BREACHING SELLER? </t>
+  </si>
+  <si>
+    <t>48. UCC REMEDY of the BREACHING SELLER?</t>
+  </si>
+  <si>
+    <t>49. Is the LIQUIDATED DAMAGES clause enforceable?</t>
+  </si>
+  <si>
+    <t>50. Was there an IMPLIED-IN-LAW CONTRACT?</t>
+  </si>
+  <si>
+    <t>51. Can PROMISSORY ESTOPPEL be pled?</t>
+  </si>
+  <si>
+    <t>52. Can DETRIMENTAL RELIANCE be pled?</t>
+  </si>
+  <si>
+    <t>53. Is EQUITABLE RESTITUTION appropriate?</t>
+  </si>
+  <si>
+    <t>54. Is SPECIFIC PERFORMANCE appropriate?</t>
+  </si>
+  <si>
+    <t>FORMATION OF CONTRACTS</t>
+  </si>
+  <si>
+    <t>CONTRACT TERMS</t>
+  </si>
+  <si>
+    <t>DEFENSES</t>
+  </si>
+  <si>
+    <t>BREACH</t>
+  </si>
+  <si>
+    <t>THIRD PARTY BENEFICIARY</t>
+  </si>
+  <si>
+    <t>REMEDIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. ASSAULT? </t>
+  </si>
+  <si>
+    <t>2. BATTERY?</t>
+  </si>
+  <si>
+    <t>3. CONVERSION?</t>
+  </si>
+  <si>
+    <t>4. FALSE IMPRISONMENT?</t>
+  </si>
+  <si>
+    <t>5. INTENTIONAL INFLICTION OF EMOTIONAL DISTRESS?</t>
+  </si>
+  <si>
+    <t>6. TRESPASS TO LAND?</t>
+  </si>
+  <si>
+    <t>7. TRESPASS TO CHATTELS?</t>
+  </si>
+  <si>
+    <t>8. TRANSFERRED INTENT?</t>
+  </si>
+  <si>
+    <t>9. DAMAGES for TORTS?</t>
+  </si>
+  <si>
+    <t>10. DEFENSE of DISCIPLINE?</t>
+  </si>
+  <si>
+    <t>11. DEFENSE of AUTHORITY OF LAW (PREVENTION OF CRIME)?</t>
+  </si>
+  <si>
+    <t>12. DEFENSE of RECAPTURE?</t>
+  </si>
+  <si>
+    <t>13. DEFENSE of NECESSITY?</t>
+  </si>
+  <si>
+    <t>14. DEFENSE of CONSENT?</t>
+  </si>
+  <si>
+    <t>15. DEFENSE of OTHERS?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16. DEFENSE of PROPERTY? </t>
+  </si>
+  <si>
+    <t>17. SELF-DEFENSE?</t>
+  </si>
+  <si>
+    <t>18. DEFENSE of INFANCY, INSANITY or INCOMPETENCE?</t>
+  </si>
+  <si>
+    <t>19. NEGLIGENCE?</t>
+  </si>
+  <si>
+    <t>20. STRICT LIABILITY in NEGLIGENCE?</t>
+  </si>
+  <si>
+    <t>21. DUTY?</t>
+  </si>
+  <si>
+    <t>22. NEGLIGENCE PER SE?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23. DUTY BASED ON PERIL? </t>
+  </si>
+  <si>
+    <t>24. DUTY BASED ON PREMISES LIABILITY?</t>
+  </si>
+  <si>
+    <t>25. ATTRACTIVE NUISANCE DOCTRINE?</t>
+  </si>
+  <si>
+    <t>26. LIABILITY BASED ON RESCUER DOCTRINE / FIREMAN’S RULE?</t>
+  </si>
+  <si>
+    <t>27. BREACH of duty?</t>
+  </si>
+  <si>
+    <t>28. BREACH based on RES IPSA LOQUITUR?</t>
+  </si>
+  <si>
+    <t>29. BREACH BASED ON NEGLIGENT ENTRUSTMENT?</t>
+  </si>
+  <si>
+    <t>30. RESPONDEAT SUPERIOR?</t>
+  </si>
+  <si>
+    <t>31. VICARIOUS LIABILITY for JOINT ENTERPRISE?</t>
+  </si>
+  <si>
+    <t>32. LIABILITY for acts of an INDEPENDENT CONTRACTOR?</t>
+  </si>
+  <si>
+    <t>33. The ACTUAL CAUSE or a SUBSTANTIAL FACTOR causing injury?</t>
+  </si>
+  <si>
+    <t>34. PROXIMATE CAUSE?</t>
+  </si>
+  <si>
+    <t>35. EGG SHELL PLAINTIFF?</t>
+  </si>
+  <si>
+    <t>36. CONTRIBUTORY or COMPARATIVE NEGLIGENCE?</t>
+  </si>
+  <si>
+    <t>37. ASSUMPTION OF THE RISK?</t>
+  </si>
+  <si>
+    <t>38. NEGLIGENT INFLICTION OF EMOTIONAL DISTRESS (NIED)?</t>
+  </si>
+  <si>
+    <t>39. PRODUCTS LIABILITY?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40. DEFAMATION? </t>
+  </si>
+  <si>
+    <t>41. FALSE LIGHT?</t>
+  </si>
+  <si>
+    <t>42. APPROPRIATION of likeness?</t>
+  </si>
+  <si>
+    <t>43. INTRUSION into the plaintiff’s solitude?</t>
+  </si>
+  <si>
+    <t>44. PUBLIC DISCLOSURE OF PRIVATE FACTS?</t>
+  </si>
+  <si>
+    <t>45. PRIVATE NUISANCE?</t>
+  </si>
+  <si>
+    <t>46. PUBLIC NUISANCE?</t>
+  </si>
+  <si>
+    <t>47. MALICIOUS PROSECUTION?</t>
+  </si>
+  <si>
+    <t>48. ABUSE OF PROCESS?</t>
+  </si>
+  <si>
+    <t>49. ILLEGAL INTERFERENCE?</t>
+  </si>
+  <si>
+    <t>50. DECEIT (or FRAUD or MISREPRESENTATION)?</t>
+  </si>
+  <si>
+    <t>51. NONDISCLOSURE (CONCEALMENT)?</t>
+  </si>
+  <si>
+    <t>52. TORT RESTITUTION ?</t>
+  </si>
+  <si>
+    <t>3. CRIMINAL ASSAULT?</t>
+  </si>
+  <si>
+    <t>4. CRIMINAL BATTERY?</t>
+  </si>
+  <si>
+    <t>5. RAPE?</t>
+  </si>
+  <si>
+    <t>6. ARSON?</t>
+  </si>
+  <si>
+    <t>7. LARCENY?</t>
+  </si>
+  <si>
+    <t>9. EMBEZZLEMENT?</t>
+  </si>
+  <si>
+    <t>11. BURGLARY?</t>
+  </si>
+  <si>
+    <t>10. ROBBERY?</t>
+  </si>
+  <si>
+    <t>8. FALSE PRETENSES ?</t>
+  </si>
+  <si>
+    <t>2. CONSPIRACY?</t>
+  </si>
+  <si>
+    <t>1. SOLICITATION?</t>
+  </si>
+  <si>
+    <t>12. RECEIVING STOLEN PROPERTY?</t>
+  </si>
+  <si>
+    <t>13. ATTEMPTED?</t>
+  </si>
+  <si>
+    <t>14. MURDER?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15. MITIGATING FACTORS? </t>
+  </si>
+  <si>
+    <t>16. VOLUNTARY MANSLAUGHTER?</t>
+  </si>
+  <si>
+    <t>17. INVOLUNTARY MANSLAUGHTER?</t>
+  </si>
+  <si>
+    <t>18. REDLINE RULE?</t>
+  </si>
+  <si>
+    <t>19. KIDNAPPING?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20. MISPRISION? </t>
+  </si>
+  <si>
+    <t>21. COMPOUNDING?</t>
+  </si>
+  <si>
+    <t>22. ACCOMPLICE LIABILITY?</t>
+  </si>
+  <si>
+    <t>23. DEFENSE of INFANCY?</t>
+  </si>
+  <si>
+    <t>24. DEFENSE of MISTAKE OF FACT?</t>
+  </si>
+  <si>
+    <t>25. DEFENSE of LEGAL IMPOSSIBILITY?</t>
+  </si>
+  <si>
+    <t>26. DEFENSE of MISTAKE OF LAW?</t>
+  </si>
+  <si>
+    <t>27. DEFENSE of FACTUAL IMPOSSIBILITY?</t>
+  </si>
+  <si>
+    <t>28. DEFENSE of WITHDRAWAL</t>
+  </si>
+  <si>
+    <t>29. DEFENSE of INSANITY?</t>
+  </si>
+  <si>
+    <t>30. DEFENSE of CONSENT?</t>
+  </si>
+  <si>
+    <t>31. DEFENSE of ENTRAPMENT?</t>
+  </si>
+  <si>
+    <t>32. DEFENSE of DURESS?</t>
+  </si>
+  <si>
+    <t>33. DEFENSEof NECESSITY?</t>
+  </si>
+  <si>
+    <t>34. PREVENTION OF CRIME (AUTHORITY OF LAW)?</t>
+  </si>
+  <si>
+    <t>35. SELF-DEFENSE?</t>
+  </si>
+  <si>
+    <t>36. DEFENSE of OTHERS?</t>
+  </si>
+  <si>
+    <t>37. DEFENSE of PROPERTY?</t>
+  </si>
+  <si>
+    <t>55. CONSIDERATION?</t>
+  </si>
+  <si>
+    <t>56. MUTUAL ASSENT?</t>
+  </si>
+  <si>
+    <t>J2017B</t>
+  </si>
+  <si>
+    <t>38. Malicious mischief</t>
+  </si>
+  <si>
+    <t>39. DEFENSE OF INTOXIATION</t>
+  </si>
+  <si>
+    <t>O2016</t>
+  </si>
+  <si>
+    <t>J2016</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5016,6 +5779,13 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5114,7 +5884,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5124,28 +5894,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -5159,22 +5925,36 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5450,12 +6230,519 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="71.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C1" s="1" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>939</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>940</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>941</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>945</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>946</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>952</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>953</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>965</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>966</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>967</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>968</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>970</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>973</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>975</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>977</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>978</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>979</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>982</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>983</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>985</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>990</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>993</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C73">
+        <f>SUM(C3:C72)</f>
+        <v>13</v>
+      </c>
+      <c r="D73">
+        <f>SUM(D3:D72)</f>
+        <v>10</v>
+      </c>
+      <c r="E73">
+        <f>SUM(E3:E72)</f>
+        <v>14</v>
+      </c>
+      <c r="F73">
+        <f>SUM(F3:F72)</f>
+        <v>10</v>
+      </c>
+      <c r="G73">
+        <f>SUM(G3:G72)</f>
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <f>SUM(H3:H72)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5537,61 +6824,61 @@
       <c r="J14" s="1"/>
     </row>
     <row r="16" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="J16" s="16"/>
+      <c r="J16" s="17"/>
     </row>
     <row r="17" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J18" s="16"/>
+      <c r="J18" s="17"/>
     </row>
     <row r="19" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J20" s="16"/>
+      <c r="J20" s="17"/>
     </row>
     <row r="21" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J22" s="16"/>
+      <c r="J22" s="17"/>
     </row>
     <row r="23" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J24" s="16"/>
+      <c r="J24" s="17"/>
     </row>
     <row r="25" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J26" s="16"/>
+      <c r="J26" s="17"/>
     </row>
     <row r="27" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J28" s="16"/>
+      <c r="J28" s="17"/>
     </row>
     <row r="29" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J30" s="16"/>
+      <c r="J30" s="17"/>
     </row>
     <row r="34" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J34" s="16"/>
+      <c r="J34" s="17"/>
     </row>
     <row r="35" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J35" s="16"/>
+      <c r="J35" s="17"/>
     </row>
     <row r="36" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J37" s="16"/>
+      <c r="J37" s="17"/>
     </row>
     <row r="38" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J38" s="2"/>
@@ -5600,67 +6887,67 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J40" s="16"/>
+      <c r="J40" s="17"/>
     </row>
     <row r="41" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J42" s="16"/>
+      <c r="J42" s="17"/>
     </row>
     <row r="43" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J43" s="2"/>
     </row>
     <row r="44" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J44" s="16"/>
+      <c r="J44" s="17"/>
     </row>
     <row r="45" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J46" s="16"/>
+      <c r="J46" s="17"/>
     </row>
     <row r="47" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J47" s="16"/>
+      <c r="J47" s="17"/>
     </row>
     <row r="48" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J48" s="2"/>
     </row>
     <row r="49" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J49" s="16"/>
+      <c r="J49" s="17"/>
     </row>
     <row r="50" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J50" s="2"/>
     </row>
     <row r="51" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J51" s="16"/>
+      <c r="J51" s="17"/>
     </row>
     <row r="52" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J52" s="2"/>
     </row>
     <row r="53" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J53" s="16"/>
+      <c r="J53" s="17"/>
     </row>
     <row r="54" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J54" s="2"/>
     </row>
     <row r="55" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J55" s="16"/>
+      <c r="J55" s="17"/>
     </row>
     <row r="56" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J56" s="16"/>
+      <c r="J56" s="17"/>
     </row>
     <row r="57" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J58" s="16"/>
+      <c r="J58" s="17"/>
     </row>
     <row r="59" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J59" s="2"/>
     </row>
     <row r="60" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J60" s="16"/>
+      <c r="J60" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5671,7 +6958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
@@ -5783,7 +7070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F143"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F26" sqref="F26:F158"/>
     </sheetView>
   </sheetViews>
@@ -5975,349 +7262,349 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F26" s="10"/>
+      <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="9"/>
+      <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F30" s="9"/>
+      <c r="F30" s="10"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F32" s="9"/>
+      <c r="F32" s="10"/>
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F34" s="9"/>
+      <c r="F34" s="10"/>
     </row>
     <row r="35" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F36" s="9"/>
+      <c r="F36" s="10"/>
     </row>
     <row r="37" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F38" s="9"/>
+      <c r="F38" s="10"/>
     </row>
     <row r="39" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F40" s="9"/>
+      <c r="F40" s="10"/>
     </row>
     <row r="41" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F42" s="9"/>
+      <c r="F42" s="10"/>
     </row>
     <row r="46" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F46" s="10"/>
+      <c r="F46" s="11"/>
     </row>
     <row r="47" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F48" s="11"/>
+      <c r="F48" s="12"/>
     </row>
     <row r="49" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F50" s="11"/>
+      <c r="F50" s="12"/>
     </row>
     <row r="51" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F52" s="11"/>
+      <c r="F52" s="12"/>
     </row>
     <row r="53" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F54" s="11"/>
+      <c r="F54" s="12"/>
     </row>
     <row r="55" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F56" s="11"/>
+      <c r="F56" s="12"/>
     </row>
     <row r="57" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F58" s="11"/>
+      <c r="F58" s="12"/>
     </row>
     <row r="59" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F60" s="11"/>
+      <c r="F60" s="12"/>
     </row>
     <row r="61" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F62" s="11"/>
+      <c r="F62" s="12"/>
     </row>
     <row r="63" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F64" s="11"/>
+      <c r="F64" s="12"/>
     </row>
     <row r="65" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F66" s="11"/>
+      <c r="F66" s="12"/>
     </row>
     <row r="67" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F68" s="11"/>
+      <c r="F68" s="12"/>
     </row>
     <row r="69" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F70" s="11"/>
+      <c r="F70" s="12"/>
     </row>
     <row r="71" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F72" s="11"/>
+      <c r="F72" s="12"/>
     </row>
     <row r="73" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F74" s="11"/>
+      <c r="F74" s="12"/>
     </row>
     <row r="75" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F76" s="11"/>
+      <c r="F76" s="12"/>
     </row>
     <row r="77" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F78" s="11"/>
+      <c r="F78" s="12"/>
     </row>
     <row r="79" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F80" s="11"/>
+      <c r="F80" s="12"/>
     </row>
     <row r="81" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F82" s="11"/>
+      <c r="F82" s="12"/>
     </row>
     <row r="83" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F83" s="2"/>
     </row>
     <row r="84" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F84" s="11"/>
+      <c r="F84" s="12"/>
     </row>
     <row r="85" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F85" s="2"/>
     </row>
     <row r="86" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F86" s="11"/>
+      <c r="F86" s="12"/>
     </row>
     <row r="87" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F87" s="2"/>
     </row>
     <row r="88" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F88" s="11"/>
+      <c r="F88" s="12"/>
     </row>
     <row r="89" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F89" s="2"/>
     </row>
     <row r="90" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F90" s="11"/>
+      <c r="F90" s="12"/>
     </row>
     <row r="91" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F92" s="11"/>
+      <c r="F92" s="12"/>
     </row>
     <row r="93" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F93" s="2"/>
     </row>
     <row r="94" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F94" s="11"/>
+      <c r="F94" s="12"/>
     </row>
     <row r="95" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F95" s="2"/>
     </row>
     <row r="96" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F96" s="11"/>
+      <c r="F96" s="12"/>
     </row>
     <row r="97" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F97" s="2"/>
     </row>
     <row r="98" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F98" s="11"/>
+      <c r="F98" s="12"/>
     </row>
     <row r="99" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F99" s="2"/>
     </row>
     <row r="100" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F100" s="11"/>
+      <c r="F100" s="12"/>
     </row>
     <row r="101" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F101" s="2"/>
     </row>
     <row r="102" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F102" s="11"/>
+      <c r="F102" s="12"/>
     </row>
     <row r="103" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F103" s="2"/>
     </row>
     <row r="104" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F104" s="11"/>
+      <c r="F104" s="12"/>
     </row>
     <row r="105" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F105" s="2"/>
     </row>
     <row r="106" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F106" s="11"/>
+      <c r="F106" s="12"/>
     </row>
     <row r="107" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F107" s="2"/>
     </row>
     <row r="108" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F108" s="11"/>
+      <c r="F108" s="12"/>
     </row>
     <row r="109" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F109" s="2"/>
     </row>
     <row r="110" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F110" s="11"/>
+      <c r="F110" s="12"/>
     </row>
     <row r="111" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F111" s="11"/>
+      <c r="F111" s="12"/>
     </row>
     <row r="112" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F112" s="2"/>
     </row>
     <row r="113" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F113" s="11"/>
+      <c r="F113" s="12"/>
     </row>
     <row r="114" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F114" s="11"/>
+      <c r="F114" s="12"/>
     </row>
     <row r="115" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F115" s="2"/>
     </row>
     <row r="116" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F116" s="11"/>
+      <c r="F116" s="12"/>
     </row>
     <row r="117" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F117" s="2"/>
     </row>
     <row r="118" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F118" s="11"/>
+      <c r="F118" s="12"/>
     </row>
     <row r="119" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F119" s="2"/>
     </row>
     <row r="120" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F120" s="11"/>
+      <c r="F120" s="12"/>
     </row>
     <row r="121" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F121" s="2"/>
     </row>
     <row r="122" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F122" s="11"/>
+      <c r="F122" s="12"/>
     </row>
     <row r="123" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F123" s="2"/>
     </row>
     <row r="124" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F124" s="11"/>
+      <c r="F124" s="12"/>
     </row>
     <row r="125" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F125" s="2"/>
     </row>
     <row r="126" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F126" s="11"/>
+      <c r="F126" s="12"/>
     </row>
     <row r="127" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F127" s="2"/>
     </row>
     <row r="128" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F128" s="11"/>
+      <c r="F128" s="12"/>
     </row>
     <row r="129" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F129" s="2"/>
     </row>
     <row r="130" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F130" s="11"/>
+      <c r="F130" s="12"/>
     </row>
     <row r="131" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F131" s="2"/>
     </row>
     <row r="132" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F132" s="11"/>
+      <c r="F132" s="12"/>
     </row>
     <row r="133" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F133" s="11"/>
+      <c r="F133" s="12"/>
     </row>
     <row r="134" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F134" s="2"/>
     </row>
     <row r="135" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F135" s="9"/>
+      <c r="F135" s="10"/>
     </row>
     <row r="136" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F136" s="2"/>
     </row>
     <row r="137" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F137" s="9"/>
+      <c r="F137" s="10"/>
     </row>
     <row r="138" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F138" s="2"/>
     </row>
     <row r="139" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F139" s="9"/>
+      <c r="F139" s="10"/>
     </row>
     <row r="140" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F140" s="2"/>
     </row>
     <row r="141" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F141" s="9"/>
+      <c r="F141" s="10"/>
     </row>
     <row r="142" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F142" s="2"/>
     </row>
     <row r="143" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F143" s="9"/>
+      <c r="F143" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6473,7 +7760,7 @@
       <c r="C16" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="6"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
@@ -6487,7 +7774,7 @@
       <c r="C18" t="s">
         <v>111</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
@@ -6498,7 +7785,7 @@
       <c r="C20" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="4"/>
+      <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
@@ -6506,19 +7793,19 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="4"/>
+      <c r="F22" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="F24" s="4"/>
+      <c r="F24" s="5"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>118</v>
       </c>
-      <c r="F26" s="4"/>
+      <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
@@ -6526,7 +7813,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="4"/>
+      <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -6534,7 +7821,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F30" s="4"/>
+      <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
@@ -6545,7 +7832,7 @@
       <c r="B32" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="F32" s="4"/>
+      <c r="F32" s="5"/>
     </row>
     <row r="33" spans="2:6" ht="144" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
@@ -6553,7 +7840,7 @@
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F34" s="4"/>
+      <c r="F34" s="5"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
@@ -6564,7 +7851,7 @@
       <c r="B36" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F36" s="4"/>
+      <c r="F36" s="5"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
@@ -6575,85 +7862,85 @@
       <c r="B38" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F38" s="4"/>
+      <c r="F38" s="5"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F40" s="4"/>
+      <c r="F40" s="5"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F42" s="4"/>
+      <c r="F42" s="5"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F43" s="4"/>
+      <c r="F43" s="5"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F45" s="4"/>
+      <c r="F45" s="5"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F47" s="4"/>
+      <c r="F47" s="5"/>
     </row>
     <row r="49" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F49" s="4"/>
+      <c r="F49" s="5"/>
     </row>
     <row r="51" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F51" s="4"/>
+      <c r="F51" s="5"/>
     </row>
     <row r="53" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F53" s="4"/>
+      <c r="F53" s="5"/>
     </row>
     <row r="55" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F55" s="4"/>
+      <c r="F55" s="5"/>
     </row>
     <row r="57" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F57" s="4"/>
+      <c r="F57" s="5"/>
     </row>
     <row r="59" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F59" s="4"/>
+      <c r="F59" s="5"/>
     </row>
     <row r="61" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F61" s="4"/>
+      <c r="F61" s="5"/>
     </row>
     <row r="63" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F63" s="4"/>
+      <c r="F63" s="5"/>
     </row>
     <row r="65" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F65" s="4"/>
+      <c r="F65" s="5"/>
     </row>
     <row r="67" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F67" s="4"/>
+      <c r="F67" s="5"/>
     </row>
     <row r="69" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F69" s="4"/>
+      <c r="F69" s="5"/>
     </row>
     <row r="71" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F71" s="4"/>
+      <c r="F71" s="5"/>
     </row>
     <row r="73" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F73" s="4"/>
+      <c r="F73" s="5"/>
     </row>
     <row r="75" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F75" s="4"/>
+      <c r="F75" s="5"/>
     </row>
     <row r="77" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F77" s="4"/>
+      <c r="F77" s="5"/>
     </row>
     <row r="79" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F79" s="4"/>
+      <c r="F79" s="5"/>
     </row>
     <row r="81" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F81" s="4"/>
+      <c r="F81" s="5"/>
     </row>
     <row r="83" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F83" s="5"/>
+      <c r="F83" s="6"/>
     </row>
     <row r="85" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F85" s="5"/>
+      <c r="F85" s="6"/>
     </row>
     <row r="87" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F87" s="5"/>
+      <c r="F87" s="6"/>
     </row>
     <row r="89" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F89" s="5"/>
+      <c r="F89" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6761,49 +8048,49 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="D21" s="10"/>
+      <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D23" s="9"/>
+      <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D25" s="9"/>
+      <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D27" s="9"/>
+      <c r="D27" s="10"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D29" s="9"/>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D31" s="9"/>
+      <c r="D31" s="10"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D33" s="9"/>
+      <c r="D33" s="10"/>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D35" s="9"/>
+      <c r="D35" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6934,183 +8221,183 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="C27" s="10"/>
-      <c r="E27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C28" s="2"/>
-      <c r="E28" s="11"/>
+      <c r="E28" s="12"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C29" s="9"/>
-      <c r="E29" s="11"/>
+      <c r="C29" s="10"/>
+      <c r="E29" s="12"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C30" s="2"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C31" s="9"/>
-      <c r="E31" s="11"/>
+      <c r="C31" s="10"/>
+      <c r="E31" s="12"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C32" s="2"/>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C33" s="9"/>
-      <c r="E33" s="11"/>
+      <c r="C33" s="10"/>
+      <c r="E33" s="12"/>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C34" s="2"/>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C35" s="9"/>
-      <c r="E35" s="11"/>
+      <c r="C35" s="10"/>
+      <c r="E35" s="12"/>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C36" s="2"/>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C37" s="9"/>
-      <c r="E37" s="11"/>
+      <c r="C37" s="10"/>
+      <c r="E37" s="12"/>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E39" s="11"/>
+      <c r="E39" s="12"/>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E41" s="11"/>
+      <c r="E41" s="12"/>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E43" s="11"/>
+      <c r="E43" s="12"/>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E45" s="11"/>
+      <c r="E45" s="12"/>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E47" s="11"/>
+      <c r="E47" s="12"/>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E49" s="11"/>
+      <c r="E49" s="12"/>
     </row>
     <row r="50" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E50" s="2"/>
     </row>
     <row r="51" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E51" s="11"/>
+      <c r="E51" s="12"/>
     </row>
     <row r="52" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E52" s="2"/>
     </row>
     <row r="53" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E53" s="9"/>
+      <c r="E53" s="10"/>
     </row>
     <row r="54" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E54" s="2"/>
     </row>
     <row r="55" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E55" s="11"/>
+      <c r="E55" s="12"/>
     </row>
     <row r="56" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E56" s="2"/>
     </row>
     <row r="57" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E57" s="11"/>
+      <c r="E57" s="12"/>
     </row>
     <row r="58" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E58" s="2"/>
     </row>
     <row r="59" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E59" s="11"/>
+      <c r="E59" s="12"/>
     </row>
     <row r="60" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E60" s="2"/>
     </row>
     <row r="61" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E61" s="11"/>
+      <c r="E61" s="12"/>
     </row>
     <row r="62" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E62" s="2"/>
     </row>
     <row r="63" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E63" s="11"/>
+      <c r="E63" s="12"/>
     </row>
     <row r="64" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E64" s="2"/>
     </row>
     <row r="65" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E65" s="11"/>
+      <c r="E65" s="12"/>
     </row>
     <row r="66" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E66" s="2"/>
     </row>
     <row r="67" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E67" s="11"/>
+      <c r="E67" s="12"/>
     </row>
     <row r="68" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E68" s="2"/>
     </row>
     <row r="69" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E69" s="11"/>
+      <c r="E69" s="12"/>
     </row>
     <row r="70" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E70" s="2"/>
     </row>
     <row r="71" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E71" s="11"/>
+      <c r="E71" s="12"/>
     </row>
     <row r="72" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E72" s="11"/>
+      <c r="E72" s="12"/>
     </row>
     <row r="73" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E73" s="2"/>
     </row>
     <row r="74" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E74" s="11"/>
+      <c r="E74" s="12"/>
     </row>
     <row r="75" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E75" s="2"/>
     </row>
     <row r="76" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E76" s="11"/>
+      <c r="E76" s="12"/>
     </row>
     <row r="77" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E77" s="2"/>
     </row>
     <row r="78" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E78" s="9"/>
+      <c r="E78" s="10"/>
     </row>
     <row r="79" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E79" s="2"/>
     </row>
     <row r="80" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E80" s="9"/>
+      <c r="E80" s="10"/>
     </row>
     <row r="81" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E81" s="2"/>
     </row>
     <row r="82" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E82" s="9"/>
+      <c r="E82" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7289,271 +8576,271 @@
       </c>
     </row>
     <row r="28" spans="2:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="I28" s="10"/>
-      <c r="K28" s="10"/>
+      <c r="I28" s="11"/>
+      <c r="K28" s="11"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="I29" s="2"/>
       <c r="K29" s="2"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="I30" s="9"/>
-      <c r="K30" s="11"/>
+      <c r="I30" s="10"/>
+      <c r="K30" s="12"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="I31" s="2"/>
       <c r="K31" s="2"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="I32" s="9"/>
-      <c r="K32" s="11"/>
+      <c r="I32" s="10"/>
+      <c r="K32" s="12"/>
     </row>
     <row r="33" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I33" s="2"/>
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I34" s="9"/>
-      <c r="K34" s="11"/>
+      <c r="I34" s="10"/>
+      <c r="K34" s="12"/>
     </row>
     <row r="35" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I35" s="9"/>
+      <c r="I35" s="10"/>
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I36" s="2"/>
-      <c r="K36" s="11"/>
+      <c r="K36" s="12"/>
     </row>
     <row r="37" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I37" s="9"/>
+      <c r="I37" s="10"/>
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I38" s="2"/>
-      <c r="K38" s="11"/>
+      <c r="K38" s="12"/>
     </row>
     <row r="39" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I39" s="9"/>
+      <c r="I39" s="10"/>
       <c r="K39" s="2"/>
     </row>
     <row r="40" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I40" s="2"/>
-      <c r="K40" s="11"/>
+      <c r="K40" s="12"/>
     </row>
     <row r="41" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I41" s="9"/>
+      <c r="I41" s="10"/>
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I42" s="2"/>
-      <c r="K42" s="11"/>
+      <c r="K42" s="12"/>
     </row>
     <row r="43" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I43" s="9"/>
+      <c r="I43" s="10"/>
       <c r="K43" s="2"/>
     </row>
     <row r="44" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I44" s="2"/>
-      <c r="K44" s="11"/>
+      <c r="K44" s="12"/>
     </row>
     <row r="45" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I45" s="9"/>
+      <c r="I45" s="10"/>
       <c r="K45" s="2"/>
     </row>
     <row r="46" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="K46" s="11"/>
+      <c r="K46" s="12"/>
     </row>
     <row r="47" spans="9:11" x14ac:dyDescent="0.2">
       <c r="K47" s="2"/>
     </row>
     <row r="48" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="K48" s="11"/>
+      <c r="K48" s="12"/>
     </row>
     <row r="49" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K49" s="2"/>
     </row>
     <row r="50" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K50" s="11"/>
+      <c r="K50" s="12"/>
     </row>
     <row r="51" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K51" s="2"/>
     </row>
     <row r="52" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K52" s="11"/>
+      <c r="K52" s="12"/>
     </row>
     <row r="53" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K53" s="2"/>
     </row>
     <row r="54" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K54" s="11"/>
+      <c r="K54" s="12"/>
     </row>
     <row r="55" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K55" s="2"/>
     </row>
     <row r="56" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K56" s="13"/>
+      <c r="K56" s="14"/>
     </row>
     <row r="57" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K57" s="2"/>
     </row>
     <row r="58" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K58" s="11"/>
+      <c r="K58" s="12"/>
     </row>
     <row r="59" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K59" s="2"/>
     </row>
     <row r="60" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K60" s="14"/>
+      <c r="K60" s="15"/>
     </row>
     <row r="61" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K61" s="2"/>
     </row>
     <row r="62" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K62" s="11"/>
+      <c r="K62" s="12"/>
     </row>
     <row r="63" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K63" s="2"/>
     </row>
     <row r="64" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K64" s="11"/>
+      <c r="K64" s="12"/>
     </row>
     <row r="65" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K65" s="2"/>
     </row>
     <row r="66" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K66" s="11"/>
+      <c r="K66" s="12"/>
     </row>
     <row r="67" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K67" s="2"/>
     </row>
     <row r="68" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K68" s="11"/>
+      <c r="K68" s="12"/>
     </row>
     <row r="69" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K69" s="2"/>
     </row>
     <row r="70" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K70" s="11"/>
+      <c r="K70" s="12"/>
     </row>
     <row r="71" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K71" s="2"/>
     </row>
     <row r="72" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K72" s="11"/>
+      <c r="K72" s="12"/>
     </row>
     <row r="73" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K73" s="2"/>
     </row>
     <row r="74" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K74" s="11"/>
+      <c r="K74" s="12"/>
     </row>
     <row r="75" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K75" s="2"/>
     </row>
     <row r="76" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K76" s="11"/>
+      <c r="K76" s="12"/>
     </row>
     <row r="77" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K77" s="2"/>
     </row>
     <row r="78" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K78" s="11"/>
+      <c r="K78" s="12"/>
     </row>
     <row r="79" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K79" s="2"/>
     </row>
     <row r="80" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K80" s="11"/>
+      <c r="K80" s="12"/>
     </row>
     <row r="81" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K81" s="2"/>
     </row>
     <row r="82" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K82" s="11"/>
+      <c r="K82" s="12"/>
     </row>
     <row r="83" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K83" s="2"/>
     </row>
     <row r="84" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K84" s="13"/>
+      <c r="K84" s="14"/>
     </row>
     <row r="85" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K85" s="2"/>
     </row>
     <row r="86" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K86" s="12"/>
+      <c r="K86" s="13"/>
     </row>
     <row r="87" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K87" s="11"/>
+      <c r="K87" s="12"/>
     </row>
     <row r="88" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K88" s="2"/>
     </row>
     <row r="89" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K89" s="11"/>
+      <c r="K89" s="12"/>
     </row>
     <row r="90" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K90" s="2"/>
     </row>
     <row r="91" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K91" s="11"/>
+      <c r="K91" s="12"/>
     </row>
     <row r="92" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K92" s="2"/>
     </row>
     <row r="93" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K93" s="11"/>
+      <c r="K93" s="12"/>
     </row>
     <row r="94" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K94" s="2"/>
     </row>
     <row r="95" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K95" s="11"/>
+      <c r="K95" s="12"/>
     </row>
     <row r="96" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K96" s="2"/>
     </row>
     <row r="97" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K97" s="11"/>
+      <c r="K97" s="12"/>
     </row>
     <row r="98" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K98" s="2"/>
     </row>
     <row r="99" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K99" s="11"/>
+      <c r="K99" s="12"/>
     </row>
     <row r="100" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K100" s="2"/>
     </row>
     <row r="101" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K101" s="11"/>
+      <c r="K101" s="12"/>
     </row>
     <row r="102" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K102" s="2"/>
     </row>
     <row r="103" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K103" s="11"/>
+      <c r="K103" s="12"/>
     </row>
     <row r="104" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K104" s="2"/>
     </row>
     <row r="105" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K105" s="9"/>
+      <c r="K105" s="10"/>
     </row>
     <row r="106" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K106" s="2"/>
     </row>
     <row r="107" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K107" s="9"/>
+      <c r="K107" s="10"/>
     </row>
     <row r="108" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K108" s="2"/>
     </row>
     <row r="109" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K109" s="9"/>
+      <c r="K109" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -7810,227 +9097,227 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" s="10"/>
-      <c r="C37" s="10"/>
+      <c r="A37" s="11"/>
+      <c r="C37" s="11"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="9"/>
-      <c r="C39" s="11"/>
+      <c r="A39" s="10"/>
+      <c r="C39" s="12"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
-      <c r="C40" s="11"/>
+      <c r="C40" s="12"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="9"/>
+      <c r="A41" s="10"/>
       <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
-      <c r="C42" s="11"/>
+      <c r="C42" s="12"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="9"/>
+      <c r="A43" s="10"/>
       <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="C44" s="11"/>
+      <c r="C44" s="12"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="9"/>
+      <c r="A45" s="10"/>
       <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="C46" s="11"/>
+      <c r="C46" s="12"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="9"/>
+      <c r="A47" s="10"/>
       <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
-      <c r="C48" s="11"/>
+      <c r="C48" s="12"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="9"/>
+      <c r="A49" s="10"/>
       <c r="C49" s="2"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C50" s="11"/>
+      <c r="C50" s="12"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C52" s="11"/>
+      <c r="C52" s="12"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C54" s="11"/>
+      <c r="C54" s="12"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C56" s="11"/>
+      <c r="C56" s="12"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C57" s="2"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C58" s="11"/>
+      <c r="C58" s="12"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C60" s="12"/>
+      <c r="C60" s="13"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C61" s="11"/>
+      <c r="C61" s="12"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C62" s="2"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C63" s="11"/>
+      <c r="C63" s="12"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C64" s="11"/>
+      <c r="C64" s="12"/>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C65" s="2"/>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C66" s="11"/>
+      <c r="C66" s="12"/>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C67" s="2"/>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C68" s="11"/>
+      <c r="C68" s="12"/>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C69" s="2"/>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C70" s="11"/>
+      <c r="C70" s="12"/>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C71" s="2"/>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C72" s="11"/>
+      <c r="C72" s="12"/>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C73" s="2"/>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C74" s="11"/>
+      <c r="C74" s="12"/>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C75" s="2"/>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C76" s="11"/>
+      <c r="C76" s="12"/>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C77" s="2"/>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C78" s="11"/>
+      <c r="C78" s="12"/>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C79" s="2"/>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C80" s="11"/>
+      <c r="C80" s="12"/>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C81" s="2"/>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C82" s="11"/>
+      <c r="C82" s="12"/>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C83" s="2"/>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C84" s="11"/>
+      <c r="C84" s="12"/>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C85" s="2"/>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C86" s="11"/>
+      <c r="C86" s="12"/>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C87" s="2"/>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C88" s="11"/>
+      <c r="C88" s="12"/>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C89" s="2"/>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C90" s="11"/>
+      <c r="C90" s="12"/>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C91" s="2"/>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C92" s="11"/>
+      <c r="C92" s="12"/>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C93" s="2"/>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C94" s="11"/>
+      <c r="C94" s="12"/>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C95" s="2"/>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C96" s="11"/>
+      <c r="C96" s="12"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C97" s="2"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C98" s="9"/>
+      <c r="C98" s="10"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C99" s="2"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C100" s="9"/>
+      <c r="C100" s="10"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C101" s="2"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C102" s="9"/>
+      <c r="C102" s="10"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C103" s="2"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C104" s="9"/>
+      <c r="C104" s="10"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C105" s="2"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C106" s="13"/>
+      <c r="C106" s="14"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C107" s="2"/>
@@ -8048,198 +9335,198 @@
       <c r="C111" s="2"/>
     </row>
     <row r="112" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A112" s="8"/>
-      <c r="C112" s="10"/>
+      <c r="A112" s="9"/>
+      <c r="C112" s="11"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="2"/>
       <c r="C113" s="2"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="9"/>
-      <c r="C114" s="11"/>
+      <c r="A114" s="10"/>
+      <c r="C114" s="12"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
       <c r="C115" s="2"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="9"/>
-      <c r="C116" s="11"/>
+      <c r="A116" s="10"/>
+      <c r="C116" s="12"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
       <c r="C117" s="2"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="9"/>
-      <c r="C118" s="11"/>
+      <c r="A118" s="10"/>
+      <c r="C118" s="12"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
       <c r="C119" s="2"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="9"/>
-      <c r="C120" s="11"/>
+      <c r="A120" s="10"/>
+      <c r="C120" s="12"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
       <c r="C121" s="2"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="9"/>
-      <c r="C122" s="11"/>
+      <c r="A122" s="10"/>
+      <c r="C122" s="12"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
       <c r="C123" s="2"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="9"/>
-      <c r="C124" s="11"/>
+      <c r="A124" s="10"/>
+      <c r="C124" s="12"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="9"/>
+      <c r="A125" s="10"/>
       <c r="C125" s="2"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C126" s="11"/>
+      <c r="C126" s="12"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C127" s="2"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C128" s="11"/>
+      <c r="C128" s="12"/>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C129" s="2"/>
     </row>
     <row r="130" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C130" s="11"/>
+      <c r="C130" s="12"/>
     </row>
     <row r="131" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C131" s="2"/>
     </row>
     <row r="132" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C132" s="11"/>
+      <c r="C132" s="12"/>
     </row>
     <row r="133" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C133" s="2"/>
     </row>
     <row r="134" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C134" s="11"/>
+      <c r="C134" s="12"/>
     </row>
     <row r="135" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C135" s="2"/>
     </row>
     <row r="136" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C136" s="11"/>
+      <c r="C136" s="12"/>
     </row>
     <row r="137" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C137" s="2"/>
     </row>
     <row r="138" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C138" s="14"/>
+      <c r="C138" s="15"/>
     </row>
     <row r="139" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C139" s="2"/>
     </row>
     <row r="140" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C140" s="13"/>
+      <c r="C140" s="14"/>
     </row>
     <row r="141" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C141" s="2"/>
     </row>
     <row r="142" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C142" s="12"/>
+      <c r="C142" s="13"/>
     </row>
     <row r="143" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C143" s="11"/>
+      <c r="C143" s="12"/>
     </row>
     <row r="144" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C144" s="2"/>
     </row>
     <row r="145" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C145" s="11"/>
+      <c r="C145" s="12"/>
     </row>
     <row r="146" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C146" s="2"/>
     </row>
     <row r="147" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C147" s="11"/>
+      <c r="C147" s="12"/>
     </row>
     <row r="148" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C148" s="2"/>
     </row>
     <row r="149" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C149" s="11"/>
+      <c r="C149" s="12"/>
     </row>
     <row r="150" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C150" s="2"/>
     </row>
     <row r="151" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C151" s="11"/>
+      <c r="C151" s="12"/>
     </row>
     <row r="152" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C152" s="2"/>
     </row>
     <row r="153" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C153" s="11"/>
+      <c r="C153" s="12"/>
     </row>
     <row r="154" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C154" s="2"/>
     </row>
     <row r="155" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C155" s="11"/>
+      <c r="C155" s="12"/>
     </row>
     <row r="156" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C156" s="2"/>
     </row>
     <row r="157" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C157" s="11"/>
+      <c r="C157" s="12"/>
     </row>
     <row r="158" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C158" s="2"/>
     </row>
     <row r="159" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C159" s="11"/>
+      <c r="C159" s="12"/>
     </row>
     <row r="160" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C160" s="2"/>
     </row>
     <row r="161" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C161" s="11"/>
+      <c r="C161" s="12"/>
     </row>
     <row r="162" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C162" s="2"/>
     </row>
     <row r="163" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C163" s="11"/>
+      <c r="C163" s="12"/>
     </row>
     <row r="164" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C164" s="2"/>
     </row>
     <row r="165" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C165" s="11"/>
+      <c r="C165" s="12"/>
     </row>
     <row r="166" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C166" s="2"/>
     </row>
     <row r="167" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C167" s="11"/>
+      <c r="C167" s="12"/>
     </row>
     <row r="168" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C168" s="2"/>
     </row>
     <row r="169" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C169" s="9"/>
+      <c r="C169" s="10"/>
     </row>
     <row r="170" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C170" s="2"/>
     </row>
     <row r="171" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C171" s="9"/>
+      <c r="C171" s="10"/>
     </row>
     <row r="172" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C172" s="2"/>
@@ -8257,409 +9544,409 @@
       <c r="C176" s="2"/>
     </row>
     <row r="177" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A177" s="10"/>
-      <c r="C177" s="10"/>
+      <c r="A177" s="11"/>
+      <c r="C177" s="11"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="2"/>
       <c r="C178" s="2"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179" s="9"/>
-      <c r="C179" s="11"/>
+      <c r="A179" s="10"/>
+      <c r="C179" s="12"/>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="2"/>
-      <c r="C180" s="11"/>
+      <c r="C180" s="12"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" s="9"/>
+      <c r="A181" s="10"/>
       <c r="C181" s="2"/>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="2"/>
-      <c r="C182" s="11"/>
+      <c r="C182" s="12"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" s="9"/>
+      <c r="A183" s="10"/>
       <c r="C183" s="2"/>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="2"/>
-      <c r="C184" s="11"/>
+      <c r="C184" s="12"/>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" s="9"/>
+      <c r="A185" s="10"/>
       <c r="C185" s="2"/>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="2"/>
-      <c r="C186" s="11"/>
+      <c r="C186" s="12"/>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187" s="9"/>
+      <c r="A187" s="10"/>
       <c r="C187" s="2"/>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="2"/>
-      <c r="C188" s="11"/>
+      <c r="C188" s="12"/>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" s="9"/>
+      <c r="A189" s="10"/>
       <c r="C189" s="2"/>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="2"/>
-      <c r="C190" s="11"/>
+      <c r="C190" s="12"/>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191" s="9"/>
+      <c r="A191" s="10"/>
       <c r="C191" s="2"/>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="2"/>
-      <c r="C192" s="11"/>
+      <c r="C192" s="12"/>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A193" s="9"/>
+      <c r="A193" s="10"/>
       <c r="C193" s="2"/>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="2"/>
-      <c r="C194" s="11"/>
+      <c r="C194" s="12"/>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C195" s="2"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C196" s="11"/>
+      <c r="C196" s="12"/>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C197" s="2"/>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C198" s="11"/>
+      <c r="C198" s="12"/>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C199" s="2"/>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C200" s="11"/>
+      <c r="C200" s="12"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C201" s="2"/>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C202" s="11"/>
+      <c r="C202" s="12"/>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C203" s="2"/>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C204" s="14"/>
+      <c r="C204" s="15"/>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C205" s="2"/>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C206" s="13"/>
+      <c r="C206" s="14"/>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C207" s="2"/>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C208" s="12"/>
+      <c r="C208" s="13"/>
     </row>
     <row r="209" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C209" s="2"/>
     </row>
     <row r="210" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C210" s="11"/>
+      <c r="C210" s="12"/>
     </row>
     <row r="211" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C211" s="2"/>
     </row>
     <row r="212" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C212" s="11"/>
+      <c r="C212" s="12"/>
     </row>
     <row r="213" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C213" s="2"/>
     </row>
     <row r="214" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C214" s="11"/>
+      <c r="C214" s="12"/>
     </row>
     <row r="215" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C215" s="2"/>
     </row>
     <row r="216" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C216" s="11"/>
+      <c r="C216" s="12"/>
     </row>
     <row r="217" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C217" s="2"/>
     </row>
     <row r="218" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C218" s="11"/>
+      <c r="C218" s="12"/>
     </row>
     <row r="219" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C219" s="2"/>
     </row>
     <row r="220" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C220" s="11"/>
+      <c r="C220" s="12"/>
     </row>
     <row r="221" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C221" s="2"/>
     </row>
     <row r="222" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C222" s="11"/>
+      <c r="C222" s="12"/>
     </row>
     <row r="223" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C223" s="2"/>
     </row>
     <row r="224" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C224" s="11"/>
+      <c r="C224" s="12"/>
     </row>
     <row r="225" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C225" s="2"/>
     </row>
     <row r="226" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C226" s="11"/>
+      <c r="C226" s="12"/>
     </row>
     <row r="227" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C227" s="2"/>
     </row>
     <row r="228" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C228" s="11"/>
+      <c r="C228" s="12"/>
     </row>
     <row r="229" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C229" s="2"/>
     </row>
     <row r="230" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C230" s="11"/>
+      <c r="C230" s="12"/>
     </row>
     <row r="231" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C231" s="2"/>
     </row>
     <row r="232" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C232" s="13"/>
+      <c r="C232" s="14"/>
     </row>
     <row r="233" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C233" s="2"/>
     </row>
     <row r="234" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C234" s="11"/>
+      <c r="C234" s="12"/>
     </row>
     <row r="235" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C235" s="2"/>
     </row>
     <row r="236" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C236" s="11"/>
+      <c r="C236" s="12"/>
     </row>
     <row r="237" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C237" s="2"/>
     </row>
     <row r="238" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C238" s="11"/>
+      <c r="C238" s="12"/>
     </row>
     <row r="239" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C239" s="2"/>
     </row>
     <row r="240" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C240" s="11"/>
+      <c r="C240" s="12"/>
     </row>
     <row r="241" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C241" s="2"/>
     </row>
     <row r="242" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C242" s="11"/>
+      <c r="C242" s="12"/>
     </row>
     <row r="243" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C243" s="2"/>
     </row>
     <row r="244" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C244" s="11"/>
+      <c r="C244" s="12"/>
     </row>
     <row r="245" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C245" s="2"/>
     </row>
     <row r="246" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C246" s="11"/>
+      <c r="C246" s="12"/>
     </row>
     <row r="247" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C247" s="2"/>
     </row>
     <row r="248" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C248" s="11"/>
+      <c r="C248" s="12"/>
     </row>
     <row r="249" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C249" s="2"/>
     </row>
     <row r="250" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C250" s="11"/>
+      <c r="C250" s="12"/>
     </row>
     <row r="251" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C251" s="2"/>
     </row>
     <row r="252" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C252" s="11"/>
+      <c r="C252" s="12"/>
     </row>
     <row r="253" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C253" s="2"/>
     </row>
     <row r="254" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C254" s="11"/>
+      <c r="C254" s="12"/>
     </row>
     <row r="255" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C255" s="2"/>
     </row>
     <row r="256" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C256" s="11"/>
+      <c r="C256" s="12"/>
     </row>
     <row r="257" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C257" s="2"/>
     </row>
     <row r="258" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C258" s="11"/>
+      <c r="C258" s="12"/>
     </row>
     <row r="259" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C259" s="2"/>
     </row>
     <row r="260" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C260" s="14"/>
+      <c r="C260" s="15"/>
     </row>
     <row r="261" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C261" s="2"/>
     </row>
     <row r="262" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C262" s="13"/>
+      <c r="C262" s="14"/>
     </row>
     <row r="263" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C263" s="2"/>
     </row>
     <row r="264" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C264" s="12"/>
+      <c r="C264" s="13"/>
     </row>
     <row r="265" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C265" s="11"/>
+      <c r="C265" s="12"/>
     </row>
     <row r="266" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C266" s="2"/>
     </row>
     <row r="267" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C267" s="11"/>
+      <c r="C267" s="12"/>
     </row>
     <row r="268" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C268" s="2"/>
     </row>
     <row r="269" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C269" s="11"/>
+      <c r="C269" s="12"/>
     </row>
     <row r="270" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C270" s="11"/>
+      <c r="C270" s="12"/>
     </row>
     <row r="271" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C271" s="2"/>
     </row>
     <row r="272" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C272" s="11"/>
+      <c r="C272" s="12"/>
     </row>
     <row r="273" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C273" s="2"/>
     </row>
     <row r="274" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C274" s="11"/>
+      <c r="C274" s="12"/>
     </row>
     <row r="275" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C275" s="2"/>
     </row>
     <row r="276" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C276" s="11"/>
+      <c r="C276" s="12"/>
     </row>
     <row r="277" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C277" s="2"/>
     </row>
     <row r="278" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C278" s="11"/>
+      <c r="C278" s="12"/>
     </row>
     <row r="279" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C279" s="2"/>
     </row>
     <row r="280" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C280" s="11"/>
+      <c r="C280" s="12"/>
     </row>
     <row r="281" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C281" s="2"/>
     </row>
     <row r="282" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C282" s="11"/>
+      <c r="C282" s="12"/>
     </row>
     <row r="283" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C283" s="2"/>
     </row>
     <row r="284" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C284" s="11"/>
+      <c r="C284" s="12"/>
     </row>
     <row r="285" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C285" s="2"/>
     </row>
     <row r="286" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C286" s="11"/>
+      <c r="C286" s="12"/>
     </row>
     <row r="287" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C287" s="2"/>
     </row>
     <row r="288" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C288" s="11"/>
+      <c r="C288" s="12"/>
     </row>
     <row r="289" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C289" s="2"/>
     </row>
     <row r="290" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C290" s="11"/>
+      <c r="C290" s="12"/>
     </row>
     <row r="291" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C291" s="2"/>
     </row>
     <row r="292" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C292" s="13"/>
+      <c r="C292" s="14"/>
     </row>
     <row r="293" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C293" s="2"/>
     </row>
     <row r="294" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C294" s="9"/>
+      <c r="C294" s="10"/>
     </row>
     <row r="295" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C295" s="9"/>
+      <c r="C295" s="10"/>
     </row>
     <row r="296" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C296" s="2"/>
     </row>
     <row r="297" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C297" s="9"/>
+      <c r="C297" s="10"/>
     </row>
     <row r="298" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C298" s="2"/>
     </row>
     <row r="299" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C299" s="9"/>
+      <c r="C299" s="10"/>
     </row>
     <row r="300" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C300" s="2"/>
     </row>
     <row r="301" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C301" s="9"/>
+      <c r="C301" s="10"/>
     </row>
     <row r="302" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C302" s="2"/>
     </row>
     <row r="303" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C303" s="9"/>
+      <c r="C303" s="10"/>
     </row>
     <row r="304" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C304" s="2"/>
     </row>
     <row r="305" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C305" s="9"/>
+      <c r="C305" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8671,7 +9958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J25" sqref="J25:M106"/>
     </sheetView>
   </sheetViews>
@@ -8800,180 +10087,180 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="J25" s="10"/>
-      <c r="M25" s="10"/>
+      <c r="J25" s="11"/>
+      <c r="M25" s="11"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="J26" s="2"/>
       <c r="M26" s="2"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J27" s="9"/>
-      <c r="M27" s="14"/>
+      <c r="J27" s="10"/>
+      <c r="M27" s="15"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="J28" s="2"/>
       <c r="M28" s="2"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J29" s="9"/>
-      <c r="M29" s="11"/>
+      <c r="J29" s="10"/>
+      <c r="M29" s="12"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="J30" s="2"/>
       <c r="M30" s="2"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J31" s="9"/>
-      <c r="M31" s="11"/>
+      <c r="J31" s="10"/>
+      <c r="M31" s="12"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="J32" s="2"/>
       <c r="M32" s="2"/>
     </row>
     <row r="33" spans="10:13" x14ac:dyDescent="0.2">
-      <c r="J33" s="9"/>
-      <c r="M33" s="11"/>
+      <c r="J33" s="10"/>
+      <c r="M33" s="12"/>
     </row>
     <row r="34" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J34" s="2"/>
       <c r="M34" s="2"/>
     </row>
     <row r="35" spans="10:13" x14ac:dyDescent="0.2">
-      <c r="J35" s="9"/>
-      <c r="M35" s="11"/>
+      <c r="J35" s="10"/>
+      <c r="M35" s="12"/>
     </row>
     <row r="36" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J36" s="2"/>
       <c r="M36" s="2"/>
     </row>
     <row r="37" spans="10:13" x14ac:dyDescent="0.2">
-      <c r="J37" s="9"/>
-      <c r="M37" s="11"/>
+      <c r="J37" s="10"/>
+      <c r="M37" s="12"/>
     </row>
     <row r="38" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J38" s="2"/>
       <c r="M38" s="2"/>
     </row>
     <row r="39" spans="10:13" x14ac:dyDescent="0.2">
-      <c r="J39" s="9"/>
-      <c r="M39" s="11"/>
+      <c r="J39" s="10"/>
+      <c r="M39" s="12"/>
     </row>
     <row r="40" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J40" s="2"/>
       <c r="M40" s="2"/>
     </row>
     <row r="41" spans="10:13" x14ac:dyDescent="0.2">
-      <c r="J41" s="9"/>
-      <c r="M41" s="11"/>
+      <c r="J41" s="10"/>
+      <c r="M41" s="12"/>
     </row>
     <row r="42" spans="10:13" x14ac:dyDescent="0.2">
       <c r="M42" s="2"/>
     </row>
     <row r="43" spans="10:13" x14ac:dyDescent="0.2">
-      <c r="M43" s="11"/>
+      <c r="M43" s="12"/>
     </row>
     <row r="44" spans="10:13" x14ac:dyDescent="0.2">
       <c r="M44" s="2"/>
     </row>
     <row r="45" spans="10:13" x14ac:dyDescent="0.2">
-      <c r="M45" s="11"/>
+      <c r="M45" s="12"/>
     </row>
     <row r="46" spans="10:13" x14ac:dyDescent="0.2">
       <c r="M46" s="2"/>
     </row>
     <row r="47" spans="10:13" x14ac:dyDescent="0.2">
-      <c r="M47" s="11"/>
+      <c r="M47" s="12"/>
     </row>
     <row r="48" spans="10:13" x14ac:dyDescent="0.2">
       <c r="M48" s="2"/>
     </row>
     <row r="49" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M49" s="11"/>
+      <c r="M49" s="12"/>
     </row>
     <row r="50" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M50" s="2"/>
     </row>
     <row r="51" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M51" s="13"/>
+      <c r="M51" s="14"/>
     </row>
     <row r="52" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M52" s="2"/>
     </row>
     <row r="53" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M53" s="12"/>
+      <c r="M53" s="13"/>
     </row>
     <row r="54" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M54" s="2"/>
     </row>
     <row r="55" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M55" s="11"/>
+      <c r="M55" s="12"/>
     </row>
     <row r="56" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M56" s="2"/>
     </row>
     <row r="57" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M57" s="11"/>
+      <c r="M57" s="12"/>
     </row>
     <row r="58" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M58" s="2"/>
     </row>
     <row r="59" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M59" s="11"/>
+      <c r="M59" s="12"/>
     </row>
     <row r="60" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M60" s="2"/>
     </row>
     <row r="61" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M61" s="11"/>
+      <c r="M61" s="12"/>
     </row>
     <row r="62" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M62" s="2"/>
     </row>
     <row r="63" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M63" s="11"/>
+      <c r="M63" s="12"/>
     </row>
     <row r="64" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M64" s="2"/>
     </row>
     <row r="65" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M65" s="11"/>
+      <c r="M65" s="12"/>
     </row>
     <row r="66" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M66" s="2"/>
     </row>
     <row r="67" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M67" s="11"/>
+      <c r="M67" s="12"/>
     </row>
     <row r="68" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M68" s="2"/>
     </row>
     <row r="69" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M69" s="11"/>
+      <c r="M69" s="12"/>
     </row>
     <row r="70" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M70" s="2"/>
     </row>
     <row r="71" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M71" s="11"/>
+      <c r="M71" s="12"/>
     </row>
     <row r="72" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M72" s="2"/>
     </row>
     <row r="73" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M73" s="9"/>
+      <c r="M73" s="10"/>
     </row>
     <row r="74" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M74" s="2"/>
     </row>
     <row r="75" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M75" s="9"/>
+      <c r="M75" s="10"/>
     </row>
     <row r="76" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M76" s="2"/>
     </row>
     <row r="77" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M77" s="9"/>
+      <c r="M77" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9150,8 +10437,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="D24" s="10"/>
-      <c r="G24" s="10" t="s">
+      <c r="D24" s="11"/>
+      <c r="G24" s="11" t="s">
         <v>230</v>
       </c>
     </row>
@@ -9160,50 +10447,50 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D26" s="9"/>
-      <c r="G26" s="11" t="s">
+      <c r="D26" s="10"/>
+      <c r="G26" s="12" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D27" s="2"/>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="12" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D28" s="9"/>
+      <c r="D28" s="10"/>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="D29" s="2"/>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="12" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D30" s="9"/>
+      <c r="D30" s="10"/>
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="D31" s="2"/>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="12" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D32" s="9"/>
+      <c r="D32" s="10"/>
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="4:7" ht="32" x14ac:dyDescent="0.2">
       <c r="D33" s="2"/>
-      <c r="G33" s="11" t="s">
+      <c r="G33" s="12" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D34" s="9"/>
-      <c r="G34" s="11" t="s">
+      <c r="D34" s="10"/>
+      <c r="G34" s="12" t="s">
         <v>236</v>
       </c>
     </row>
@@ -9212,8 +10499,8 @@
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="4:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="D36" s="9"/>
-      <c r="G36" s="11" t="s">
+      <c r="D36" s="10"/>
+      <c r="G36" s="12" t="s">
         <v>237</v>
       </c>
     </row>
@@ -9221,7 +10508,7 @@
       <c r="G37" s="2"/>
     </row>
     <row r="38" spans="4:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="G38" s="11" t="s">
+      <c r="G38" s="12" t="s">
         <v>238</v>
       </c>
     </row>
@@ -9229,7 +10516,7 @@
       <c r="G39" s="2"/>
     </row>
     <row r="40" spans="4:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="G40" s="11" t="s">
+      <c r="G40" s="12" t="s">
         <v>239</v>
       </c>
     </row>
@@ -9237,12 +10524,12 @@
       <c r="G41" s="2"/>
     </row>
     <row r="42" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="G42" s="11" t="s">
+      <c r="G42" s="12" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="43" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="G43" s="11" t="s">
+      <c r="G43" s="12" t="s">
         <v>241</v>
       </c>
     </row>
@@ -9250,7 +10537,7 @@
       <c r="G44" s="2"/>
     </row>
     <row r="45" spans="4:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="G45" s="11" t="s">
+      <c r="G45" s="12" t="s">
         <v>242</v>
       </c>
     </row>
@@ -9258,7 +10545,7 @@
       <c r="G46" s="2"/>
     </row>
     <row r="47" spans="4:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="G47" s="11" t="s">
+      <c r="G47" s="12" t="s">
         <v>243</v>
       </c>
     </row>
@@ -9266,7 +10553,7 @@
       <c r="G48" s="2"/>
     </row>
     <row r="49" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G49" s="11" t="s">
+      <c r="G49" s="12" t="s">
         <v>244</v>
       </c>
     </row>
@@ -9274,7 +10561,7 @@
       <c r="G50" s="2"/>
     </row>
     <row r="51" spans="7:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="G51" s="11" t="s">
+      <c r="G51" s="12" t="s">
         <v>245</v>
       </c>
     </row>
@@ -9282,7 +10569,7 @@
       <c r="G52" s="2"/>
     </row>
     <row r="53" spans="7:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="G53" s="11" t="s">
+      <c r="G53" s="12" t="s">
         <v>246</v>
       </c>
     </row>
@@ -9290,7 +10577,7 @@
       <c r="G54" s="2"/>
     </row>
     <row r="55" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G55" s="11" t="s">
+      <c r="G55" s="12" t="s">
         <v>247</v>
       </c>
     </row>
@@ -9298,7 +10585,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="7:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="G57" s="11" t="s">
+      <c r="G57" s="12" t="s">
         <v>248</v>
       </c>
     </row>
@@ -9306,7 +10593,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="7:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="G59" s="11" t="s">
+      <c r="G59" s="12" t="s">
         <v>249</v>
       </c>
     </row>
@@ -9314,7 +10601,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="7:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="G61" s="11" t="s">
+      <c r="G61" s="12" t="s">
         <v>250</v>
       </c>
     </row>
@@ -9322,7 +10609,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G63" s="11" t="s">
+      <c r="G63" s="12" t="s">
         <v>251</v>
       </c>
     </row>
@@ -9330,7 +10617,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="7:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="G65" s="11" t="s">
+      <c r="G65" s="12" t="s">
         <v>252</v>
       </c>
     </row>
@@ -9338,7 +10625,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="7:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="G67" s="11" t="s">
+      <c r="G67" s="12" t="s">
         <v>253</v>
       </c>
     </row>
@@ -9346,7 +10633,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G69" s="11" t="s">
+      <c r="G69" s="12" t="s">
         <v>254</v>
       </c>
     </row>
@@ -9354,7 +10641,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="7:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="G71" s="9" t="s">
+      <c r="G71" s="10" t="s">
         <v>255</v>
       </c>
     </row>
@@ -9362,7 +10649,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="7:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="G73" s="9" t="s">
+      <c r="G73" s="10" t="s">
         <v>256</v>
       </c>
     </row>
@@ -9370,7 +10657,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="7:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="G75" s="9" t="s">
+      <c r="G75" s="10" t="s">
         <v>257</v>
       </c>
     </row>
@@ -9378,7 +10665,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="7:7" ht="80" x14ac:dyDescent="0.2">
-      <c r="G77" s="9" t="s">
+      <c r="G77" s="10" t="s">
         <v>258</v>
       </c>
     </row>
@@ -9389,12 +10676,410 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="54.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C1" s="1" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>939</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="75" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C75">
+        <f>SUM(C3:C74)</f>
+        <v>5</v>
+      </c>
+      <c r="D75">
+        <f>SUM(D3:D74)</f>
+        <v>11</v>
+      </c>
+      <c r="E75">
+        <f>SUM(E3:E74)</f>
+        <v>6</v>
+      </c>
+      <c r="F75">
+        <f>SUM(F3:F74)</f>
+        <v>6</v>
+      </c>
+      <c r="G75">
+        <f>SUM(G3:G74)</f>
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <f>SUM(H3:H74)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -9547,7 +11232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
@@ -9685,7 +11370,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="16" t="s">
         <v>505</v>
       </c>
     </row>
@@ -9943,15 +11628,361 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="42.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C1" s="1" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>939</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C56">
+        <f>SUM(C3:C55)</f>
+        <v>7</v>
+      </c>
+      <c r="D56">
+        <f>SUM(D3:D55)</f>
+        <v>6</v>
+      </c>
+      <c r="E56">
+        <f>SUM(E3:E55)</f>
+        <v>6</v>
+      </c>
+      <c r="F56">
+        <f>SUM(F3:F55)</f>
+        <v>9</v>
+      </c>
+      <c r="G56">
+        <f>SUM(G3:G55)</f>
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <f>SUM(H3:H55)</f>
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <f>SUM(I3:I55)</f>
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <f>SUM(J3:J55)</f>
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <f>SUM(K3:K55)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9959,8 +11990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView zoomScale="97" zoomScaleNormal="97" zoomScalePageLayoutView="97" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView topLeftCell="A15" zoomScale="97" zoomScaleNormal="97" zoomScalePageLayoutView="97" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10312,7 +12343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="120" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -10385,10 +12416,10 @@
       <c r="A9" t="s">
         <v>134</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>159</v>
       </c>
       <c r="D9" t="s">
@@ -10543,17 +12574,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1048576"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.83203125" customWidth="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1"/>
-    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="1" max="1" width="44.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.33203125" customWidth="1"/>
+    <col min="3" max="3" width="37.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.6640625" customWidth="1"/>
     <col min="5" max="5" width="40.6640625" customWidth="1"/>
   </cols>
@@ -10580,6 +12611,80 @@
         <v>337</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>893</v>
+      </c>
+      <c r="B5" t="s">
+        <v>900</v>
+      </c>
+      <c r="C5" t="s">
+        <v>904</v>
+      </c>
+      <c r="D5" t="s">
+        <v>908</v>
+      </c>
+      <c r="E5" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>894</v>
+      </c>
+      <c r="B6" t="s">
+        <v>901</v>
+      </c>
+      <c r="C6" t="s">
+        <v>905</v>
+      </c>
+      <c r="D6" t="s">
+        <v>909</v>
+      </c>
+      <c r="E6" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>895</v>
+      </c>
+      <c r="B7" t="s">
+        <v>902</v>
+      </c>
+      <c r="C7" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B8" t="s">
+        <v>903</v>
+      </c>
+      <c r="C8" t="s">
+        <v>907</v>
+      </c>
+      <c r="D8" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>899</v>
+      </c>
+    </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>338</v>
@@ -10595,6 +12700,156 @@
       </c>
       <c r="E19" s="1" t="s">
         <v>342</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>913</v>
+      </c>
+      <c r="B21" t="s">
+        <v>915</v>
+      </c>
+      <c r="C21" t="s">
+        <v>919</v>
+      </c>
+      <c r="D21" t="s">
+        <v>925</v>
+      </c>
+      <c r="E21" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>914</v>
+      </c>
+      <c r="B22" t="s">
+        <v>916</v>
+      </c>
+      <c r="C22" t="s">
+        <v>920</v>
+      </c>
+      <c r="D22" t="s">
+        <v>926</v>
+      </c>
+      <c r="E22" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>917</v>
+      </c>
+      <c r="C23" t="s">
+        <v>921</v>
+      </c>
+      <c r="D23" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>918</v>
+      </c>
+      <c r="C24" t="s">
+        <v>922</v>
+      </c>
+      <c r="E24" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>928</v>
+      </c>
+      <c r="E25" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>924</v>
+      </c>
+      <c r="E27" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>885</v>
+      </c>
+      <c r="B35" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>880</v>
+      </c>
+      <c r="B36" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>881</v>
+      </c>
+      <c r="B37" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>884</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>882</v>
+      </c>
+      <c r="B40" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>892</v>
       </c>
     </row>
   </sheetData>
@@ -10607,7 +12862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView zoomScale="101" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="101" workbookViewId="0">
       <selection activeCell="D47" sqref="D47:E174"/>
     </sheetView>
   </sheetViews>
@@ -10912,8 +13167,8 @@
       <c r="B43" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D44" s="2"/>
@@ -10923,8 +13178,8 @@
       <c r="B45" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="11"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="12"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D46" s="2"/>
@@ -10934,30 +13189,30 @@
       <c r="B47" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="11"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="12"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D48" s="2"/>
-      <c r="E48" s="11"/>
+      <c r="E48" s="12"/>
     </row>
     <row r="49" spans="2:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="D49" s="9"/>
+      <c r="D49" s="10"/>
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D50" s="9"/>
-      <c r="E50" s="11"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="12"/>
     </row>
     <row r="51" spans="2:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="11"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="12"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E52" s="2"/>
@@ -10966,7 +13221,7 @@
       <c r="B53" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="E53" s="11"/>
+      <c r="E53" s="12"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E54" s="2"/>
@@ -10975,10 +13230,10 @@
       <c r="B55" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="E55" s="11"/>
+      <c r="E55" s="12"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E56" s="11"/>
+      <c r="E56" s="12"/>
     </row>
     <row r="57" spans="2:5" ht="80" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
@@ -10987,7 +13242,7 @@
       <c r="E57" s="2"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E58" s="11"/>
+      <c r="E58" s="12"/>
     </row>
     <row r="59" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
@@ -10996,7 +13251,7 @@
       <c r="E59" s="2"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E60" s="11"/>
+      <c r="E60" s="12"/>
     </row>
     <row r="61" spans="2:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
@@ -11005,7 +13260,7 @@
       <c r="E61" s="2"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E62" s="11"/>
+      <c r="E62" s="12"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
@@ -11014,7 +13269,7 @@
       <c r="E63" s="2"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E64" s="11"/>
+      <c r="E64" s="12"/>
     </row>
     <row r="65" spans="2:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
@@ -11023,7 +13278,7 @@
       <c r="E65" s="2"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E66" s="11"/>
+      <c r="E66" s="12"/>
     </row>
     <row r="67" spans="2:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
@@ -11032,7 +13287,7 @@
       <c r="E67" s="2"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E68" s="11"/>
+      <c r="E68" s="12"/>
     </row>
     <row r="69" spans="2:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
@@ -11041,7 +13296,7 @@
       <c r="E69" s="2"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E70" s="11"/>
+      <c r="E70" s="12"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
@@ -11050,7 +13305,7 @@
       <c r="E71" s="2"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E72" s="11"/>
+      <c r="E72" s="12"/>
     </row>
     <row r="73" spans="2:5" ht="80" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
@@ -11059,7 +13314,7 @@
       <c r="E73" s="2"/>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E74" s="11"/>
+      <c r="E74" s="12"/>
     </row>
     <row r="75" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B75" s="2" t="s">
@@ -11068,7 +13323,7 @@
       <c r="E75" s="2"/>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E76" s="9"/>
+      <c r="E76" s="10"/>
     </row>
     <row r="77" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
@@ -11077,13 +13332,13 @@
       <c r="E77" s="2"/>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E78" s="11"/>
+      <c r="E78" s="12"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="E79" s="11"/>
+      <c r="E79" s="12"/>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E80" s="2"/>
@@ -11092,13 +13347,13 @@
       <c r="B81" t="s">
         <v>655</v>
       </c>
-      <c r="E81" s="11"/>
+      <c r="E81" s="12"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E82" s="2"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E83" s="11"/>
+      <c r="E83" s="12"/>
     </row>
     <row r="84" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
@@ -11110,7 +13365,7 @@
       <c r="E84" s="2"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E85" s="11"/>
+      <c r="E85" s="12"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
@@ -11122,7 +13377,7 @@
       <c r="B87" t="s">
         <v>716</v>
       </c>
-      <c r="E87" s="11"/>
+      <c r="E87" s="12"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
@@ -11131,7 +13386,7 @@
       <c r="E88" s="2"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E89" s="11"/>
+      <c r="E89" s="12"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
@@ -11143,7 +13398,7 @@
       <c r="B91" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="E91" s="11"/>
+      <c r="E91" s="12"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E92" s="2"/>
@@ -11152,7 +13407,7 @@
       <c r="B93" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="E93" s="11"/>
+      <c r="E93" s="12"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E94" s="2"/>
@@ -11161,10 +13416,10 @@
       <c r="B95" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="E95" s="11"/>
+      <c r="E95" s="12"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E96" s="11"/>
+      <c r="E96" s="12"/>
     </row>
     <row r="97" spans="2:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B97" s="2" t="s">
@@ -11173,7 +13428,7 @@
       <c r="E97" s="2"/>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E98" s="11"/>
+      <c r="E98" s="12"/>
     </row>
     <row r="99" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B99" s="2" t="s">
@@ -11182,7 +13437,7 @@
       <c r="E99" s="2"/>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E100" s="11"/>
+      <c r="E100" s="12"/>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B101" s="1" t="s">
@@ -11191,7 +13446,7 @@
       <c r="E101" s="2"/>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E102" s="14"/>
+      <c r="E102" s="15"/>
     </row>
     <row r="103" spans="2:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B103" s="2" t="s">
@@ -11200,7 +13455,7 @@
       <c r="E103" s="2"/>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E104" s="9"/>
+      <c r="E104" s="10"/>
     </row>
     <row r="105" spans="2:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B105" s="2" t="s">
@@ -11209,7 +13464,7 @@
       <c r="E105" s="2"/>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E106" s="12"/>
+      <c r="E106" s="13"/>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B107" s="1" t="s">
@@ -11218,7 +13473,7 @@
       <c r="E107" s="2"/>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E108" s="11"/>
+      <c r="E108" s="12"/>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B109" s="1" t="s">
@@ -11227,7 +13482,7 @@
       <c r="E109" s="2"/>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E110" s="11"/>
+      <c r="E110" s="12"/>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B111" s="2" t="s">
@@ -11236,7 +13491,7 @@
       <c r="E111" s="2"/>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E112" s="11"/>
+      <c r="E112" s="12"/>
     </row>
     <row r="113" spans="2:5" ht="80" x14ac:dyDescent="0.2">
       <c r="B113" s="2" t="s">
@@ -11245,7 +13500,7 @@
       <c r="E113" s="2"/>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E114" s="11"/>
+      <c r="E114" s="12"/>
     </row>
     <row r="115" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B115" s="2" t="s">
@@ -11254,13 +13509,13 @@
       <c r="E115" s="2"/>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E116" s="11"/>
+      <c r="E116" s="12"/>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B117" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="E117" s="11"/>
+      <c r="E117" s="12"/>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E118" s="2"/>
@@ -11269,10 +13524,10 @@
       <c r="B119" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="E119" s="11"/>
+      <c r="E119" s="12"/>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E120" s="11"/>
+      <c r="E120" s="12"/>
     </row>
     <row r="121" spans="2:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B121" s="2" t="s">
@@ -11281,70 +13536,70 @@
       <c r="E121" s="2"/>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E122" s="11"/>
+      <c r="E122" s="12"/>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E123" s="2"/>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E124" s="11"/>
+      <c r="E124" s="12"/>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E125" s="11"/>
+      <c r="E125" s="12"/>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E126" s="2"/>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E127" s="11"/>
+      <c r="E127" s="12"/>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E128" s="2"/>
     </row>
     <row r="129" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E129" s="11"/>
+      <c r="E129" s="12"/>
     </row>
     <row r="130" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E130" s="2"/>
     </row>
     <row r="131" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E131" s="11"/>
+      <c r="E131" s="12"/>
     </row>
     <row r="132" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E132" s="2"/>
     </row>
     <row r="133" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E133" s="9"/>
+      <c r="E133" s="10"/>
     </row>
     <row r="134" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E134" s="2"/>
     </row>
     <row r="135" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E135" s="9"/>
+      <c r="E135" s="10"/>
     </row>
     <row r="136" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E136" s="2"/>
     </row>
     <row r="137" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E137" s="9"/>
+      <c r="E137" s="10"/>
     </row>
     <row r="138" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E138" s="2"/>
     </row>
     <row r="139" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E139" s="9"/>
+      <c r="E139" s="10"/>
     </row>
     <row r="140" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E140" s="2"/>
     </row>
     <row r="141" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E141" s="9"/>
+      <c r="E141" s="10"/>
     </row>
     <row r="142" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E142" s="2"/>
     </row>
     <row r="143" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E143" s="9"/>
+      <c r="E143" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11356,7 +13611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="101" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="101" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -11989,10 +14244,10 @@
       <c r="A66" s="2" t="s">
         <v>840</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C66" s="17" t="s">
         <v>848</v>
       </c>
-      <c r="D66" s="16" t="s">
+      <c r="D66" s="17" t="s">
         <v>847</v>
       </c>
     </row>
